--- a/Finanzas/3_Sept-Dic_2018.xlsx
+++ b/Finanzas/3_Sept-Dic_2018.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="209">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -615,12 +615,6 @@
     <t>Ale concierto, Prestamo Pozole; Capuchino</t>
   </si>
   <si>
-    <t>Pan; Desayuno; Sopa</t>
-  </si>
-  <si>
-    <t>Hospedaje; Tour; Michelada; Nopales; Gorditas; Michelada; Desayuno Pau</t>
-  </si>
-  <si>
     <t>16 sep - Paulina L</t>
   </si>
   <si>
@@ -634,6 +628,30 @@
   </si>
   <si>
     <t>Capuchino; Taxi 1; Pastel; Taxi 2</t>
+  </si>
+  <si>
+    <t>Retiro para semana</t>
+  </si>
+  <si>
+    <t>Angeles - Pago 2</t>
+  </si>
+  <si>
+    <t>Pago 2</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Hospedaje; Tour; Michelada; Nopales; Gorditas-Michelada; Desayuno Pau; Desayuno yo</t>
+  </si>
+  <si>
+    <t>Pan; Desayuno; Sopa; Chichid'ho</t>
+  </si>
+  <si>
+    <t>Dinero Jaime depósito; Capuchino</t>
+  </si>
+  <si>
+    <t>Tacos esquina</t>
   </si>
 </sst>
 </file>
@@ -858,7 +876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1084,8 +1102,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1780,23 +1804,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2833,6 +2883,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="37" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2914,133 +3081,52 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="39" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="37" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3339,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL963"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,35 +3483,35 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="377" t="s">
+      <c r="AG1" s="416" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="377"/>
-      <c r="AI1" s="377"/>
-      <c r="AJ1" s="377"/>
-      <c r="AK1" s="377"/>
-      <c r="AL1" s="377"/>
-      <c r="AM1" s="377"/>
-      <c r="AN1" s="377"/>
-      <c r="AO1" s="377"/>
-      <c r="AP1" s="377"/>
-      <c r="AQ1" s="377"/>
-      <c r="AR1" s="377"/>
-      <c r="AS1" s="377"/>
-      <c r="AT1" s="377"/>
-      <c r="AU1" s="377"/>
-      <c r="AV1" s="377"/>
-      <c r="AW1" s="377"/>
-      <c r="AX1" s="377"/>
-      <c r="AY1" s="377"/>
-      <c r="AZ1" s="377"/>
-      <c r="BA1" s="377"/>
-      <c r="BB1" s="377"/>
-      <c r="BC1" s="377"/>
-      <c r="BD1" s="377"/>
-      <c r="BE1" s="377"/>
-      <c r="BF1" s="377"/>
-      <c r="BG1" s="377"/>
+      <c r="AH1" s="416"/>
+      <c r="AI1" s="416"/>
+      <c r="AJ1" s="416"/>
+      <c r="AK1" s="416"/>
+      <c r="AL1" s="416"/>
+      <c r="AM1" s="416"/>
+      <c r="AN1" s="416"/>
+      <c r="AO1" s="416"/>
+      <c r="AP1" s="416"/>
+      <c r="AQ1" s="416"/>
+      <c r="AR1" s="416"/>
+      <c r="AS1" s="416"/>
+      <c r="AT1" s="416"/>
+      <c r="AU1" s="416"/>
+      <c r="AV1" s="416"/>
+      <c r="AW1" s="416"/>
+      <c r="AX1" s="416"/>
+      <c r="AY1" s="416"/>
+      <c r="AZ1" s="416"/>
+      <c r="BA1" s="416"/>
+      <c r="BB1" s="416"/>
+      <c r="BC1" s="416"/>
+      <c r="BD1" s="416"/>
+      <c r="BE1" s="416"/>
+      <c r="BF1" s="416"/>
+      <c r="BG1" s="416"/>
       <c r="BJ1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3443,17 +3529,17 @@
       <c r="F2" s="27"/>
       <c r="G2" s="65"/>
       <c r="H2" s="56"/>
-      <c r="K2" s="381" t="s">
+      <c r="K2" s="420" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="382"/>
-      <c r="M2" s="382"/>
-      <c r="N2" s="382"/>
-      <c r="O2" s="382"/>
-      <c r="P2" s="382"/>
-      <c r="Q2" s="382"/>
-      <c r="R2" s="382"/>
-      <c r="S2" s="383"/>
+      <c r="L2" s="421"/>
+      <c r="M2" s="421"/>
+      <c r="N2" s="421"/>
+      <c r="O2" s="421"/>
+      <c r="P2" s="421"/>
+      <c r="Q2" s="421"/>
+      <c r="R2" s="421"/>
+      <c r="S2" s="422"/>
       <c r="T2" s="71"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="282" t="s">
@@ -3566,7 +3652,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="32">
         <f>N3-C3</f>
-        <v>-379.20000000000073</v>
+        <v>-1179.2000000000007</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="65"/>
@@ -3578,7 +3664,7 @@
       </c>
       <c r="N3" s="11">
         <f>(SUM(C3,(K11:K510)))-(SUM((J11:J509),(I11:I510)))</f>
-        <v>23763.8</v>
+        <v>22963.8</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
@@ -3666,7 +3752,7 @@
       </c>
       <c r="S4" s="15">
         <f>SUM(N3,V9,S7)</f>
-        <v>95745.8</v>
+        <v>95376.8</v>
       </c>
       <c r="T4" s="71"/>
       <c r="AD4" s="242">
@@ -3727,34 +3813,34 @@
     </row>
     <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="366" t="s">
+      <c r="B5" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="368"/>
+      <c r="C5" s="406"/>
+      <c r="D5" s="406"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="407"/>
       <c r="H5" s="56"/>
-      <c r="K5" s="384" t="s">
+      <c r="K5" s="423" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="385"/>
-      <c r="M5" s="385"/>
-      <c r="N5" s="385"/>
-      <c r="O5" s="385"/>
-      <c r="P5" s="385"/>
-      <c r="Q5" s="385"/>
-      <c r="R5" s="385"/>
-      <c r="S5" s="386"/>
-      <c r="T5" s="378" t="s">
+      <c r="L5" s="424"/>
+      <c r="M5" s="424"/>
+      <c r="N5" s="424"/>
+      <c r="O5" s="424"/>
+      <c r="P5" s="424"/>
+      <c r="Q5" s="424"/>
+      <c r="R5" s="424"/>
+      <c r="S5" s="425"/>
+      <c r="T5" s="417" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="379"/>
-      <c r="V5" s="387" t="s">
+      <c r="U5" s="418"/>
+      <c r="V5" s="426" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="388"/>
+      <c r="W5" s="427"/>
       <c r="AD5" s="242">
         <v>43346</v>
       </c>
@@ -3820,14 +3906,14 @@
     </row>
     <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="369" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="370"/>
-      <c r="D6" s="370"/>
-      <c r="E6" s="370"/>
-      <c r="F6" s="370"/>
-      <c r="G6" s="371"/>
+      <c r="B6" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="409"/>
+      <c r="D6" s="409"/>
+      <c r="E6" s="409"/>
+      <c r="F6" s="409"/>
+      <c r="G6" s="410"/>
       <c r="H6" s="56"/>
       <c r="K6" s="67"/>
       <c r="L6" s="16"/>
@@ -3836,7 +3922,7 @@
       </c>
       <c r="N6" s="17">
         <f>(SUM((AA11:AA299),(AG3:AG500),(I11:I510)))-(SUM((AB11:AB499)))</f>
-        <v>202</v>
+        <v>633</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
@@ -3927,7 +4013,7 @@
       </c>
       <c r="S7" s="21">
         <f>SUM(U7,N6)</f>
-        <v>202</v>
+        <v>633</v>
       </c>
       <c r="T7" s="107"/>
       <c r="U7" s="108">
@@ -4051,47 +4137,47 @@
       <c r="BG8" s="291"/>
     </row>
     <row r="9" spans="1:64" s="177" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="411" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="373"/>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="412"/>
+      <c r="D9" s="412"/>
       <c r="E9" s="168">
         <f>SUM(E10:E494)</f>
         <v>12356</v>
       </c>
-      <c r="G9" s="374" t="s">
+      <c r="G9" s="413" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="375"/>
-      <c r="I9" s="375"/>
-      <c r="J9" s="375"/>
-      <c r="K9" s="376"/>
-      <c r="M9" s="389" t="s">
+      <c r="H9" s="414"/>
+      <c r="I9" s="414"/>
+      <c r="J9" s="414"/>
+      <c r="K9" s="415"/>
+      <c r="M9" s="428" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="390"/>
-      <c r="O9" s="390"/>
-      <c r="P9" s="390"/>
-      <c r="Q9" s="390"/>
-      <c r="R9" s="390"/>
-      <c r="S9" s="390"/>
-      <c r="T9" s="391" t="s">
+      <c r="N9" s="429"/>
+      <c r="O9" s="429"/>
+      <c r="P9" s="429"/>
+      <c r="Q9" s="429"/>
+      <c r="R9" s="429"/>
+      <c r="S9" s="429"/>
+      <c r="T9" s="430" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="392"/>
+      <c r="U9" s="431"/>
       <c r="V9" s="110">
         <f>SUM(V11:V494)</f>
         <v>71780</v>
       </c>
-      <c r="X9" s="378" t="s">
+      <c r="X9" s="417" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="379"/>
-      <c r="Z9" s="379"/>
-      <c r="AA9" s="379"/>
-      <c r="AB9" s="380"/>
+      <c r="Y9" s="418"/>
+      <c r="Z9" s="418"/>
+      <c r="AA9" s="418"/>
+      <c r="AB9" s="419"/>
       <c r="AD9" s="242">
         <v>43350</v>
       </c>
@@ -4275,33 +4361,33 @@
       <c r="BG10" s="291"/>
     </row>
     <row r="11" spans="1:64" s="177" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="408" t="s">
+      <c r="A11" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="409" t="s">
+      <c r="B11" s="378" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="410">
+      <c r="C11" s="379">
         <v>1000</v>
       </c>
-      <c r="D11" s="416">
+      <c r="D11" s="385">
         <v>500</v>
       </c>
-      <c r="E11" s="410">
+      <c r="E11" s="379">
         <f t="shared" ref="E11:E18" si="2">C11-D11</f>
         <v>500</v>
       </c>
-      <c r="G11" s="419">
+      <c r="G11" s="388">
         <v>43344</v>
       </c>
-      <c r="H11" s="420" t="s">
+      <c r="H11" s="389" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="421">
+      <c r="I11" s="390">
         <v>1500</v>
       </c>
-      <c r="J11" s="421"/>
-      <c r="K11" s="422"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="391"/>
       <c r="M11" s="100" t="s">
         <v>15</v>
       </c>
@@ -4407,14 +4493,14 @@
       <c r="C12" s="53">
         <v>560</v>
       </c>
-      <c r="D12" s="417">
+      <c r="D12" s="386">
         <v>400</v>
       </c>
       <c r="E12" s="53">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="G12" s="423">
+      <c r="G12" s="392">
         <v>43344</v>
       </c>
       <c r="H12" s="365" t="s">
@@ -4424,7 +4510,7 @@
       <c r="J12" s="238">
         <v>400</v>
       </c>
-      <c r="K12" s="424"/>
+      <c r="K12" s="393"/>
       <c r="M12" s="89" t="s">
         <v>20</v>
       </c>
@@ -4450,10 +4536,10 @@
       <c r="X12" s="172">
         <v>43356</v>
       </c>
-      <c r="Y12" s="394" t="s">
+      <c r="Y12" s="403" t="s">
         <v>185</v>
       </c>
-      <c r="Z12" s="395"/>
+      <c r="Z12" s="404"/>
       <c r="AA12" s="183">
         <v>11052</v>
       </c>
@@ -4515,12 +4601,12 @@
       <c r="C13" s="53">
         <v>8000</v>
       </c>
-      <c r="D13" s="418"/>
+      <c r="D13" s="387"/>
       <c r="E13" s="53">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="G13" s="423">
+      <c r="G13" s="392">
         <v>43347</v>
       </c>
       <c r="H13" s="365" t="s">
@@ -4530,7 +4616,7 @@
       <c r="J13" s="238">
         <v>200</v>
       </c>
-      <c r="K13" s="424"/>
+      <c r="K13" s="393"/>
       <c r="M13" s="91">
         <v>43005</v>
       </c>
@@ -4622,20 +4708,22 @@
       <c r="C14" s="53">
         <v>1300</v>
       </c>
-      <c r="D14" s="414"/>
+      <c r="D14" s="383"/>
       <c r="E14" s="53">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="G14" s="423">
+      <c r="G14" s="392">
         <v>43349</v>
       </c>
-      <c r="H14" s="365"/>
+      <c r="H14" s="365" t="s">
+        <v>170</v>
+      </c>
       <c r="I14" s="238"/>
       <c r="J14" s="238">
         <v>30</v>
       </c>
-      <c r="K14" s="424"/>
+      <c r="K14" s="393"/>
       <c r="M14" s="91">
         <v>43417</v>
       </c>
@@ -4658,11 +4746,21 @@
         <v>5300</v>
       </c>
       <c r="W14" s="211"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="179"/>
-      <c r="Z14" s="175"/>
-      <c r="AA14" s="181"/>
-      <c r="AB14" s="182"/>
+      <c r="X14" s="172">
+        <v>43361</v>
+      </c>
+      <c r="Y14" s="179" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z14" s="175" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA14" s="181">
+        <v>200</v>
+      </c>
+      <c r="AB14" s="182">
+        <v>200</v>
+      </c>
       <c r="AD14" s="242">
         <v>43355</v>
       </c>
@@ -4724,12 +4822,12 @@
       <c r="C15" s="53">
         <v>2000</v>
       </c>
-      <c r="D15" s="414"/>
+      <c r="D15" s="383"/>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="423">
+      <c r="G15" s="392">
         <v>43349</v>
       </c>
       <c r="H15" s="365" t="s">
@@ -4739,7 +4837,7 @@
         <v>3500</v>
       </c>
       <c r="J15" s="238"/>
-      <c r="K15" s="424"/>
+      <c r="K15" s="393"/>
       <c r="M15" s="91">
         <v>43117</v>
       </c>
@@ -4790,7 +4888,7 @@
       </c>
       <c r="AM15" s="275"/>
       <c r="AN15" s="316" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AO15" s="234">
         <v>30</v>
@@ -4821,21 +4919,21 @@
       <c r="BG15" s="291"/>
     </row>
     <row r="16" spans="1:64" s="177" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="411" t="s">
+      <c r="A16" s="380" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="412" t="s">
+      <c r="B16" s="381" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="413">
+      <c r="C16" s="382">
         <v>96</v>
       </c>
-      <c r="D16" s="415"/>
-      <c r="E16" s="413">
+      <c r="D16" s="384"/>
+      <c r="E16" s="382">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="G16" s="423">
+      <c r="G16" s="392">
         <v>43351</v>
       </c>
       <c r="H16" s="365" t="s">
@@ -4845,7 +4943,7 @@
       <c r="J16" s="238">
         <v>692</v>
       </c>
-      <c r="K16" s="424"/>
+      <c r="K16" s="393"/>
       <c r="M16" s="91">
         <v>43236</v>
       </c>
@@ -4920,20 +5018,20 @@
     </row>
     <row r="17" spans="1:64" s="177" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" s="53">
         <v>150</v>
       </c>
-      <c r="D17" s="414"/>
+      <c r="D17" s="383"/>
       <c r="E17" s="53">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G17" s="423">
+      <c r="G17" s="392">
         <v>43351</v>
       </c>
       <c r="H17" s="365" t="s">
@@ -4943,7 +5041,7 @@
       <c r="J17" s="238">
         <v>40.67</v>
       </c>
-      <c r="K17" s="424"/>
+      <c r="K17" s="393"/>
       <c r="M17" s="91">
         <v>43253</v>
       </c>
@@ -4980,19 +5078,21 @@
       <c r="AF17" s="249"/>
       <c r="AG17" s="252">
         <f t="shared" si="0"/>
-        <v>-740</v>
+        <v>-810</v>
       </c>
       <c r="AH17" s="255"/>
       <c r="AI17" s="257"/>
       <c r="AJ17" s="268"/>
       <c r="AK17" s="271">
         <f t="shared" si="1"/>
-        <v>740</v>
-      </c>
-      <c r="AL17" s="274"/>
+        <v>810</v>
+      </c>
+      <c r="AL17" s="274" t="s">
+        <v>204</v>
+      </c>
       <c r="AM17" s="275"/>
       <c r="AN17" s="317" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AO17" s="234">
         <v>300</v>
@@ -5004,15 +5104,17 @@
         <v>65</v>
       </c>
       <c r="AR17" s="234">
+        <v>75</v>
+      </c>
+      <c r="AS17" s="234">
         <v>65</v>
       </c>
-      <c r="AS17" s="234">
+      <c r="AT17" s="234">
         <v>60</v>
       </c>
-      <c r="AT17" s="234">
-        <v>80</v>
-      </c>
-      <c r="AU17" s="234"/>
+      <c r="AU17" s="234">
+        <v>75</v>
+      </c>
       <c r="AV17" s="236"/>
       <c r="AW17" s="234"/>
       <c r="AX17" s="245"/>
@@ -5027,21 +5129,21 @@
       <c r="BG17" s="291"/>
     </row>
     <row r="18" spans="1:64" s="177" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="411" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="411" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="413">
+      <c r="A18" s="380" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="380" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="382">
         <v>150</v>
       </c>
-      <c r="D18" s="415"/>
-      <c r="E18" s="413">
+      <c r="D18" s="384"/>
+      <c r="E18" s="382">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="G18" s="423">
+      <c r="G18" s="392">
         <v>43351</v>
       </c>
       <c r="H18" s="365" t="s">
@@ -5051,7 +5153,7 @@
       <c r="J18" s="238">
         <v>1948</v>
       </c>
-      <c r="K18" s="424"/>
+      <c r="K18" s="393"/>
       <c r="M18" s="91">
         <v>43269</v>
       </c>
@@ -5088,19 +5190,21 @@
       <c r="AF18" s="250"/>
       <c r="AG18" s="252">
         <f t="shared" si="0"/>
-        <v>-115</v>
+        <v>-175</v>
       </c>
       <c r="AH18" s="255"/>
       <c r="AI18" s="256"/>
       <c r="AJ18" s="268"/>
       <c r="AK18" s="271">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="AL18" s="274"/>
+        <v>175</v>
+      </c>
+      <c r="AL18" s="274" t="s">
+        <v>204</v>
+      </c>
       <c r="AM18" s="275"/>
       <c r="AN18" s="317" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AO18" s="237">
         <v>20</v>
@@ -5111,7 +5215,9 @@
       <c r="AQ18" s="234">
         <v>50</v>
       </c>
-      <c r="AR18" s="234"/>
+      <c r="AR18" s="234">
+        <v>60</v>
+      </c>
       <c r="AS18" s="234"/>
       <c r="AT18" s="234"/>
       <c r="AU18" s="234"/>
@@ -5132,18 +5238,18 @@
     <row r="19" spans="1:64" s="177" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
-      <c r="E19" s="413"/>
-      <c r="G19" s="425">
+      <c r="E19" s="382"/>
+      <c r="G19" s="394">
         <v>43355</v>
       </c>
-      <c r="H19" s="393" t="s">
+      <c r="H19" s="366" t="s">
         <v>190</v>
       </c>
       <c r="I19" s="239">
         <v>2000</v>
       </c>
       <c r="J19" s="239"/>
-      <c r="K19" s="426"/>
+      <c r="K19" s="395"/>
       <c r="M19" s="91">
         <v>43274</v>
       </c>
@@ -5180,20 +5286,30 @@
       <c r="AF19" s="249"/>
       <c r="AG19" s="252">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="AH19" s="255"/>
       <c r="AI19" s="256"/>
       <c r="AJ19" s="268"/>
       <c r="AK19" s="271">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="274"/>
-      <c r="AM19" s="275"/>
-      <c r="AN19" s="317"/>
-      <c r="AO19" s="234"/>
-      <c r="AP19" s="234"/>
+        <v>385</v>
+      </c>
+      <c r="AL19" s="274">
+        <v>55</v>
+      </c>
+      <c r="AM19" s="275" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN19" s="317" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO19" s="234">
+        <v>300</v>
+      </c>
+      <c r="AP19" s="234">
+        <v>30</v>
+      </c>
       <c r="AQ19" s="234"/>
       <c r="AR19" s="234"/>
       <c r="AS19" s="234"/>
@@ -5216,17 +5332,17 @@
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
-      <c r="G20" s="427">
+      <c r="G20" s="396">
         <v>43355</v>
       </c>
-      <c r="H20" s="428" t="s">
+      <c r="H20" s="397" t="s">
         <v>184</v>
       </c>
-      <c r="I20" s="429"/>
-      <c r="J20" s="430">
+      <c r="I20" s="398"/>
+      <c r="J20" s="399">
         <v>132</v>
       </c>
-      <c r="K20" s="431"/>
+      <c r="K20" s="400"/>
       <c r="M20" s="96">
         <v>43280</v>
       </c>
@@ -5263,19 +5379,27 @@
       <c r="AF20" s="249"/>
       <c r="AG20" s="252">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="AH20" s="255"/>
       <c r="AI20" s="256"/>
       <c r="AJ20" s="268"/>
       <c r="AK20" s="271">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="274"/>
-      <c r="AM20" s="275"/>
-      <c r="AN20" s="317"/>
-      <c r="AO20" s="234"/>
+        <v>54</v>
+      </c>
+      <c r="AL20" s="274">
+        <v>24</v>
+      </c>
+      <c r="AM20" s="275" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN20" s="317" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO20" s="234">
+        <v>30</v>
+      </c>
       <c r="AP20" s="234"/>
       <c r="AQ20" s="234"/>
       <c r="AR20" s="234"/>
@@ -5299,15 +5423,15 @@
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
-      <c r="G21" s="398">
+      <c r="G21" s="367">
         <v>43356</v>
       </c>
-      <c r="H21" s="399" t="s">
+      <c r="H21" s="368" t="s">
         <v>185</v>
       </c>
-      <c r="I21" s="400"/>
-      <c r="J21" s="400"/>
-      <c r="K21" s="401">
+      <c r="I21" s="369"/>
+      <c r="J21" s="369"/>
+      <c r="K21" s="370">
         <v>11052</v>
       </c>
       <c r="M21" s="91">
@@ -5382,17 +5506,17 @@
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
-      <c r="G22" s="432">
+      <c r="G22" s="401">
         <v>43356</v>
       </c>
-      <c r="H22" s="402" t="s">
+      <c r="H22" s="371" t="s">
         <v>170</v>
       </c>
-      <c r="I22" s="403"/>
-      <c r="J22" s="403">
+      <c r="I22" s="372"/>
+      <c r="J22" s="372">
         <v>30</v>
       </c>
-      <c r="K22" s="433"/>
+      <c r="K22" s="402"/>
       <c r="M22" s="91">
         <v>43306</v>
       </c>
@@ -5465,15 +5589,15 @@
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
-      <c r="G23" s="404">
+      <c r="G23" s="373">
         <v>43357</v>
       </c>
-      <c r="H23" s="405" t="s">
+      <c r="H23" s="374" t="s">
         <v>189</v>
       </c>
-      <c r="I23" s="406"/>
-      <c r="J23" s="406"/>
-      <c r="K23" s="407">
+      <c r="I23" s="375"/>
+      <c r="J23" s="375"/>
+      <c r="K23" s="376">
         <v>800</v>
       </c>
       <c r="M23" s="91">
@@ -5549,17 +5673,17 @@
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
-      <c r="G24" s="434">
+      <c r="G24" s="436">
         <v>43357</v>
       </c>
-      <c r="H24" s="396" t="s">
+      <c r="H24" s="437" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="397">
+      <c r="I24" s="438">
         <v>1500</v>
       </c>
-      <c r="J24" s="397"/>
-      <c r="K24" s="435"/>
+      <c r="J24" s="438"/>
+      <c r="K24" s="439"/>
       <c r="M24" s="91">
         <v>43331</v>
       </c>
@@ -5632,17 +5756,17 @@
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
-      <c r="G25" s="425">
+      <c r="G25" s="394">
         <v>43358</v>
       </c>
-      <c r="H25" s="393" t="s">
+      <c r="H25" s="366" t="s">
         <v>186</v>
       </c>
       <c r="I25" s="239"/>
       <c r="J25" s="239">
         <v>93.53</v>
       </c>
-      <c r="K25" s="426"/>
+      <c r="K25" s="395"/>
       <c r="M25" s="91">
         <v>43335</v>
       </c>
@@ -5715,17 +5839,17 @@
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
-      <c r="G26" s="427">
+      <c r="G26" s="432">
         <v>43358</v>
       </c>
-      <c r="H26" s="428" t="s">
+      <c r="H26" s="433" t="s">
         <v>187</v>
       </c>
-      <c r="I26" s="430"/>
-      <c r="J26" s="430">
+      <c r="I26" s="434"/>
+      <c r="J26" s="434">
         <v>165</v>
       </c>
-      <c r="K26" s="431"/>
+      <c r="K26" s="435"/>
       <c r="M26" s="78">
         <v>43349</v>
       </c>
@@ -5798,11 +5922,17 @@
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
-      <c r="G27" s="322"/>
-      <c r="H27" s="320"/>
-      <c r="I27" s="321"/>
-      <c r="J27" s="321"/>
-      <c r="K27" s="321"/>
+      <c r="G27" s="440">
+        <v>43360</v>
+      </c>
+      <c r="H27" s="441" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="442">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="442"/>
+      <c r="K27" s="443"/>
       <c r="M27" s="78">
         <v>43355</v>
       </c>
@@ -5875,11 +6005,17 @@
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
-      <c r="G28" s="322"/>
-      <c r="H28" s="320"/>
-      <c r="I28" s="321"/>
-      <c r="J28" s="321"/>
-      <c r="K28" s="321"/>
+      <c r="G28" s="444">
+        <v>43361</v>
+      </c>
+      <c r="H28" s="445" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="446"/>
+      <c r="J28" s="446"/>
+      <c r="K28" s="447">
+        <v>200</v>
+      </c>
       <c r="L28" s="217"/>
       <c r="M28" s="79">
         <v>43344</v>
@@ -38471,11 +38607,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="AG1:BG1"/>
     <mergeCell ref="X9:AB9"/>
     <mergeCell ref="K2:S2"/>
@@ -38484,6 +38615,11 @@
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Finanzas/3_Sept-Dic_2018.xlsx
+++ b/Finanzas/3_Sept-Dic_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="416">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1204,6 +1204,78 @@
   <si>
     <t>Smartfit</t>
   </si>
+  <si>
+    <t>Mamá pagó 6 dic 2018</t>
+  </si>
+  <si>
+    <t>Buffete de Carnes</t>
+  </si>
+  <si>
+    <t>Tacos Chile relleno y Chicharron</t>
+  </si>
+  <si>
+    <t>Café con Sandy</t>
+  </si>
+  <si>
+    <t>Comida con Sandy</t>
+  </si>
+  <si>
+    <t>Tacos de Chile relleno</t>
+  </si>
+  <si>
+    <t>Hamburguesa sencilla esquina</t>
+  </si>
+  <si>
+    <t>Pago restante Daf y Oli</t>
+  </si>
+  <si>
+    <t>Enana</t>
+  </si>
+  <si>
+    <t>Corrigiendo error</t>
+  </si>
+  <si>
+    <t>Para regalos navidad</t>
+  </si>
+  <si>
+    <t>Saqué dinero</t>
+  </si>
+  <si>
+    <t>Café fancy con Niño, Impresiones</t>
+  </si>
+  <si>
+    <t>Café con Jaime</t>
+  </si>
+  <si>
+    <t>Traje comida</t>
+  </si>
+  <si>
+    <t>Hamburguesa arbol</t>
+  </si>
+  <si>
+    <t>Talis - Sin internet</t>
+  </si>
+  <si>
+    <t>ROBO TARJETA</t>
+  </si>
+  <si>
+    <t>MP :C</t>
+  </si>
+  <si>
+    <t>Taxi al doctor; Helado</t>
+  </si>
+  <si>
+    <t>Comida corrida oaxaqueña</t>
+  </si>
+  <si>
+    <t>Taxi 1 y Taxi 2</t>
+  </si>
+  <si>
+    <t>Walmart y Jaime enfermo</t>
+  </si>
+  <si>
+    <t>Rectificación - Comida con Niño!</t>
+  </si>
 </sst>
 </file>
 
@@ -1485,7 +1557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,6 +1792,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2570,7 +2648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="583">
+  <cellXfs count="600">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3499,15 +3577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3792,15 +3861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4160,6 +4220,66 @@
     <xf numFmtId="0" fontId="31" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4193,67 +4313,76 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="38" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="39" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4552,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL963"/>
   <sheetViews>
-    <sheetView topLeftCell="I46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,18 +4706,20 @@
     <col min="21" max="21" width="11.85546875" style="60" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="60"/>
     <col min="24" max="24" width="11.42578125" style="60"/>
-    <col min="25" max="25" width="13.42578125" style="477" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="471" customWidth="1"/>
     <col min="26" max="26" width="13.5703125" style="40" customWidth="1"/>
     <col min="27" max="28" width="11.42578125" style="60"/>
     <col min="31" max="31" width="6.42578125" customWidth="1"/>
     <col min="32" max="32" width="31.7109375" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" customWidth="1"/>
-    <col min="35" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" style="35"/>
-    <col min="38" max="38" width="11.42578125" style="35"/>
-    <col min="39" max="39" width="24.140625" style="159" customWidth="1"/>
-    <col min="40" max="40" width="36.7109375" style="159" customWidth="1"/>
-    <col min="41" max="50" width="11.42578125" style="60"/>
+    <col min="33" max="33" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="0" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="14" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="0" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="24.140625" style="159" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="36.7109375" style="159" hidden="1" customWidth="1"/>
+    <col min="41" max="50" width="0" style="60" hidden="1" customWidth="1"/>
     <col min="51" max="51" width="13.7109375" customWidth="1"/>
     <col min="52" max="55" width="13.140625" customWidth="1"/>
     <col min="56" max="56" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -4611,35 +4742,35 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="564" t="s">
+      <c r="AG1" s="549" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="564"/>
-      <c r="AI1" s="564"/>
-      <c r="AJ1" s="564"/>
-      <c r="AK1" s="564"/>
-      <c r="AL1" s="564"/>
-      <c r="AM1" s="564"/>
-      <c r="AN1" s="564"/>
-      <c r="AO1" s="564"/>
-      <c r="AP1" s="564"/>
-      <c r="AQ1" s="564"/>
-      <c r="AR1" s="564"/>
-      <c r="AS1" s="564"/>
-      <c r="AT1" s="564"/>
-      <c r="AU1" s="564"/>
-      <c r="AV1" s="564"/>
-      <c r="AW1" s="564"/>
-      <c r="AX1" s="564"/>
-      <c r="AY1" s="564"/>
-      <c r="AZ1" s="564"/>
-      <c r="BA1" s="564"/>
-      <c r="BB1" s="564"/>
-      <c r="BC1" s="564"/>
-      <c r="BD1" s="564"/>
-      <c r="BE1" s="564"/>
-      <c r="BF1" s="564"/>
-      <c r="BG1" s="564"/>
+      <c r="AH1" s="549"/>
+      <c r="AI1" s="549"/>
+      <c r="AJ1" s="549"/>
+      <c r="AK1" s="549"/>
+      <c r="AL1" s="549"/>
+      <c r="AM1" s="549"/>
+      <c r="AN1" s="549"/>
+      <c r="AO1" s="549"/>
+      <c r="AP1" s="549"/>
+      <c r="AQ1" s="549"/>
+      <c r="AR1" s="549"/>
+      <c r="AS1" s="549"/>
+      <c r="AT1" s="549"/>
+      <c r="AU1" s="549"/>
+      <c r="AV1" s="549"/>
+      <c r="AW1" s="549"/>
+      <c r="AX1" s="549"/>
+      <c r="AY1" s="549"/>
+      <c r="AZ1" s="549"/>
+      <c r="BA1" s="549"/>
+      <c r="BB1" s="549"/>
+      <c r="BC1" s="549"/>
+      <c r="BD1" s="549"/>
+      <c r="BE1" s="549"/>
+      <c r="BF1" s="549"/>
+      <c r="BG1" s="549"/>
       <c r="BJ1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4657,17 +4788,17 @@
       <c r="F2" s="27"/>
       <c r="G2" s="61"/>
       <c r="H2" s="52"/>
-      <c r="K2" s="568" t="s">
+      <c r="K2" s="553" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="569"/>
-      <c r="M2" s="569"/>
-      <c r="N2" s="569"/>
-      <c r="O2" s="569"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
-      <c r="R2" s="569"/>
-      <c r="S2" s="570"/>
+      <c r="L2" s="554"/>
+      <c r="M2" s="554"/>
+      <c r="N2" s="554"/>
+      <c r="O2" s="554"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
+      <c r="R2" s="554"/>
+      <c r="S2" s="555"/>
       <c r="T2" s="67"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="263" t="s">
@@ -4780,7 +4911,7 @@
       <c r="D3" s="45"/>
       <c r="E3" s="32">
         <f>N3-C3</f>
-        <v>53303.94</v>
+        <v>54693.94</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="61"/>
@@ -4792,7 +4923,7 @@
       </c>
       <c r="N3" s="11">
         <f>(SUM(C3,(K11:K511)))-(SUM((J11:J510),(I11:I511)))</f>
-        <v>77446.94</v>
+        <v>78836.94</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
@@ -4811,14 +4942,14 @@
       </c>
       <c r="AG3" s="233">
         <f>(SUM(AH3,AI3))-AK3</f>
-        <v>-1658</v>
+        <v>-2260</v>
       </c>
       <c r="AH3" s="234"/>
       <c r="AI3" s="235"/>
       <c r="AJ3" s="248"/>
       <c r="AK3" s="252">
         <f>SUM(AL3,AO3:AY3)</f>
-        <v>1658</v>
+        <v>2260</v>
       </c>
       <c r="AL3" s="253">
         <v>100</v>
@@ -4836,7 +4967,9 @@
         <v>1500</v>
       </c>
       <c r="AQ3" s="225"/>
-      <c r="AR3" s="225"/>
+      <c r="AR3" s="596">
+        <v>600</v>
+      </c>
       <c r="AS3" s="225"/>
       <c r="AT3" s="225"/>
       <c r="AU3" s="225"/>
@@ -4845,10 +4978,10 @@
       <c r="AX3" s="251"/>
       <c r="AY3" s="284">
         <f>SUM(AZ3, BF3, BG3)</f>
-        <v>43</v>
-      </c>
-      <c r="AZ3" s="418">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="AZ3" s="415">
+        <v>45</v>
       </c>
       <c r="BA3" s="326"/>
       <c r="BB3" s="327"/>
@@ -4891,7 +5024,7 @@
       </c>
       <c r="S4" s="15">
         <f>SUM(N3,V9,S7)</f>
-        <v>151301.94</v>
+        <v>160667.94</v>
       </c>
       <c r="T4" s="67"/>
       <c r="AD4" s="224">
@@ -4955,40 +5088,40 @@
       </c>
       <c r="BK4" s="155">
         <f>(SUM((AZ3:AZ519)))-(SUM((BD3:BD519)))</f>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BL4" s="183"/>
     </row>
     <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="565" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="552"/>
-      <c r="D5" s="552"/>
-      <c r="E5" s="552"/>
-      <c r="F5" s="552"/>
-      <c r="G5" s="553"/>
+      <c r="C5" s="566"/>
+      <c r="D5" s="566"/>
+      <c r="E5" s="566"/>
+      <c r="F5" s="566"/>
+      <c r="G5" s="567"/>
       <c r="H5" s="52"/>
-      <c r="K5" s="571" t="s">
+      <c r="K5" s="556" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="572"/>
-      <c r="M5" s="572"/>
-      <c r="N5" s="572"/>
-      <c r="O5" s="572"/>
-      <c r="P5" s="572"/>
-      <c r="Q5" s="572"/>
-      <c r="R5" s="572"/>
-      <c r="S5" s="573"/>
-      <c r="T5" s="565" t="s">
+      <c r="L5" s="557"/>
+      <c r="M5" s="557"/>
+      <c r="N5" s="557"/>
+      <c r="O5" s="557"/>
+      <c r="P5" s="557"/>
+      <c r="Q5" s="557"/>
+      <c r="R5" s="557"/>
+      <c r="S5" s="558"/>
+      <c r="T5" s="550" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="566"/>
-      <c r="V5" s="574" t="s">
+      <c r="U5" s="551"/>
+      <c r="V5" s="559" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="575"/>
+      <c r="W5" s="560"/>
       <c r="AD5" s="224">
         <v>43346</v>
       </c>
@@ -5063,14 +5196,14 @@
     </row>
     <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="555"/>
-      <c r="D6" s="555"/>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="556"/>
+      <c r="B6" s="568" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="569"/>
+      <c r="D6" s="569"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="570"/>
       <c r="H6" s="52"/>
       <c r="K6" s="63"/>
       <c r="L6" s="16"/>
@@ -5079,7 +5212,7 @@
       </c>
       <c r="N6" s="17">
         <f>(SUM((AA11:AA301),(AG3:AG500),(I11:I511)))-(SUM((AB11:AB501)))</f>
-        <v>280</v>
+        <v>2306</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
@@ -5179,12 +5312,12 @@
       </c>
       <c r="S7" s="21">
         <f>SUM(U7,N6)</f>
-        <v>-5970</v>
+        <v>2106</v>
       </c>
       <c r="T7" s="99"/>
       <c r="U7" s="100">
         <f>(SUM(AB11:AB501))-(SUM(K11:K511))</f>
-        <v>-6250</v>
+        <v>-200</v>
       </c>
       <c r="V7" s="101"/>
       <c r="W7" s="34">
@@ -5268,7 +5401,7 @@
         <v>-3003.5</v>
       </c>
       <c r="AH8" s="236"/>
-      <c r="AI8" s="419">
+      <c r="AI8" s="416">
         <v>136.5</v>
       </c>
       <c r="AJ8" s="249"/>
@@ -5323,47 +5456,47 @@
       <c r="BG8" s="272"/>
     </row>
     <row r="9" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="557" t="s">
+      <c r="A9" s="571" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="558"/>
-      <c r="C9" s="558"/>
-      <c r="D9" s="558"/>
+      <c r="B9" s="572"/>
+      <c r="C9" s="572"/>
+      <c r="D9" s="572"/>
       <c r="E9" s="156">
         <f>SUM(E10:E494)</f>
         <v>12188</v>
       </c>
-      <c r="G9" s="559" t="s">
+      <c r="G9" s="573" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="560"/>
-      <c r="I9" s="560"/>
-      <c r="J9" s="560"/>
-      <c r="K9" s="561"/>
-      <c r="M9" s="576" t="s">
+      <c r="H9" s="574"/>
+      <c r="I9" s="574"/>
+      <c r="J9" s="574"/>
+      <c r="K9" s="575"/>
+      <c r="M9" s="561" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="577"/>
-      <c r="O9" s="577"/>
-      <c r="P9" s="577"/>
-      <c r="Q9" s="577"/>
-      <c r="R9" s="577"/>
-      <c r="S9" s="577"/>
-      <c r="T9" s="578" t="s">
+      <c r="N9" s="562"/>
+      <c r="O9" s="562"/>
+      <c r="P9" s="562"/>
+      <c r="Q9" s="562"/>
+      <c r="R9" s="562"/>
+      <c r="S9" s="562"/>
+      <c r="T9" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="579"/>
+      <c r="U9" s="564"/>
       <c r="V9" s="102">
         <f>SUM(V11:V499)</f>
-        <v>79825</v>
-      </c>
-      <c r="X9" s="565" t="s">
+        <v>79725</v>
+      </c>
+      <c r="X9" s="550" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="566"/>
-      <c r="Z9" s="566"/>
-      <c r="AA9" s="566"/>
-      <c r="AB9" s="567"/>
+      <c r="Y9" s="551"/>
+      <c r="Z9" s="551"/>
+      <c r="AA9" s="551"/>
+      <c r="AB9" s="552"/>
       <c r="AD9" s="224">
         <v>43350</v>
       </c>
@@ -5428,34 +5561,34 @@
       <c r="BH9" s="189"/>
     </row>
     <row r="10" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="385" t="s">
+      <c r="A10" s="382" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="386" t="s">
+      <c r="B10" s="383" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="387" t="s">
+      <c r="C10" s="384" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="387" t="s">
+      <c r="D10" s="384" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="387" t="s">
+      <c r="E10" s="384" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="333" t="s">
+      <c r="G10" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="334" t="s">
+      <c r="H10" s="331" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="335" t="s">
+      <c r="I10" s="332" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="336" t="s">
+      <c r="J10" s="333" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="337" t="s">
+      <c r="K10" s="334" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="190" t="s">
@@ -5473,26 +5606,26 @@
       <c r="Q10" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="R10" s="459" t="s">
+      <c r="R10" s="453" t="s">
         <v>134</v>
       </c>
-      <c r="S10" s="460" t="s">
+      <c r="S10" s="454" t="s">
         <v>135</v>
       </c>
-      <c r="T10" s="467" t="s">
+      <c r="T10" s="461" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="468" t="s">
+      <c r="U10" s="462" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="469" t="s">
+      <c r="V10" s="463" t="s">
         <v>30</v>
       </c>
       <c r="W10" s="194"/>
       <c r="X10" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="478" t="s">
+      <c r="Y10" s="472" t="s">
         <v>31</v>
       </c>
       <c r="Z10" s="166" t="s">
@@ -5565,34 +5698,34 @@
       <c r="BG10" s="272"/>
     </row>
     <row r="11" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="391" t="s">
+      <c r="A11" s="388" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="392" t="s">
+      <c r="B11" s="389" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="393">
+      <c r="C11" s="390">
         <v>1000</v>
       </c>
-      <c r="D11" s="393">
+      <c r="D11" s="390">
         <v>500</v>
       </c>
       <c r="E11" s="275">
         <f t="shared" ref="E11:E20" si="5">C11-D11</f>
         <v>500</v>
       </c>
-      <c r="G11" s="350">
+      <c r="G11" s="347">
         <v>43344</v>
       </c>
-      <c r="H11" s="351" t="s">
+      <c r="H11" s="348" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="352">
+      <c r="I11" s="349">
         <v>1500</v>
       </c>
-      <c r="J11" s="352"/>
-      <c r="K11" s="353"/>
-      <c r="M11" s="451" t="s">
+      <c r="J11" s="349"/>
+      <c r="K11" s="350"/>
+      <c r="M11" s="445" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="301" t="s">
@@ -5606,19 +5739,19 @@
         <f>SUM(U11:U30)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="458">
+      <c r="Q11" s="452">
         <f>O11-P11</f>
         <v>65910</v>
       </c>
       <c r="R11" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="464"/>
-      <c r="T11" s="470">
+      <c r="S11" s="458"/>
+      <c r="T11" s="464">
         <v>5000</v>
       </c>
       <c r="U11" s="104"/>
-      <c r="V11" s="471">
+      <c r="V11" s="465">
         <f t="shared" ref="V11:V44" si="6">T11-U11</f>
         <v>5000</v>
       </c>
@@ -5626,7 +5759,7 @@
       <c r="X11" s="160">
         <v>43344</v>
       </c>
-      <c r="Y11" s="479" t="s">
+      <c r="Y11" s="473" t="s">
         <v>152</v>
       </c>
       <c r="Z11" s="163" t="s">
@@ -5697,37 +5830,37 @@
       <c r="BG11" s="272"/>
     </row>
     <row r="12" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="394" t="s">
+      <c r="A12" s="391" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="388" t="s">
+      <c r="B12" s="385" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="215">
         <v>560</v>
       </c>
-      <c r="D12" s="389">
+      <c r="D12" s="386">
         <v>400</v>
       </c>
       <c r="E12" s="226">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="G12" s="354">
+      <c r="G12" s="351">
         <v>43344</v>
       </c>
-      <c r="H12" s="338" t="s">
+      <c r="H12" s="335" t="s">
         <v>146</v>
       </c>
       <c r="I12" s="220"/>
       <c r="J12" s="220">
         <v>400</v>
       </c>
-      <c r="K12" s="355"/>
-      <c r="M12" s="454" t="s">
+      <c r="K12" s="352"/>
+      <c r="M12" s="448" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="455" t="s">
+      <c r="N12" s="449" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="91"/>
@@ -5736,12 +5869,12 @@
       <c r="R12" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="465"/>
-      <c r="T12" s="472">
+      <c r="S12" s="459"/>
+      <c r="T12" s="466">
         <v>3000</v>
       </c>
       <c r="U12" s="110"/>
-      <c r="V12" s="473">
+      <c r="V12" s="467">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
@@ -5749,10 +5882,10 @@
       <c r="X12" s="160">
         <v>43356</v>
       </c>
-      <c r="Y12" s="562" t="s">
+      <c r="Y12" s="547" t="s">
         <v>184</v>
       </c>
-      <c r="Z12" s="563"/>
+      <c r="Z12" s="548"/>
       <c r="AA12" s="170">
         <v>11052</v>
       </c>
@@ -5820,35 +5953,35 @@
       <c r="BG12" s="272"/>
     </row>
     <row r="13" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="395" t="s">
+      <c r="A13" s="392" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="388" t="s">
+      <c r="B13" s="385" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="215">
         <v>8000</v>
       </c>
-      <c r="D13" s="390"/>
+      <c r="D13" s="387"/>
       <c r="E13" s="226">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-      <c r="G13" s="354">
+      <c r="G13" s="351">
         <v>43347</v>
       </c>
-      <c r="H13" s="338" t="s">
+      <c r="H13" s="335" t="s">
         <v>154</v>
       </c>
       <c r="I13" s="220"/>
       <c r="J13" s="220">
         <v>200</v>
       </c>
-      <c r="K13" s="355"/>
+      <c r="K13" s="352"/>
       <c r="M13" s="74">
         <v>43005</v>
       </c>
-      <c r="N13" s="456" t="s">
+      <c r="N13" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="87"/>
@@ -5857,12 +5990,12 @@
       <c r="R13" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="S13" s="465"/>
-      <c r="T13" s="472">
+      <c r="S13" s="459"/>
+      <c r="T13" s="466">
         <v>3200</v>
       </c>
       <c r="U13" s="110"/>
-      <c r="V13" s="473">
+      <c r="V13" s="467">
         <f t="shared" ref="V13:V32" si="7">T13-U13</f>
         <v>3200</v>
       </c>
@@ -5932,7 +6065,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="BE13" s="404"/>
+      <c r="BE13" s="401"/>
       <c r="BF13" s="284">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5940,10 +6073,10 @@
       <c r="BG13" s="272"/>
     </row>
     <row r="14" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="394" t="s">
+      <c r="A14" s="391" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="388" t="s">
+      <c r="B14" s="385" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="215">
@@ -5954,21 +6087,21 @@
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="G14" s="354">
+      <c r="G14" s="351">
         <v>43349</v>
       </c>
-      <c r="H14" s="338" t="s">
+      <c r="H14" s="335" t="s">
         <v>169</v>
       </c>
       <c r="I14" s="220"/>
       <c r="J14" s="220">
         <v>30</v>
       </c>
-      <c r="K14" s="355"/>
+      <c r="K14" s="352"/>
       <c r="M14" s="74">
         <v>43417</v>
       </c>
-      <c r="N14" s="456" t="s">
+      <c r="N14" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O14" s="87"/>
@@ -5977,12 +6110,12 @@
       <c r="R14" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="465"/>
-      <c r="T14" s="472">
+      <c r="S14" s="459"/>
+      <c r="T14" s="466">
         <v>5300</v>
       </c>
       <c r="U14" s="110"/>
-      <c r="V14" s="473">
+      <c r="V14" s="467">
         <f t="shared" si="7"/>
         <v>5300</v>
       </c>
@@ -6065,10 +6198,10 @@
       <c r="BG14" s="272"/>
     </row>
     <row r="15" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="394" t="s">
+      <c r="A15" s="391" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="388" t="s">
+      <c r="B15" s="385" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="215">
@@ -6079,21 +6212,21 @@
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="354">
+      <c r="G15" s="351">
         <v>43349</v>
       </c>
-      <c r="H15" s="338" t="s">
+      <c r="H15" s="335" t="s">
         <v>155</v>
       </c>
       <c r="I15" s="220">
         <v>3500</v>
       </c>
       <c r="J15" s="220"/>
-      <c r="K15" s="355"/>
+      <c r="K15" s="352"/>
       <c r="M15" s="74">
         <v>43117</v>
       </c>
-      <c r="N15" s="456" t="s">
+      <c r="N15" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O15" s="87"/>
@@ -6102,12 +6235,12 @@
       <c r="R15" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="465"/>
-      <c r="T15" s="472">
+      <c r="S15" s="459"/>
+      <c r="T15" s="466">
         <v>6850</v>
       </c>
       <c r="U15" s="110"/>
-      <c r="V15" s="473">
+      <c r="V15" s="467">
         <f t="shared" si="7"/>
         <v>6850</v>
       </c>
@@ -6194,10 +6327,10 @@
       <c r="BG15" s="272"/>
     </row>
     <row r="16" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="394" t="s">
+      <c r="A16" s="391" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="388" t="s">
+      <c r="B16" s="385" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="215">
@@ -6208,21 +6341,21 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="G16" s="354">
+      <c r="G16" s="351">
         <v>43351</v>
       </c>
-      <c r="H16" s="338" t="s">
+      <c r="H16" s="335" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="220"/>
       <c r="J16" s="220">
         <v>692</v>
       </c>
-      <c r="K16" s="355"/>
+      <c r="K16" s="352"/>
       <c r="M16" s="74">
         <v>43236</v>
       </c>
-      <c r="N16" s="456" t="s">
+      <c r="N16" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="87"/>
@@ -6231,12 +6364,12 @@
       <c r="R16" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="465"/>
-      <c r="T16" s="472">
+      <c r="S16" s="459"/>
+      <c r="T16" s="466">
         <v>2100</v>
       </c>
       <c r="U16" s="110"/>
-      <c r="V16" s="473">
+      <c r="V16" s="467">
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
@@ -6244,10 +6377,10 @@
       <c r="X16" s="160">
         <v>43370</v>
       </c>
-      <c r="Y16" s="562" t="s">
+      <c r="Y16" s="547" t="s">
         <v>184</v>
       </c>
-      <c r="Z16" s="563"/>
+      <c r="Z16" s="548"/>
       <c r="AA16" s="168">
         <v>11052</v>
       </c>
@@ -6313,37 +6446,37 @@
       <c r="BG16" s="272"/>
     </row>
     <row r="17" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="409" t="s">
+      <c r="A17" s="406" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="410" t="s">
+      <c r="B17" s="407" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="411">
+      <c r="C17" s="408">
         <v>150</v>
       </c>
-      <c r="D17" s="411">
+      <c r="D17" s="408">
         <v>150</v>
       </c>
-      <c r="E17" s="412">
+      <c r="E17" s="409">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="354">
+      <c r="G17" s="351">
         <v>43351</v>
       </c>
-      <c r="H17" s="338" t="s">
+      <c r="H17" s="335" t="s">
         <v>157</v>
       </c>
       <c r="I17" s="220"/>
       <c r="J17" s="220">
         <v>40.67</v>
       </c>
-      <c r="K17" s="355"/>
+      <c r="K17" s="352"/>
       <c r="M17" s="74">
         <v>43253</v>
       </c>
-      <c r="N17" s="456" t="s">
+      <c r="N17" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O17" s="87"/>
@@ -6352,12 +6485,12 @@
       <c r="R17" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="S17" s="465"/>
-      <c r="T17" s="472">
+      <c r="S17" s="459"/>
+      <c r="T17" s="466">
         <v>2000</v>
       </c>
       <c r="U17" s="110"/>
-      <c r="V17" s="473">
+      <c r="V17" s="467">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -6450,37 +6583,37 @@
       <c r="BG17" s="272"/>
     </row>
     <row r="18" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="409" t="s">
+      <c r="A18" s="406" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="410" t="s">
+      <c r="B18" s="407" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="411">
+      <c r="C18" s="408">
         <v>150</v>
       </c>
-      <c r="D18" s="411">
+      <c r="D18" s="408">
         <v>150</v>
       </c>
-      <c r="E18" s="412">
+      <c r="E18" s="409">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="354">
+      <c r="G18" s="351">
         <v>43351</v>
       </c>
-      <c r="H18" s="338" t="s">
+      <c r="H18" s="335" t="s">
         <v>158</v>
       </c>
       <c r="I18" s="220"/>
       <c r="J18" s="220">
         <v>1948</v>
       </c>
-      <c r="K18" s="355"/>
+      <c r="K18" s="352"/>
       <c r="M18" s="74">
         <v>43269</v>
       </c>
-      <c r="N18" s="456" t="s">
+      <c r="N18" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O18" s="87"/>
@@ -6489,12 +6622,12 @@
       <c r="R18" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="465"/>
-      <c r="T18" s="472">
+      <c r="S18" s="459"/>
+      <c r="T18" s="466">
         <v>2300</v>
       </c>
       <c r="U18" s="110"/>
-      <c r="V18" s="473">
+      <c r="V18" s="467">
         <f t="shared" si="7"/>
         <v>2300</v>
       </c>
@@ -6582,10 +6715,10 @@
       <c r="BL18" s="189"/>
     </row>
     <row r="19" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="394" t="s">
+      <c r="A19" s="391" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="480" t="s">
+      <c r="B19" s="474" t="s">
         <v>221</v>
       </c>
       <c r="C19" s="215">
@@ -6598,21 +6731,21 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G19" s="356">
+      <c r="G19" s="353">
         <v>43355</v>
       </c>
-      <c r="H19" s="339" t="s">
+      <c r="H19" s="336" t="s">
         <v>189</v>
       </c>
       <c r="I19" s="221">
         <v>2000</v>
       </c>
       <c r="J19" s="221"/>
-      <c r="K19" s="357"/>
+      <c r="K19" s="354"/>
       <c r="M19" s="74">
         <v>43274</v>
       </c>
-      <c r="N19" s="456" t="s">
+      <c r="N19" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="87"/>
@@ -6621,12 +6754,12 @@
       <c r="R19" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="S19" s="465"/>
-      <c r="T19" s="472">
+      <c r="S19" s="459"/>
+      <c r="T19" s="466">
         <v>2000</v>
       </c>
       <c r="U19" s="110"/>
-      <c r="V19" s="473">
+      <c r="V19" s="467">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -6634,10 +6767,10 @@
       <c r="X19" s="160">
         <v>43385</v>
       </c>
-      <c r="Y19" s="562" t="s">
+      <c r="Y19" s="547" t="s">
         <v>184</v>
       </c>
-      <c r="Z19" s="563"/>
+      <c r="Z19" s="548"/>
       <c r="AA19" s="168">
         <v>11052</v>
       </c>
@@ -6711,37 +6844,37 @@
       <c r="BG19" s="272"/>
     </row>
     <row r="20" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="396" t="s">
+      <c r="A20" s="393" t="s">
         <v>343</v>
       </c>
-      <c r="B20" s="397" t="s">
+      <c r="B20" s="394" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="398">
+      <c r="C20" s="395">
         <v>780</v>
       </c>
-      <c r="D20" s="398">
+      <c r="D20" s="395">
         <v>650</v>
       </c>
-      <c r="E20" s="399">
+      <c r="E20" s="396">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="G20" s="358">
+      <c r="G20" s="355">
         <v>43355</v>
       </c>
-      <c r="H20" s="359" t="s">
+      <c r="H20" s="356" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="360"/>
-      <c r="J20" s="361">
+      <c r="I20" s="357"/>
+      <c r="J20" s="358">
         <v>132</v>
       </c>
-      <c r="K20" s="362"/>
+      <c r="K20" s="359"/>
       <c r="M20" s="74">
         <v>43280</v>
       </c>
-      <c r="N20" s="456" t="s">
+      <c r="N20" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O20" s="91"/>
@@ -6750,12 +6883,12 @@
       <c r="R20" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="465"/>
-      <c r="T20" s="472">
+      <c r="S20" s="459"/>
+      <c r="T20" s="466">
         <v>4900</v>
       </c>
       <c r="U20" s="110"/>
-      <c r="V20" s="473">
+      <c r="V20" s="467">
         <f t="shared" si="7"/>
         <v>4900</v>
       </c>
@@ -6841,21 +6974,21 @@
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
-      <c r="G21" s="340">
+      <c r="G21" s="337">
         <v>43356</v>
       </c>
-      <c r="H21" s="341" t="s">
+      <c r="H21" s="338" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="342"/>
-      <c r="J21" s="342"/>
-      <c r="K21" s="343">
+      <c r="I21" s="339"/>
+      <c r="J21" s="339"/>
+      <c r="K21" s="340">
         <v>11052</v>
       </c>
       <c r="M21" s="74">
         <v>43299</v>
       </c>
-      <c r="N21" s="456" t="s">
+      <c r="N21" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="87"/>
@@ -6864,12 +6997,12 @@
       <c r="R21" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="465"/>
-      <c r="T21" s="472">
+      <c r="S21" s="459"/>
+      <c r="T21" s="466">
         <v>3500</v>
       </c>
       <c r="U21" s="110"/>
-      <c r="V21" s="473">
+      <c r="V21" s="467">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
@@ -6957,21 +7090,21 @@
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
-      <c r="G22" s="363">
+      <c r="G22" s="360">
         <v>43356</v>
       </c>
-      <c r="H22" s="344" t="s">
+      <c r="H22" s="341" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="345"/>
-      <c r="J22" s="345">
+      <c r="I22" s="342"/>
+      <c r="J22" s="342">
         <v>30</v>
       </c>
-      <c r="K22" s="364"/>
+      <c r="K22" s="361"/>
       <c r="M22" s="74">
         <v>43306</v>
       </c>
-      <c r="N22" s="456" t="s">
+      <c r="N22" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="87"/>
@@ -6980,12 +7113,12 @@
       <c r="R22" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="S22" s="465"/>
-      <c r="T22" s="472">
+      <c r="S22" s="459"/>
+      <c r="T22" s="466">
         <v>1700</v>
       </c>
       <c r="U22" s="110"/>
-      <c r="V22" s="473">
+      <c r="V22" s="467">
         <f t="shared" si="7"/>
         <v>1700</v>
       </c>
@@ -7002,7 +7135,9 @@
       <c r="AA22" s="168">
         <v>200</v>
       </c>
-      <c r="AB22" s="169"/>
+      <c r="AB22" s="169">
+        <v>200</v>
+      </c>
       <c r="AD22" s="224">
         <v>43363</v>
       </c>
@@ -7071,21 +7206,21 @@
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
-      <c r="G23" s="346">
+      <c r="G23" s="343">
         <v>43357</v>
       </c>
-      <c r="H23" s="347" t="s">
+      <c r="H23" s="344" t="s">
         <v>188</v>
       </c>
-      <c r="I23" s="348"/>
-      <c r="J23" s="348"/>
-      <c r="K23" s="349">
+      <c r="I23" s="345"/>
+      <c r="J23" s="345"/>
+      <c r="K23" s="346">
         <v>800</v>
       </c>
       <c r="M23" s="74">
         <v>43312</v>
       </c>
-      <c r="N23" s="456" t="s">
+      <c r="N23" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O23" s="87"/>
@@ -7094,12 +7229,12 @@
       <c r="R23" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="S23" s="465"/>
-      <c r="T23" s="472">
+      <c r="S23" s="459"/>
+      <c r="T23" s="466">
         <v>4500</v>
       </c>
       <c r="U23" s="110"/>
-      <c r="V23" s="473">
+      <c r="V23" s="467">
         <f t="shared" si="7"/>
         <v>4500</v>
       </c>
@@ -7107,10 +7242,10 @@
       <c r="X23" s="160">
         <v>43402</v>
       </c>
-      <c r="Y23" s="562" t="s">
+      <c r="Y23" s="547" t="s">
         <v>184</v>
       </c>
-      <c r="Z23" s="563"/>
+      <c r="Z23" s="548"/>
       <c r="AA23" s="168">
         <v>11052</v>
       </c>
@@ -7180,21 +7315,21 @@
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
-      <c r="G24" s="369">
+      <c r="G24" s="366">
         <v>43357</v>
       </c>
-      <c r="H24" s="370" t="s">
+      <c r="H24" s="367" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="371">
+      <c r="I24" s="368">
         <v>1500</v>
       </c>
-      <c r="J24" s="371"/>
-      <c r="K24" s="372"/>
+      <c r="J24" s="368"/>
+      <c r="K24" s="369"/>
       <c r="M24" s="74">
         <v>43331</v>
       </c>
-      <c r="N24" s="456" t="s">
+      <c r="N24" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="87"/>
@@ -7203,12 +7338,12 @@
       <c r="R24" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="S24" s="465"/>
-      <c r="T24" s="472">
+      <c r="S24" s="459"/>
+      <c r="T24" s="466">
         <v>3900</v>
       </c>
       <c r="U24" s="110"/>
-      <c r="V24" s="473">
+      <c r="V24" s="467">
         <f t="shared" si="7"/>
         <v>3900</v>
       </c>
@@ -7216,10 +7351,10 @@
       <c r="X24" s="160">
         <v>43405</v>
       </c>
-      <c r="Y24" s="562" t="s">
+      <c r="Y24" s="547" t="s">
         <v>340</v>
       </c>
-      <c r="Z24" s="563"/>
+      <c r="Z24" s="548"/>
       <c r="AA24" s="168">
         <v>19187</v>
       </c>
@@ -7292,21 +7427,21 @@
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
-      <c r="G25" s="356">
+      <c r="G25" s="353">
         <v>43358</v>
       </c>
-      <c r="H25" s="339" t="s">
+      <c r="H25" s="336" t="s">
         <v>185</v>
       </c>
       <c r="I25" s="221"/>
       <c r="J25" s="221">
         <v>94.28</v>
       </c>
-      <c r="K25" s="357"/>
+      <c r="K25" s="354"/>
       <c r="M25" s="74">
         <v>43335</v>
       </c>
-      <c r="N25" s="456" t="s">
+      <c r="N25" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O25" s="87"/>
@@ -7315,12 +7450,12 @@
       <c r="R25" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="S25" s="465"/>
-      <c r="T25" s="472">
+      <c r="S25" s="459"/>
+      <c r="T25" s="466">
         <v>1500</v>
       </c>
       <c r="U25" s="110"/>
-      <c r="V25" s="473">
+      <c r="V25" s="467">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -7328,10 +7463,10 @@
       <c r="X25" s="160">
         <v>43405</v>
       </c>
-      <c r="Y25" s="562" t="s">
+      <c r="Y25" s="547" t="s">
         <v>341</v>
       </c>
-      <c r="Z25" s="563"/>
+      <c r="Z25" s="548"/>
       <c r="AA25" s="168">
         <v>6798</v>
       </c>
@@ -7404,21 +7539,21 @@
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
-      <c r="G26" s="365">
+      <c r="G26" s="362">
         <v>43358</v>
       </c>
-      <c r="H26" s="366" t="s">
+      <c r="H26" s="363" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="367"/>
-      <c r="J26" s="367">
+      <c r="I26" s="364"/>
+      <c r="J26" s="364">
         <v>165</v>
       </c>
-      <c r="K26" s="368"/>
+      <c r="K26" s="365"/>
       <c r="M26" s="74">
         <v>43344</v>
       </c>
-      <c r="N26" s="456" t="s">
+      <c r="N26" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O26" s="86"/>
@@ -7427,12 +7562,12 @@
       <c r="R26" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="S26" s="465"/>
-      <c r="T26" s="472">
+      <c r="S26" s="459"/>
+      <c r="T26" s="466">
         <v>1500</v>
       </c>
       <c r="U26" s="110"/>
-      <c r="V26" s="473">
+      <c r="V26" s="467">
         <f t="shared" ref="V26" si="8">T26-U26</f>
         <v>1500</v>
       </c>
@@ -7514,21 +7649,21 @@
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
-      <c r="G27" s="373">
+      <c r="G27" s="370">
         <v>43360</v>
       </c>
-      <c r="H27" s="374" t="s">
+      <c r="H27" s="371" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="375">
+      <c r="I27" s="372">
         <v>1000</v>
       </c>
-      <c r="J27" s="375"/>
-      <c r="K27" s="376"/>
+      <c r="J27" s="372"/>
+      <c r="K27" s="373"/>
       <c r="M27" s="74">
         <v>43349</v>
       </c>
-      <c r="N27" s="456" t="s">
+      <c r="N27" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O27" s="86"/>
@@ -7537,12 +7672,12 @@
       <c r="R27" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="S27" s="465"/>
-      <c r="T27" s="472">
+      <c r="S27" s="459"/>
+      <c r="T27" s="466">
         <v>3000</v>
       </c>
       <c r="U27" s="110"/>
-      <c r="V27" s="473">
+      <c r="V27" s="467">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
@@ -7626,22 +7761,22 @@
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
-      <c r="G28" s="377">
+      <c r="G28" s="374">
         <v>43361</v>
       </c>
-      <c r="H28" s="378" t="s">
+      <c r="H28" s="375" t="s">
         <v>201</v>
       </c>
-      <c r="I28" s="379"/>
-      <c r="J28" s="379"/>
-      <c r="K28" s="380">
+      <c r="I28" s="376"/>
+      <c r="J28" s="376"/>
+      <c r="K28" s="377">
         <v>200</v>
       </c>
       <c r="L28" s="200"/>
       <c r="M28" s="74">
         <v>43355</v>
       </c>
-      <c r="N28" s="456" t="s">
+      <c r="N28" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O28" s="86"/>
@@ -7650,12 +7785,12 @@
       <c r="R28" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="S28" s="465"/>
-      <c r="T28" s="472">
+      <c r="S28" s="459"/>
+      <c r="T28" s="466">
         <v>460</v>
       </c>
       <c r="U28" s="110"/>
-      <c r="V28" s="473">
+      <c r="V28" s="467">
         <f t="shared" si="7"/>
         <v>460</v>
       </c>
@@ -7741,21 +7876,21 @@
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
-      <c r="G29" s="369">
+      <c r="G29" s="366">
         <v>43362</v>
       </c>
-      <c r="H29" s="370" t="s">
+      <c r="H29" s="367" t="s">
         <v>212</v>
       </c>
-      <c r="I29" s="371"/>
-      <c r="J29" s="371">
+      <c r="I29" s="368"/>
+      <c r="J29" s="368">
         <v>147</v>
       </c>
-      <c r="K29" s="372"/>
+      <c r="K29" s="369"/>
       <c r="M29" s="74">
         <v>43386</v>
       </c>
-      <c r="N29" s="456" t="s">
+      <c r="N29" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O29" s="86"/>
@@ -7764,12 +7899,12 @@
       <c r="R29" s="135" t="s">
         <v>286</v>
       </c>
-      <c r="S29" s="465"/>
-      <c r="T29" s="472">
+      <c r="S29" s="459"/>
+      <c r="T29" s="466">
         <v>1700</v>
       </c>
       <c r="U29" s="110"/>
-      <c r="V29" s="473">
+      <c r="V29" s="467">
         <f t="shared" si="7"/>
         <v>1700</v>
       </c>
@@ -7777,10 +7912,10 @@
       <c r="X29" s="160">
         <v>43418</v>
       </c>
-      <c r="Y29" s="562" t="s">
+      <c r="Y29" s="547" t="s">
         <v>184</v>
       </c>
-      <c r="Z29" s="563"/>
+      <c r="Z29" s="548"/>
       <c r="AA29" s="168">
         <v>11052</v>
       </c>
@@ -7838,7 +7973,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="BE29" s="405"/>
+      <c r="BE29" s="402"/>
       <c r="BF29" s="284">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7849,21 +7984,21 @@
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
-      <c r="G30" s="356">
+      <c r="G30" s="353">
         <v>43362</v>
       </c>
-      <c r="H30" s="339" t="s">
+      <c r="H30" s="336" t="s">
         <v>213</v>
       </c>
       <c r="I30" s="221"/>
       <c r="J30" s="221">
         <v>10</v>
       </c>
-      <c r="K30" s="357"/>
+      <c r="K30" s="354"/>
       <c r="M30" s="74">
         <v>43393</v>
       </c>
-      <c r="N30" s="456" t="s">
+      <c r="N30" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O30" s="86"/>
@@ -7872,12 +8007,12 @@
       <c r="R30" s="135" t="s">
         <v>303</v>
       </c>
-      <c r="S30" s="465"/>
-      <c r="T30" s="472">
+      <c r="S30" s="459"/>
+      <c r="T30" s="466">
         <v>1500</v>
       </c>
       <c r="U30" s="110"/>
-      <c r="V30" s="473">
+      <c r="V30" s="467">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -7963,21 +8098,21 @@
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
-      <c r="G31" s="358">
+      <c r="G31" s="355">
         <v>43363</v>
       </c>
-      <c r="H31" s="359" t="s">
+      <c r="H31" s="356" t="s">
         <v>214</v>
       </c>
-      <c r="I31" s="361"/>
-      <c r="J31" s="361">
+      <c r="I31" s="358"/>
+      <c r="J31" s="358">
         <v>83</v>
       </c>
-      <c r="K31" s="362"/>
+      <c r="K31" s="359"/>
       <c r="M31" s="74">
         <v>43409</v>
       </c>
-      <c r="N31" s="456" t="s">
+      <c r="N31" s="450" t="s">
         <v>16</v>
       </c>
       <c r="O31" s="86"/>
@@ -7986,12 +8121,12 @@
       <c r="R31" s="135" t="s">
         <v>324</v>
       </c>
-      <c r="S31" s="465"/>
-      <c r="T31" s="472">
+      <c r="S31" s="459"/>
+      <c r="T31" s="466">
         <v>2500</v>
       </c>
       <c r="U31" s="110"/>
-      <c r="V31" s="473">
+      <c r="V31" s="467">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
@@ -8006,7 +8141,7 @@
         <v>382</v>
       </c>
       <c r="AA31" s="168">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="AB31" s="169">
         <v>450</v>
@@ -8064,7 +8199,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BE31" s="406">
+      <c r="BE31" s="403">
         <v>2</v>
       </c>
       <c r="BF31" s="284">
@@ -8077,44 +8212,52 @@
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
-      <c r="G32" s="381">
+      <c r="G32" s="378">
         <v>43361</v>
       </c>
-      <c r="H32" s="382" t="s">
+      <c r="H32" s="379" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="383"/>
-      <c r="J32" s="383"/>
-      <c r="K32" s="384">
+      <c r="I32" s="380"/>
+      <c r="J32" s="380"/>
+      <c r="K32" s="381">
         <v>200</v>
       </c>
       <c r="M32" s="75">
         <v>43405</v>
       </c>
-      <c r="N32" s="457" t="s">
+      <c r="N32" s="451" t="s">
         <v>16</v>
       </c>
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
       <c r="Q32" s="81"/>
-      <c r="R32" s="463" t="s">
+      <c r="R32" s="457" t="s">
         <v>321</v>
       </c>
-      <c r="S32" s="466"/>
-      <c r="T32" s="474">
+      <c r="S32" s="460"/>
+      <c r="T32" s="468">
         <v>3500</v>
       </c>
-      <c r="U32" s="475"/>
-      <c r="V32" s="476">
+      <c r="U32" s="469"/>
+      <c r="V32" s="470">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
       <c r="W32" s="198"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="169"/>
+      <c r="X32" s="160">
+        <v>43433</v>
+      </c>
+      <c r="Y32" s="547" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z32" s="548"/>
+      <c r="AA32" s="168">
+        <v>10650</v>
+      </c>
+      <c r="AB32" s="169">
+        <v>10650</v>
+      </c>
       <c r="AD32" s="224">
         <v>43373</v>
       </c>
@@ -8187,19 +8330,19 @@
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="G33" s="369">
+      <c r="G33" s="366">
         <v>43369</v>
       </c>
-      <c r="H33" s="370" t="s">
+      <c r="H33" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="371"/>
-      <c r="J33" s="371">
+      <c r="I33" s="368"/>
+      <c r="J33" s="368">
         <v>30</v>
       </c>
-      <c r="K33" s="372"/>
-      <c r="M33" s="452"/>
-      <c r="N33" s="453" t="s">
+      <c r="K33" s="369"/>
+      <c r="M33" s="446"/>
+      <c r="N33" s="447" t="s">
         <v>17</v>
       </c>
       <c r="O33" s="128">
@@ -8214,10 +8357,10 @@
         <f>O33-P33</f>
         <v>5270</v>
       </c>
-      <c r="R33" s="461" t="s">
+      <c r="R33" s="455" t="s">
         <v>27</v>
       </c>
-      <c r="S33" s="462"/>
+      <c r="S33" s="456"/>
       <c r="T33" s="140">
         <v>1100</v>
       </c>
@@ -8227,11 +8370,21 @@
         <v>1100</v>
       </c>
       <c r="W33" s="195"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="169"/>
+      <c r="X33" s="160">
+        <v>43438</v>
+      </c>
+      <c r="Y33" s="163" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z33" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA33" s="168">
+        <v>450</v>
+      </c>
+      <c r="AB33" s="169">
+        <v>450</v>
+      </c>
       <c r="AD33" s="224">
         <v>43374</v>
       </c>
@@ -8300,17 +8453,17 @@
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
-      <c r="G34" s="358">
+      <c r="G34" s="355">
         <v>43369</v>
       </c>
-      <c r="H34" s="359" t="s">
+      <c r="H34" s="356" t="s">
         <v>235</v>
       </c>
-      <c r="I34" s="361">
+      <c r="I34" s="358">
         <v>900</v>
       </c>
-      <c r="J34" s="361"/>
-      <c r="K34" s="362"/>
+      <c r="J34" s="358"/>
+      <c r="K34" s="359"/>
       <c r="M34" s="82"/>
       <c r="N34" s="83" t="s">
         <v>17</v>
@@ -8331,11 +8484,21 @@
         <v>600</v>
       </c>
       <c r="W34" s="195"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="163"/>
-      <c r="Z34" s="163"/>
-      <c r="AA34" s="168"/>
-      <c r="AB34" s="169"/>
+      <c r="X34" s="160">
+        <v>43442</v>
+      </c>
+      <c r="Y34" s="163" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z34" s="163" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA34" s="168">
+        <v>1000</v>
+      </c>
+      <c r="AB34" s="169">
+        <v>1000</v>
+      </c>
       <c r="AD34" s="224">
         <v>43375</v>
       </c>
@@ -8404,15 +8567,15 @@
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
-      <c r="G35" s="400">
+      <c r="G35" s="397">
         <v>43370</v>
       </c>
-      <c r="H35" s="401" t="s">
+      <c r="H35" s="398" t="s">
         <v>184</v>
       </c>
-      <c r="I35" s="402"/>
-      <c r="J35" s="402"/>
-      <c r="K35" s="403">
+      <c r="I35" s="399"/>
+      <c r="J35" s="399"/>
+      <c r="K35" s="400">
         <v>11052</v>
       </c>
       <c r="M35" s="143"/>
@@ -8435,11 +8598,15 @@
         <v>1000</v>
       </c>
       <c r="W35" s="195"/>
-      <c r="X35" s="160"/>
-      <c r="Y35" s="163"/>
-      <c r="Z35" s="163"/>
-      <c r="AA35" s="168"/>
-      <c r="AB35" s="169"/>
+      <c r="X35" s="597" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y35" s="598"/>
+      <c r="Z35" s="598"/>
+      <c r="AA35" s="599"/>
+      <c r="AB35" s="595">
+        <v>-600</v>
+      </c>
       <c r="AD35" s="224">
         <v>43376</v>
       </c>
@@ -8504,17 +8671,17 @@
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
-      <c r="G36" s="369">
+      <c r="G36" s="366">
         <v>43371</v>
       </c>
-      <c r="H36" s="370" t="s">
+      <c r="H36" s="367" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="371"/>
-      <c r="J36" s="371">
+      <c r="I36" s="368"/>
+      <c r="J36" s="368">
         <v>85.11</v>
       </c>
-      <c r="K36" s="372"/>
+      <c r="K36" s="369"/>
       <c r="M36" s="143"/>
       <c r="N36" s="85" t="s">
         <v>17</v>
@@ -8535,11 +8702,19 @@
         <v>120</v>
       </c>
       <c r="W36" s="195"/>
-      <c r="X36" s="160"/>
-      <c r="Y36" s="163"/>
-      <c r="Z36" s="163"/>
+      <c r="X36" s="160">
+        <v>43442</v>
+      </c>
+      <c r="Y36" s="163" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z36" s="163" t="s">
+        <v>403</v>
+      </c>
       <c r="AA36" s="168"/>
-      <c r="AB36" s="169"/>
+      <c r="AB36" s="169">
+        <v>-2000</v>
+      </c>
       <c r="AD36" s="224">
         <v>43377</v>
       </c>
@@ -8604,17 +8779,17 @@
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
-      <c r="G37" s="356">
+      <c r="G37" s="353">
         <v>43371</v>
       </c>
-      <c r="H37" s="339" t="s">
+      <c r="H37" s="336" t="s">
         <v>240</v>
       </c>
       <c r="I37" s="221"/>
       <c r="J37" s="221">
         <v>16</v>
       </c>
-      <c r="K37" s="357"/>
+      <c r="K37" s="354"/>
       <c r="M37" s="143"/>
       <c r="N37" s="85" t="s">
         <v>17</v>
@@ -8700,17 +8875,17 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
-      <c r="G38" s="356">
+      <c r="G38" s="353">
         <v>43372</v>
       </c>
-      <c r="H38" s="339" t="s">
+      <c r="H38" s="336" t="s">
         <v>242</v>
       </c>
       <c r="I38" s="221"/>
       <c r="J38" s="221">
         <v>1000</v>
       </c>
-      <c r="K38" s="357"/>
+      <c r="K38" s="354"/>
       <c r="M38" s="82"/>
       <c r="N38" s="83" t="s">
         <v>17</v>
@@ -8800,17 +8975,17 @@
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
-      <c r="G39" s="356">
+      <c r="G39" s="353">
         <v>43372</v>
       </c>
-      <c r="H39" s="339" t="s">
+      <c r="H39" s="336" t="s">
         <v>243</v>
       </c>
       <c r="I39" s="221"/>
       <c r="J39" s="221">
         <v>113</v>
       </c>
-      <c r="K39" s="357"/>
+      <c r="K39" s="354"/>
       <c r="M39" s="143"/>
       <c r="N39" s="85" t="s">
         <v>17</v>
@@ -8902,17 +9077,17 @@
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
-      <c r="G40" s="358">
+      <c r="G40" s="355">
         <v>43373</v>
       </c>
-      <c r="H40" s="359" t="s">
+      <c r="H40" s="356" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="361">
+      <c r="I40" s="358">
         <v>2500</v>
       </c>
-      <c r="J40" s="361"/>
-      <c r="K40" s="362"/>
+      <c r="J40" s="358"/>
+      <c r="K40" s="359"/>
       <c r="M40" s="143"/>
       <c r="N40" s="85" t="s">
         <v>17</v>
@@ -9004,15 +9179,15 @@
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
-      <c r="G41" s="413">
+      <c r="G41" s="410">
         <v>43373</v>
       </c>
-      <c r="H41" s="414" t="s">
+      <c r="H41" s="411" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="415"/>
-      <c r="J41" s="415"/>
-      <c r="K41" s="416">
+      <c r="I41" s="412"/>
+      <c r="J41" s="412"/>
+      <c r="K41" s="413">
         <v>200</v>
       </c>
       <c r="M41" s="143"/>
@@ -9110,17 +9285,17 @@
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
-      <c r="G42" s="369">
+      <c r="G42" s="366">
         <v>43376</v>
       </c>
-      <c r="H42" s="370" t="s">
+      <c r="H42" s="367" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="371"/>
-      <c r="J42" s="371">
+      <c r="I42" s="368"/>
+      <c r="J42" s="368">
         <v>598</v>
       </c>
-      <c r="K42" s="372"/>
+      <c r="K42" s="369"/>
       <c r="M42" s="143"/>
       <c r="N42" s="85" t="s">
         <v>17</v>
@@ -9216,10 +9391,10 @@
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
-      <c r="G43" s="417">
+      <c r="G43" s="414">
         <v>43380</v>
       </c>
-      <c r="H43" s="339" t="s">
+      <c r="H43" s="336" t="s">
         <v>259</v>
       </c>
       <c r="I43" s="221">
@@ -9228,7 +9403,7 @@
       <c r="J43" s="221">
         <v>26</v>
       </c>
-      <c r="K43" s="357"/>
+      <c r="K43" s="354"/>
       <c r="M43" s="143"/>
       <c r="N43" s="85" t="s">
         <v>17</v>
@@ -9322,15 +9497,15 @@
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
-      <c r="G44" s="413">
+      <c r="G44" s="410">
         <v>43350</v>
       </c>
-      <c r="H44" s="414" t="s">
+      <c r="H44" s="411" t="s">
         <v>278</v>
       </c>
-      <c r="I44" s="415"/>
-      <c r="J44" s="415"/>
-      <c r="K44" s="416">
+      <c r="I44" s="412"/>
+      <c r="J44" s="412"/>
+      <c r="K44" s="413">
         <v>200</v>
       </c>
       <c r="M44" s="72"/>
@@ -9424,17 +9599,17 @@
       <c r="C45" s="60"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
-      <c r="G45" s="369">
+      <c r="G45" s="366">
         <v>43381</v>
       </c>
-      <c r="H45" s="370" t="s">
+      <c r="H45" s="367" t="s">
         <v>265</v>
       </c>
-      <c r="I45" s="371"/>
-      <c r="J45" s="371">
+      <c r="I45" s="368"/>
+      <c r="J45" s="368">
         <v>335</v>
       </c>
-      <c r="K45" s="372"/>
+      <c r="K45" s="369"/>
       <c r="M45" s="153">
         <v>43167</v>
       </c>
@@ -9542,17 +9717,17 @@
       <c r="C46" s="60"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
-      <c r="G46" s="356">
+      <c r="G46" s="353">
         <v>43382</v>
       </c>
-      <c r="H46" s="339" t="s">
+      <c r="H46" s="336" t="s">
         <v>266</v>
       </c>
       <c r="I46" s="221">
         <v>400</v>
       </c>
       <c r="J46" s="221"/>
-      <c r="K46" s="357"/>
+      <c r="K46" s="354"/>
       <c r="M46" s="89">
         <v>42802</v>
       </c>
@@ -9640,17 +9815,17 @@
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
-      <c r="G47" s="420">
+      <c r="G47" s="417">
         <v>43384</v>
       </c>
-      <c r="H47" s="421" t="s">
+      <c r="H47" s="418" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="422"/>
-      <c r="J47" s="422">
+      <c r="I47" s="419"/>
+      <c r="J47" s="419">
         <v>113</v>
       </c>
-      <c r="K47" s="423"/>
+      <c r="K47" s="420"/>
       <c r="M47" s="74">
         <v>43266</v>
       </c>
@@ -9740,15 +9915,15 @@
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
-      <c r="G48" s="340">
+      <c r="G48" s="337">
         <v>43385</v>
       </c>
-      <c r="H48" s="341" t="s">
+      <c r="H48" s="338" t="s">
         <v>184</v>
       </c>
-      <c r="I48" s="342"/>
-      <c r="J48" s="342"/>
-      <c r="K48" s="343">
+      <c r="I48" s="339"/>
+      <c r="J48" s="339"/>
+      <c r="K48" s="340">
         <v>11052</v>
       </c>
       <c r="M48" s="76"/>
@@ -9844,17 +10019,17 @@
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
-      <c r="G49" s="350">
+      <c r="G49" s="347">
         <v>43385</v>
       </c>
-      <c r="H49" s="351" t="s">
+      <c r="H49" s="348" t="s">
         <v>283</v>
       </c>
-      <c r="I49" s="352">
+      <c r="I49" s="349">
         <v>1500</v>
       </c>
-      <c r="J49" s="352"/>
-      <c r="K49" s="353"/>
+      <c r="J49" s="349"/>
+      <c r="K49" s="350"/>
       <c r="M49" s="154">
         <v>43375</v>
       </c>
@@ -9950,17 +10125,17 @@
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
-      <c r="G50" s="354">
+      <c r="G50" s="351">
         <v>43385</v>
       </c>
-      <c r="H50" s="338" t="s">
+      <c r="H50" s="335" t="s">
         <v>285</v>
       </c>
       <c r="I50" s="220"/>
       <c r="J50" s="220">
         <v>162</v>
       </c>
-      <c r="K50" s="355"/>
+      <c r="K50" s="352"/>
       <c r="M50" s="300" t="s">
         <v>86</v>
       </c>
@@ -9973,11 +10148,11 @@
       </c>
       <c r="P50" s="303">
         <f>SUM(U50:U60)</f>
-        <v>4950</v>
+        <v>5050</v>
       </c>
       <c r="Q50" s="304">
         <f>O50-P50</f>
-        <v>2555</v>
+        <v>2455</v>
       </c>
       <c r="R50" s="305" t="s">
         <v>85</v>
@@ -10065,17 +10240,17 @@
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
-      <c r="G51" s="354">
+      <c r="G51" s="351">
         <v>43386</v>
       </c>
-      <c r="H51" s="338" t="s">
+      <c r="H51" s="335" t="s">
         <v>282</v>
       </c>
       <c r="I51" s="220">
         <v>1800</v>
       </c>
       <c r="J51" s="220"/>
-      <c r="K51" s="355"/>
+      <c r="K51" s="352"/>
       <c r="M51" s="307"/>
       <c r="N51" s="278" t="s">
         <v>19</v>
@@ -10169,17 +10344,17 @@
       <c r="C52" s="60"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
-      <c r="G52" s="354">
+      <c r="G52" s="351">
         <v>43387</v>
       </c>
-      <c r="H52" s="338" t="s">
+      <c r="H52" s="335" t="s">
         <v>284</v>
       </c>
       <c r="I52" s="220"/>
       <c r="J52" s="220">
         <v>158</v>
       </c>
-      <c r="K52" s="355"/>
+      <c r="K52" s="352"/>
       <c r="M52" s="143"/>
       <c r="N52" s="85" t="s">
         <v>19</v>
@@ -10273,17 +10448,17 @@
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
-      <c r="G53" s="354">
+      <c r="G53" s="351">
         <v>43387</v>
       </c>
-      <c r="H53" s="338" t="s">
+      <c r="H53" s="335" t="s">
         <v>154</v>
       </c>
       <c r="I53" s="220"/>
       <c r="J53" s="220">
         <v>200</v>
       </c>
-      <c r="K53" s="355"/>
+      <c r="K53" s="352"/>
       <c r="M53" s="143" t="s">
         <v>102</v>
       </c>
@@ -10373,17 +10548,17 @@
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
-      <c r="G54" s="487">
+      <c r="G54" s="481">
         <v>43390</v>
       </c>
-      <c r="H54" s="424" t="s">
+      <c r="H54" s="421" t="s">
         <v>290</v>
       </c>
       <c r="I54" s="289"/>
       <c r="J54" s="289">
         <v>50</v>
       </c>
-      <c r="K54" s="488"/>
+      <c r="K54" s="482"/>
       <c r="M54" s="143"/>
       <c r="N54" s="85" t="s">
         <v>19</v>
@@ -10394,14 +10569,18 @@
       <c r="R54" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="S54" s="313"/>
-      <c r="T54" s="109">
+      <c r="S54" s="313" t="s">
+        <v>392</v>
+      </c>
+      <c r="T54" s="586">
         <v>100</v>
       </c>
-      <c r="U54" s="110"/>
-      <c r="V54" s="111">
+      <c r="U54" s="587">
+        <v>100</v>
+      </c>
+      <c r="V54" s="588">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="197"/>
       <c r="X54" s="160"/>
@@ -10475,17 +10654,17 @@
       <c r="C55" s="60"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
-      <c r="G55" s="487">
+      <c r="G55" s="481">
         <v>43390</v>
       </c>
-      <c r="H55" s="424" t="s">
+      <c r="H55" s="421" t="s">
         <v>291</v>
       </c>
       <c r="I55" s="289"/>
       <c r="J55" s="289">
         <v>145</v>
       </c>
-      <c r="K55" s="488"/>
+      <c r="K55" s="482"/>
       <c r="M55" s="143"/>
       <c r="N55" s="85" t="s">
         <v>19</v>
@@ -10499,13 +10678,13 @@
       <c r="S55" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="T55" s="109">
+      <c r="T55" s="586">
         <v>1000</v>
       </c>
-      <c r="U55" s="110">
+      <c r="U55" s="587">
         <v>1000</v>
       </c>
-      <c r="V55" s="111">
+      <c r="V55" s="588">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10575,17 +10754,17 @@
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
-      <c r="G56" s="487">
+      <c r="G56" s="481">
         <v>43393</v>
       </c>
-      <c r="H56" s="424" t="s">
+      <c r="H56" s="421" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="289">
         <v>2000</v>
       </c>
       <c r="J56" s="289"/>
-      <c r="K56" s="488"/>
+      <c r="K56" s="482"/>
       <c r="M56" s="143"/>
       <c r="N56" s="85" t="s">
         <v>110</v>
@@ -10673,17 +10852,17 @@
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
-      <c r="G57" s="420">
+      <c r="G57" s="417">
         <v>43397</v>
       </c>
-      <c r="H57" s="421" t="s">
+      <c r="H57" s="418" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="422"/>
-      <c r="J57" s="422">
+      <c r="I57" s="419"/>
+      <c r="J57" s="419">
         <v>175</v>
       </c>
-      <c r="K57" s="423"/>
+      <c r="K57" s="420"/>
       <c r="M57" s="143"/>
       <c r="N57" s="85" t="s">
         <v>19</v>
@@ -10777,15 +10956,15 @@
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
-      <c r="G58" s="340">
+      <c r="G58" s="337">
         <v>43402</v>
       </c>
-      <c r="H58" s="341" t="s">
+      <c r="H58" s="338" t="s">
         <v>184</v>
       </c>
-      <c r="I58" s="342"/>
-      <c r="J58" s="342"/>
-      <c r="K58" s="343">
+      <c r="I58" s="339"/>
+      <c r="J58" s="339"/>
+      <c r="K58" s="340">
         <v>11052</v>
       </c>
       <c r="M58" s="84">
@@ -10803,13 +10982,13 @@
       <c r="S58" s="313" t="s">
         <v>306</v>
       </c>
-      <c r="T58" s="109">
+      <c r="T58" s="586">
         <v>145</v>
       </c>
-      <c r="U58" s="110">
+      <c r="U58" s="587">
         <v>145</v>
       </c>
-      <c r="V58" s="111">
+      <c r="V58" s="588">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10883,17 +11062,17 @@
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
-      <c r="G59" s="483">
+      <c r="G59" s="477">
         <v>43402</v>
       </c>
-      <c r="H59" s="484" t="s">
+      <c r="H59" s="478" t="s">
         <v>316</v>
       </c>
-      <c r="I59" s="485">
+      <c r="I59" s="479">
         <v>1000</v>
       </c>
-      <c r="J59" s="485"/>
-      <c r="K59" s="486"/>
+      <c r="J59" s="479"/>
+      <c r="K59" s="480"/>
       <c r="M59" s="84">
         <v>43334</v>
       </c>
@@ -10909,13 +11088,13 @@
       <c r="S59" s="313" t="s">
         <v>306</v>
       </c>
-      <c r="T59" s="109">
+      <c r="T59" s="586">
         <v>200</v>
       </c>
-      <c r="U59" s="110">
+      <c r="U59" s="587">
         <v>200</v>
       </c>
-      <c r="V59" s="111">
+      <c r="V59" s="588">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10989,15 +11168,15 @@
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
-      <c r="G60" s="437">
+      <c r="G60" s="431">
         <v>43403</v>
       </c>
-      <c r="H60" s="438" t="s">
+      <c r="H60" s="432" t="s">
         <v>367</v>
       </c>
-      <c r="I60" s="439"/>
-      <c r="J60" s="439"/>
-      <c r="K60" s="440">
+      <c r="I60" s="433"/>
+      <c r="J60" s="433"/>
+      <c r="K60" s="434">
         <v>200</v>
       </c>
       <c r="M60" s="74">
@@ -11006,22 +11185,22 @@
       <c r="N60" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="O60" s="431"/>
-      <c r="P60" s="432"/>
-      <c r="Q60" s="433"/>
+      <c r="O60" s="425"/>
+      <c r="P60" s="426"/>
+      <c r="Q60" s="427"/>
       <c r="R60" s="329" t="s">
         <v>112</v>
       </c>
-      <c r="S60" s="425" t="s">
+      <c r="S60" s="422" t="s">
         <v>377</v>
       </c>
-      <c r="T60" s="330">
+      <c r="T60" s="589">
         <v>200</v>
       </c>
-      <c r="U60" s="331">
+      <c r="U60" s="590">
         <v>200</v>
       </c>
-      <c r="V60" s="332">
+      <c r="V60" s="591">
         <f>T60-U60</f>
         <v>0</v>
       </c>
@@ -11097,37 +11276,37 @@
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
-      <c r="G61" s="441">
+      <c r="G61" s="435">
         <v>43405</v>
       </c>
-      <c r="H61" s="442" t="s">
+      <c r="H61" s="436" t="s">
         <v>319</v>
       </c>
-      <c r="I61" s="443"/>
-      <c r="J61" s="443"/>
-      <c r="K61" s="444">
+      <c r="I61" s="437"/>
+      <c r="J61" s="437"/>
+      <c r="K61" s="438">
         <v>19187</v>
       </c>
-      <c r="M61" s="426" t="s">
+      <c r="M61" s="423" t="s">
         <v>307</v>
       </c>
-      <c r="N61" s="427" t="s">
+      <c r="N61" s="424" t="s">
         <v>308</v>
       </c>
-      <c r="O61" s="434"/>
-      <c r="P61" s="435"/>
-      <c r="Q61" s="436"/>
-      <c r="R61" s="427" t="s">
+      <c r="O61" s="428"/>
+      <c r="P61" s="429"/>
+      <c r="Q61" s="430"/>
+      <c r="R61" s="424" t="s">
         <v>309</v>
       </c>
-      <c r="S61" s="427"/>
-      <c r="T61" s="428">
+      <c r="S61" s="424"/>
+      <c r="T61" s="592">
         <v>110</v>
       </c>
-      <c r="U61" s="429">
+      <c r="U61" s="593">
         <v>110</v>
       </c>
-      <c r="V61" s="430">
+      <c r="V61" s="594">
         <f>T61-U61</f>
         <v>0</v>
       </c>
@@ -11201,15 +11380,15 @@
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
-      <c r="G62" s="445">
+      <c r="G62" s="439">
         <v>43405</v>
       </c>
-      <c r="H62" s="446" t="s">
+      <c r="H62" s="440" t="s">
         <v>320</v>
       </c>
-      <c r="I62" s="447"/>
-      <c r="J62" s="447"/>
-      <c r="K62" s="448">
+      <c r="I62" s="441"/>
+      <c r="J62" s="441"/>
+      <c r="K62" s="442">
         <v>6798</v>
       </c>
       <c r="M62" s="197"/>
@@ -11292,17 +11471,17 @@
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
-      <c r="G63" s="481">
+      <c r="G63" s="475">
         <v>43405</v>
       </c>
-      <c r="H63" s="449" t="s">
+      <c r="H63" s="443" t="s">
         <v>322</v>
       </c>
-      <c r="I63" s="450">
+      <c r="I63" s="444">
         <v>4000</v>
       </c>
-      <c r="J63" s="450"/>
-      <c r="K63" s="482"/>
+      <c r="J63" s="444"/>
+      <c r="K63" s="476"/>
       <c r="M63" s="197"/>
       <c r="N63" s="197"/>
       <c r="O63" s="67"/>
@@ -11383,15 +11562,15 @@
       <c r="C64" s="60"/>
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
-      <c r="G64" s="354"/>
-      <c r="H64" s="338" t="s">
+      <c r="G64" s="351"/>
+      <c r="H64" s="335" t="s">
         <v>391</v>
       </c>
       <c r="I64" s="220"/>
       <c r="J64" s="220">
         <v>559</v>
       </c>
-      <c r="K64" s="355"/>
+      <c r="K64" s="352"/>
       <c r="M64" s="197"/>
       <c r="N64" s="197"/>
       <c r="O64" s="67"/>
@@ -11470,15 +11649,15 @@
       <c r="C65" s="60"/>
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
-      <c r="G65" s="354"/>
-      <c r="H65" s="338" t="s">
+      <c r="G65" s="351"/>
+      <c r="H65" s="335" t="s">
         <v>154</v>
       </c>
       <c r="I65" s="220"/>
       <c r="J65" s="220">
         <v>200</v>
       </c>
-      <c r="K65" s="355"/>
+      <c r="K65" s="352"/>
       <c r="M65" s="197"/>
       <c r="N65" s="197"/>
       <c r="O65" s="67"/>
@@ -11557,17 +11736,17 @@
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
-      <c r="G66" s="354">
+      <c r="G66" s="351">
         <v>43409</v>
       </c>
-      <c r="H66" s="338" t="s">
+      <c r="H66" s="335" t="s">
         <v>323</v>
       </c>
       <c r="I66" s="220">
         <v>2500</v>
       </c>
       <c r="J66" s="220"/>
-      <c r="K66" s="355"/>
+      <c r="K66" s="352"/>
       <c r="M66" s="197"/>
       <c r="N66" s="197"/>
       <c r="O66" s="67"/>
@@ -11648,17 +11827,17 @@
       <c r="C67" s="60"/>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
-      <c r="G67" s="358">
+      <c r="G67" s="355">
         <v>43413</v>
       </c>
-      <c r="H67" s="359" t="s">
+      <c r="H67" s="356" t="s">
         <v>361</v>
       </c>
-      <c r="I67" s="361">
+      <c r="I67" s="358">
         <v>500</v>
       </c>
-      <c r="J67" s="361"/>
-      <c r="K67" s="362"/>
+      <c r="J67" s="358"/>
+      <c r="K67" s="359"/>
       <c r="M67" s="197"/>
       <c r="N67" s="197"/>
       <c r="O67" s="67"/>
@@ -11735,15 +11914,15 @@
       <c r="C68" s="60"/>
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
-      <c r="G68" s="437">
+      <c r="G68" s="431">
         <v>43417</v>
       </c>
-      <c r="H68" s="438" t="s">
+      <c r="H68" s="432" t="s">
         <v>364</v>
       </c>
-      <c r="I68" s="439"/>
-      <c r="J68" s="439"/>
-      <c r="K68" s="440">
+      <c r="I68" s="433"/>
+      <c r="J68" s="433"/>
+      <c r="K68" s="434">
         <v>250</v>
       </c>
       <c r="M68" s="197"/>
@@ -11828,15 +12007,15 @@
       <c r="C69" s="60"/>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
-      <c r="G69" s="413">
+      <c r="G69" s="410">
         <v>43417</v>
       </c>
-      <c r="H69" s="414" t="s">
+      <c r="H69" s="411" t="s">
         <v>368</v>
       </c>
-      <c r="I69" s="415"/>
-      <c r="J69" s="415"/>
-      <c r="K69" s="416">
+      <c r="I69" s="412"/>
+      <c r="J69" s="412"/>
+      <c r="K69" s="413">
         <v>200</v>
       </c>
       <c r="M69" s="197"/>
@@ -11925,17 +12104,17 @@
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
-      <c r="G70" s="489">
+      <c r="G70" s="483">
         <v>43417</v>
       </c>
-      <c r="H70" s="490" t="s">
+      <c r="H70" s="484" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="491"/>
-      <c r="J70" s="491">
+      <c r="I70" s="485"/>
+      <c r="J70" s="485">
         <v>227</v>
       </c>
-      <c r="K70" s="492"/>
+      <c r="K70" s="486"/>
       <c r="M70" s="197"/>
       <c r="N70" s="197"/>
       <c r="O70" s="67"/>
@@ -12000,10 +12179,12 @@
       <c r="AZ70" s="85"/>
       <c r="BA70" s="261"/>
       <c r="BB70" s="216"/>
-      <c r="BC70" s="227"/>
+      <c r="BC70" s="227">
+        <v>2</v>
+      </c>
       <c r="BD70" s="278">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE70" s="143"/>
       <c r="BF70" s="284">
@@ -12016,15 +12197,15 @@
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
-      <c r="G71" s="400">
+      <c r="G71" s="397">
         <v>43418</v>
       </c>
-      <c r="H71" s="401" t="s">
+      <c r="H71" s="398" t="s">
         <v>184</v>
       </c>
-      <c r="I71" s="402"/>
-      <c r="J71" s="402"/>
-      <c r="K71" s="403">
+      <c r="I71" s="399"/>
+      <c r="J71" s="399"/>
+      <c r="K71" s="400">
         <v>11052</v>
       </c>
       <c r="M71" s="197"/>
@@ -12091,10 +12272,12 @@
       <c r="AZ71" s="85"/>
       <c r="BA71" s="261"/>
       <c r="BB71" s="216"/>
-      <c r="BC71" s="227"/>
+      <c r="BC71" s="227">
+        <v>2</v>
+      </c>
       <c r="BD71" s="278">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE71" s="143"/>
       <c r="BF71" s="284">
@@ -12107,10 +12290,10 @@
       <c r="C72" s="60"/>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
-      <c r="G72" s="493">
+      <c r="G72" s="487">
         <v>43418</v>
       </c>
-      <c r="H72" s="424" t="s">
+      <c r="H72" s="421" t="s">
         <v>169</v>
       </c>
       <c r="I72" s="289"/>
@@ -12184,10 +12367,12 @@
       <c r="AZ72" s="85"/>
       <c r="BA72" s="261"/>
       <c r="BB72" s="216"/>
-      <c r="BC72" s="227"/>
+      <c r="BC72" s="227">
+        <v>2</v>
+      </c>
       <c r="BD72" s="278">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE72" s="143"/>
       <c r="BF72" s="284">
@@ -12200,10 +12385,10 @@
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
-      <c r="G73" s="493">
+      <c r="G73" s="487">
         <v>43419</v>
       </c>
-      <c r="H73" s="424" t="s">
+      <c r="H73" s="421" t="s">
         <v>372</v>
       </c>
       <c r="I73" s="289">
@@ -12293,10 +12478,10 @@
       <c r="C74" s="60"/>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
-      <c r="G74" s="493">
+      <c r="G74" s="487">
         <v>43420</v>
       </c>
-      <c r="H74" s="424" t="s">
+      <c r="H74" s="421" t="s">
         <v>371</v>
       </c>
       <c r="I74" s="289"/>
@@ -12380,16 +12565,16 @@
       <c r="C75" s="60"/>
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
-      <c r="G75" s="437">
+      <c r="G75" s="431">
         <v>43425</v>
       </c>
-      <c r="H75" s="438" t="s">
+      <c r="H75" s="432" t="s">
         <v>364</v>
       </c>
-      <c r="I75" s="439"/>
-      <c r="J75" s="439"/>
-      <c r="K75" s="440">
-        <v>250</v>
+      <c r="I75" s="433"/>
+      <c r="J75" s="433"/>
+      <c r="K75" s="434">
+        <v>450</v>
       </c>
       <c r="M75" s="197"/>
       <c r="N75" s="197"/>
@@ -12477,11 +12662,15 @@
       <c r="C76" s="60"/>
       <c r="D76" s="60"/>
       <c r="E76" s="60"/>
-      <c r="G76" s="580"/>
-      <c r="H76" s="581"/>
-      <c r="I76" s="582"/>
-      <c r="J76" s="582"/>
-      <c r="K76" s="582"/>
+      <c r="G76" s="584">
+        <v>43430</v>
+      </c>
+      <c r="H76" s="545"/>
+      <c r="I76" s="546">
+        <v>500</v>
+      </c>
+      <c r="J76" s="546"/>
+      <c r="K76" s="585"/>
       <c r="M76" s="197"/>
       <c r="N76" s="197"/>
       <c r="O76" s="67"/>
@@ -12562,15 +12751,15 @@
       <c r="C77" s="60"/>
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
-      <c r="G77" s="340">
+      <c r="G77" s="576">
         <v>43433</v>
       </c>
-      <c r="H77" s="341" t="s">
+      <c r="H77" s="577" t="s">
         <v>184</v>
       </c>
-      <c r="I77" s="342"/>
-      <c r="J77" s="342"/>
-      <c r="K77" s="343">
+      <c r="I77" s="578"/>
+      <c r="J77" s="578"/>
+      <c r="K77" s="579">
         <v>10650</v>
       </c>
       <c r="M77" s="197"/>
@@ -12649,11 +12838,15 @@
       <c r="C78" s="60"/>
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
-      <c r="G78" s="298"/>
-      <c r="H78" s="296"/>
-      <c r="I78" s="297"/>
-      <c r="J78" s="297"/>
-      <c r="K78" s="297"/>
+      <c r="G78" s="481">
+        <v>43437</v>
+      </c>
+      <c r="H78" s="421"/>
+      <c r="I78" s="289">
+        <v>1000</v>
+      </c>
+      <c r="J78" s="289"/>
+      <c r="K78" s="482"/>
       <c r="M78" s="197"/>
       <c r="N78" s="197"/>
       <c r="O78" s="67"/>
@@ -12728,11 +12921,15 @@
       <c r="C79" s="60"/>
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
-      <c r="G79" s="298"/>
-      <c r="H79" s="296"/>
-      <c r="I79" s="297"/>
-      <c r="J79" s="297"/>
-      <c r="K79" s="297"/>
+      <c r="G79" s="481">
+        <v>43437</v>
+      </c>
+      <c r="H79" s="421"/>
+      <c r="I79" s="289"/>
+      <c r="J79" s="289">
+        <v>560</v>
+      </c>
+      <c r="K79" s="482"/>
       <c r="M79" s="197"/>
       <c r="N79" s="197"/>
       <c r="O79" s="67"/>
@@ -12805,11 +13002,17 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
-      <c r="G80" s="298"/>
-      <c r="H80" s="296"/>
-      <c r="I80" s="297"/>
-      <c r="J80" s="297"/>
-      <c r="K80" s="297"/>
+      <c r="G80" s="580">
+        <v>43438</v>
+      </c>
+      <c r="H80" s="581" t="s">
+        <v>364</v>
+      </c>
+      <c r="I80" s="582"/>
+      <c r="J80" s="582"/>
+      <c r="K80" s="583">
+        <v>450</v>
+      </c>
       <c r="M80" s="197"/>
       <c r="N80" s="197"/>
       <c r="O80" s="67"/>
@@ -12892,11 +13095,17 @@
       <c r="C81" s="60"/>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
-      <c r="G81" s="298"/>
-      <c r="H81" s="296"/>
-      <c r="I81" s="297"/>
-      <c r="J81" s="297"/>
-      <c r="K81" s="297"/>
+      <c r="G81" s="481">
+        <v>43440</v>
+      </c>
+      <c r="H81" s="421" t="s">
+        <v>154</v>
+      </c>
+      <c r="I81" s="289"/>
+      <c r="J81" s="289">
+        <v>200</v>
+      </c>
+      <c r="K81" s="482"/>
       <c r="M81" s="197"/>
       <c r="N81" s="197"/>
       <c r="O81" s="67"/>
@@ -12979,11 +13188,13 @@
       <c r="C82" s="60"/>
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
-      <c r="G82" s="298"/>
-      <c r="H82" s="296"/>
-      <c r="I82" s="297"/>
-      <c r="J82" s="297"/>
-      <c r="K82" s="297"/>
+      <c r="G82" s="417"/>
+      <c r="H82" s="418"/>
+      <c r="I82" s="419"/>
+      <c r="J82" s="419"/>
+      <c r="K82" s="420">
+        <v>3000</v>
+      </c>
       <c r="M82" s="197"/>
       <c r="N82" s="197"/>
       <c r="O82" s="67"/>
@@ -13343,14 +13554,14 @@
       <c r="AF86" s="231"/>
       <c r="AG86" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AH86" s="236"/>
       <c r="AI86" s="237"/>
       <c r="AJ86" s="249"/>
       <c r="AK86" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL86" s="255"/>
       <c r="AM86" s="256"/>
@@ -13367,7 +13578,7 @@
       <c r="AX86" s="227"/>
       <c r="AY86" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AZ86" s="85"/>
       <c r="BA86" s="261"/>
@@ -13377,10 +13588,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE86" s="143"/>
+      <c r="BE86" s="143">
+        <v>3</v>
+      </c>
       <c r="BF86" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BG86" s="272"/>
       <c r="BI86" s="197"/>
@@ -13422,14 +13635,14 @@
       <c r="AF87" s="231"/>
       <c r="AG87" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AH87" s="236"/>
       <c r="AI87" s="237"/>
       <c r="AJ87" s="85"/>
       <c r="AK87" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL87" s="261"/>
       <c r="AM87" s="256"/>
@@ -13446,7 +13659,7 @@
       <c r="AX87" s="227"/>
       <c r="AY87" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ87" s="85"/>
       <c r="BA87" s="261"/>
@@ -13456,10 +13669,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE87" s="143"/>
+      <c r="BE87" s="143">
+        <v>2</v>
+      </c>
       <c r="BF87" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG87" s="274"/>
       <c r="BH87" s="197"/>
@@ -13579,20 +13794,26 @@
       <c r="AE89" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="AF89" s="231"/>
+      <c r="AF89" s="231" t="s">
+        <v>408</v>
+      </c>
       <c r="AG89" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="AH89" s="236"/>
       <c r="AI89" s="237"/>
       <c r="AJ89" s="85"/>
       <c r="AK89" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="261"/>
-      <c r="AM89" s="256"/>
+        <v>90</v>
+      </c>
+      <c r="AL89" s="261">
+        <v>80</v>
+      </c>
+      <c r="AM89" s="256" t="s">
+        <v>407</v>
+      </c>
       <c r="AN89" s="292"/>
       <c r="AO89" s="216"/>
       <c r="AP89" s="216"/>
@@ -13606,7 +13827,7 @@
       <c r="AX89" s="227"/>
       <c r="AY89" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ89" s="85"/>
       <c r="BA89" s="261"/>
@@ -13616,10 +13837,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE89" s="143"/>
+      <c r="BE89" s="143">
+        <v>2</v>
+      </c>
       <c r="BF89" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG89" s="274"/>
       <c r="BH89" s="197"/>
@@ -13662,20 +13885,30 @@
       <c r="AF90" s="231"/>
       <c r="AG90" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AH90" s="236"/>
       <c r="AI90" s="237"/>
       <c r="AJ90" s="85"/>
       <c r="AK90" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL90" s="261"/>
-      <c r="AM90" s="256"/>
-      <c r="AN90" s="292"/>
-      <c r="AO90" s="216"/>
-      <c r="AP90" s="216"/>
+        <v>55</v>
+      </c>
+      <c r="AL90" s="261">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="256" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN90" s="292" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO90" s="216">
+        <v>30</v>
+      </c>
+      <c r="AP90" s="216">
+        <v>15</v>
+      </c>
       <c r="AQ90" s="216"/>
       <c r="AR90" s="216"/>
       <c r="AS90" s="216"/>
@@ -13686,7 +13919,7 @@
       <c r="AX90" s="227"/>
       <c r="AY90" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ90" s="282"/>
       <c r="BA90" s="261"/>
@@ -13696,10 +13929,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE90" s="143"/>
+      <c r="BE90" s="143">
+        <v>2</v>
+      </c>
       <c r="BF90" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG90" s="274"/>
       <c r="BH90" s="197"/>
@@ -13739,22 +13974,32 @@
       <c r="AE91" s="229" t="s">
         <v>63</v>
       </c>
-      <c r="AF91" s="231"/>
+      <c r="AF91" s="231" t="s">
+        <v>409</v>
+      </c>
       <c r="AG91" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="AH91" s="236"/>
       <c r="AI91" s="237"/>
       <c r="AJ91" s="85"/>
       <c r="AK91" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL91" s="261"/>
-      <c r="AM91" s="256"/>
-      <c r="AN91" s="292"/>
-      <c r="AO91" s="216"/>
+        <v>90</v>
+      </c>
+      <c r="AL91" s="261">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="256" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN91" s="292" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO91" s="216">
+        <v>80</v>
+      </c>
       <c r="AP91" s="216"/>
       <c r="AQ91" s="216"/>
       <c r="AR91" s="216"/>
@@ -13766,7 +14011,7 @@
       <c r="AX91" s="227"/>
       <c r="AY91" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ91" s="85"/>
       <c r="BA91" s="261"/>
@@ -13776,10 +14021,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE91" s="143"/>
+      <c r="BE91" s="143">
+        <v>2</v>
+      </c>
       <c r="BF91" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG91" s="274"/>
       <c r="BH91" s="197"/>
@@ -13819,17 +14066,19 @@
       <c r="AE92" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="AF92" s="231"/>
+      <c r="AF92" s="231" t="s">
+        <v>409</v>
+      </c>
       <c r="AG92" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AH92" s="236"/>
       <c r="AI92" s="237"/>
       <c r="AJ92" s="85"/>
       <c r="AK92" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL92" s="261"/>
       <c r="AM92" s="256"/>
@@ -13846,7 +14095,7 @@
       <c r="AX92" s="227"/>
       <c r="AY92" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ92" s="85"/>
       <c r="BA92" s="261"/>
@@ -13856,10 +14105,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE92" s="143"/>
+      <c r="BE92" s="143">
+        <v>2</v>
+      </c>
       <c r="BF92" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG92" s="274"/>
       <c r="BH92" s="197"/>
@@ -13899,23 +14150,35 @@
       <c r="AE93" s="229" t="s">
         <v>60</v>
       </c>
-      <c r="AF93" s="231"/>
+      <c r="AF93" s="231" t="s">
+        <v>410</v>
+      </c>
       <c r="AG93" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="AH93" s="236"/>
       <c r="AI93" s="237"/>
       <c r="AJ93" s="85"/>
       <c r="AK93" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL93" s="261"/>
-      <c r="AM93" s="256"/>
-      <c r="AN93" s="292"/>
-      <c r="AO93" s="221"/>
-      <c r="AP93" s="216"/>
+        <v>150</v>
+      </c>
+      <c r="AL93" s="261">
+        <v>90</v>
+      </c>
+      <c r="AM93" s="256" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN93" s="292" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO93" s="221">
+        <v>30</v>
+      </c>
+      <c r="AP93" s="216">
+        <v>20</v>
+      </c>
       <c r="AQ93" s="216"/>
       <c r="AR93" s="216"/>
       <c r="AS93" s="216"/>
@@ -13926,7 +14189,7 @@
       <c r="AX93" s="227"/>
       <c r="AY93" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ93" s="85"/>
       <c r="BA93" s="261"/>
@@ -13936,10 +14199,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE93" s="143"/>
+      <c r="BE93" s="143">
+        <v>2</v>
+      </c>
       <c r="BF93" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG93" s="274"/>
       <c r="BH93" s="197"/>
@@ -13979,20 +14244,26 @@
       <c r="AE94" s="228" t="s">
         <v>149</v>
       </c>
-      <c r="AF94" s="231"/>
+      <c r="AF94" s="231" t="s">
+        <v>414</v>
+      </c>
       <c r="AG94" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="AH94" s="236"/>
       <c r="AI94" s="237"/>
       <c r="AJ94" s="85"/>
       <c r="AK94" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL94" s="261"/>
-      <c r="AM94" s="256"/>
+        <v>120</v>
+      </c>
+      <c r="AL94" s="261">
+        <v>100</v>
+      </c>
+      <c r="AM94" s="256" t="s">
+        <v>208</v>
+      </c>
       <c r="AN94" s="292"/>
       <c r="AO94" s="216"/>
       <c r="AP94" s="219"/>
@@ -14006,7 +14277,7 @@
       <c r="AX94" s="227"/>
       <c r="AY94" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AZ94" s="85"/>
       <c r="BA94" s="261"/>
@@ -14016,10 +14287,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE94" s="143"/>
+      <c r="BE94" s="143">
+        <v>4</v>
+      </c>
       <c r="BF94" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BG94" s="274"/>
       <c r="BH94" s="197"/>
@@ -14062,14 +14335,14 @@
       <c r="AF95" s="231"/>
       <c r="AG95" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AH95" s="236"/>
       <c r="AI95" s="237"/>
       <c r="AJ95" s="85"/>
       <c r="AK95" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL95" s="261"/>
       <c r="AM95" s="256"/>
@@ -14086,7 +14359,7 @@
       <c r="AX95" s="227"/>
       <c r="AY95" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ95" s="85"/>
       <c r="BA95" s="261"/>
@@ -14096,10 +14369,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE95" s="143"/>
+      <c r="BE95" s="143">
+        <v>1</v>
+      </c>
       <c r="BF95" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG95" s="274"/>
       <c r="BH95" s="197"/>
@@ -14142,19 +14417,27 @@
       <c r="AF96" s="231"/>
       <c r="AG96" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-185</v>
       </c>
       <c r="AH96" s="236"/>
       <c r="AI96" s="237"/>
       <c r="AJ96" s="85"/>
       <c r="AK96" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL96" s="261"/>
-      <c r="AM96" s="256"/>
-      <c r="AN96" s="292"/>
-      <c r="AO96" s="216"/>
+        <v>185</v>
+      </c>
+      <c r="AL96" s="261">
+        <v>45</v>
+      </c>
+      <c r="AM96" s="256" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN96" s="292" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO96" s="216">
+        <v>130</v>
+      </c>
       <c r="AP96" s="216"/>
       <c r="AQ96" s="216"/>
       <c r="AR96" s="216"/>
@@ -14166,7 +14449,7 @@
       <c r="AX96" s="227"/>
       <c r="AY96" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ96" s="85"/>
       <c r="BA96" s="261"/>
@@ -14176,10 +14459,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE96" s="143"/>
+      <c r="BE96" s="143">
+        <v>2</v>
+      </c>
       <c r="BF96" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG96" s="274"/>
       <c r="BH96" s="197"/>
@@ -14222,17 +14507,21 @@
       <c r="AF97" s="231"/>
       <c r="AG97" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="AH97" s="236"/>
       <c r="AI97" s="237"/>
       <c r="AJ97" s="85"/>
       <c r="AK97" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL97" s="261"/>
-      <c r="AM97" s="256"/>
+        <v>44</v>
+      </c>
+      <c r="AL97" s="261">
+        <v>34</v>
+      </c>
+      <c r="AM97" s="256" t="s">
+        <v>397</v>
+      </c>
       <c r="AN97" s="292"/>
       <c r="AO97" s="216"/>
       <c r="AP97" s="216"/>
@@ -14246,7 +14535,7 @@
       <c r="AX97" s="227"/>
       <c r="AY97" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ97" s="85"/>
       <c r="BA97" s="261"/>
@@ -14256,10 +14545,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE97" s="143"/>
+      <c r="BE97" s="143">
+        <v>2</v>
+      </c>
       <c r="BF97" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG97" s="274"/>
       <c r="BH97" s="197"/>
@@ -14302,19 +14593,25 @@
       <c r="AF98" s="231"/>
       <c r="AG98" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="AH98" s="236"/>
       <c r="AI98" s="237"/>
       <c r="AJ98" s="85"/>
       <c r="AK98" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL98" s="261"/>
-      <c r="AM98" s="256"/>
-      <c r="AN98" s="292"/>
-      <c r="AO98" s="216"/>
+      <c r="AM98" s="256" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN98" s="292" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO98" s="216">
+        <v>50</v>
+      </c>
       <c r="AP98" s="216"/>
       <c r="AQ98" s="216"/>
       <c r="AR98" s="216"/>
@@ -14326,7 +14623,7 @@
       <c r="AX98" s="227"/>
       <c r="AY98" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ98" s="85"/>
       <c r="BA98" s="261"/>
@@ -14336,10 +14633,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE98" s="143"/>
+      <c r="BE98" s="143">
+        <v>2</v>
+      </c>
       <c r="BF98" s="284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG98" s="274"/>
       <c r="BH98" s="197"/>
@@ -14382,19 +14681,27 @@
       <c r="AF99" s="231"/>
       <c r="AG99" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-114</v>
       </c>
       <c r="AH99" s="236"/>
       <c r="AI99" s="237"/>
       <c r="AJ99" s="85"/>
       <c r="AK99" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL99" s="261"/>
-      <c r="AM99" s="256"/>
-      <c r="AN99" s="292"/>
-      <c r="AO99" s="216"/>
+        <v>114</v>
+      </c>
+      <c r="AL99" s="261">
+        <v>34</v>
+      </c>
+      <c r="AM99" s="256" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN99" s="292" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO99" s="216">
+        <v>30</v>
+      </c>
       <c r="AP99" s="216"/>
       <c r="AQ99" s="216"/>
       <c r="AR99" s="216"/>
@@ -14406,15 +14713,19 @@
       <c r="AX99" s="227"/>
       <c r="AY99" s="284">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AZ99" s="85"/>
+        <v>50</v>
+      </c>
+      <c r="AZ99" s="85">
+        <v>50</v>
+      </c>
       <c r="BA99" s="261"/>
       <c r="BB99" s="216"/>
-      <c r="BC99" s="227"/>
+      <c r="BC99" s="227">
+        <v>2</v>
+      </c>
       <c r="BD99" s="278">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE99" s="143"/>
       <c r="BF99" s="284">
@@ -14459,23 +14770,35 @@
       <c r="AE100" s="229" t="s">
         <v>60</v>
       </c>
-      <c r="AF100" s="231"/>
+      <c r="AF100" s="231" t="s">
+        <v>415</v>
+      </c>
       <c r="AG100" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-524</v>
       </c>
       <c r="AH100" s="236"/>
       <c r="AI100" s="237"/>
       <c r="AJ100" s="85"/>
       <c r="AK100" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL100" s="261"/>
-      <c r="AM100" s="256"/>
-      <c r="AN100" s="292"/>
-      <c r="AO100" s="216"/>
-      <c r="AP100" s="216"/>
+        <v>524</v>
+      </c>
+      <c r="AL100" s="261">
+        <v>400</v>
+      </c>
+      <c r="AM100" s="256" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN100" s="292" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO100" s="216">
+        <v>100</v>
+      </c>
+      <c r="AP100" s="216">
+        <v>24</v>
+      </c>
       <c r="AQ100" s="216"/>
       <c r="AR100" s="216"/>
       <c r="AS100" s="216"/>
@@ -14489,12 +14812,16 @@
         <v>0</v>
       </c>
       <c r="AZ100" s="85"/>
-      <c r="BA100" s="261"/>
+      <c r="BA100" s="261">
+        <v>2</v>
+      </c>
       <c r="BB100" s="216"/>
-      <c r="BC100" s="227"/>
+      <c r="BC100" s="227">
+        <v>2</v>
+      </c>
       <c r="BD100" s="278">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BE100" s="143"/>
       <c r="BF100" s="284">
@@ -14571,10 +14898,12 @@
       <c r="AZ101" s="85"/>
       <c r="BA101" s="261"/>
       <c r="BB101" s="216"/>
-      <c r="BC101" s="227"/>
+      <c r="BC101" s="227">
+        <v>1</v>
+      </c>
       <c r="BD101" s="278">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE101" s="143"/>
       <c r="BF101" s="284">
@@ -16415,7 +16744,7 @@
         <v>0</v>
       </c>
       <c r="BE124" s="143"/>
-      <c r="BF124" s="408">
+      <c r="BF124" s="405">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -16480,7 +16809,7 @@
       <c r="BC125" s="315"/>
       <c r="BD125" s="319"/>
       <c r="BE125" s="318"/>
-      <c r="BF125" s="407"/>
+      <c r="BF125" s="404"/>
       <c r="BG125" s="324"/>
       <c r="BH125" s="197"/>
       <c r="BI125" s="197"/>
@@ -42457,7 +42786,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="AG1:BG1"/>
     <mergeCell ref="X9:AB9"/>
@@ -42469,14 +42808,6 @@
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="Y24:Z24"/>
     <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y12:Z12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42591,339 +42922,339 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="549"/>
-    <col min="5" max="5" width="14.28515625" style="549" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="549" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="549" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="549"/>
+    <col min="1" max="4" width="11.42578125" style="543"/>
+    <col min="5" max="5" width="14.28515625" style="543" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="543" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="543" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="543"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="494" t="s">
+      <c r="A1" s="488" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="495" t="s">
+      <c r="B1" s="489" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="495" t="s">
+      <c r="C1" s="489" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="496" t="s">
+      <c r="D1" s="490" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="497" t="s">
+      <c r="E1" s="491" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="498" t="s">
+      <c r="F1" s="492" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="499" t="s">
+      <c r="G1" s="493" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="500" t="s">
+      <c r="H1" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="501" t="s">
+      <c r="I1" s="495" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="502" t="s">
+      <c r="J1" s="496" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="503" t="s">
+      <c r="A2" s="497" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="504" t="s">
+      <c r="B2" s="498" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="505">
+      <c r="C2" s="499">
         <f>SUM(H3:H13)</f>
         <v>7505</v>
       </c>
-      <c r="D2" s="506">
+      <c r="D2" s="500">
         <f>SUM(I3:I13)</f>
         <v>4950</v>
       </c>
-      <c r="E2" s="550">
+      <c r="E2" s="544">
         <f>C2-D2</f>
         <v>2555</v>
       </c>
-      <c r="F2" s="507"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="509"/>
+      <c r="F2" s="501"/>
+      <c r="G2" s="502"/>
+      <c r="H2" s="502"/>
+      <c r="I2" s="502"/>
+      <c r="J2" s="503"/>
     </row>
     <row r="3" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="510"/>
-      <c r="B3" s="511" t="s">
+      <c r="A3" s="504"/>
+      <c r="B3" s="505" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="512"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="515" t="s">
+      <c r="C3" s="506"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="516" t="s">
+      <c r="G3" s="510" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="517">
+      <c r="H3" s="511">
         <v>1040</v>
       </c>
-      <c r="I3" s="518">
+      <c r="I3" s="512">
         <v>500</v>
       </c>
-      <c r="J3" s="519">
+      <c r="J3" s="513">
         <f t="shared" ref="J3:J12" si="0">H3-I3</f>
         <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="520"/>
-      <c r="B4" s="521" t="s">
+      <c r="A4" s="514"/>
+      <c r="B4" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="522"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="524"/>
-      <c r="F4" s="515" t="s">
+      <c r="C4" s="516"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="518"/>
+      <c r="F4" s="509" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="516"/>
-      <c r="H4" s="525">
+      <c r="G4" s="510"/>
+      <c r="H4" s="519">
         <v>2900</v>
       </c>
-      <c r="I4" s="526">
+      <c r="I4" s="520">
         <v>1550</v>
       </c>
-      <c r="J4" s="527">
+      <c r="J4" s="521">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="520" t="s">
+      <c r="A5" s="514" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="521" t="s">
+      <c r="B5" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="522"/>
-      <c r="D5" s="523"/>
-      <c r="E5" s="524"/>
-      <c r="F5" s="528" t="s">
+      <c r="C5" s="516"/>
+      <c r="D5" s="517"/>
+      <c r="E5" s="518"/>
+      <c r="F5" s="522" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="529"/>
-      <c r="H5" s="530">
+      <c r="G5" s="523"/>
+      <c r="H5" s="524">
         <v>240</v>
       </c>
-      <c r="I5" s="531"/>
-      <c r="J5" s="532">
+      <c r="I5" s="525"/>
+      <c r="J5" s="526">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="520"/>
-      <c r="B6" s="521" t="s">
+      <c r="A6" s="514"/>
+      <c r="B6" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="522"/>
-      <c r="D6" s="523"/>
-      <c r="E6" s="524"/>
-      <c r="F6" s="528" t="s">
+      <c r="C6" s="516"/>
+      <c r="D6" s="517"/>
+      <c r="E6" s="518"/>
+      <c r="F6" s="522" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="529" t="s">
+      <c r="G6" s="523" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="530">
+      <c r="H6" s="524">
         <v>1500</v>
       </c>
-      <c r="I6" s="531">
+      <c r="I6" s="525">
         <v>1300</v>
       </c>
-      <c r="J6" s="532">
+      <c r="J6" s="526">
         <f>H6-I6</f>
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="520"/>
-      <c r="B7" s="521" t="s">
+      <c r="A7" s="514"/>
+      <c r="B7" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="522"/>
-      <c r="D7" s="523"/>
-      <c r="E7" s="524"/>
-      <c r="F7" s="528" t="s">
+      <c r="C7" s="516"/>
+      <c r="D7" s="517"/>
+      <c r="E7" s="518"/>
+      <c r="F7" s="522" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="529"/>
-      <c r="H7" s="530">
+      <c r="G7" s="523"/>
+      <c r="H7" s="524">
         <v>100</v>
       </c>
-      <c r="I7" s="531"/>
-      <c r="J7" s="532">
+      <c r="I7" s="525"/>
+      <c r="J7" s="526">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="520"/>
-      <c r="B8" s="521" t="s">
+      <c r="A8" s="514"/>
+      <c r="B8" s="515" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="522"/>
-      <c r="D8" s="523"/>
-      <c r="E8" s="524"/>
-      <c r="F8" s="528" t="s">
+      <c r="C8" s="516"/>
+      <c r="D8" s="517"/>
+      <c r="E8" s="518"/>
+      <c r="F8" s="522" t="s">
         <v>370</v>
       </c>
-      <c r="G8" s="529" t="s">
+      <c r="G8" s="523" t="s">
         <v>376</v>
       </c>
-      <c r="H8" s="530">
+      <c r="H8" s="524">
         <v>1000</v>
       </c>
-      <c r="I8" s="531">
+      <c r="I8" s="525">
         <v>1000</v>
       </c>
-      <c r="J8" s="532">
+      <c r="J8" s="526">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="520"/>
-      <c r="B9" s="521" t="s">
+      <c r="A9" s="514"/>
+      <c r="B9" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="522"/>
-      <c r="D9" s="523"/>
-      <c r="E9" s="524"/>
-      <c r="F9" s="528" t="s">
+      <c r="C9" s="516"/>
+      <c r="D9" s="517"/>
+      <c r="E9" s="518"/>
+      <c r="F9" s="522" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="529"/>
-      <c r="H9" s="530">
+      <c r="G9" s="523"/>
+      <c r="H9" s="524">
         <v>80</v>
       </c>
-      <c r="I9" s="531"/>
-      <c r="J9" s="532">
+      <c r="I9" s="525"/>
+      <c r="J9" s="526">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="533">
+      <c r="A10" s="527">
         <v>43390</v>
       </c>
-      <c r="B10" s="521" t="s">
+      <c r="B10" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="522"/>
-      <c r="D10" s="523"/>
-      <c r="E10" s="524"/>
-      <c r="F10" s="528" t="s">
+      <c r="C10" s="516"/>
+      <c r="D10" s="517"/>
+      <c r="E10" s="518"/>
+      <c r="F10" s="522" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="529" t="s">
+      <c r="G10" s="523" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="530">
+      <c r="H10" s="524">
         <v>100</v>
       </c>
-      <c r="I10" s="531">
+      <c r="I10" s="525">
         <v>55</v>
       </c>
-      <c r="J10" s="532">
+      <c r="J10" s="526">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="533">
+      <c r="A11" s="527">
         <v>43334</v>
       </c>
-      <c r="B11" s="521" t="s">
+      <c r="B11" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="522"/>
-      <c r="D11" s="523"/>
-      <c r="E11" s="524"/>
-      <c r="F11" s="528" t="s">
+      <c r="C11" s="516"/>
+      <c r="D11" s="517"/>
+      <c r="E11" s="518"/>
+      <c r="F11" s="522" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="529" t="s">
+      <c r="G11" s="523" t="s">
         <v>306</v>
       </c>
-      <c r="H11" s="530">
+      <c r="H11" s="524">
         <v>145</v>
       </c>
-      <c r="I11" s="531">
+      <c r="I11" s="525">
         <v>145</v>
       </c>
-      <c r="J11" s="532">
+      <c r="J11" s="526">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="534">
+      <c r="A12" s="528">
         <v>43180</v>
       </c>
-      <c r="B12" s="535" t="s">
+      <c r="B12" s="529" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="536"/>
-      <c r="D12" s="537"/>
-      <c r="E12" s="538"/>
-      <c r="F12" s="528" t="s">
+      <c r="C12" s="530"/>
+      <c r="D12" s="531"/>
+      <c r="E12" s="532"/>
+      <c r="F12" s="522" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="529" t="s">
+      <c r="G12" s="523" t="s">
         <v>306</v>
       </c>
-      <c r="H12" s="530">
+      <c r="H12" s="524">
         <v>200</v>
       </c>
-      <c r="I12" s="531">
+      <c r="I12" s="525">
         <v>200</v>
       </c>
-      <c r="J12" s="532">
+      <c r="J12" s="526">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="539"/>
-      <c r="B13" s="540"/>
-      <c r="C13" s="541"/>
-      <c r="D13" s="542"/>
-      <c r="E13" s="543"/>
-      <c r="F13" s="544" t="s">
+      <c r="A13" s="533"/>
+      <c r="B13" s="534"/>
+      <c r="C13" s="535"/>
+      <c r="D13" s="536"/>
+      <c r="E13" s="537"/>
+      <c r="F13" s="538" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="545" t="s">
+      <c r="G13" s="539" t="s">
         <v>377</v>
       </c>
-      <c r="H13" s="546">
+      <c r="H13" s="540">
         <v>200</v>
       </c>
-      <c r="I13" s="547">
+      <c r="I13" s="541">
         <v>200</v>
       </c>
-      <c r="J13" s="548">
+      <c r="J13" s="542">
         <f>H13-I13</f>
         <v>0</v>
       </c>

--- a/Finanzas/3_Sept-Dic_2018.xlsx
+++ b/Finanzas/3_Sept-Dic_2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="426">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1275,6 +1275,36 @@
   </si>
   <si>
     <t>Rectificación - Comida con Niño!</t>
+  </si>
+  <si>
+    <t>Tacos Carnitas con Ramsés</t>
+  </si>
+  <si>
+    <t>Cervezas con Aldo y  Eleonora</t>
+  </si>
+  <si>
+    <t>Bolsa-Sandy, Alajero-Oli, Ajedrez-JL</t>
+  </si>
+  <si>
+    <t>Toks Jaime pancita</t>
+  </si>
+  <si>
+    <t>Uber Ale Migraña</t>
+  </si>
+  <si>
+    <t>Anuncian la desaparición INEE</t>
+  </si>
+  <si>
+    <t>Presentación PLANEA 2015</t>
+  </si>
+  <si>
+    <t>Regalos Navideños Centro</t>
+  </si>
+  <si>
+    <t>Carmen y David - Centro</t>
+  </si>
+  <si>
+    <t>Caaaaasi terminamos con TALIS :C</t>
   </si>
 </sst>
 </file>
@@ -2648,7 +2678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="600">
+  <cellXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3476,9 +3506,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3835,9 +3862,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4046,9 +4070,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4220,10 +4241,49 @@
     <xf numFmtId="0" fontId="31" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,6 +4340,15 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4313,76 +4382,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="38" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="39" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="38" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4681,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL963"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="AC77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL92" sqref="AL92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4706,20 +4727,20 @@
     <col min="21" max="21" width="11.85546875" style="60" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="60"/>
     <col min="24" max="24" width="11.42578125" style="60"/>
-    <col min="25" max="25" width="13.42578125" style="471" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="469" customWidth="1"/>
     <col min="26" max="26" width="13.5703125" style="40" customWidth="1"/>
     <col min="27" max="28" width="11.42578125" style="60"/>
     <col min="31" max="31" width="6.42578125" customWidth="1"/>
     <col min="32" max="32" width="31.7109375" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="14" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="24.140625" style="159" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="36.7109375" style="159" hidden="1" customWidth="1"/>
-    <col min="41" max="50" width="0" style="60" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="35" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="35" customWidth="1"/>
+    <col min="39" max="39" width="24.140625" style="159" customWidth="1"/>
+    <col min="40" max="40" width="36.7109375" style="159" customWidth="1"/>
+    <col min="41" max="50" width="11.42578125" style="60" customWidth="1"/>
     <col min="51" max="51" width="13.7109375" customWidth="1"/>
     <col min="52" max="55" width="13.140625" customWidth="1"/>
     <col min="56" max="56" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -4742,35 +4763,35 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="549" t="s">
+      <c r="AG1" s="559" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="549"/>
-      <c r="AI1" s="549"/>
-      <c r="AJ1" s="549"/>
-      <c r="AK1" s="549"/>
-      <c r="AL1" s="549"/>
-      <c r="AM1" s="549"/>
-      <c r="AN1" s="549"/>
-      <c r="AO1" s="549"/>
-      <c r="AP1" s="549"/>
-      <c r="AQ1" s="549"/>
-      <c r="AR1" s="549"/>
-      <c r="AS1" s="549"/>
-      <c r="AT1" s="549"/>
-      <c r="AU1" s="549"/>
-      <c r="AV1" s="549"/>
-      <c r="AW1" s="549"/>
-      <c r="AX1" s="549"/>
-      <c r="AY1" s="549"/>
-      <c r="AZ1" s="549"/>
-      <c r="BA1" s="549"/>
-      <c r="BB1" s="549"/>
-      <c r="BC1" s="549"/>
-      <c r="BD1" s="549"/>
-      <c r="BE1" s="549"/>
-      <c r="BF1" s="549"/>
-      <c r="BG1" s="549"/>
+      <c r="AH1" s="559"/>
+      <c r="AI1" s="559"/>
+      <c r="AJ1" s="559"/>
+      <c r="AK1" s="559"/>
+      <c r="AL1" s="559"/>
+      <c r="AM1" s="559"/>
+      <c r="AN1" s="559"/>
+      <c r="AO1" s="559"/>
+      <c r="AP1" s="559"/>
+      <c r="AQ1" s="559"/>
+      <c r="AR1" s="559"/>
+      <c r="AS1" s="559"/>
+      <c r="AT1" s="559"/>
+      <c r="AU1" s="559"/>
+      <c r="AV1" s="559"/>
+      <c r="AW1" s="559"/>
+      <c r="AX1" s="559"/>
+      <c r="AY1" s="559"/>
+      <c r="AZ1" s="559"/>
+      <c r="BA1" s="559"/>
+      <c r="BB1" s="559"/>
+      <c r="BC1" s="559"/>
+      <c r="BD1" s="559"/>
+      <c r="BE1" s="559"/>
+      <c r="BF1" s="559"/>
+      <c r="BG1" s="559"/>
       <c r="BJ1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4788,17 +4809,17 @@
       <c r="F2" s="27"/>
       <c r="G2" s="61"/>
       <c r="H2" s="52"/>
-      <c r="K2" s="553" t="s">
+      <c r="K2" s="563" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="554"/>
-      <c r="M2" s="554"/>
-      <c r="N2" s="554"/>
-      <c r="O2" s="554"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
-      <c r="R2" s="554"/>
-      <c r="S2" s="555"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
+      <c r="O2" s="564"/>
+      <c r="P2" s="564"/>
+      <c r="Q2" s="564"/>
+      <c r="R2" s="564"/>
+      <c r="S2" s="565"/>
       <c r="T2" s="67"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="263" t="s">
@@ -4911,7 +4932,7 @@
       <c r="D3" s="45"/>
       <c r="E3" s="32">
         <f>N3-C3</f>
-        <v>54693.94</v>
+        <v>66527.16</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="61"/>
@@ -4922,8 +4943,8 @@
         <v>2</v>
       </c>
       <c r="N3" s="11">
-        <f>(SUM(C3,(K11:K511)))-(SUM((J11:J510),(I11:I511)))</f>
-        <v>78836.94</v>
+        <f>(SUM(C3,(K11:K512)))-(SUM((J11:J511),(I11:I512)))</f>
+        <v>90670.16</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
@@ -4963,11 +4984,11 @@
       <c r="AO3" s="225">
         <v>15</v>
       </c>
-      <c r="AP3" s="325">
+      <c r="AP3" s="324">
         <v>1500</v>
       </c>
       <c r="AQ3" s="225"/>
-      <c r="AR3" s="596">
+      <c r="AR3" s="554">
         <v>600</v>
       </c>
       <c r="AS3" s="225"/>
@@ -4980,19 +5001,19 @@
         <f>SUM(AZ3, BF3, BG3)</f>
         <v>45</v>
       </c>
-      <c r="AZ3" s="415">
+      <c r="AZ3" s="414">
         <v>45</v>
       </c>
-      <c r="BA3" s="326"/>
-      <c r="BB3" s="327"/>
-      <c r="BC3" s="328">
+      <c r="BA3" s="325"/>
+      <c r="BB3" s="326"/>
+      <c r="BC3" s="327">
         <v>2</v>
       </c>
       <c r="BD3" s="278">
         <f>SUM((BA3*6), (BB3*8), (BC3*5))</f>
         <v>10</v>
       </c>
-      <c r="BE3" s="307"/>
+      <c r="BE3" s="306"/>
       <c r="BF3" s="284">
         <f>BE3*5</f>
         <v>0</v>
@@ -5024,7 +5045,7 @@
       </c>
       <c r="S4" s="15">
         <f>SUM(N3,V9,S7)</f>
-        <v>160667.94</v>
+        <v>171101.66</v>
       </c>
       <c r="T4" s="67"/>
       <c r="AD4" s="224">
@@ -5094,34 +5115,34 @@
     </row>
     <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="565" t="s">
+      <c r="B5" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="566"/>
-      <c r="D5" s="566"/>
-      <c r="E5" s="566"/>
-      <c r="F5" s="566"/>
-      <c r="G5" s="567"/>
+      <c r="C5" s="579"/>
+      <c r="D5" s="579"/>
+      <c r="E5" s="579"/>
+      <c r="F5" s="579"/>
+      <c r="G5" s="580"/>
       <c r="H5" s="52"/>
-      <c r="K5" s="556" t="s">
+      <c r="K5" s="566" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="557"/>
-      <c r="M5" s="557"/>
-      <c r="N5" s="557"/>
-      <c r="O5" s="557"/>
-      <c r="P5" s="557"/>
-      <c r="Q5" s="557"/>
-      <c r="R5" s="557"/>
-      <c r="S5" s="558"/>
-      <c r="T5" s="550" t="s">
+      <c r="L5" s="567"/>
+      <c r="M5" s="567"/>
+      <c r="N5" s="567"/>
+      <c r="O5" s="567"/>
+      <c r="P5" s="567"/>
+      <c r="Q5" s="567"/>
+      <c r="R5" s="567"/>
+      <c r="S5" s="568"/>
+      <c r="T5" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="551"/>
-      <c r="V5" s="559" t="s">
+      <c r="U5" s="561"/>
+      <c r="V5" s="569" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="560"/>
+      <c r="W5" s="570"/>
       <c r="AD5" s="224">
         <v>43346</v>
       </c>
@@ -5196,14 +5217,14 @@
     </row>
     <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="568" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="569"/>
-      <c r="D6" s="569"/>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="570"/>
+      <c r="B6" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="582"/>
+      <c r="D6" s="582"/>
+      <c r="E6" s="582"/>
+      <c r="F6" s="582"/>
+      <c r="G6" s="583"/>
       <c r="H6" s="52"/>
       <c r="K6" s="63"/>
       <c r="L6" s="16"/>
@@ -5211,8 +5232,8 @@
         <v>3</v>
       </c>
       <c r="N6" s="17">
-        <f>(SUM((AA11:AA301),(AG3:AG500),(I11:I511)))-(SUM((AB11:AB501)))</f>
-        <v>2306</v>
+        <f>(SUM((AA11:AA301),(AG3:AG500),(I11:I512)))-(SUM((AB11:AB501)))</f>
+        <v>706.5</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
@@ -5312,12 +5333,12 @@
       </c>
       <c r="S7" s="21">
         <f>SUM(U7,N6)</f>
-        <v>2106</v>
+        <v>706.5</v>
       </c>
       <c r="T7" s="99"/>
       <c r="U7" s="100">
-        <f>(SUM(AB11:AB501))-(SUM(K11:K511))</f>
-        <v>-200</v>
+        <f>(SUM(AB11:AB501))-(SUM(K11:K512))</f>
+        <v>0</v>
       </c>
       <c r="V7" s="101"/>
       <c r="W7" s="34">
@@ -5398,12 +5419,10 @@
       </c>
       <c r="AG8" s="233">
         <f t="shared" si="0"/>
-        <v>-3003.5</v>
+        <v>-3140</v>
       </c>
       <c r="AH8" s="236"/>
-      <c r="AI8" s="416">
-        <v>136.5</v>
-      </c>
+      <c r="AI8" s="237"/>
       <c r="AJ8" s="249"/>
       <c r="AK8" s="252">
         <f t="shared" si="1"/>
@@ -5456,47 +5475,47 @@
       <c r="BG8" s="272"/>
     </row>
     <row r="9" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="571" t="s">
+      <c r="A9" s="584" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="572"/>
-      <c r="C9" s="572"/>
-      <c r="D9" s="572"/>
+      <c r="B9" s="585"/>
+      <c r="C9" s="585"/>
+      <c r="D9" s="585"/>
       <c r="E9" s="156">
         <f>SUM(E10:E494)</f>
         <v>12188</v>
       </c>
-      <c r="G9" s="573" t="s">
+      <c r="G9" s="586" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="574"/>
-      <c r="I9" s="574"/>
-      <c r="J9" s="574"/>
-      <c r="K9" s="575"/>
-      <c r="M9" s="561" t="s">
+      <c r="H9" s="587"/>
+      <c r="I9" s="587"/>
+      <c r="J9" s="587"/>
+      <c r="K9" s="588"/>
+      <c r="M9" s="571" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="562"/>
-      <c r="O9" s="562"/>
-      <c r="P9" s="562"/>
-      <c r="Q9" s="562"/>
-      <c r="R9" s="562"/>
-      <c r="S9" s="562"/>
-      <c r="T9" s="563" t="s">
+      <c r="N9" s="572"/>
+      <c r="O9" s="572"/>
+      <c r="P9" s="572"/>
+      <c r="Q9" s="572"/>
+      <c r="R9" s="572"/>
+      <c r="S9" s="572"/>
+      <c r="T9" s="573" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="564"/>
+      <c r="U9" s="574"/>
       <c r="V9" s="102">
         <f>SUM(V11:V499)</f>
         <v>79725</v>
       </c>
-      <c r="X9" s="550" t="s">
+      <c r="X9" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="551"/>
-      <c r="Z9" s="551"/>
-      <c r="AA9" s="551"/>
-      <c r="AB9" s="552"/>
+      <c r="Y9" s="561"/>
+      <c r="Z9" s="561"/>
+      <c r="AA9" s="561"/>
+      <c r="AB9" s="562"/>
       <c r="AD9" s="224">
         <v>43350</v>
       </c>
@@ -5561,34 +5580,34 @@
       <c r="BH9" s="189"/>
     </row>
     <row r="10" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="382" t="s">
+      <c r="A10" s="381" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="383" t="s">
+      <c r="B10" s="382" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="384" t="s">
+      <c r="C10" s="383" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="384" t="s">
+      <c r="D10" s="383" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="384" t="s">
+      <c r="E10" s="383" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="330" t="s">
+      <c r="G10" s="329" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="331" t="s">
+      <c r="H10" s="330" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="332" t="s">
+      <c r="I10" s="331" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="333" t="s">
+      <c r="J10" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="334" t="s">
+      <c r="K10" s="333" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="190" t="s">
@@ -5606,26 +5625,26 @@
       <c r="Q10" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="R10" s="453" t="s">
+      <c r="R10" s="451" t="s">
         <v>134</v>
       </c>
-      <c r="S10" s="454" t="s">
+      <c r="S10" s="452" t="s">
         <v>135</v>
       </c>
-      <c r="T10" s="461" t="s">
+      <c r="T10" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="462" t="s">
+      <c r="U10" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="463" t="s">
+      <c r="V10" s="461" t="s">
         <v>30</v>
       </c>
       <c r="W10" s="194"/>
       <c r="X10" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="472" t="s">
+      <c r="Y10" s="470" t="s">
         <v>31</v>
       </c>
       <c r="Z10" s="166" t="s">
@@ -5698,37 +5717,37 @@
       <c r="BG10" s="272"/>
     </row>
     <row r="11" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="387" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="389" t="s">
+      <c r="B11" s="388" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="390">
+      <c r="C11" s="389">
         <v>1000</v>
       </c>
-      <c r="D11" s="390">
+      <c r="D11" s="389">
         <v>500</v>
       </c>
       <c r="E11" s="275">
         <f t="shared" ref="E11:E20" si="5">C11-D11</f>
         <v>500</v>
       </c>
-      <c r="G11" s="347">
+      <c r="G11" s="346">
         <v>43344</v>
       </c>
-      <c r="H11" s="348" t="s">
+      <c r="H11" s="347" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="349">
+      <c r="I11" s="348">
         <v>1500</v>
       </c>
-      <c r="J11" s="349"/>
-      <c r="K11" s="350"/>
-      <c r="M11" s="445" t="s">
+      <c r="J11" s="348"/>
+      <c r="K11" s="349"/>
+      <c r="M11" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="301" t="s">
+      <c r="N11" s="300" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="122">
@@ -5739,19 +5758,19 @@
         <f>SUM(U11:U30)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="452">
+      <c r="Q11" s="450">
         <f>O11-P11</f>
         <v>65910</v>
       </c>
       <c r="R11" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="458"/>
-      <c r="T11" s="464">
+      <c r="S11" s="456"/>
+      <c r="T11" s="462">
         <v>5000</v>
       </c>
       <c r="U11" s="104"/>
-      <c r="V11" s="465">
+      <c r="V11" s="463">
         <f t="shared" ref="V11:V44" si="6">T11-U11</f>
         <v>5000</v>
       </c>
@@ -5759,7 +5778,7 @@
       <c r="X11" s="160">
         <v>43344</v>
       </c>
-      <c r="Y11" s="473" t="s">
+      <c r="Y11" s="471" t="s">
         <v>152</v>
       </c>
       <c r="Z11" s="163" t="s">
@@ -5830,37 +5849,37 @@
       <c r="BG11" s="272"/>
     </row>
     <row r="12" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="391" t="s">
+      <c r="A12" s="390" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="385" t="s">
+      <c r="B12" s="384" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="215">
         <v>560</v>
       </c>
-      <c r="D12" s="386">
+      <c r="D12" s="385">
         <v>400</v>
       </c>
       <c r="E12" s="226">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="G12" s="351">
+      <c r="G12" s="350">
         <v>43344</v>
       </c>
-      <c r="H12" s="335" t="s">
+      <c r="H12" s="334" t="s">
         <v>146</v>
       </c>
       <c r="I12" s="220"/>
       <c r="J12" s="220">
         <v>400</v>
       </c>
-      <c r="K12" s="352"/>
-      <c r="M12" s="448" t="s">
+      <c r="K12" s="351"/>
+      <c r="M12" s="446" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="449" t="s">
+      <c r="N12" s="447" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="91"/>
@@ -5869,12 +5888,12 @@
       <c r="R12" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="459"/>
-      <c r="T12" s="466">
+      <c r="S12" s="457"/>
+      <c r="T12" s="464">
         <v>3000</v>
       </c>
       <c r="U12" s="110"/>
-      <c r="V12" s="467">
+      <c r="V12" s="465">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
@@ -5882,10 +5901,10 @@
       <c r="X12" s="160">
         <v>43356</v>
       </c>
-      <c r="Y12" s="547" t="s">
+      <c r="Y12" s="557" t="s">
         <v>184</v>
       </c>
-      <c r="Z12" s="548"/>
+      <c r="Z12" s="558"/>
       <c r="AA12" s="170">
         <v>11052</v>
       </c>
@@ -5953,35 +5972,35 @@
       <c r="BG12" s="272"/>
     </row>
     <row r="13" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="392" t="s">
+      <c r="A13" s="391" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="385" t="s">
+      <c r="B13" s="384" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="215">
         <v>8000</v>
       </c>
-      <c r="D13" s="387"/>
+      <c r="D13" s="386"/>
       <c r="E13" s="226">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-      <c r="G13" s="351">
+      <c r="G13" s="350">
         <v>43347</v>
       </c>
-      <c r="H13" s="335" t="s">
+      <c r="H13" s="334" t="s">
         <v>154</v>
       </c>
       <c r="I13" s="220"/>
       <c r="J13" s="220">
         <v>200</v>
       </c>
-      <c r="K13" s="352"/>
+      <c r="K13" s="351"/>
       <c r="M13" s="74">
         <v>43005</v>
       </c>
-      <c r="N13" s="450" t="s">
+      <c r="N13" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="87"/>
@@ -5990,12 +6009,12 @@
       <c r="R13" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="S13" s="459"/>
-      <c r="T13" s="466">
+      <c r="S13" s="457"/>
+      <c r="T13" s="464">
         <v>3200</v>
       </c>
       <c r="U13" s="110"/>
-      <c r="V13" s="467">
+      <c r="V13" s="465">
         <f t="shared" ref="V13:V32" si="7">T13-U13</f>
         <v>3200</v>
       </c>
@@ -6065,7 +6084,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="BE13" s="401"/>
+      <c r="BE13" s="400"/>
       <c r="BF13" s="284">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6073,10 +6092,10 @@
       <c r="BG13" s="272"/>
     </row>
     <row r="14" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="391" t="s">
+      <c r="A14" s="390" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="385" t="s">
+      <c r="B14" s="384" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="215">
@@ -6087,21 +6106,21 @@
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="G14" s="351">
+      <c r="G14" s="350">
         <v>43349</v>
       </c>
-      <c r="H14" s="335" t="s">
+      <c r="H14" s="334" t="s">
         <v>169</v>
       </c>
       <c r="I14" s="220"/>
       <c r="J14" s="220">
         <v>30</v>
       </c>
-      <c r="K14" s="352"/>
+      <c r="K14" s="351"/>
       <c r="M14" s="74">
         <v>43417</v>
       </c>
-      <c r="N14" s="450" t="s">
+      <c r="N14" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O14" s="87"/>
@@ -6110,12 +6129,12 @@
       <c r="R14" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="459"/>
-      <c r="T14" s="466">
+      <c r="S14" s="457"/>
+      <c r="T14" s="464">
         <v>5300</v>
       </c>
       <c r="U14" s="110"/>
-      <c r="V14" s="467">
+      <c r="V14" s="465">
         <f t="shared" si="7"/>
         <v>5300</v>
       </c>
@@ -6198,10 +6217,10 @@
       <c r="BG14" s="272"/>
     </row>
     <row r="15" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="391" t="s">
+      <c r="A15" s="390" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="385" t="s">
+      <c r="B15" s="384" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="215">
@@ -6212,21 +6231,21 @@
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="351">
+      <c r="G15" s="350">
         <v>43349</v>
       </c>
-      <c r="H15" s="335" t="s">
+      <c r="H15" s="334" t="s">
         <v>155</v>
       </c>
       <c r="I15" s="220">
         <v>3500</v>
       </c>
       <c r="J15" s="220"/>
-      <c r="K15" s="352"/>
+      <c r="K15" s="351"/>
       <c r="M15" s="74">
         <v>43117</v>
       </c>
-      <c r="N15" s="450" t="s">
+      <c r="N15" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O15" s="87"/>
@@ -6235,12 +6254,12 @@
       <c r="R15" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="459"/>
-      <c r="T15" s="466">
+      <c r="S15" s="457"/>
+      <c r="T15" s="464">
         <v>6850</v>
       </c>
       <c r="U15" s="110"/>
-      <c r="V15" s="467">
+      <c r="V15" s="465">
         <f t="shared" si="7"/>
         <v>6850</v>
       </c>
@@ -6327,10 +6346,10 @@
       <c r="BG15" s="272"/>
     </row>
     <row r="16" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="391" t="s">
+      <c r="A16" s="390" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="385" t="s">
+      <c r="B16" s="384" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="215">
@@ -6341,21 +6360,21 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="G16" s="351">
+      <c r="G16" s="350">
         <v>43351</v>
       </c>
-      <c r="H16" s="335" t="s">
+      <c r="H16" s="334" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="220"/>
       <c r="J16" s="220">
         <v>692</v>
       </c>
-      <c r="K16" s="352"/>
+      <c r="K16" s="351"/>
       <c r="M16" s="74">
         <v>43236</v>
       </c>
-      <c r="N16" s="450" t="s">
+      <c r="N16" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="87"/>
@@ -6364,12 +6383,12 @@
       <c r="R16" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="459"/>
-      <c r="T16" s="466">
+      <c r="S16" s="457"/>
+      <c r="T16" s="464">
         <v>2100</v>
       </c>
       <c r="U16" s="110"/>
-      <c r="V16" s="467">
+      <c r="V16" s="465">
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
@@ -6377,10 +6396,10 @@
       <c r="X16" s="160">
         <v>43370</v>
       </c>
-      <c r="Y16" s="547" t="s">
+      <c r="Y16" s="557" t="s">
         <v>184</v>
       </c>
-      <c r="Z16" s="548"/>
+      <c r="Z16" s="558"/>
       <c r="AA16" s="168">
         <v>11052</v>
       </c>
@@ -6446,37 +6465,37 @@
       <c r="BG16" s="272"/>
     </row>
     <row r="17" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="406" t="s">
+      <c r="A17" s="405" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="407" t="s">
+      <c r="B17" s="406" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="408">
+      <c r="C17" s="407">
         <v>150</v>
       </c>
-      <c r="D17" s="408">
+      <c r="D17" s="407">
         <v>150</v>
       </c>
-      <c r="E17" s="409">
+      <c r="E17" s="408">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="351">
+      <c r="G17" s="350">
         <v>43351</v>
       </c>
-      <c r="H17" s="335" t="s">
+      <c r="H17" s="334" t="s">
         <v>157</v>
       </c>
       <c r="I17" s="220"/>
       <c r="J17" s="220">
         <v>40.67</v>
       </c>
-      <c r="K17" s="352"/>
+      <c r="K17" s="351"/>
       <c r="M17" s="74">
         <v>43253</v>
       </c>
-      <c r="N17" s="450" t="s">
+      <c r="N17" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O17" s="87"/>
@@ -6485,12 +6504,12 @@
       <c r="R17" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="S17" s="459"/>
-      <c r="T17" s="466">
+      <c r="S17" s="457"/>
+      <c r="T17" s="464">
         <v>2000</v>
       </c>
       <c r="U17" s="110"/>
-      <c r="V17" s="467">
+      <c r="V17" s="465">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -6583,37 +6602,37 @@
       <c r="BG17" s="272"/>
     </row>
     <row r="18" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="406" t="s">
+      <c r="A18" s="405" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="407" t="s">
+      <c r="B18" s="406" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="408">
+      <c r="C18" s="407">
         <v>150</v>
       </c>
-      <c r="D18" s="408">
+      <c r="D18" s="407">
         <v>150</v>
       </c>
-      <c r="E18" s="409">
+      <c r="E18" s="408">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="351">
+      <c r="G18" s="350">
         <v>43351</v>
       </c>
-      <c r="H18" s="335" t="s">
+      <c r="H18" s="334" t="s">
         <v>158</v>
       </c>
       <c r="I18" s="220"/>
       <c r="J18" s="220">
         <v>1948</v>
       </c>
-      <c r="K18" s="352"/>
+      <c r="K18" s="351"/>
       <c r="M18" s="74">
         <v>43269</v>
       </c>
-      <c r="N18" s="450" t="s">
+      <c r="N18" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O18" s="87"/>
@@ -6622,12 +6641,12 @@
       <c r="R18" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="459"/>
-      <c r="T18" s="466">
+      <c r="S18" s="457"/>
+      <c r="T18" s="464">
         <v>2300</v>
       </c>
       <c r="U18" s="110"/>
-      <c r="V18" s="467">
+      <c r="V18" s="465">
         <f t="shared" si="7"/>
         <v>2300</v>
       </c>
@@ -6715,10 +6734,10 @@
       <c r="BL18" s="189"/>
     </row>
     <row r="19" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="391" t="s">
+      <c r="A19" s="390" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="474" t="s">
+      <c r="B19" s="472" t="s">
         <v>221</v>
       </c>
       <c r="C19" s="215">
@@ -6731,21 +6750,21 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G19" s="353">
+      <c r="G19" s="352">
         <v>43355</v>
       </c>
-      <c r="H19" s="336" t="s">
+      <c r="H19" s="335" t="s">
         <v>189</v>
       </c>
       <c r="I19" s="221">
         <v>2000</v>
       </c>
       <c r="J19" s="221"/>
-      <c r="K19" s="354"/>
+      <c r="K19" s="353"/>
       <c r="M19" s="74">
         <v>43274</v>
       </c>
-      <c r="N19" s="450" t="s">
+      <c r="N19" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="87"/>
@@ -6754,12 +6773,12 @@
       <c r="R19" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="S19" s="459"/>
-      <c r="T19" s="466">
+      <c r="S19" s="457"/>
+      <c r="T19" s="464">
         <v>2000</v>
       </c>
       <c r="U19" s="110"/>
-      <c r="V19" s="467">
+      <c r="V19" s="465">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -6767,10 +6786,10 @@
       <c r="X19" s="160">
         <v>43385</v>
       </c>
-      <c r="Y19" s="547" t="s">
+      <c r="Y19" s="557" t="s">
         <v>184</v>
       </c>
-      <c r="Z19" s="548"/>
+      <c r="Z19" s="558"/>
       <c r="AA19" s="168">
         <v>11052</v>
       </c>
@@ -6844,37 +6863,37 @@
       <c r="BG19" s="272"/>
     </row>
     <row r="20" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="393" t="s">
+      <c r="A20" s="392" t="s">
         <v>343</v>
       </c>
-      <c r="B20" s="394" t="s">
+      <c r="B20" s="393" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="395">
+      <c r="C20" s="394">
         <v>780</v>
       </c>
-      <c r="D20" s="395">
+      <c r="D20" s="394">
         <v>650</v>
       </c>
-      <c r="E20" s="396">
+      <c r="E20" s="395">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="G20" s="355">
+      <c r="G20" s="354">
         <v>43355</v>
       </c>
-      <c r="H20" s="356" t="s">
+      <c r="H20" s="355" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="357"/>
-      <c r="J20" s="358">
+      <c r="I20" s="356"/>
+      <c r="J20" s="357">
         <v>132</v>
       </c>
-      <c r="K20" s="359"/>
+      <c r="K20" s="358"/>
       <c r="M20" s="74">
         <v>43280</v>
       </c>
-      <c r="N20" s="450" t="s">
+      <c r="N20" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O20" s="91"/>
@@ -6883,12 +6902,12 @@
       <c r="R20" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="459"/>
-      <c r="T20" s="466">
+      <c r="S20" s="457"/>
+      <c r="T20" s="464">
         <v>4900</v>
       </c>
       <c r="U20" s="110"/>
-      <c r="V20" s="467">
+      <c r="V20" s="465">
         <f t="shared" si="7"/>
         <v>4900</v>
       </c>
@@ -6974,21 +6993,21 @@
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
-      <c r="G21" s="337">
+      <c r="G21" s="336">
         <v>43356</v>
       </c>
-      <c r="H21" s="338" t="s">
+      <c r="H21" s="337" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="339"/>
-      <c r="J21" s="339"/>
-      <c r="K21" s="340">
+      <c r="I21" s="338"/>
+      <c r="J21" s="338"/>
+      <c r="K21" s="339">
         <v>11052</v>
       </c>
       <c r="M21" s="74">
         <v>43299</v>
       </c>
-      <c r="N21" s="450" t="s">
+      <c r="N21" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="87"/>
@@ -6997,12 +7016,12 @@
       <c r="R21" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="459"/>
-      <c r="T21" s="466">
+      <c r="S21" s="457"/>
+      <c r="T21" s="464">
         <v>3500</v>
       </c>
       <c r="U21" s="110"/>
-      <c r="V21" s="467">
+      <c r="V21" s="465">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
@@ -7090,21 +7109,21 @@
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
-      <c r="G22" s="360">
+      <c r="G22" s="359">
         <v>43356</v>
       </c>
-      <c r="H22" s="341" t="s">
+      <c r="H22" s="340" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="342"/>
-      <c r="J22" s="342">
+      <c r="I22" s="341"/>
+      <c r="J22" s="341">
         <v>30</v>
       </c>
-      <c r="K22" s="361"/>
+      <c r="K22" s="360"/>
       <c r="M22" s="74">
         <v>43306</v>
       </c>
-      <c r="N22" s="450" t="s">
+      <c r="N22" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="87"/>
@@ -7113,12 +7132,12 @@
       <c r="R22" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="S22" s="459"/>
-      <c r="T22" s="466">
+      <c r="S22" s="457"/>
+      <c r="T22" s="464">
         <v>1700</v>
       </c>
       <c r="U22" s="110"/>
-      <c r="V22" s="467">
+      <c r="V22" s="465">
         <f t="shared" si="7"/>
         <v>1700</v>
       </c>
@@ -7206,21 +7225,21 @@
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
-      <c r="G23" s="343">
+      <c r="G23" s="342">
         <v>43357</v>
       </c>
-      <c r="H23" s="344" t="s">
+      <c r="H23" s="343" t="s">
         <v>188</v>
       </c>
-      <c r="I23" s="345"/>
-      <c r="J23" s="345"/>
-      <c r="K23" s="346">
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
+      <c r="K23" s="345">
         <v>800</v>
       </c>
       <c r="M23" s="74">
         <v>43312</v>
       </c>
-      <c r="N23" s="450" t="s">
+      <c r="N23" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O23" s="87"/>
@@ -7229,12 +7248,12 @@
       <c r="R23" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="S23" s="459"/>
-      <c r="T23" s="466">
+      <c r="S23" s="457"/>
+      <c r="T23" s="464">
         <v>4500</v>
       </c>
       <c r="U23" s="110"/>
-      <c r="V23" s="467">
+      <c r="V23" s="465">
         <f t="shared" si="7"/>
         <v>4500</v>
       </c>
@@ -7242,10 +7261,10 @@
       <c r="X23" s="160">
         <v>43402</v>
       </c>
-      <c r="Y23" s="547" t="s">
+      <c r="Y23" s="557" t="s">
         <v>184</v>
       </c>
-      <c r="Z23" s="548"/>
+      <c r="Z23" s="558"/>
       <c r="AA23" s="168">
         <v>11052</v>
       </c>
@@ -7315,21 +7334,21 @@
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
-      <c r="G24" s="366">
+      <c r="G24" s="365">
         <v>43357</v>
       </c>
-      <c r="H24" s="367" t="s">
+      <c r="H24" s="366" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="368">
+      <c r="I24" s="367">
         <v>1500</v>
       </c>
-      <c r="J24" s="368"/>
-      <c r="K24" s="369"/>
+      <c r="J24" s="367"/>
+      <c r="K24" s="368"/>
       <c r="M24" s="74">
         <v>43331</v>
       </c>
-      <c r="N24" s="450" t="s">
+      <c r="N24" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="87"/>
@@ -7338,12 +7357,12 @@
       <c r="R24" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="S24" s="459"/>
-      <c r="T24" s="466">
+      <c r="S24" s="457"/>
+      <c r="T24" s="464">
         <v>3900</v>
       </c>
       <c r="U24" s="110"/>
-      <c r="V24" s="467">
+      <c r="V24" s="465">
         <f t="shared" si="7"/>
         <v>3900</v>
       </c>
@@ -7351,10 +7370,10 @@
       <c r="X24" s="160">
         <v>43405</v>
       </c>
-      <c r="Y24" s="547" t="s">
+      <c r="Y24" s="557" t="s">
         <v>340</v>
       </c>
-      <c r="Z24" s="548"/>
+      <c r="Z24" s="558"/>
       <c r="AA24" s="168">
         <v>19187</v>
       </c>
@@ -7427,21 +7446,21 @@
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
-      <c r="G25" s="353">
+      <c r="G25" s="352">
         <v>43358</v>
       </c>
-      <c r="H25" s="336" t="s">
+      <c r="H25" s="335" t="s">
         <v>185</v>
       </c>
       <c r="I25" s="221"/>
       <c r="J25" s="221">
         <v>94.28</v>
       </c>
-      <c r="K25" s="354"/>
+      <c r="K25" s="353"/>
       <c r="M25" s="74">
         <v>43335</v>
       </c>
-      <c r="N25" s="450" t="s">
+      <c r="N25" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O25" s="87"/>
@@ -7450,12 +7469,12 @@
       <c r="R25" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="S25" s="459"/>
-      <c r="T25" s="466">
+      <c r="S25" s="457"/>
+      <c r="T25" s="464">
         <v>1500</v>
       </c>
       <c r="U25" s="110"/>
-      <c r="V25" s="467">
+      <c r="V25" s="465">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -7463,10 +7482,10 @@
       <c r="X25" s="160">
         <v>43405</v>
       </c>
-      <c r="Y25" s="547" t="s">
+      <c r="Y25" s="557" t="s">
         <v>341</v>
       </c>
-      <c r="Z25" s="548"/>
+      <c r="Z25" s="558"/>
       <c r="AA25" s="168">
         <v>6798</v>
       </c>
@@ -7539,21 +7558,21 @@
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
-      <c r="G26" s="362">
+      <c r="G26" s="361">
         <v>43358</v>
       </c>
-      <c r="H26" s="363" t="s">
+      <c r="H26" s="362" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="364"/>
-      <c r="J26" s="364">
+      <c r="I26" s="363"/>
+      <c r="J26" s="363">
         <v>165</v>
       </c>
-      <c r="K26" s="365"/>
+      <c r="K26" s="364"/>
       <c r="M26" s="74">
         <v>43344</v>
       </c>
-      <c r="N26" s="450" t="s">
+      <c r="N26" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O26" s="86"/>
@@ -7562,12 +7581,12 @@
       <c r="R26" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="S26" s="459"/>
-      <c r="T26" s="466">
+      <c r="S26" s="457"/>
+      <c r="T26" s="464">
         <v>1500</v>
       </c>
       <c r="U26" s="110"/>
-      <c r="V26" s="467">
+      <c r="V26" s="465">
         <f t="shared" ref="V26" si="8">T26-U26</f>
         <v>1500</v>
       </c>
@@ -7649,21 +7668,21 @@
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
-      <c r="G27" s="370">
+      <c r="G27" s="369">
         <v>43360</v>
       </c>
-      <c r="H27" s="371" t="s">
+      <c r="H27" s="370" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="372">
+      <c r="I27" s="371">
         <v>1000</v>
       </c>
-      <c r="J27" s="372"/>
-      <c r="K27" s="373"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="372"/>
       <c r="M27" s="74">
         <v>43349</v>
       </c>
-      <c r="N27" s="450" t="s">
+      <c r="N27" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O27" s="86"/>
@@ -7672,12 +7691,12 @@
       <c r="R27" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="S27" s="459"/>
-      <c r="T27" s="466">
+      <c r="S27" s="457"/>
+      <c r="T27" s="464">
         <v>3000</v>
       </c>
       <c r="U27" s="110"/>
-      <c r="V27" s="467">
+      <c r="V27" s="465">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
@@ -7761,22 +7780,22 @@
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
-      <c r="G28" s="374">
+      <c r="G28" s="373">
         <v>43361</v>
       </c>
-      <c r="H28" s="375" t="s">
+      <c r="H28" s="374" t="s">
         <v>201</v>
       </c>
-      <c r="I28" s="376"/>
-      <c r="J28" s="376"/>
-      <c r="K28" s="377">
+      <c r="I28" s="375"/>
+      <c r="J28" s="375"/>
+      <c r="K28" s="376">
         <v>200</v>
       </c>
       <c r="L28" s="200"/>
       <c r="M28" s="74">
         <v>43355</v>
       </c>
-      <c r="N28" s="450" t="s">
+      <c r="N28" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O28" s="86"/>
@@ -7785,12 +7804,12 @@
       <c r="R28" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="S28" s="459"/>
-      <c r="T28" s="466">
+      <c r="S28" s="457"/>
+      <c r="T28" s="464">
         <v>460</v>
       </c>
       <c r="U28" s="110"/>
-      <c r="V28" s="467">
+      <c r="V28" s="465">
         <f t="shared" si="7"/>
         <v>460</v>
       </c>
@@ -7876,21 +7895,21 @@
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
-      <c r="G29" s="366">
+      <c r="G29" s="365">
         <v>43362</v>
       </c>
-      <c r="H29" s="367" t="s">
+      <c r="H29" s="366" t="s">
         <v>212</v>
       </c>
-      <c r="I29" s="368"/>
-      <c r="J29" s="368">
+      <c r="I29" s="367"/>
+      <c r="J29" s="367">
         <v>147</v>
       </c>
-      <c r="K29" s="369"/>
+      <c r="K29" s="368"/>
       <c r="M29" s="74">
         <v>43386</v>
       </c>
-      <c r="N29" s="450" t="s">
+      <c r="N29" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O29" s="86"/>
@@ -7899,12 +7918,12 @@
       <c r="R29" s="135" t="s">
         <v>286</v>
       </c>
-      <c r="S29" s="459"/>
-      <c r="T29" s="466">
+      <c r="S29" s="457"/>
+      <c r="T29" s="464">
         <v>1700</v>
       </c>
       <c r="U29" s="110"/>
-      <c r="V29" s="467">
+      <c r="V29" s="465">
         <f t="shared" si="7"/>
         <v>1700</v>
       </c>
@@ -7912,10 +7931,10 @@
       <c r="X29" s="160">
         <v>43418</v>
       </c>
-      <c r="Y29" s="547" t="s">
+      <c r="Y29" s="557" t="s">
         <v>184</v>
       </c>
-      <c r="Z29" s="548"/>
+      <c r="Z29" s="558"/>
       <c r="AA29" s="168">
         <v>11052</v>
       </c>
@@ -7973,7 +7992,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="BE29" s="402"/>
+      <c r="BE29" s="401"/>
       <c r="BF29" s="284">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7984,21 +8003,21 @@
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
-      <c r="G30" s="353">
+      <c r="G30" s="352">
         <v>43362</v>
       </c>
-      <c r="H30" s="336" t="s">
+      <c r="H30" s="335" t="s">
         <v>213</v>
       </c>
       <c r="I30" s="221"/>
       <c r="J30" s="221">
         <v>10</v>
       </c>
-      <c r="K30" s="354"/>
+      <c r="K30" s="353"/>
       <c r="M30" s="74">
         <v>43393</v>
       </c>
-      <c r="N30" s="450" t="s">
+      <c r="N30" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O30" s="86"/>
@@ -8007,12 +8026,12 @@
       <c r="R30" s="135" t="s">
         <v>303</v>
       </c>
-      <c r="S30" s="459"/>
-      <c r="T30" s="466">
+      <c r="S30" s="457"/>
+      <c r="T30" s="464">
         <v>1500</v>
       </c>
       <c r="U30" s="110"/>
-      <c r="V30" s="467">
+      <c r="V30" s="465">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -8098,21 +8117,21 @@
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
-      <c r="G31" s="355">
+      <c r="G31" s="354">
         <v>43363</v>
       </c>
-      <c r="H31" s="356" t="s">
+      <c r="H31" s="355" t="s">
         <v>214</v>
       </c>
-      <c r="I31" s="358"/>
-      <c r="J31" s="358">
+      <c r="I31" s="357"/>
+      <c r="J31" s="357">
         <v>83</v>
       </c>
-      <c r="K31" s="359"/>
+      <c r="K31" s="358"/>
       <c r="M31" s="74">
         <v>43409</v>
       </c>
-      <c r="N31" s="450" t="s">
+      <c r="N31" s="448" t="s">
         <v>16</v>
       </c>
       <c r="O31" s="86"/>
@@ -8121,12 +8140,12 @@
       <c r="R31" s="135" t="s">
         <v>324</v>
       </c>
-      <c r="S31" s="459"/>
-      <c r="T31" s="466">
+      <c r="S31" s="457"/>
+      <c r="T31" s="464">
         <v>2500</v>
       </c>
       <c r="U31" s="110"/>
-      <c r="V31" s="467">
+      <c r="V31" s="465">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
@@ -8199,7 +8218,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BE31" s="403">
+      <c r="BE31" s="402">
         <v>2</v>
       </c>
       <c r="BF31" s="284">
@@ -8212,35 +8231,35 @@
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
-      <c r="G32" s="378">
+      <c r="G32" s="377">
         <v>43361</v>
       </c>
-      <c r="H32" s="379" t="s">
+      <c r="H32" s="378" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="380"/>
-      <c r="J32" s="380"/>
-      <c r="K32" s="381">
+      <c r="I32" s="379"/>
+      <c r="J32" s="379"/>
+      <c r="K32" s="380">
         <v>200</v>
       </c>
       <c r="M32" s="75">
         <v>43405</v>
       </c>
-      <c r="N32" s="451" t="s">
+      <c r="N32" s="449" t="s">
         <v>16</v>
       </c>
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
       <c r="Q32" s="81"/>
-      <c r="R32" s="457" t="s">
+      <c r="R32" s="455" t="s">
         <v>321</v>
       </c>
-      <c r="S32" s="460"/>
-      <c r="T32" s="468">
+      <c r="S32" s="458"/>
+      <c r="T32" s="466">
         <v>3500</v>
       </c>
-      <c r="U32" s="469"/>
-      <c r="V32" s="470">
+      <c r="U32" s="467"/>
+      <c r="V32" s="468">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
@@ -8248,10 +8267,10 @@
       <c r="X32" s="160">
         <v>43433</v>
       </c>
-      <c r="Y32" s="547" t="s">
+      <c r="Y32" s="557" t="s">
         <v>184</v>
       </c>
-      <c r="Z32" s="548"/>
+      <c r="Z32" s="558"/>
       <c r="AA32" s="168">
         <v>10650</v>
       </c>
@@ -8330,19 +8349,19 @@
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="G33" s="366">
+      <c r="G33" s="365">
         <v>43369</v>
       </c>
-      <c r="H33" s="367" t="s">
+      <c r="H33" s="366" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="368"/>
-      <c r="J33" s="368">
+      <c r="I33" s="367"/>
+      <c r="J33" s="367">
         <v>30</v>
       </c>
-      <c r="K33" s="369"/>
-      <c r="M33" s="446"/>
-      <c r="N33" s="447" t="s">
+      <c r="K33" s="368"/>
+      <c r="M33" s="444"/>
+      <c r="N33" s="445" t="s">
         <v>17</v>
       </c>
       <c r="O33" s="128">
@@ -8357,10 +8376,10 @@
         <f>O33-P33</f>
         <v>5270</v>
       </c>
-      <c r="R33" s="455" t="s">
+      <c r="R33" s="453" t="s">
         <v>27</v>
       </c>
-      <c r="S33" s="456"/>
+      <c r="S33" s="454"/>
       <c r="T33" s="140">
         <v>1100</v>
       </c>
@@ -8453,17 +8472,17 @@
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
-      <c r="G34" s="355">
+      <c r="G34" s="354">
         <v>43369</v>
       </c>
-      <c r="H34" s="356" t="s">
+      <c r="H34" s="355" t="s">
         <v>235</v>
       </c>
-      <c r="I34" s="358">
+      <c r="I34" s="357">
         <v>900</v>
       </c>
-      <c r="J34" s="358"/>
-      <c r="K34" s="359"/>
+      <c r="J34" s="357"/>
+      <c r="K34" s="358"/>
       <c r="M34" s="82"/>
       <c r="N34" s="83" t="s">
         <v>17</v>
@@ -8567,15 +8586,15 @@
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
-      <c r="G35" s="397">
+      <c r="G35" s="396">
         <v>43370</v>
       </c>
-      <c r="H35" s="398" t="s">
+      <c r="H35" s="397" t="s">
         <v>184</v>
       </c>
-      <c r="I35" s="399"/>
-      <c r="J35" s="399"/>
-      <c r="K35" s="400">
+      <c r="I35" s="398"/>
+      <c r="J35" s="398"/>
+      <c r="K35" s="399">
         <v>11052</v>
       </c>
       <c r="M35" s="143"/>
@@ -8598,14 +8617,14 @@
         <v>1000</v>
       </c>
       <c r="W35" s="195"/>
-      <c r="X35" s="597" t="s">
+      <c r="X35" s="575" t="s">
         <v>401</v>
       </c>
-      <c r="Y35" s="598"/>
-      <c r="Z35" s="598"/>
-      <c r="AA35" s="599"/>
-      <c r="AB35" s="595">
-        <v>-600</v>
+      <c r="Y35" s="576"/>
+      <c r="Z35" s="576"/>
+      <c r="AA35" s="577"/>
+      <c r="AB35" s="553">
+        <v>-400</v>
       </c>
       <c r="AD35" s="224">
         <v>43376</v>
@@ -8671,17 +8690,17 @@
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
-      <c r="G36" s="366">
+      <c r="G36" s="365">
         <v>43371</v>
       </c>
-      <c r="H36" s="367" t="s">
+      <c r="H36" s="366" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="368"/>
-      <c r="J36" s="368">
+      <c r="I36" s="367"/>
+      <c r="J36" s="367">
         <v>85.11</v>
       </c>
-      <c r="K36" s="369"/>
+      <c r="K36" s="368"/>
       <c r="M36" s="143"/>
       <c r="N36" s="85" t="s">
         <v>17</v>
@@ -8779,17 +8798,17 @@
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
-      <c r="G37" s="353">
+      <c r="G37" s="352">
         <v>43371</v>
       </c>
-      <c r="H37" s="336" t="s">
+      <c r="H37" s="335" t="s">
         <v>240</v>
       </c>
       <c r="I37" s="221"/>
       <c r="J37" s="221">
         <v>16</v>
       </c>
-      <c r="K37" s="354"/>
+      <c r="K37" s="353"/>
       <c r="M37" s="143"/>
       <c r="N37" s="85" t="s">
         <v>17</v>
@@ -8810,11 +8829,21 @@
         <v>500</v>
       </c>
       <c r="W37" s="198"/>
-      <c r="X37" s="160"/>
-      <c r="Y37" s="163"/>
-      <c r="Z37" s="163"/>
-      <c r="AA37" s="168"/>
-      <c r="AB37" s="169"/>
+      <c r="X37" s="555">
+        <v>43446</v>
+      </c>
+      <c r="Y37" s="163" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z37" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA37" s="168">
+        <v>300</v>
+      </c>
+      <c r="AB37" s="169">
+        <v>300</v>
+      </c>
       <c r="AD37" s="224">
         <v>43378</v>
       </c>
@@ -8875,17 +8904,17 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
-      <c r="G38" s="353">
+      <c r="G38" s="352">
         <v>43372</v>
       </c>
-      <c r="H38" s="336" t="s">
+      <c r="H38" s="335" t="s">
         <v>242</v>
       </c>
       <c r="I38" s="221"/>
       <c r="J38" s="221">
         <v>1000</v>
       </c>
-      <c r="K38" s="354"/>
+      <c r="K38" s="353"/>
       <c r="M38" s="82"/>
       <c r="N38" s="83" t="s">
         <v>17</v>
@@ -8906,11 +8935,19 @@
         <v>150</v>
       </c>
       <c r="W38" s="195"/>
-      <c r="X38" s="160"/>
-      <c r="Y38" s="163"/>
-      <c r="Z38" s="163"/>
-      <c r="AA38" s="168"/>
-      <c r="AB38" s="169"/>
+      <c r="X38" s="555">
+        <v>43447</v>
+      </c>
+      <c r="Y38" s="557" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z38" s="558"/>
+      <c r="AA38" s="168">
+        <v>11826.22</v>
+      </c>
+      <c r="AB38" s="168">
+        <v>11826.22</v>
+      </c>
       <c r="AD38" s="224">
         <v>43379</v>
       </c>
@@ -8975,17 +9012,17 @@
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
-      <c r="G39" s="353">
+      <c r="G39" s="352">
         <v>43372</v>
       </c>
-      <c r="H39" s="336" t="s">
+      <c r="H39" s="335" t="s">
         <v>243</v>
       </c>
       <c r="I39" s="221"/>
       <c r="J39" s="221">
         <v>113</v>
       </c>
-      <c r="K39" s="354"/>
+      <c r="K39" s="353"/>
       <c r="M39" s="143"/>
       <c r="N39" s="85" t="s">
         <v>17</v>
@@ -9077,17 +9114,17 @@
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
-      <c r="G40" s="355">
+      <c r="G40" s="354">
         <v>43373</v>
       </c>
-      <c r="H40" s="356" t="s">
+      <c r="H40" s="355" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="358">
+      <c r="I40" s="357">
         <v>2500</v>
       </c>
-      <c r="J40" s="358"/>
-      <c r="K40" s="359"/>
+      <c r="J40" s="357"/>
+      <c r="K40" s="358"/>
       <c r="M40" s="143"/>
       <c r="N40" s="85" t="s">
         <v>17</v>
@@ -9179,15 +9216,15 @@
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
-      <c r="G41" s="410">
+      <c r="G41" s="409">
         <v>43373</v>
       </c>
-      <c r="H41" s="411" t="s">
+      <c r="H41" s="410" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="412"/>
-      <c r="J41" s="412"/>
-      <c r="K41" s="413">
+      <c r="I41" s="411"/>
+      <c r="J41" s="411"/>
+      <c r="K41" s="412">
         <v>200</v>
       </c>
       <c r="M41" s="143"/>
@@ -9285,17 +9322,17 @@
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
-      <c r="G42" s="366">
+      <c r="G42" s="365">
         <v>43376</v>
       </c>
-      <c r="H42" s="367" t="s">
+      <c r="H42" s="366" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="368"/>
-      <c r="J42" s="368">
+      <c r="I42" s="367"/>
+      <c r="J42" s="367">
         <v>598</v>
       </c>
-      <c r="K42" s="369"/>
+      <c r="K42" s="368"/>
       <c r="M42" s="143"/>
       <c r="N42" s="85" t="s">
         <v>17</v>
@@ -9391,10 +9428,10 @@
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
-      <c r="G43" s="414">
+      <c r="G43" s="413">
         <v>43380</v>
       </c>
-      <c r="H43" s="336" t="s">
+      <c r="H43" s="335" t="s">
         <v>259</v>
       </c>
       <c r="I43" s="221">
@@ -9403,7 +9440,7 @@
       <c r="J43" s="221">
         <v>26</v>
       </c>
-      <c r="K43" s="354"/>
+      <c r="K43" s="353"/>
       <c r="M43" s="143"/>
       <c r="N43" s="85" t="s">
         <v>17</v>
@@ -9497,15 +9534,15 @@
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
-      <c r="G44" s="410">
+      <c r="G44" s="409">
         <v>43350</v>
       </c>
-      <c r="H44" s="411" t="s">
+      <c r="H44" s="410" t="s">
         <v>278</v>
       </c>
-      <c r="I44" s="412"/>
-      <c r="J44" s="412"/>
-      <c r="K44" s="413">
+      <c r="I44" s="411"/>
+      <c r="J44" s="411"/>
+      <c r="K44" s="412">
         <v>200</v>
       </c>
       <c r="M44" s="72"/>
@@ -9599,17 +9636,17 @@
       <c r="C45" s="60"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
-      <c r="G45" s="366">
+      <c r="G45" s="365">
         <v>43381</v>
       </c>
-      <c r="H45" s="367" t="s">
+      <c r="H45" s="366" t="s">
         <v>265</v>
       </c>
-      <c r="I45" s="368"/>
-      <c r="J45" s="368">
+      <c r="I45" s="367"/>
+      <c r="J45" s="367">
         <v>335</v>
       </c>
-      <c r="K45" s="369"/>
+      <c r="K45" s="368"/>
       <c r="M45" s="153">
         <v>43167</v>
       </c>
@@ -9717,17 +9754,17 @@
       <c r="C46" s="60"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
-      <c r="G46" s="353">
+      <c r="G46" s="352">
         <v>43382</v>
       </c>
-      <c r="H46" s="336" t="s">
+      <c r="H46" s="335" t="s">
         <v>266</v>
       </c>
       <c r="I46" s="221">
         <v>400</v>
       </c>
       <c r="J46" s="221"/>
-      <c r="K46" s="354"/>
+      <c r="K46" s="353"/>
       <c r="M46" s="89">
         <v>42802</v>
       </c>
@@ -9815,17 +9852,17 @@
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
-      <c r="G47" s="417">
+      <c r="G47" s="415">
         <v>43384</v>
       </c>
-      <c r="H47" s="418" t="s">
+      <c r="H47" s="416" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="419"/>
-      <c r="J47" s="419">
+      <c r="I47" s="417"/>
+      <c r="J47" s="417">
         <v>113</v>
       </c>
-      <c r="K47" s="420"/>
+      <c r="K47" s="418"/>
       <c r="M47" s="74">
         <v>43266</v>
       </c>
@@ -9915,15 +9952,15 @@
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
-      <c r="G48" s="337">
+      <c r="G48" s="336">
         <v>43385</v>
       </c>
-      <c r="H48" s="338" t="s">
+      <c r="H48" s="337" t="s">
         <v>184</v>
       </c>
-      <c r="I48" s="339"/>
-      <c r="J48" s="339"/>
-      <c r="K48" s="340">
+      <c r="I48" s="338"/>
+      <c r="J48" s="338"/>
+      <c r="K48" s="339">
         <v>11052</v>
       </c>
       <c r="M48" s="76"/>
@@ -10019,17 +10056,17 @@
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
-      <c r="G49" s="347">
+      <c r="G49" s="346">
         <v>43385</v>
       </c>
-      <c r="H49" s="348" t="s">
+      <c r="H49" s="347" t="s">
         <v>283</v>
       </c>
-      <c r="I49" s="349">
+      <c r="I49" s="348">
         <v>1500</v>
       </c>
-      <c r="J49" s="349"/>
-      <c r="K49" s="350"/>
+      <c r="J49" s="348"/>
+      <c r="K49" s="349"/>
       <c r="M49" s="154">
         <v>43375</v>
       </c>
@@ -10125,39 +10162,39 @@
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
-      <c r="G50" s="351">
+      <c r="G50" s="350">
         <v>43385</v>
       </c>
-      <c r="H50" s="335" t="s">
+      <c r="H50" s="334" t="s">
         <v>285</v>
       </c>
       <c r="I50" s="220"/>
       <c r="J50" s="220">
         <v>162</v>
       </c>
-      <c r="K50" s="352"/>
-      <c r="M50" s="300" t="s">
+      <c r="K50" s="351"/>
+      <c r="M50" s="299" t="s">
         <v>86</v>
       </c>
-      <c r="N50" s="301" t="s">
+      <c r="N50" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="O50" s="302">
+      <c r="O50" s="301">
         <f>SUM(T50:T60)</f>
         <v>7505</v>
       </c>
-      <c r="P50" s="303">
+      <c r="P50" s="302">
         <f>SUM(U50:U60)</f>
         <v>5050</v>
       </c>
-      <c r="Q50" s="304">
+      <c r="Q50" s="303">
         <f>O50-P50</f>
         <v>2455</v>
       </c>
-      <c r="R50" s="305" t="s">
+      <c r="R50" s="304" t="s">
         <v>85</v>
       </c>
-      <c r="S50" s="306" t="s">
+      <c r="S50" s="305" t="s">
         <v>122</v>
       </c>
       <c r="T50" s="103">
@@ -10240,28 +10277,28 @@
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
-      <c r="G51" s="351">
+      <c r="G51" s="350">
         <v>43386</v>
       </c>
-      <c r="H51" s="335" t="s">
+      <c r="H51" s="334" t="s">
         <v>282</v>
       </c>
       <c r="I51" s="220">
         <v>1800</v>
       </c>
       <c r="J51" s="220"/>
-      <c r="K51" s="352"/>
-      <c r="M51" s="307"/>
+      <c r="K51" s="351"/>
+      <c r="M51" s="306"/>
       <c r="N51" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="308"/>
-      <c r="P51" s="309"/>
-      <c r="Q51" s="310"/>
-      <c r="R51" s="311" t="s">
+      <c r="O51" s="307"/>
+      <c r="P51" s="308"/>
+      <c r="Q51" s="309"/>
+      <c r="R51" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="S51" s="312"/>
+      <c r="S51" s="311"/>
       <c r="T51" s="106">
         <v>2900</v>
       </c>
@@ -10344,17 +10381,17 @@
       <c r="C52" s="60"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
-      <c r="G52" s="351">
+      <c r="G52" s="350">
         <v>43387</v>
       </c>
-      <c r="H52" s="335" t="s">
+      <c r="H52" s="334" t="s">
         <v>284</v>
       </c>
       <c r="I52" s="220"/>
       <c r="J52" s="220">
         <v>158</v>
       </c>
-      <c r="K52" s="352"/>
+      <c r="K52" s="351"/>
       <c r="M52" s="143"/>
       <c r="N52" s="85" t="s">
         <v>19</v>
@@ -10365,7 +10402,7 @@
       <c r="R52" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="S52" s="313"/>
+      <c r="S52" s="312"/>
       <c r="T52" s="109">
         <v>240</v>
       </c>
@@ -10448,17 +10485,17 @@
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
-      <c r="G53" s="351">
+      <c r="G53" s="350">
         <v>43387</v>
       </c>
-      <c r="H53" s="335" t="s">
+      <c r="H53" s="334" t="s">
         <v>154</v>
       </c>
       <c r="I53" s="220"/>
       <c r="J53" s="220">
         <v>200</v>
       </c>
-      <c r="K53" s="352"/>
+      <c r="K53" s="351"/>
       <c r="M53" s="143" t="s">
         <v>102</v>
       </c>
@@ -10471,7 +10508,7 @@
       <c r="R53" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="313" t="s">
+      <c r="S53" s="312" t="s">
         <v>109</v>
       </c>
       <c r="T53" s="109">
@@ -10548,17 +10585,17 @@
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
-      <c r="G54" s="481">
+      <c r="G54" s="479">
         <v>43390</v>
       </c>
-      <c r="H54" s="421" t="s">
+      <c r="H54" s="419" t="s">
         <v>290</v>
       </c>
       <c r="I54" s="289"/>
       <c r="J54" s="289">
         <v>50</v>
       </c>
-      <c r="K54" s="482"/>
+      <c r="K54" s="480"/>
       <c r="M54" s="143"/>
       <c r="N54" s="85" t="s">
         <v>19</v>
@@ -10569,16 +10606,16 @@
       <c r="R54" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="S54" s="313" t="s">
+      <c r="S54" s="312" t="s">
         <v>392</v>
       </c>
-      <c r="T54" s="586">
+      <c r="T54" s="544">
         <v>100</v>
       </c>
-      <c r="U54" s="587">
+      <c r="U54" s="545">
         <v>100</v>
       </c>
-      <c r="V54" s="588">
+      <c r="V54" s="546">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10654,17 +10691,17 @@
       <c r="C55" s="60"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
-      <c r="G55" s="481">
+      <c r="G55" s="479">
         <v>43390</v>
       </c>
-      <c r="H55" s="421" t="s">
+      <c r="H55" s="419" t="s">
         <v>291</v>
       </c>
       <c r="I55" s="289"/>
       <c r="J55" s="289">
         <v>145</v>
       </c>
-      <c r="K55" s="482"/>
+      <c r="K55" s="480"/>
       <c r="M55" s="143"/>
       <c r="N55" s="85" t="s">
         <v>19</v>
@@ -10675,16 +10712,16 @@
       <c r="R55" s="135" t="s">
         <v>370</v>
       </c>
-      <c r="S55" s="313" t="s">
+      <c r="S55" s="312" t="s">
         <v>376</v>
       </c>
-      <c r="T55" s="586">
+      <c r="T55" s="544">
         <v>1000</v>
       </c>
-      <c r="U55" s="587">
+      <c r="U55" s="545">
         <v>1000</v>
       </c>
-      <c r="V55" s="588">
+      <c r="V55" s="546">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10754,17 +10791,17 @@
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
-      <c r="G56" s="481">
+      <c r="G56" s="479">
         <v>43393</v>
       </c>
-      <c r="H56" s="421" t="s">
+      <c r="H56" s="419" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="289">
         <v>2000</v>
       </c>
       <c r="J56" s="289"/>
-      <c r="K56" s="482"/>
+      <c r="K56" s="480"/>
       <c r="M56" s="143"/>
       <c r="N56" s="85" t="s">
         <v>110</v>
@@ -10775,7 +10812,7 @@
       <c r="R56" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="S56" s="313"/>
+      <c r="S56" s="312"/>
       <c r="T56" s="109">
         <v>80</v>
       </c>
@@ -10852,17 +10889,17 @@
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
-      <c r="G57" s="417">
+      <c r="G57" s="415">
         <v>43397</v>
       </c>
-      <c r="H57" s="418" t="s">
+      <c r="H57" s="416" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="419"/>
-      <c r="J57" s="419">
+      <c r="I57" s="417"/>
+      <c r="J57" s="417">
         <v>175</v>
       </c>
-      <c r="K57" s="420"/>
+      <c r="K57" s="418"/>
       <c r="M57" s="143"/>
       <c r="N57" s="85" t="s">
         <v>19</v>
@@ -10873,7 +10910,7 @@
       <c r="R57" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="S57" s="313" t="s">
+      <c r="S57" s="312" t="s">
         <v>306</v>
       </c>
       <c r="T57" s="109">
@@ -10956,15 +10993,15 @@
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
-      <c r="G58" s="337">
+      <c r="G58" s="336">
         <v>43402</v>
       </c>
-      <c r="H58" s="338" t="s">
+      <c r="H58" s="337" t="s">
         <v>184</v>
       </c>
-      <c r="I58" s="339"/>
-      <c r="J58" s="339"/>
-      <c r="K58" s="340">
+      <c r="I58" s="338"/>
+      <c r="J58" s="338"/>
+      <c r="K58" s="339">
         <v>11052</v>
       </c>
       <c r="M58" s="84">
@@ -10979,16 +11016,16 @@
       <c r="R58" s="135" t="s">
         <v>299</v>
       </c>
-      <c r="S58" s="313" t="s">
+      <c r="S58" s="312" t="s">
         <v>306</v>
       </c>
-      <c r="T58" s="586">
+      <c r="T58" s="544">
         <v>145</v>
       </c>
-      <c r="U58" s="587">
+      <c r="U58" s="545">
         <v>145</v>
       </c>
-      <c r="V58" s="588">
+      <c r="V58" s="546">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11062,17 +11099,17 @@
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
-      <c r="G59" s="477">
+      <c r="G59" s="475">
         <v>43402</v>
       </c>
-      <c r="H59" s="478" t="s">
+      <c r="H59" s="476" t="s">
         <v>316</v>
       </c>
-      <c r="I59" s="479">
+      <c r="I59" s="477">
         <v>1000</v>
       </c>
-      <c r="J59" s="479"/>
-      <c r="K59" s="480"/>
+      <c r="J59" s="477"/>
+      <c r="K59" s="478"/>
       <c r="M59" s="84">
         <v>43334</v>
       </c>
@@ -11085,16 +11122,16 @@
       <c r="R59" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="S59" s="313" t="s">
+      <c r="S59" s="312" t="s">
         <v>306</v>
       </c>
-      <c r="T59" s="586">
+      <c r="T59" s="544">
         <v>200</v>
       </c>
-      <c r="U59" s="587">
+      <c r="U59" s="545">
         <v>200</v>
       </c>
-      <c r="V59" s="588">
+      <c r="V59" s="546">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11168,15 +11205,15 @@
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
-      <c r="G60" s="431">
+      <c r="G60" s="429">
         <v>43403</v>
       </c>
-      <c r="H60" s="432" t="s">
+      <c r="H60" s="430" t="s">
         <v>367</v>
       </c>
-      <c r="I60" s="433"/>
-      <c r="J60" s="433"/>
-      <c r="K60" s="434">
+      <c r="I60" s="431"/>
+      <c r="J60" s="431"/>
+      <c r="K60" s="432">
         <v>200</v>
       </c>
       <c r="M60" s="74">
@@ -11185,22 +11222,22 @@
       <c r="N60" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="O60" s="425"/>
-      <c r="P60" s="426"/>
-      <c r="Q60" s="427"/>
-      <c r="R60" s="329" t="s">
+      <c r="O60" s="423"/>
+      <c r="P60" s="424"/>
+      <c r="Q60" s="425"/>
+      <c r="R60" s="328" t="s">
         <v>112</v>
       </c>
-      <c r="S60" s="422" t="s">
+      <c r="S60" s="420" t="s">
         <v>377</v>
       </c>
-      <c r="T60" s="589">
+      <c r="T60" s="547">
         <v>200</v>
       </c>
-      <c r="U60" s="590">
+      <c r="U60" s="548">
         <v>200</v>
       </c>
-      <c r="V60" s="591">
+      <c r="V60" s="549">
         <f>T60-U60</f>
         <v>0</v>
       </c>
@@ -11276,37 +11313,37 @@
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
-      <c r="G61" s="435">
+      <c r="G61" s="433">
         <v>43405</v>
       </c>
-      <c r="H61" s="436" t="s">
+      <c r="H61" s="434" t="s">
         <v>319</v>
       </c>
-      <c r="I61" s="437"/>
-      <c r="J61" s="437"/>
-      <c r="K61" s="438">
+      <c r="I61" s="435"/>
+      <c r="J61" s="435"/>
+      <c r="K61" s="436">
         <v>19187</v>
       </c>
-      <c r="M61" s="423" t="s">
+      <c r="M61" s="421" t="s">
         <v>307</v>
       </c>
-      <c r="N61" s="424" t="s">
+      <c r="N61" s="422" t="s">
         <v>308</v>
       </c>
-      <c r="O61" s="428"/>
-      <c r="P61" s="429"/>
-      <c r="Q61" s="430"/>
-      <c r="R61" s="424" t="s">
+      <c r="O61" s="426"/>
+      <c r="P61" s="427"/>
+      <c r="Q61" s="428"/>
+      <c r="R61" s="422" t="s">
         <v>309</v>
       </c>
-      <c r="S61" s="424"/>
-      <c r="T61" s="592">
+      <c r="S61" s="422"/>
+      <c r="T61" s="550">
         <v>110</v>
       </c>
-      <c r="U61" s="593">
+      <c r="U61" s="551">
         <v>110</v>
       </c>
-      <c r="V61" s="594">
+      <c r="V61" s="552">
         <f>T61-U61</f>
         <v>0</v>
       </c>
@@ -11380,15 +11417,15 @@
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
-      <c r="G62" s="439">
+      <c r="G62" s="437">
         <v>43405</v>
       </c>
-      <c r="H62" s="440" t="s">
+      <c r="H62" s="438" t="s">
         <v>320</v>
       </c>
-      <c r="I62" s="441"/>
-      <c r="J62" s="441"/>
-      <c r="K62" s="442">
+      <c r="I62" s="439"/>
+      <c r="J62" s="439"/>
+      <c r="K62" s="440">
         <v>6798</v>
       </c>
       <c r="M62" s="197"/>
@@ -11471,17 +11508,17 @@
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
-      <c r="G63" s="475">
+      <c r="G63" s="473">
         <v>43405</v>
       </c>
-      <c r="H63" s="443" t="s">
+      <c r="H63" s="441" t="s">
         <v>322</v>
       </c>
-      <c r="I63" s="444">
+      <c r="I63" s="442">
         <v>4000</v>
       </c>
-      <c r="J63" s="444"/>
-      <c r="K63" s="476"/>
+      <c r="J63" s="442"/>
+      <c r="K63" s="474"/>
       <c r="M63" s="197"/>
       <c r="N63" s="197"/>
       <c r="O63" s="67"/>
@@ -11562,15 +11599,15 @@
       <c r="C64" s="60"/>
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
-      <c r="G64" s="351"/>
-      <c r="H64" s="335" t="s">
+      <c r="G64" s="350"/>
+      <c r="H64" s="334" t="s">
         <v>391</v>
       </c>
       <c r="I64" s="220"/>
       <c r="J64" s="220">
         <v>559</v>
       </c>
-      <c r="K64" s="352"/>
+      <c r="K64" s="351"/>
       <c r="M64" s="197"/>
       <c r="N64" s="197"/>
       <c r="O64" s="67"/>
@@ -11649,15 +11686,15 @@
       <c r="C65" s="60"/>
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
-      <c r="G65" s="351"/>
-      <c r="H65" s="335" t="s">
+      <c r="G65" s="350"/>
+      <c r="H65" s="334" t="s">
         <v>154</v>
       </c>
       <c r="I65" s="220"/>
       <c r="J65" s="220">
         <v>200</v>
       </c>
-      <c r="K65" s="352"/>
+      <c r="K65" s="351"/>
       <c r="M65" s="197"/>
       <c r="N65" s="197"/>
       <c r="O65" s="67"/>
@@ -11736,17 +11773,17 @@
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
-      <c r="G66" s="351">
+      <c r="G66" s="350">
         <v>43409</v>
       </c>
-      <c r="H66" s="335" t="s">
+      <c r="H66" s="334" t="s">
         <v>323</v>
       </c>
       <c r="I66" s="220">
         <v>2500</v>
       </c>
       <c r="J66" s="220"/>
-      <c r="K66" s="352"/>
+      <c r="K66" s="351"/>
       <c r="M66" s="197"/>
       <c r="N66" s="197"/>
       <c r="O66" s="67"/>
@@ -11827,17 +11864,17 @@
       <c r="C67" s="60"/>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
-      <c r="G67" s="355">
+      <c r="G67" s="354">
         <v>43413</v>
       </c>
-      <c r="H67" s="356" t="s">
+      <c r="H67" s="355" t="s">
         <v>361</v>
       </c>
-      <c r="I67" s="358">
+      <c r="I67" s="357">
         <v>500</v>
       </c>
-      <c r="J67" s="358"/>
-      <c r="K67" s="359"/>
+      <c r="J67" s="357"/>
+      <c r="K67" s="358"/>
       <c r="M67" s="197"/>
       <c r="N67" s="197"/>
       <c r="O67" s="67"/>
@@ -11914,15 +11951,15 @@
       <c r="C68" s="60"/>
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
-      <c r="G68" s="431">
+      <c r="G68" s="429">
         <v>43417</v>
       </c>
-      <c r="H68" s="432" t="s">
+      <c r="H68" s="430" t="s">
         <v>364</v>
       </c>
-      <c r="I68" s="433"/>
-      <c r="J68" s="433"/>
-      <c r="K68" s="434">
+      <c r="I68" s="431"/>
+      <c r="J68" s="431"/>
+      <c r="K68" s="432">
         <v>250</v>
       </c>
       <c r="M68" s="197"/>
@@ -12007,15 +12044,15 @@
       <c r="C69" s="60"/>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
-      <c r="G69" s="410">
+      <c r="G69" s="409">
         <v>43417</v>
       </c>
-      <c r="H69" s="411" t="s">
+      <c r="H69" s="410" t="s">
         <v>368</v>
       </c>
-      <c r="I69" s="412"/>
-      <c r="J69" s="412"/>
-      <c r="K69" s="413">
+      <c r="I69" s="411"/>
+      <c r="J69" s="411"/>
+      <c r="K69" s="412">
         <v>200</v>
       </c>
       <c r="M69" s="197"/>
@@ -12104,17 +12141,17 @@
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
-      <c r="G70" s="483">
+      <c r="G70" s="481">
         <v>43417</v>
       </c>
-      <c r="H70" s="484" t="s">
+      <c r="H70" s="482" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="485"/>
-      <c r="J70" s="485">
+      <c r="I70" s="483"/>
+      <c r="J70" s="483">
         <v>227</v>
       </c>
-      <c r="K70" s="486"/>
+      <c r="K70" s="484"/>
       <c r="M70" s="197"/>
       <c r="N70" s="197"/>
       <c r="O70" s="67"/>
@@ -12197,15 +12234,15 @@
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
-      <c r="G71" s="397">
+      <c r="G71" s="396">
         <v>43418</v>
       </c>
-      <c r="H71" s="398" t="s">
+      <c r="H71" s="397" t="s">
         <v>184</v>
       </c>
-      <c r="I71" s="399"/>
-      <c r="J71" s="399"/>
-      <c r="K71" s="400">
+      <c r="I71" s="398"/>
+      <c r="J71" s="398"/>
+      <c r="K71" s="399">
         <v>11052</v>
       </c>
       <c r="M71" s="197"/>
@@ -12290,14 +12327,14 @@
       <c r="C72" s="60"/>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
-      <c r="G72" s="487">
+      <c r="G72" s="593">
         <v>43418</v>
       </c>
-      <c r="H72" s="421" t="s">
+      <c r="H72" s="335" t="s">
         <v>169</v>
       </c>
-      <c r="I72" s="289"/>
-      <c r="J72" s="289">
+      <c r="I72" s="221"/>
+      <c r="J72" s="221">
         <v>30</v>
       </c>
       <c r="K72" s="289"/>
@@ -12385,16 +12422,16 @@
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
-      <c r="G73" s="487">
+      <c r="G73" s="593">
         <v>43419</v>
       </c>
-      <c r="H73" s="421" t="s">
+      <c r="H73" s="335" t="s">
         <v>372</v>
       </c>
-      <c r="I73" s="289">
+      <c r="I73" s="221">
         <v>1000</v>
       </c>
-      <c r="J73" s="289"/>
+      <c r="J73" s="221"/>
       <c r="K73" s="289"/>
       <c r="M73" s="197"/>
       <c r="N73" s="197"/>
@@ -12478,14 +12515,14 @@
       <c r="C74" s="60"/>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
-      <c r="G74" s="487">
+      <c r="G74" s="593">
         <v>43420</v>
       </c>
-      <c r="H74" s="421" t="s">
+      <c r="H74" s="335" t="s">
         <v>371</v>
       </c>
-      <c r="I74" s="289"/>
-      <c r="J74" s="289">
+      <c r="I74" s="221"/>
+      <c r="J74" s="221">
         <v>5097</v>
       </c>
       <c r="K74" s="289"/>
@@ -12565,15 +12602,15 @@
       <c r="C75" s="60"/>
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
-      <c r="G75" s="431">
+      <c r="G75" s="429">
         <v>43425</v>
       </c>
-      <c r="H75" s="432" t="s">
+      <c r="H75" s="430" t="s">
         <v>364</v>
       </c>
-      <c r="I75" s="433"/>
-      <c r="J75" s="433"/>
-      <c r="K75" s="434">
+      <c r="I75" s="431"/>
+      <c r="J75" s="431"/>
+      <c r="K75" s="432">
         <v>450</v>
       </c>
       <c r="M75" s="197"/>
@@ -12662,15 +12699,15 @@
       <c r="C76" s="60"/>
       <c r="D76" s="60"/>
       <c r="E76" s="60"/>
-      <c r="G76" s="584">
+      <c r="G76" s="359">
         <v>43430</v>
       </c>
-      <c r="H76" s="545"/>
-      <c r="I76" s="546">
+      <c r="H76" s="340"/>
+      <c r="I76" s="341">
         <v>500</v>
       </c>
-      <c r="J76" s="546"/>
-      <c r="K76" s="585"/>
+      <c r="J76" s="341"/>
+      <c r="K76" s="543"/>
       <c r="M76" s="197"/>
       <c r="N76" s="197"/>
       <c r="O76" s="67"/>
@@ -12751,15 +12788,15 @@
       <c r="C77" s="60"/>
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
-      <c r="G77" s="576">
+      <c r="G77" s="594">
         <v>43433</v>
       </c>
-      <c r="H77" s="577" t="s">
+      <c r="H77" s="595" t="s">
         <v>184</v>
       </c>
-      <c r="I77" s="578"/>
-      <c r="J77" s="578"/>
-      <c r="K77" s="579">
+      <c r="I77" s="596"/>
+      <c r="J77" s="596"/>
+      <c r="K77" s="542">
         <v>10650</v>
       </c>
       <c r="M77" s="197"/>
@@ -12838,15 +12875,15 @@
       <c r="C78" s="60"/>
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
-      <c r="G78" s="481">
+      <c r="G78" s="352">
         <v>43437</v>
       </c>
-      <c r="H78" s="421"/>
-      <c r="I78" s="289">
+      <c r="H78" s="335"/>
+      <c r="I78" s="221">
         <v>1000</v>
       </c>
-      <c r="J78" s="289"/>
-      <c r="K78" s="482"/>
+      <c r="J78" s="221"/>
+      <c r="K78" s="480"/>
       <c r="M78" s="197"/>
       <c r="N78" s="197"/>
       <c r="O78" s="67"/>
@@ -12921,15 +12958,15 @@
       <c r="C79" s="60"/>
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
-      <c r="G79" s="481">
+      <c r="G79" s="361">
         <v>43437</v>
       </c>
-      <c r="H79" s="421"/>
-      <c r="I79" s="289"/>
-      <c r="J79" s="289">
+      <c r="H79" s="362"/>
+      <c r="I79" s="363"/>
+      <c r="J79" s="363">
         <v>560</v>
       </c>
-      <c r="K79" s="482"/>
+      <c r="K79" s="556"/>
       <c r="M79" s="197"/>
       <c r="N79" s="197"/>
       <c r="O79" s="67"/>
@@ -13002,15 +13039,15 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
-      <c r="G80" s="580">
+      <c r="G80" s="429">
         <v>43438</v>
       </c>
-      <c r="H80" s="581" t="s">
+      <c r="H80" s="430" t="s">
         <v>364</v>
       </c>
-      <c r="I80" s="582"/>
-      <c r="J80" s="582"/>
-      <c r="K80" s="583">
+      <c r="I80" s="431"/>
+      <c r="J80" s="431"/>
+      <c r="K80" s="432">
         <v>450</v>
       </c>
       <c r="M80" s="197"/>
@@ -13095,17 +13132,17 @@
       <c r="C81" s="60"/>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
-      <c r="G81" s="481">
+      <c r="G81" s="589">
         <v>43440</v>
       </c>
-      <c r="H81" s="421" t="s">
+      <c r="H81" s="590" t="s">
         <v>154</v>
       </c>
-      <c r="I81" s="289"/>
-      <c r="J81" s="289">
+      <c r="I81" s="591"/>
+      <c r="J81" s="591">
         <v>200</v>
       </c>
-      <c r="K81" s="482"/>
+      <c r="K81" s="592"/>
       <c r="M81" s="197"/>
       <c r="N81" s="197"/>
       <c r="O81" s="67"/>
@@ -13188,13 +13225,17 @@
       <c r="C82" s="60"/>
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
-      <c r="G82" s="417"/>
-      <c r="H82" s="418"/>
-      <c r="I82" s="419"/>
-      <c r="J82" s="419"/>
-      <c r="K82" s="420">
-        <v>3000</v>
-      </c>
+      <c r="G82" s="589">
+        <v>43440</v>
+      </c>
+      <c r="H82" s="590" t="s">
+        <v>420</v>
+      </c>
+      <c r="I82" s="591"/>
+      <c r="J82" s="591">
+        <v>85</v>
+      </c>
+      <c r="K82" s="592"/>
       <c r="M82" s="197"/>
       <c r="N82" s="197"/>
       <c r="O82" s="67"/>
@@ -13275,11 +13316,15 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
       <c r="E83" s="60"/>
-      <c r="G83" s="298"/>
-      <c r="H83" s="296"/>
-      <c r="I83" s="297"/>
-      <c r="J83" s="297"/>
-      <c r="K83" s="297"/>
+      <c r="G83" s="352">
+        <v>43441</v>
+      </c>
+      <c r="H83" s="335"/>
+      <c r="I83" s="221"/>
+      <c r="J83" s="221"/>
+      <c r="K83" s="353">
+        <v>3000</v>
+      </c>
       <c r="M83" s="197"/>
       <c r="N83" s="197"/>
       <c r="O83" s="67"/>
@@ -13356,11 +13401,15 @@
       <c r="C84" s="60"/>
       <c r="D84" s="60"/>
       <c r="E84" s="60"/>
-      <c r="G84" s="298"/>
-      <c r="H84" s="296"/>
-      <c r="I84" s="297"/>
-      <c r="J84" s="297"/>
-      <c r="K84" s="297"/>
+      <c r="G84" s="361">
+        <v>43442</v>
+      </c>
+      <c r="H84" s="362"/>
+      <c r="I84" s="363"/>
+      <c r="J84" s="363">
+        <v>178</v>
+      </c>
+      <c r="K84" s="364"/>
       <c r="M84" s="197"/>
       <c r="N84" s="197"/>
       <c r="O84" s="67"/>
@@ -13439,11 +13488,17 @@
       <c r="C85" s="60"/>
       <c r="D85" s="60"/>
       <c r="E85" s="60"/>
-      <c r="G85" s="298"/>
-      <c r="H85" s="296"/>
-      <c r="I85" s="297"/>
-      <c r="J85" s="297"/>
-      <c r="K85" s="297"/>
+      <c r="G85" s="429">
+        <v>43445</v>
+      </c>
+      <c r="H85" s="430" t="s">
+        <v>364</v>
+      </c>
+      <c r="I85" s="431"/>
+      <c r="J85" s="431"/>
+      <c r="K85" s="432">
+        <v>300</v>
+      </c>
       <c r="M85" s="197"/>
       <c r="N85" s="197"/>
       <c r="O85" s="67"/>
@@ -13524,11 +13579,17 @@
       <c r="C86" s="60"/>
       <c r="D86" s="60"/>
       <c r="E86" s="60"/>
-      <c r="G86" s="298"/>
-      <c r="H86" s="299"/>
-      <c r="I86" s="297"/>
-      <c r="J86" s="297"/>
-      <c r="K86" s="297"/>
+      <c r="G86" s="359">
+        <v>43445</v>
+      </c>
+      <c r="H86" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="I86" s="341"/>
+      <c r="J86" s="341">
+        <v>30</v>
+      </c>
+      <c r="K86" s="360"/>
       <c r="M86" s="197"/>
       <c r="N86" s="197"/>
       <c r="O86" s="67"/>
@@ -13605,11 +13666,17 @@
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
       <c r="E87" s="60"/>
-      <c r="G87" s="298"/>
-      <c r="H87" s="299"/>
-      <c r="I87" s="297"/>
-      <c r="J87" s="297"/>
-      <c r="K87" s="297"/>
+      <c r="G87" s="336">
+        <v>43447</v>
+      </c>
+      <c r="H87" s="337" t="s">
+        <v>184</v>
+      </c>
+      <c r="I87" s="338"/>
+      <c r="J87" s="338"/>
+      <c r="K87" s="339">
+        <v>11826.22</v>
+      </c>
       <c r="M87" s="197"/>
       <c r="N87" s="197"/>
       <c r="O87" s="67"/>
@@ -13687,11 +13754,11 @@
       <c r="C88" s="60"/>
       <c r="D88" s="60"/>
       <c r="E88" s="60"/>
-      <c r="G88" s="298"/>
-      <c r="H88" s="299"/>
-      <c r="I88" s="297"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="297"/>
+      <c r="G88" s="297"/>
+      <c r="H88" s="298"/>
+      <c r="I88" s="296"/>
+      <c r="J88" s="296"/>
+      <c r="K88" s="296"/>
       <c r="M88" s="197"/>
       <c r="N88" s="197"/>
       <c r="O88" s="67"/>
@@ -13767,11 +13834,11 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
       <c r="E89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="58"/>
+      <c r="G89" s="297"/>
+      <c r="H89" s="298"/>
+      <c r="I89" s="296"/>
       <c r="J89" s="59"/>
-      <c r="K89" s="66"/>
+      <c r="K89" s="296"/>
       <c r="M89" s="197"/>
       <c r="N89" s="197"/>
       <c r="O89" s="67"/>
@@ -14866,24 +14933,38 @@
       <c r="AE101" s="228" t="s">
         <v>149</v>
       </c>
-      <c r="AF101" s="231"/>
+      <c r="AF101" s="231" t="s">
+        <v>423</v>
+      </c>
       <c r="AG101" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-930</v>
       </c>
       <c r="AH101" s="236"/>
       <c r="AI101" s="237"/>
       <c r="AJ101" s="85"/>
       <c r="AK101" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL101" s="261"/>
-      <c r="AM101" s="256"/>
-      <c r="AN101" s="292"/>
-      <c r="AO101" s="219"/>
-      <c r="AP101" s="216"/>
-      <c r="AQ101" s="216"/>
+        <v>930</v>
+      </c>
+      <c r="AL101" s="261">
+        <v>150</v>
+      </c>
+      <c r="AM101" s="256" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN101" s="292" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO101" s="221">
+        <v>500</v>
+      </c>
+      <c r="AP101" s="216">
+        <v>100</v>
+      </c>
+      <c r="AQ101" s="216">
+        <v>180</v>
+      </c>
       <c r="AR101" s="216"/>
       <c r="AS101" s="216"/>
       <c r="AT101" s="216"/>
@@ -14948,7 +15029,9 @@
       <c r="AE102" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="AF102" s="231"/>
+      <c r="AF102" s="231" t="s">
+        <v>424</v>
+      </c>
       <c r="AG102" s="233">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15028,19 +15111,23 @@
       <c r="AE103" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="AF103" s="231"/>
+      <c r="AF103" s="231" t="s">
+        <v>425</v>
+      </c>
       <c r="AG103" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="AH103" s="236"/>
       <c r="AI103" s="237"/>
       <c r="AJ103" s="85"/>
       <c r="AK103" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL103" s="261"/>
+        <v>34</v>
+      </c>
+      <c r="AL103" s="261">
+        <v>34</v>
+      </c>
       <c r="AM103" s="256"/>
       <c r="AN103" s="292"/>
       <c r="AO103" s="216"/>
@@ -15108,22 +15195,28 @@
       <c r="AE104" s="229" t="s">
         <v>59</v>
       </c>
-      <c r="AF104" s="231"/>
+      <c r="AF104" s="231" t="s">
+        <v>422</v>
+      </c>
       <c r="AG104" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="AH104" s="236"/>
       <c r="AI104" s="237"/>
       <c r="AJ104" s="85"/>
       <c r="AK104" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL104" s="261"/>
+        <v>64</v>
+      </c>
+      <c r="AL104" s="261">
+        <v>34</v>
+      </c>
       <c r="AM104" s="256"/>
       <c r="AN104" s="292"/>
-      <c r="AO104" s="216"/>
+      <c r="AO104" s="216">
+        <v>30</v>
+      </c>
       <c r="AP104" s="216"/>
       <c r="AQ104" s="216"/>
       <c r="AR104" s="216"/>
@@ -15188,22 +15281,32 @@
       <c r="AE105" s="229" t="s">
         <v>63</v>
       </c>
-      <c r="AF105" s="231"/>
+      <c r="AF105" s="231" t="s">
+        <v>421</v>
+      </c>
       <c r="AG105" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-235</v>
       </c>
       <c r="AH105" s="236"/>
       <c r="AI105" s="237"/>
       <c r="AJ105" s="85"/>
       <c r="AK105" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL105" s="261"/>
-      <c r="AM105" s="256"/>
-      <c r="AN105" s="292"/>
-      <c r="AO105" s="216"/>
+        <v>235</v>
+      </c>
+      <c r="AL105" s="261">
+        <v>140</v>
+      </c>
+      <c r="AM105" s="256" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN105" s="292" t="s">
+        <v>417</v>
+      </c>
+      <c r="AO105" s="216">
+        <v>95</v>
+      </c>
       <c r="AP105" s="216"/>
       <c r="AQ105" s="216"/>
       <c r="AR105" s="216"/>
@@ -16744,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="BE124" s="143"/>
-      <c r="BF124" s="405">
+      <c r="BF124" s="404">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -16779,38 +16882,38 @@
       <c r="Z125" s="163"/>
       <c r="AA125" s="168"/>
       <c r="AB125" s="169"/>
-      <c r="AD125" s="314">
+      <c r="AD125" s="313">
         <v>43466</v>
       </c>
-      <c r="AE125" s="315"/>
-      <c r="AF125" s="316"/>
-      <c r="AG125" s="317"/>
-      <c r="AH125" s="318"/>
-      <c r="AI125" s="315"/>
-      <c r="AJ125" s="319"/>
-      <c r="AK125" s="320"/>
-      <c r="AL125" s="318"/>
-      <c r="AM125" s="321"/>
-      <c r="AN125" s="322"/>
-      <c r="AO125" s="323"/>
-      <c r="AP125" s="323"/>
-      <c r="AQ125" s="323"/>
-      <c r="AR125" s="323"/>
-      <c r="AS125" s="323"/>
-      <c r="AT125" s="323"/>
-      <c r="AU125" s="323"/>
-      <c r="AV125" s="323"/>
-      <c r="AW125" s="323"/>
-      <c r="AX125" s="315"/>
-      <c r="AY125" s="317"/>
-      <c r="AZ125" s="319"/>
-      <c r="BA125" s="318"/>
-      <c r="BB125" s="323"/>
-      <c r="BC125" s="315"/>
-      <c r="BD125" s="319"/>
-      <c r="BE125" s="318"/>
-      <c r="BF125" s="404"/>
-      <c r="BG125" s="324"/>
+      <c r="AE125" s="314"/>
+      <c r="AF125" s="315"/>
+      <c r="AG125" s="316"/>
+      <c r="AH125" s="317"/>
+      <c r="AI125" s="314"/>
+      <c r="AJ125" s="318"/>
+      <c r="AK125" s="319"/>
+      <c r="AL125" s="317"/>
+      <c r="AM125" s="320"/>
+      <c r="AN125" s="321"/>
+      <c r="AO125" s="322"/>
+      <c r="AP125" s="322"/>
+      <c r="AQ125" s="322"/>
+      <c r="AR125" s="322"/>
+      <c r="AS125" s="322"/>
+      <c r="AT125" s="322"/>
+      <c r="AU125" s="322"/>
+      <c r="AV125" s="322"/>
+      <c r="AW125" s="322"/>
+      <c r="AX125" s="314"/>
+      <c r="AY125" s="316"/>
+      <c r="AZ125" s="318"/>
+      <c r="BA125" s="317"/>
+      <c r="BB125" s="322"/>
+      <c r="BC125" s="314"/>
+      <c r="BD125" s="318"/>
+      <c r="BE125" s="317"/>
+      <c r="BF125" s="403"/>
+      <c r="BG125" s="323"/>
       <c r="BH125" s="197"/>
       <c r="BI125" s="197"/>
       <c r="BJ125" s="197"/>
@@ -18673,7 +18776,7 @@
       <c r="G156" s="60"/>
       <c r="H156" s="54"/>
       <c r="I156" s="58"/>
-      <c r="J156" s="69"/>
+      <c r="J156" s="59"/>
       <c r="K156" s="66"/>
       <c r="O156" s="71"/>
       <c r="P156" s="71"/>
@@ -18712,11 +18815,11 @@
       <c r="C157" s="71"/>
       <c r="D157" s="71"/>
       <c r="E157" s="71"/>
-      <c r="G157" s="67"/>
-      <c r="H157" s="55"/>
-      <c r="I157" s="68"/>
+      <c r="G157" s="60"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="58"/>
       <c r="J157" s="69"/>
-      <c r="K157" s="70"/>
+      <c r="K157" s="66"/>
       <c r="O157" s="71"/>
       <c r="P157" s="71"/>
       <c r="Q157" s="71"/>
@@ -19124,11 +19227,11 @@
       <c r="C167" s="71"/>
       <c r="D167" s="71"/>
       <c r="E167" s="71"/>
-      <c r="G167" s="71"/>
-      <c r="H167" s="56"/>
+      <c r="G167" s="67"/>
+      <c r="H167" s="55"/>
       <c r="I167" s="68"/>
       <c r="J167" s="69"/>
-      <c r="K167" s="71"/>
+      <c r="K167" s="70"/>
       <c r="O167" s="71"/>
       <c r="P167" s="71"/>
       <c r="Q167" s="71"/>
@@ -29342,7 +29445,7 @@
       <c r="G405" s="71"/>
       <c r="H405" s="56"/>
       <c r="I405" s="68"/>
-      <c r="J405" s="59"/>
+      <c r="J405" s="69"/>
       <c r="K405" s="71"/>
       <c r="O405" s="60"/>
       <c r="P405" s="60"/>
@@ -29419,11 +29522,11 @@
       <c r="C406" s="60"/>
       <c r="D406" s="60"/>
       <c r="E406" s="60"/>
-      <c r="G406" s="60"/>
-      <c r="H406" s="54"/>
-      <c r="I406" s="58"/>
+      <c r="G406" s="71"/>
+      <c r="H406" s="56"/>
+      <c r="I406" s="68"/>
       <c r="J406" s="59"/>
-      <c r="K406" s="60"/>
+      <c r="K406" s="71"/>
       <c r="O406" s="60"/>
       <c r="P406" s="60"/>
       <c r="Q406" s="60"/>
@@ -42786,9 +42889,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="X35:AA35"/>
+  <mergeCells count="22">
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="A9:D9"/>
@@ -42797,7 +42898,7 @@
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="Y16:Z16"/>
     <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y38:Z38"/>
     <mergeCell ref="AG1:BG1"/>
     <mergeCell ref="X9:AB9"/>
     <mergeCell ref="K2:S2"/>
@@ -42806,6 +42907,9 @@
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="Y24:Z24"/>
     <mergeCell ref="Y25:Z25"/>
   </mergeCells>
@@ -42928,333 +43032,333 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="543"/>
-    <col min="5" max="5" width="14.28515625" style="543" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="543" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="543" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="543"/>
+    <col min="1" max="4" width="11.42578125" style="540"/>
+    <col min="5" max="5" width="14.28515625" style="540" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="540" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="540" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="540"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="485" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="489" t="s">
+      <c r="B1" s="486" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="489" t="s">
+      <c r="C1" s="486" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="490" t="s">
+      <c r="D1" s="487" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="491" t="s">
+      <c r="E1" s="488" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="492" t="s">
+      <c r="F1" s="489" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="493" t="s">
+      <c r="G1" s="490" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="494" t="s">
+      <c r="H1" s="491" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="495" t="s">
+      <c r="I1" s="492" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="496" t="s">
+      <c r="J1" s="493" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="497" t="s">
+      <c r="A2" s="494" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="498" t="s">
+      <c r="B2" s="495" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="499">
+      <c r="C2" s="496">
         <f>SUM(H3:H13)</f>
         <v>7505</v>
       </c>
-      <c r="D2" s="500">
+      <c r="D2" s="497">
         <f>SUM(I3:I13)</f>
         <v>4950</v>
       </c>
-      <c r="E2" s="544">
+      <c r="E2" s="541">
         <f>C2-D2</f>
         <v>2555</v>
       </c>
-      <c r="F2" s="501"/>
-      <c r="G2" s="502"/>
-      <c r="H2" s="502"/>
-      <c r="I2" s="502"/>
-      <c r="J2" s="503"/>
+      <c r="F2" s="498"/>
+      <c r="G2" s="499"/>
+      <c r="H2" s="499"/>
+      <c r="I2" s="499"/>
+      <c r="J2" s="500"/>
     </row>
     <row r="3" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="504"/>
-      <c r="B3" s="505" t="s">
+      <c r="A3" s="501"/>
+      <c r="B3" s="502" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="506"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="508"/>
-      <c r="F3" s="509" t="s">
+      <c r="C3" s="503"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="505"/>
+      <c r="F3" s="506" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="510" t="s">
+      <c r="G3" s="507" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="511">
+      <c r="H3" s="508">
         <v>1040</v>
       </c>
-      <c r="I3" s="512">
+      <c r="I3" s="509">
         <v>500</v>
       </c>
-      <c r="J3" s="513">
+      <c r="J3" s="510">
         <f t="shared" ref="J3:J12" si="0">H3-I3</f>
         <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="514"/>
-      <c r="B4" s="515" t="s">
+      <c r="A4" s="511"/>
+      <c r="B4" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="516"/>
-      <c r="D4" s="517"/>
-      <c r="E4" s="518"/>
-      <c r="F4" s="509" t="s">
+      <c r="C4" s="513"/>
+      <c r="D4" s="514"/>
+      <c r="E4" s="515"/>
+      <c r="F4" s="506" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="510"/>
-      <c r="H4" s="519">
+      <c r="G4" s="507"/>
+      <c r="H4" s="516">
         <v>2900</v>
       </c>
-      <c r="I4" s="520">
+      <c r="I4" s="517">
         <v>1550</v>
       </c>
-      <c r="J4" s="521">
+      <c r="J4" s="518">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="514" t="s">
+      <c r="A5" s="511" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="515" t="s">
+      <c r="B5" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="516"/>
-      <c r="D5" s="517"/>
-      <c r="E5" s="518"/>
-      <c r="F5" s="522" t="s">
+      <c r="C5" s="513"/>
+      <c r="D5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="519" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524">
+      <c r="G5" s="520"/>
+      <c r="H5" s="521">
         <v>240</v>
       </c>
-      <c r="I5" s="525"/>
-      <c r="J5" s="526">
+      <c r="I5" s="522"/>
+      <c r="J5" s="523">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="514"/>
-      <c r="B6" s="515" t="s">
+      <c r="A6" s="511"/>
+      <c r="B6" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="516"/>
-      <c r="D6" s="517"/>
-      <c r="E6" s="518"/>
-      <c r="F6" s="522" t="s">
+      <c r="C6" s="513"/>
+      <c r="D6" s="514"/>
+      <c r="E6" s="515"/>
+      <c r="F6" s="519" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="523" t="s">
+      <c r="G6" s="520" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="524">
+      <c r="H6" s="521">
         <v>1500</v>
       </c>
-      <c r="I6" s="525">
+      <c r="I6" s="522">
         <v>1300</v>
       </c>
-      <c r="J6" s="526">
+      <c r="J6" s="523">
         <f>H6-I6</f>
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="514"/>
-      <c r="B7" s="515" t="s">
+      <c r="A7" s="511"/>
+      <c r="B7" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="516"/>
-      <c r="D7" s="517"/>
-      <c r="E7" s="518"/>
-      <c r="F7" s="522" t="s">
+      <c r="C7" s="513"/>
+      <c r="D7" s="514"/>
+      <c r="E7" s="515"/>
+      <c r="F7" s="519" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="523"/>
-      <c r="H7" s="524">
+      <c r="G7" s="520"/>
+      <c r="H7" s="521">
         <v>100</v>
       </c>
-      <c r="I7" s="525"/>
-      <c r="J7" s="526">
+      <c r="I7" s="522"/>
+      <c r="J7" s="523">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="514"/>
-      <c r="B8" s="515" t="s">
+      <c r="A8" s="511"/>
+      <c r="B8" s="512" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="516"/>
-      <c r="D8" s="517"/>
-      <c r="E8" s="518"/>
-      <c r="F8" s="522" t="s">
+      <c r="C8" s="513"/>
+      <c r="D8" s="514"/>
+      <c r="E8" s="515"/>
+      <c r="F8" s="519" t="s">
         <v>370</v>
       </c>
-      <c r="G8" s="523" t="s">
+      <c r="G8" s="520" t="s">
         <v>376</v>
       </c>
-      <c r="H8" s="524">
+      <c r="H8" s="521">
         <v>1000</v>
       </c>
-      <c r="I8" s="525">
+      <c r="I8" s="522">
         <v>1000</v>
       </c>
-      <c r="J8" s="526">
+      <c r="J8" s="523">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="514"/>
-      <c r="B9" s="515" t="s">
+      <c r="A9" s="511"/>
+      <c r="B9" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="516"/>
-      <c r="D9" s="517"/>
-      <c r="E9" s="518"/>
-      <c r="F9" s="522" t="s">
+      <c r="C9" s="513"/>
+      <c r="D9" s="514"/>
+      <c r="E9" s="515"/>
+      <c r="F9" s="519" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="523"/>
-      <c r="H9" s="524">
+      <c r="G9" s="520"/>
+      <c r="H9" s="521">
         <v>80</v>
       </c>
-      <c r="I9" s="525"/>
-      <c r="J9" s="526">
+      <c r="I9" s="522"/>
+      <c r="J9" s="523">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="527">
+      <c r="A10" s="524">
         <v>43390</v>
       </c>
-      <c r="B10" s="515" t="s">
+      <c r="B10" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="516"/>
-      <c r="D10" s="517"/>
-      <c r="E10" s="518"/>
-      <c r="F10" s="522" t="s">
+      <c r="C10" s="513"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="515"/>
+      <c r="F10" s="519" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="523" t="s">
+      <c r="G10" s="520" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="524">
+      <c r="H10" s="521">
         <v>100</v>
       </c>
-      <c r="I10" s="525">
+      <c r="I10" s="522">
         <v>55</v>
       </c>
-      <c r="J10" s="526">
+      <c r="J10" s="523">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="527">
+      <c r="A11" s="524">
         <v>43334</v>
       </c>
-      <c r="B11" s="515" t="s">
+      <c r="B11" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="516"/>
-      <c r="D11" s="517"/>
-      <c r="E11" s="518"/>
-      <c r="F11" s="522" t="s">
+      <c r="C11" s="513"/>
+      <c r="D11" s="514"/>
+      <c r="E11" s="515"/>
+      <c r="F11" s="519" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="523" t="s">
+      <c r="G11" s="520" t="s">
         <v>306</v>
       </c>
-      <c r="H11" s="524">
+      <c r="H11" s="521">
         <v>145</v>
       </c>
-      <c r="I11" s="525">
+      <c r="I11" s="522">
         <v>145</v>
       </c>
-      <c r="J11" s="526">
+      <c r="J11" s="523">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="528">
+      <c r="A12" s="525">
         <v>43180</v>
       </c>
-      <c r="B12" s="529" t="s">
+      <c r="B12" s="526" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="530"/>
-      <c r="D12" s="531"/>
-      <c r="E12" s="532"/>
-      <c r="F12" s="522" t="s">
+      <c r="C12" s="527"/>
+      <c r="D12" s="528"/>
+      <c r="E12" s="529"/>
+      <c r="F12" s="519" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="523" t="s">
+      <c r="G12" s="520" t="s">
         <v>306</v>
       </c>
-      <c r="H12" s="524">
+      <c r="H12" s="521">
         <v>200</v>
       </c>
-      <c r="I12" s="525">
+      <c r="I12" s="522">
         <v>200</v>
       </c>
-      <c r="J12" s="526">
+      <c r="J12" s="523">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="533"/>
-      <c r="B13" s="534"/>
-      <c r="C13" s="535"/>
-      <c r="D13" s="536"/>
-      <c r="E13" s="537"/>
-      <c r="F13" s="538" t="s">
+      <c r="A13" s="530"/>
+      <c r="B13" s="531"/>
+      <c r="C13" s="532"/>
+      <c r="D13" s="533"/>
+      <c r="E13" s="534"/>
+      <c r="F13" s="535" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="539" t="s">
+      <c r="G13" s="536" t="s">
         <v>377</v>
       </c>
-      <c r="H13" s="540">
+      <c r="H13" s="537">
         <v>200</v>
       </c>
-      <c r="I13" s="541">
+      <c r="I13" s="538">
         <v>200</v>
       </c>
-      <c r="J13" s="542">
+      <c r="J13" s="539">
         <f>H13-I13</f>
         <v>0</v>
       </c>

--- a/Finanzas/3_Sept-Dic_2018.xlsx
+++ b/Finanzas/3_Sept-Dic_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="435">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1305,6 +1305,33 @@
   </si>
   <si>
     <t>Caaaaasi terminamos con TALIS :C</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Uber a casa - Bebida con Aldo y Eleo</t>
+  </si>
+  <si>
+    <t>Uber para Niño</t>
+  </si>
+  <si>
+    <t>Uber hacia el Mercado Lab25</t>
+  </si>
+  <si>
+    <t>Kebbab Cordero</t>
+  </si>
+  <si>
+    <t>Capuchino; Cooperacha pastel, Stella, Pimpon, Crepa, Taxi fallido</t>
+  </si>
+  <si>
+    <t>Capuchino, Café con Jaime</t>
+  </si>
+  <si>
+    <t>Torta con Fer</t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="597">
+  <cellXfs count="604">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3505,15 +3532,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4286,6 +4304,93 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="38" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="38" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4347,63 +4452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="38" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4702,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL92" sqref="AL92"/>
+    <sheetView tabSelected="1" topLeftCell="AG103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN107" sqref="AN107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,7 +4775,7 @@
     <col min="21" max="21" width="11.85546875" style="60" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="60"/>
     <col min="24" max="24" width="11.42578125" style="60"/>
-    <col min="25" max="25" width="13.42578125" style="469" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="466" customWidth="1"/>
     <col min="26" max="26" width="13.5703125" style="40" customWidth="1"/>
     <col min="27" max="28" width="11.42578125" style="60"/>
     <col min="31" max="31" width="6.42578125" customWidth="1"/>
@@ -4763,35 +4811,35 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="559" t="s">
+      <c r="AG1" s="585" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="559"/>
-      <c r="AI1" s="559"/>
-      <c r="AJ1" s="559"/>
-      <c r="AK1" s="559"/>
-      <c r="AL1" s="559"/>
-      <c r="AM1" s="559"/>
-      <c r="AN1" s="559"/>
-      <c r="AO1" s="559"/>
-      <c r="AP1" s="559"/>
-      <c r="AQ1" s="559"/>
-      <c r="AR1" s="559"/>
-      <c r="AS1" s="559"/>
-      <c r="AT1" s="559"/>
-      <c r="AU1" s="559"/>
-      <c r="AV1" s="559"/>
-      <c r="AW1" s="559"/>
-      <c r="AX1" s="559"/>
-      <c r="AY1" s="559"/>
-      <c r="AZ1" s="559"/>
-      <c r="BA1" s="559"/>
-      <c r="BB1" s="559"/>
-      <c r="BC1" s="559"/>
-      <c r="BD1" s="559"/>
-      <c r="BE1" s="559"/>
-      <c r="BF1" s="559"/>
-      <c r="BG1" s="559"/>
+      <c r="AH1" s="585"/>
+      <c r="AI1" s="585"/>
+      <c r="AJ1" s="585"/>
+      <c r="AK1" s="585"/>
+      <c r="AL1" s="585"/>
+      <c r="AM1" s="585"/>
+      <c r="AN1" s="585"/>
+      <c r="AO1" s="585"/>
+      <c r="AP1" s="585"/>
+      <c r="AQ1" s="585"/>
+      <c r="AR1" s="585"/>
+      <c r="AS1" s="585"/>
+      <c r="AT1" s="585"/>
+      <c r="AU1" s="585"/>
+      <c r="AV1" s="585"/>
+      <c r="AW1" s="585"/>
+      <c r="AX1" s="585"/>
+      <c r="AY1" s="585"/>
+      <c r="AZ1" s="585"/>
+      <c r="BA1" s="585"/>
+      <c r="BB1" s="585"/>
+      <c r="BC1" s="585"/>
+      <c r="BD1" s="585"/>
+      <c r="BE1" s="585"/>
+      <c r="BF1" s="585"/>
+      <c r="BG1" s="585"/>
       <c r="BJ1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4809,17 +4857,17 @@
       <c r="F2" s="27"/>
       <c r="G2" s="61"/>
       <c r="H2" s="52"/>
-      <c r="K2" s="563" t="s">
+      <c r="K2" s="589" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="564"/>
-      <c r="M2" s="564"/>
-      <c r="N2" s="564"/>
-      <c r="O2" s="564"/>
-      <c r="P2" s="564"/>
-      <c r="Q2" s="564"/>
-      <c r="R2" s="564"/>
-      <c r="S2" s="565"/>
+      <c r="L2" s="590"/>
+      <c r="M2" s="590"/>
+      <c r="N2" s="590"/>
+      <c r="O2" s="590"/>
+      <c r="P2" s="590"/>
+      <c r="Q2" s="590"/>
+      <c r="R2" s="590"/>
+      <c r="S2" s="591"/>
       <c r="T2" s="67"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="263" t="s">
@@ -4932,7 +4980,7 @@
       <c r="D3" s="45"/>
       <c r="E3" s="32">
         <f>N3-C3</f>
-        <v>66527.16</v>
+        <v>66283.16</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="61"/>
@@ -4943,8 +4991,8 @@
         <v>2</v>
       </c>
       <c r="N3" s="11">
-        <f>(SUM(C3,(K11:K512)))-(SUM((J11:J511),(I11:I512)))</f>
-        <v>90670.16</v>
+        <f>(SUM(C3,(K11:K513)))-(SUM((J11:J512),(I11:I513)))</f>
+        <v>90426.16</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
@@ -4984,11 +5032,11 @@
       <c r="AO3" s="225">
         <v>15</v>
       </c>
-      <c r="AP3" s="324">
+      <c r="AP3" s="321">
         <v>1500</v>
       </c>
       <c r="AQ3" s="225"/>
-      <c r="AR3" s="554">
+      <c r="AR3" s="551">
         <v>600</v>
       </c>
       <c r="AS3" s="225"/>
@@ -5001,19 +5049,19 @@
         <f>SUM(AZ3, BF3, BG3)</f>
         <v>45</v>
       </c>
-      <c r="AZ3" s="414">
+      <c r="AZ3" s="411">
         <v>45</v>
       </c>
-      <c r="BA3" s="325"/>
-      <c r="BB3" s="326"/>
-      <c r="BC3" s="327">
+      <c r="BA3" s="322"/>
+      <c r="BB3" s="323"/>
+      <c r="BC3" s="324">
         <v>2</v>
       </c>
       <c r="BD3" s="278">
         <f>SUM((BA3*6), (BB3*8), (BC3*5))</f>
         <v>10</v>
       </c>
-      <c r="BE3" s="306"/>
+      <c r="BE3" s="303"/>
       <c r="BF3" s="284">
         <f>BE3*5</f>
         <v>0</v>
@@ -5045,7 +5093,7 @@
       </c>
       <c r="S4" s="15">
         <f>SUM(N3,V9,S7)</f>
-        <v>171101.66</v>
+        <v>170257.66</v>
       </c>
       <c r="T4" s="67"/>
       <c r="AD4" s="224">
@@ -5115,34 +5163,34 @@
     </row>
     <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="579"/>
-      <c r="D5" s="579"/>
-      <c r="E5" s="579"/>
-      <c r="F5" s="579"/>
-      <c r="G5" s="580"/>
+      <c r="C5" s="573"/>
+      <c r="D5" s="573"/>
+      <c r="E5" s="573"/>
+      <c r="F5" s="573"/>
+      <c r="G5" s="574"/>
       <c r="H5" s="52"/>
-      <c r="K5" s="566" t="s">
+      <c r="K5" s="592" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="567"/>
-      <c r="M5" s="567"/>
-      <c r="N5" s="567"/>
-      <c r="O5" s="567"/>
-      <c r="P5" s="567"/>
-      <c r="Q5" s="567"/>
-      <c r="R5" s="567"/>
-      <c r="S5" s="568"/>
-      <c r="T5" s="560" t="s">
+      <c r="L5" s="593"/>
+      <c r="M5" s="593"/>
+      <c r="N5" s="593"/>
+      <c r="O5" s="593"/>
+      <c r="P5" s="593"/>
+      <c r="Q5" s="593"/>
+      <c r="R5" s="593"/>
+      <c r="S5" s="594"/>
+      <c r="T5" s="586" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="561"/>
-      <c r="V5" s="569" t="s">
+      <c r="U5" s="587"/>
+      <c r="V5" s="595" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="570"/>
+      <c r="W5" s="596"/>
       <c r="AD5" s="224">
         <v>43346</v>
       </c>
@@ -5217,14 +5265,14 @@
     </row>
     <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="582"/>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="583"/>
+      <c r="B6" s="575" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="576"/>
+      <c r="D6" s="576"/>
+      <c r="E6" s="576"/>
+      <c r="F6" s="576"/>
+      <c r="G6" s="577"/>
       <c r="H6" s="52"/>
       <c r="K6" s="63"/>
       <c r="L6" s="16"/>
@@ -5232,8 +5280,8 @@
         <v>3</v>
       </c>
       <c r="N6" s="17">
-        <f>(SUM((AA11:AA301),(AG3:AG500),(I11:I512)))-(SUM((AB11:AB501)))</f>
-        <v>706.5</v>
+        <f>(SUM((AA11:AA301),(AG3:AG500),(I11:I513)))-(SUM((AB11:AB501)))</f>
+        <v>106.5</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
@@ -5333,11 +5381,11 @@
       </c>
       <c r="S7" s="21">
         <f>SUM(U7,N6)</f>
-        <v>706.5</v>
+        <v>106.5</v>
       </c>
       <c r="T7" s="99"/>
       <c r="U7" s="100">
-        <f>(SUM(AB11:AB501))-(SUM(K11:K512))</f>
+        <f>(SUM(AB11:AB501))-(SUM(K11:K513))</f>
         <v>0</v>
       </c>
       <c r="V7" s="101"/>
@@ -5475,47 +5523,47 @@
       <c r="BG8" s="272"/>
     </row>
     <row r="9" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="584" t="s">
+      <c r="A9" s="578" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="585"/>
-      <c r="C9" s="585"/>
-      <c r="D9" s="585"/>
+      <c r="B9" s="579"/>
+      <c r="C9" s="579"/>
+      <c r="D9" s="579"/>
       <c r="E9" s="156">
         <f>SUM(E10:E494)</f>
         <v>12188</v>
       </c>
-      <c r="G9" s="586" t="s">
+      <c r="G9" s="580" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="587"/>
-      <c r="I9" s="587"/>
-      <c r="J9" s="587"/>
-      <c r="K9" s="588"/>
-      <c r="M9" s="571" t="s">
+      <c r="H9" s="581"/>
+      <c r="I9" s="581"/>
+      <c r="J9" s="581"/>
+      <c r="K9" s="582"/>
+      <c r="M9" s="597" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="572"/>
-      <c r="O9" s="572"/>
-      <c r="P9" s="572"/>
-      <c r="Q9" s="572"/>
-      <c r="R9" s="572"/>
-      <c r="S9" s="572"/>
-      <c r="T9" s="573" t="s">
+      <c r="N9" s="598"/>
+      <c r="O9" s="598"/>
+      <c r="P9" s="598"/>
+      <c r="Q9" s="598"/>
+      <c r="R9" s="598"/>
+      <c r="S9" s="598"/>
+      <c r="T9" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="574"/>
+      <c r="U9" s="600"/>
       <c r="V9" s="102">
-        <f>SUM(V11:V499)</f>
+        <f>SUM(V11:V500)</f>
         <v>79725</v>
       </c>
-      <c r="X9" s="560" t="s">
+      <c r="X9" s="586" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="561"/>
-      <c r="Z9" s="561"/>
-      <c r="AA9" s="561"/>
-      <c r="AB9" s="562"/>
+      <c r="Y9" s="587"/>
+      <c r="Z9" s="587"/>
+      <c r="AA9" s="587"/>
+      <c r="AB9" s="588"/>
       <c r="AD9" s="224">
         <v>43350</v>
       </c>
@@ -5580,34 +5628,34 @@
       <c r="BH9" s="189"/>
     </row>
     <row r="10" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="381" t="s">
+      <c r="A10" s="378" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="382" t="s">
+      <c r="B10" s="379" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="383" t="s">
+      <c r="C10" s="380" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="383" t="s">
+      <c r="D10" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="383" t="s">
+      <c r="E10" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="329" t="s">
+      <c r="G10" s="326" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="330" t="s">
+      <c r="H10" s="327" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="331" t="s">
+      <c r="I10" s="328" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="332" t="s">
+      <c r="J10" s="329" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="333" t="s">
+      <c r="K10" s="330" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="190" t="s">
@@ -5625,26 +5673,26 @@
       <c r="Q10" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="R10" s="451" t="s">
+      <c r="R10" s="448" t="s">
         <v>134</v>
       </c>
-      <c r="S10" s="452" t="s">
+      <c r="S10" s="449" t="s">
         <v>135</v>
       </c>
-      <c r="T10" s="459" t="s">
+      <c r="T10" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="460" t="s">
+      <c r="U10" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="461" t="s">
+      <c r="V10" s="458" t="s">
         <v>30</v>
       </c>
       <c r="W10" s="194"/>
       <c r="X10" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="470" t="s">
+      <c r="Y10" s="467" t="s">
         <v>31</v>
       </c>
       <c r="Z10" s="166" t="s">
@@ -5717,37 +5765,37 @@
       <c r="BG10" s="272"/>
     </row>
     <row r="11" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="387" t="s">
+      <c r="A11" s="384" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="388" t="s">
+      <c r="B11" s="385" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="389">
+      <c r="C11" s="386">
         <v>1000</v>
       </c>
-      <c r="D11" s="389">
+      <c r="D11" s="386">
         <v>500</v>
       </c>
       <c r="E11" s="275">
         <f t="shared" ref="E11:E20" si="5">C11-D11</f>
         <v>500</v>
       </c>
-      <c r="G11" s="346">
+      <c r="G11" s="343">
         <v>43344</v>
       </c>
-      <c r="H11" s="347" t="s">
+      <c r="H11" s="344" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="348">
+      <c r="I11" s="345">
         <v>1500</v>
       </c>
-      <c r="J11" s="348"/>
-      <c r="K11" s="349"/>
-      <c r="M11" s="443" t="s">
+      <c r="J11" s="345"/>
+      <c r="K11" s="346"/>
+      <c r="M11" s="440" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="300" t="s">
+      <c r="N11" s="297" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="122">
@@ -5758,19 +5806,19 @@
         <f>SUM(U11:U30)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="450">
+      <c r="Q11" s="447">
         <f>O11-P11</f>
         <v>65910</v>
       </c>
       <c r="R11" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="456"/>
-      <c r="T11" s="462">
+      <c r="S11" s="453"/>
+      <c r="T11" s="459">
         <v>5000</v>
       </c>
       <c r="U11" s="104"/>
-      <c r="V11" s="463">
+      <c r="V11" s="460">
         <f t="shared" ref="V11:V44" si="6">T11-U11</f>
         <v>5000</v>
       </c>
@@ -5778,7 +5826,7 @@
       <c r="X11" s="160">
         <v>43344</v>
       </c>
-      <c r="Y11" s="471" t="s">
+      <c r="Y11" s="468" t="s">
         <v>152</v>
       </c>
       <c r="Z11" s="163" t="s">
@@ -5849,37 +5897,37 @@
       <c r="BG11" s="272"/>
     </row>
     <row r="12" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390" t="s">
+      <c r="A12" s="387" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="384" t="s">
+      <c r="B12" s="381" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="215">
         <v>560</v>
       </c>
-      <c r="D12" s="385">
+      <c r="D12" s="382">
         <v>400</v>
       </c>
       <c r="E12" s="226">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="G12" s="350">
+      <c r="G12" s="347">
         <v>43344</v>
       </c>
-      <c r="H12" s="334" t="s">
+      <c r="H12" s="331" t="s">
         <v>146</v>
       </c>
       <c r="I12" s="220"/>
       <c r="J12" s="220">
         <v>400</v>
       </c>
-      <c r="K12" s="351"/>
-      <c r="M12" s="446" t="s">
+      <c r="K12" s="348"/>
+      <c r="M12" s="443" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="447" t="s">
+      <c r="N12" s="444" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="91"/>
@@ -5888,12 +5936,12 @@
       <c r="R12" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="457"/>
-      <c r="T12" s="464">
+      <c r="S12" s="454"/>
+      <c r="T12" s="461">
         <v>3000</v>
       </c>
       <c r="U12" s="110"/>
-      <c r="V12" s="465">
+      <c r="V12" s="462">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
@@ -5901,10 +5949,10 @@
       <c r="X12" s="160">
         <v>43356</v>
       </c>
-      <c r="Y12" s="557" t="s">
+      <c r="Y12" s="583" t="s">
         <v>184</v>
       </c>
-      <c r="Z12" s="558"/>
+      <c r="Z12" s="584"/>
       <c r="AA12" s="170">
         <v>11052</v>
       </c>
@@ -5972,35 +6020,35 @@
       <c r="BG12" s="272"/>
     </row>
     <row r="13" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="391" t="s">
+      <c r="A13" s="388" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="384" t="s">
+      <c r="B13" s="381" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="215">
         <v>8000</v>
       </c>
-      <c r="D13" s="386"/>
+      <c r="D13" s="383"/>
       <c r="E13" s="226">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-      <c r="G13" s="350">
+      <c r="G13" s="347">
         <v>43347</v>
       </c>
-      <c r="H13" s="334" t="s">
+      <c r="H13" s="331" t="s">
         <v>154</v>
       </c>
       <c r="I13" s="220"/>
       <c r="J13" s="220">
         <v>200</v>
       </c>
-      <c r="K13" s="351"/>
+      <c r="K13" s="348"/>
       <c r="M13" s="74">
         <v>43005</v>
       </c>
-      <c r="N13" s="448" t="s">
+      <c r="N13" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="87"/>
@@ -6009,12 +6057,12 @@
       <c r="R13" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="S13" s="457"/>
-      <c r="T13" s="464">
+      <c r="S13" s="454"/>
+      <c r="T13" s="461">
         <v>3200</v>
       </c>
       <c r="U13" s="110"/>
-      <c r="V13" s="465">
+      <c r="V13" s="462">
         <f t="shared" ref="V13:V32" si="7">T13-U13</f>
         <v>3200</v>
       </c>
@@ -6084,7 +6132,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="BE13" s="400"/>
+      <c r="BE13" s="397"/>
       <c r="BF13" s="284">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6092,10 +6140,10 @@
       <c r="BG13" s="272"/>
     </row>
     <row r="14" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="390" t="s">
+      <c r="A14" s="387" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="384" t="s">
+      <c r="B14" s="381" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="215">
@@ -6106,21 +6154,21 @@
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="G14" s="350">
+      <c r="G14" s="347">
         <v>43349</v>
       </c>
-      <c r="H14" s="334" t="s">
+      <c r="H14" s="331" t="s">
         <v>169</v>
       </c>
       <c r="I14" s="220"/>
       <c r="J14" s="220">
         <v>30</v>
       </c>
-      <c r="K14" s="351"/>
+      <c r="K14" s="348"/>
       <c r="M14" s="74">
         <v>43417</v>
       </c>
-      <c r="N14" s="448" t="s">
+      <c r="N14" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O14" s="87"/>
@@ -6129,12 +6177,12 @@
       <c r="R14" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="457"/>
-      <c r="T14" s="464">
+      <c r="S14" s="454"/>
+      <c r="T14" s="461">
         <v>5300</v>
       </c>
       <c r="U14" s="110"/>
-      <c r="V14" s="465">
+      <c r="V14" s="462">
         <f t="shared" si="7"/>
         <v>5300</v>
       </c>
@@ -6217,10 +6265,10 @@
       <c r="BG14" s="272"/>
     </row>
     <row r="15" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="390" t="s">
+      <c r="A15" s="387" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="384" t="s">
+      <c r="B15" s="381" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="215">
@@ -6231,21 +6279,21 @@
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="350">
+      <c r="G15" s="347">
         <v>43349</v>
       </c>
-      <c r="H15" s="334" t="s">
+      <c r="H15" s="331" t="s">
         <v>155</v>
       </c>
       <c r="I15" s="220">
         <v>3500</v>
       </c>
       <c r="J15" s="220"/>
-      <c r="K15" s="351"/>
+      <c r="K15" s="348"/>
       <c r="M15" s="74">
         <v>43117</v>
       </c>
-      <c r="N15" s="448" t="s">
+      <c r="N15" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O15" s="87"/>
@@ -6254,12 +6302,12 @@
       <c r="R15" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="457"/>
-      <c r="T15" s="464">
+      <c r="S15" s="454"/>
+      <c r="T15" s="461">
         <v>6850</v>
       </c>
       <c r="U15" s="110"/>
-      <c r="V15" s="465">
+      <c r="V15" s="462">
         <f t="shared" si="7"/>
         <v>6850</v>
       </c>
@@ -6346,10 +6394,10 @@
       <c r="BG15" s="272"/>
     </row>
     <row r="16" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390" t="s">
+      <c r="A16" s="387" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="384" t="s">
+      <c r="B16" s="381" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="215">
@@ -6360,21 +6408,21 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="G16" s="350">
+      <c r="G16" s="347">
         <v>43351</v>
       </c>
-      <c r="H16" s="334" t="s">
+      <c r="H16" s="331" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="220"/>
       <c r="J16" s="220">
         <v>692</v>
       </c>
-      <c r="K16" s="351"/>
+      <c r="K16" s="348"/>
       <c r="M16" s="74">
         <v>43236</v>
       </c>
-      <c r="N16" s="448" t="s">
+      <c r="N16" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="87"/>
@@ -6383,12 +6431,12 @@
       <c r="R16" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="457"/>
-      <c r="T16" s="464">
+      <c r="S16" s="454"/>
+      <c r="T16" s="461">
         <v>2100</v>
       </c>
       <c r="U16" s="110"/>
-      <c r="V16" s="465">
+      <c r="V16" s="462">
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
@@ -6396,10 +6444,10 @@
       <c r="X16" s="160">
         <v>43370</v>
       </c>
-      <c r="Y16" s="557" t="s">
+      <c r="Y16" s="583" t="s">
         <v>184</v>
       </c>
-      <c r="Z16" s="558"/>
+      <c r="Z16" s="584"/>
       <c r="AA16" s="168">
         <v>11052</v>
       </c>
@@ -6465,37 +6513,37 @@
       <c r="BG16" s="272"/>
     </row>
     <row r="17" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="405" t="s">
+      <c r="A17" s="402" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="406" t="s">
+      <c r="B17" s="403" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="407">
+      <c r="C17" s="404">
         <v>150</v>
       </c>
-      <c r="D17" s="407">
+      <c r="D17" s="404">
         <v>150</v>
       </c>
-      <c r="E17" s="408">
+      <c r="E17" s="405">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="350">
+      <c r="G17" s="347">
         <v>43351</v>
       </c>
-      <c r="H17" s="334" t="s">
+      <c r="H17" s="331" t="s">
         <v>157</v>
       </c>
       <c r="I17" s="220"/>
       <c r="J17" s="220">
         <v>40.67</v>
       </c>
-      <c r="K17" s="351"/>
+      <c r="K17" s="348"/>
       <c r="M17" s="74">
         <v>43253</v>
       </c>
-      <c r="N17" s="448" t="s">
+      <c r="N17" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O17" s="87"/>
@@ -6504,12 +6552,12 @@
       <c r="R17" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="S17" s="457"/>
-      <c r="T17" s="464">
+      <c r="S17" s="454"/>
+      <c r="T17" s="461">
         <v>2000</v>
       </c>
       <c r="U17" s="110"/>
-      <c r="V17" s="465">
+      <c r="V17" s="462">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -6602,37 +6650,37 @@
       <c r="BG17" s="272"/>
     </row>
     <row r="18" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="405" t="s">
+      <c r="A18" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="406" t="s">
+      <c r="B18" s="403" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="407">
+      <c r="C18" s="404">
         <v>150</v>
       </c>
-      <c r="D18" s="407">
+      <c r="D18" s="404">
         <v>150</v>
       </c>
-      <c r="E18" s="408">
+      <c r="E18" s="405">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="350">
+      <c r="G18" s="347">
         <v>43351</v>
       </c>
-      <c r="H18" s="334" t="s">
+      <c r="H18" s="331" t="s">
         <v>158</v>
       </c>
       <c r="I18" s="220"/>
       <c r="J18" s="220">
         <v>1948</v>
       </c>
-      <c r="K18" s="351"/>
+      <c r="K18" s="348"/>
       <c r="M18" s="74">
         <v>43269</v>
       </c>
-      <c r="N18" s="448" t="s">
+      <c r="N18" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O18" s="87"/>
@@ -6641,12 +6689,12 @@
       <c r="R18" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="457"/>
-      <c r="T18" s="464">
+      <c r="S18" s="454"/>
+      <c r="T18" s="461">
         <v>2300</v>
       </c>
       <c r="U18" s="110"/>
-      <c r="V18" s="465">
+      <c r="V18" s="462">
         <f t="shared" si="7"/>
         <v>2300</v>
       </c>
@@ -6734,10 +6782,10 @@
       <c r="BL18" s="189"/>
     </row>
     <row r="19" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="390" t="s">
+      <c r="A19" s="387" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="472" t="s">
+      <c r="B19" s="469" t="s">
         <v>221</v>
       </c>
       <c r="C19" s="215">
@@ -6750,21 +6798,21 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G19" s="352">
+      <c r="G19" s="349">
         <v>43355</v>
       </c>
-      <c r="H19" s="335" t="s">
+      <c r="H19" s="332" t="s">
         <v>189</v>
       </c>
       <c r="I19" s="221">
         <v>2000</v>
       </c>
       <c r="J19" s="221"/>
-      <c r="K19" s="353"/>
+      <c r="K19" s="350"/>
       <c r="M19" s="74">
         <v>43274</v>
       </c>
-      <c r="N19" s="448" t="s">
+      <c r="N19" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="87"/>
@@ -6773,12 +6821,12 @@
       <c r="R19" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="S19" s="457"/>
-      <c r="T19" s="464">
+      <c r="S19" s="454"/>
+      <c r="T19" s="461">
         <v>2000</v>
       </c>
       <c r="U19" s="110"/>
-      <c r="V19" s="465">
+      <c r="V19" s="462">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -6786,10 +6834,10 @@
       <c r="X19" s="160">
         <v>43385</v>
       </c>
-      <c r="Y19" s="557" t="s">
+      <c r="Y19" s="583" t="s">
         <v>184</v>
       </c>
-      <c r="Z19" s="558"/>
+      <c r="Z19" s="584"/>
       <c r="AA19" s="168">
         <v>11052</v>
       </c>
@@ -6863,37 +6911,37 @@
       <c r="BG19" s="272"/>
     </row>
     <row r="20" spans="1:64" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="392" t="s">
+      <c r="A20" s="389" t="s">
         <v>343</v>
       </c>
-      <c r="B20" s="393" t="s">
+      <c r="B20" s="390" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="394">
+      <c r="C20" s="391">
         <v>780</v>
       </c>
-      <c r="D20" s="394">
+      <c r="D20" s="391">
         <v>650</v>
       </c>
-      <c r="E20" s="395">
+      <c r="E20" s="392">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="G20" s="354">
+      <c r="G20" s="351">
         <v>43355</v>
       </c>
-      <c r="H20" s="355" t="s">
+      <c r="H20" s="352" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="356"/>
-      <c r="J20" s="357">
+      <c r="I20" s="353"/>
+      <c r="J20" s="354">
         <v>132</v>
       </c>
-      <c r="K20" s="358"/>
+      <c r="K20" s="355"/>
       <c r="M20" s="74">
         <v>43280</v>
       </c>
-      <c r="N20" s="448" t="s">
+      <c r="N20" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O20" s="91"/>
@@ -6902,12 +6950,12 @@
       <c r="R20" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="457"/>
-      <c r="T20" s="464">
+      <c r="S20" s="454"/>
+      <c r="T20" s="461">
         <v>4900</v>
       </c>
       <c r="U20" s="110"/>
-      <c r="V20" s="465">
+      <c r="V20" s="462">
         <f t="shared" si="7"/>
         <v>4900</v>
       </c>
@@ -6993,21 +7041,21 @@
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
-      <c r="G21" s="336">
+      <c r="G21" s="333">
         <v>43356</v>
       </c>
-      <c r="H21" s="337" t="s">
+      <c r="H21" s="334" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="338"/>
-      <c r="J21" s="338"/>
-      <c r="K21" s="339">
+      <c r="I21" s="335"/>
+      <c r="J21" s="335"/>
+      <c r="K21" s="336">
         <v>11052</v>
       </c>
       <c r="M21" s="74">
         <v>43299</v>
       </c>
-      <c r="N21" s="448" t="s">
+      <c r="N21" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="87"/>
@@ -7016,12 +7064,12 @@
       <c r="R21" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="457"/>
-      <c r="T21" s="464">
+      <c r="S21" s="454"/>
+      <c r="T21" s="461">
         <v>3500</v>
       </c>
       <c r="U21" s="110"/>
-      <c r="V21" s="465">
+      <c r="V21" s="462">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
@@ -7109,21 +7157,21 @@
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
-      <c r="G22" s="359">
+      <c r="G22" s="356">
         <v>43356</v>
       </c>
-      <c r="H22" s="340" t="s">
+      <c r="H22" s="337" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="341"/>
-      <c r="J22" s="341">
+      <c r="I22" s="338"/>
+      <c r="J22" s="338">
         <v>30</v>
       </c>
-      <c r="K22" s="360"/>
+      <c r="K22" s="357"/>
       <c r="M22" s="74">
         <v>43306</v>
       </c>
-      <c r="N22" s="448" t="s">
+      <c r="N22" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="87"/>
@@ -7132,12 +7180,12 @@
       <c r="R22" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="S22" s="457"/>
-      <c r="T22" s="464">
+      <c r="S22" s="454"/>
+      <c r="T22" s="461">
         <v>1700</v>
       </c>
       <c r="U22" s="110"/>
-      <c r="V22" s="465">
+      <c r="V22" s="462">
         <f t="shared" si="7"/>
         <v>1700</v>
       </c>
@@ -7225,21 +7273,21 @@
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
-      <c r="G23" s="342">
+      <c r="G23" s="339">
         <v>43357</v>
       </c>
-      <c r="H23" s="343" t="s">
+      <c r="H23" s="340" t="s">
         <v>188</v>
       </c>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
-      <c r="K23" s="345">
+      <c r="I23" s="341"/>
+      <c r="J23" s="341"/>
+      <c r="K23" s="342">
         <v>800</v>
       </c>
       <c r="M23" s="74">
         <v>43312</v>
       </c>
-      <c r="N23" s="448" t="s">
+      <c r="N23" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O23" s="87"/>
@@ -7248,12 +7296,12 @@
       <c r="R23" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="S23" s="457"/>
-      <c r="T23" s="464">
+      <c r="S23" s="454"/>
+      <c r="T23" s="461">
         <v>4500</v>
       </c>
       <c r="U23" s="110"/>
-      <c r="V23" s="465">
+      <c r="V23" s="462">
         <f t="shared" si="7"/>
         <v>4500</v>
       </c>
@@ -7261,10 +7309,10 @@
       <c r="X23" s="160">
         <v>43402</v>
       </c>
-      <c r="Y23" s="557" t="s">
+      <c r="Y23" s="583" t="s">
         <v>184</v>
       </c>
-      <c r="Z23" s="558"/>
+      <c r="Z23" s="584"/>
       <c r="AA23" s="168">
         <v>11052</v>
       </c>
@@ -7334,21 +7382,21 @@
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
-      <c r="G24" s="365">
+      <c r="G24" s="362">
         <v>43357</v>
       </c>
-      <c r="H24" s="366" t="s">
+      <c r="H24" s="363" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="367">
+      <c r="I24" s="364">
         <v>1500</v>
       </c>
-      <c r="J24" s="367"/>
-      <c r="K24" s="368"/>
+      <c r="J24" s="364"/>
+      <c r="K24" s="365"/>
       <c r="M24" s="74">
         <v>43331</v>
       </c>
-      <c r="N24" s="448" t="s">
+      <c r="N24" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="87"/>
@@ -7357,12 +7405,12 @@
       <c r="R24" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="S24" s="457"/>
-      <c r="T24" s="464">
+      <c r="S24" s="454"/>
+      <c r="T24" s="461">
         <v>3900</v>
       </c>
       <c r="U24" s="110"/>
-      <c r="V24" s="465">
+      <c r="V24" s="462">
         <f t="shared" si="7"/>
         <v>3900</v>
       </c>
@@ -7370,10 +7418,10 @@
       <c r="X24" s="160">
         <v>43405</v>
       </c>
-      <c r="Y24" s="557" t="s">
+      <c r="Y24" s="583" t="s">
         <v>340</v>
       </c>
-      <c r="Z24" s="558"/>
+      <c r="Z24" s="584"/>
       <c r="AA24" s="168">
         <v>19187</v>
       </c>
@@ -7446,21 +7494,21 @@
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
-      <c r="G25" s="352">
+      <c r="G25" s="349">
         <v>43358</v>
       </c>
-      <c r="H25" s="335" t="s">
+      <c r="H25" s="332" t="s">
         <v>185</v>
       </c>
       <c r="I25" s="221"/>
       <c r="J25" s="221">
         <v>94.28</v>
       </c>
-      <c r="K25" s="353"/>
+      <c r="K25" s="350"/>
       <c r="M25" s="74">
         <v>43335</v>
       </c>
-      <c r="N25" s="448" t="s">
+      <c r="N25" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O25" s="87"/>
@@ -7469,12 +7517,12 @@
       <c r="R25" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="S25" s="457"/>
-      <c r="T25" s="464">
+      <c r="S25" s="454"/>
+      <c r="T25" s="461">
         <v>1500</v>
       </c>
       <c r="U25" s="110"/>
-      <c r="V25" s="465">
+      <c r="V25" s="462">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -7482,10 +7530,10 @@
       <c r="X25" s="160">
         <v>43405</v>
       </c>
-      <c r="Y25" s="557" t="s">
+      <c r="Y25" s="583" t="s">
         <v>341</v>
       </c>
-      <c r="Z25" s="558"/>
+      <c r="Z25" s="584"/>
       <c r="AA25" s="168">
         <v>6798</v>
       </c>
@@ -7558,21 +7606,21 @@
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
-      <c r="G26" s="361">
+      <c r="G26" s="358">
         <v>43358</v>
       </c>
-      <c r="H26" s="362" t="s">
+      <c r="H26" s="359" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="363"/>
-      <c r="J26" s="363">
+      <c r="I26" s="360"/>
+      <c r="J26" s="360">
         <v>165</v>
       </c>
-      <c r="K26" s="364"/>
+      <c r="K26" s="361"/>
       <c r="M26" s="74">
         <v>43344</v>
       </c>
-      <c r="N26" s="448" t="s">
+      <c r="N26" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O26" s="86"/>
@@ -7581,12 +7629,12 @@
       <c r="R26" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="S26" s="457"/>
-      <c r="T26" s="464">
+      <c r="S26" s="454"/>
+      <c r="T26" s="461">
         <v>1500</v>
       </c>
       <c r="U26" s="110"/>
-      <c r="V26" s="465">
+      <c r="V26" s="462">
         <f t="shared" ref="V26" si="8">T26-U26</f>
         <v>1500</v>
       </c>
@@ -7668,21 +7716,21 @@
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
-      <c r="G27" s="369">
+      <c r="G27" s="366">
         <v>43360</v>
       </c>
-      <c r="H27" s="370" t="s">
+      <c r="H27" s="367" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="371">
+      <c r="I27" s="368">
         <v>1000</v>
       </c>
-      <c r="J27" s="371"/>
-      <c r="K27" s="372"/>
+      <c r="J27" s="368"/>
+      <c r="K27" s="369"/>
       <c r="M27" s="74">
         <v>43349</v>
       </c>
-      <c r="N27" s="448" t="s">
+      <c r="N27" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O27" s="86"/>
@@ -7691,12 +7739,12 @@
       <c r="R27" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="S27" s="457"/>
-      <c r="T27" s="464">
+      <c r="S27" s="454"/>
+      <c r="T27" s="461">
         <v>3000</v>
       </c>
       <c r="U27" s="110"/>
-      <c r="V27" s="465">
+      <c r="V27" s="462">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
@@ -7780,22 +7828,22 @@
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
-      <c r="G28" s="373">
+      <c r="G28" s="370">
         <v>43361</v>
       </c>
-      <c r="H28" s="374" t="s">
+      <c r="H28" s="371" t="s">
         <v>201</v>
       </c>
-      <c r="I28" s="375"/>
-      <c r="J28" s="375"/>
-      <c r="K28" s="376">
+      <c r="I28" s="372"/>
+      <c r="J28" s="372"/>
+      <c r="K28" s="373">
         <v>200</v>
       </c>
       <c r="L28" s="200"/>
       <c r="M28" s="74">
         <v>43355</v>
       </c>
-      <c r="N28" s="448" t="s">
+      <c r="N28" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O28" s="86"/>
@@ -7804,12 +7852,12 @@
       <c r="R28" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="S28" s="457"/>
-      <c r="T28" s="464">
+      <c r="S28" s="454"/>
+      <c r="T28" s="461">
         <v>460</v>
       </c>
       <c r="U28" s="110"/>
-      <c r="V28" s="465">
+      <c r="V28" s="462">
         <f t="shared" si="7"/>
         <v>460</v>
       </c>
@@ -7895,21 +7943,21 @@
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
-      <c r="G29" s="365">
+      <c r="G29" s="362">
         <v>43362</v>
       </c>
-      <c r="H29" s="366" t="s">
+      <c r="H29" s="363" t="s">
         <v>212</v>
       </c>
-      <c r="I29" s="367"/>
-      <c r="J29" s="367">
+      <c r="I29" s="364"/>
+      <c r="J29" s="364">
         <v>147</v>
       </c>
-      <c r="K29" s="368"/>
+      <c r="K29" s="365"/>
       <c r="M29" s="74">
         <v>43386</v>
       </c>
-      <c r="N29" s="448" t="s">
+      <c r="N29" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O29" s="86"/>
@@ -7918,12 +7966,12 @@
       <c r="R29" s="135" t="s">
         <v>286</v>
       </c>
-      <c r="S29" s="457"/>
-      <c r="T29" s="464">
+      <c r="S29" s="454"/>
+      <c r="T29" s="461">
         <v>1700</v>
       </c>
       <c r="U29" s="110"/>
-      <c r="V29" s="465">
+      <c r="V29" s="462">
         <f t="shared" si="7"/>
         <v>1700</v>
       </c>
@@ -7931,10 +7979,10 @@
       <c r="X29" s="160">
         <v>43418</v>
       </c>
-      <c r="Y29" s="557" t="s">
+      <c r="Y29" s="583" t="s">
         <v>184</v>
       </c>
-      <c r="Z29" s="558"/>
+      <c r="Z29" s="584"/>
       <c r="AA29" s="168">
         <v>11052</v>
       </c>
@@ -7992,7 +8040,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="BE29" s="401"/>
+      <c r="BE29" s="398"/>
       <c r="BF29" s="284">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8003,21 +8051,21 @@
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
-      <c r="G30" s="352">
+      <c r="G30" s="349">
         <v>43362</v>
       </c>
-      <c r="H30" s="335" t="s">
+      <c r="H30" s="332" t="s">
         <v>213</v>
       </c>
       <c r="I30" s="221"/>
       <c r="J30" s="221">
         <v>10</v>
       </c>
-      <c r="K30" s="353"/>
+      <c r="K30" s="350"/>
       <c r="M30" s="74">
         <v>43393</v>
       </c>
-      <c r="N30" s="448" t="s">
+      <c r="N30" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O30" s="86"/>
@@ -8026,12 +8074,12 @@
       <c r="R30" s="135" t="s">
         <v>303</v>
       </c>
-      <c r="S30" s="457"/>
-      <c r="T30" s="464">
+      <c r="S30" s="454"/>
+      <c r="T30" s="461">
         <v>1500</v>
       </c>
       <c r="U30" s="110"/>
-      <c r="V30" s="465">
+      <c r="V30" s="462">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -8117,21 +8165,21 @@
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
-      <c r="G31" s="354">
+      <c r="G31" s="351">
         <v>43363</v>
       </c>
-      <c r="H31" s="355" t="s">
+      <c r="H31" s="352" t="s">
         <v>214</v>
       </c>
-      <c r="I31" s="357"/>
-      <c r="J31" s="357">
+      <c r="I31" s="354"/>
+      <c r="J31" s="354">
         <v>83</v>
       </c>
-      <c r="K31" s="358"/>
+      <c r="K31" s="355"/>
       <c r="M31" s="74">
         <v>43409</v>
       </c>
-      <c r="N31" s="448" t="s">
+      <c r="N31" s="445" t="s">
         <v>16</v>
       </c>
       <c r="O31" s="86"/>
@@ -8140,12 +8188,12 @@
       <c r="R31" s="135" t="s">
         <v>324</v>
       </c>
-      <c r="S31" s="457"/>
-      <c r="T31" s="464">
+      <c r="S31" s="454"/>
+      <c r="T31" s="461">
         <v>2500</v>
       </c>
       <c r="U31" s="110"/>
-      <c r="V31" s="465">
+      <c r="V31" s="462">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
@@ -8218,7 +8266,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BE31" s="402">
+      <c r="BE31" s="399">
         <v>2</v>
       </c>
       <c r="BF31" s="284">
@@ -8231,35 +8279,35 @@
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
-      <c r="G32" s="377">
+      <c r="G32" s="374">
         <v>43361</v>
       </c>
-      <c r="H32" s="378" t="s">
+      <c r="H32" s="375" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="379"/>
-      <c r="J32" s="379"/>
-      <c r="K32" s="380">
+      <c r="I32" s="376"/>
+      <c r="J32" s="376"/>
+      <c r="K32" s="377">
         <v>200</v>
       </c>
       <c r="M32" s="75">
         <v>43405</v>
       </c>
-      <c r="N32" s="449" t="s">
+      <c r="N32" s="446" t="s">
         <v>16</v>
       </c>
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
       <c r="Q32" s="81"/>
-      <c r="R32" s="455" t="s">
+      <c r="R32" s="452" t="s">
         <v>321</v>
       </c>
-      <c r="S32" s="458"/>
-      <c r="T32" s="466">
+      <c r="S32" s="455"/>
+      <c r="T32" s="463">
         <v>3500</v>
       </c>
-      <c r="U32" s="467"/>
-      <c r="V32" s="468">
+      <c r="U32" s="464"/>
+      <c r="V32" s="465">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
@@ -8267,10 +8315,10 @@
       <c r="X32" s="160">
         <v>43433</v>
       </c>
-      <c r="Y32" s="557" t="s">
+      <c r="Y32" s="583" t="s">
         <v>184</v>
       </c>
-      <c r="Z32" s="558"/>
+      <c r="Z32" s="584"/>
       <c r="AA32" s="168">
         <v>10650</v>
       </c>
@@ -8349,19 +8397,19 @@
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="G33" s="365">
+      <c r="G33" s="362">
         <v>43369</v>
       </c>
-      <c r="H33" s="366" t="s">
+      <c r="H33" s="363" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="367"/>
-      <c r="J33" s="367">
+      <c r="I33" s="364"/>
+      <c r="J33" s="364">
         <v>30</v>
       </c>
-      <c r="K33" s="368"/>
-      <c r="M33" s="444"/>
-      <c r="N33" s="445" t="s">
+      <c r="K33" s="365"/>
+      <c r="M33" s="441"/>
+      <c r="N33" s="442" t="s">
         <v>17</v>
       </c>
       <c r="O33" s="128">
@@ -8376,10 +8424,10 @@
         <f>O33-P33</f>
         <v>5270</v>
       </c>
-      <c r="R33" s="453" t="s">
+      <c r="R33" s="450" t="s">
         <v>27</v>
       </c>
-      <c r="S33" s="454"/>
+      <c r="S33" s="451"/>
       <c r="T33" s="140">
         <v>1100</v>
       </c>
@@ -8472,17 +8520,17 @@
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
-      <c r="G34" s="354">
+      <c r="G34" s="351">
         <v>43369</v>
       </c>
-      <c r="H34" s="355" t="s">
+      <c r="H34" s="352" t="s">
         <v>235</v>
       </c>
-      <c r="I34" s="357">
+      <c r="I34" s="354">
         <v>900</v>
       </c>
-      <c r="J34" s="357"/>
-      <c r="K34" s="358"/>
+      <c r="J34" s="354"/>
+      <c r="K34" s="355"/>
       <c r="M34" s="82"/>
       <c r="N34" s="83" t="s">
         <v>17</v>
@@ -8586,15 +8634,15 @@
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
-      <c r="G35" s="396">
+      <c r="G35" s="393">
         <v>43370</v>
       </c>
-      <c r="H35" s="397" t="s">
+      <c r="H35" s="394" t="s">
         <v>184</v>
       </c>
-      <c r="I35" s="398"/>
-      <c r="J35" s="398"/>
-      <c r="K35" s="399">
+      <c r="I35" s="395"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="396">
         <v>11052</v>
       </c>
       <c r="M35" s="143"/>
@@ -8617,13 +8665,13 @@
         <v>1000</v>
       </c>
       <c r="W35" s="195"/>
-      <c r="X35" s="575" t="s">
+      <c r="X35" s="601" t="s">
         <v>401</v>
       </c>
-      <c r="Y35" s="576"/>
-      <c r="Z35" s="576"/>
-      <c r="AA35" s="577"/>
-      <c r="AB35" s="553">
+      <c r="Y35" s="602"/>
+      <c r="Z35" s="602"/>
+      <c r="AA35" s="603"/>
+      <c r="AB35" s="550">
         <v>-400</v>
       </c>
       <c r="AD35" s="224">
@@ -8690,17 +8738,17 @@
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
-      <c r="G36" s="365">
+      <c r="G36" s="362">
         <v>43371</v>
       </c>
-      <c r="H36" s="366" t="s">
+      <c r="H36" s="363" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="367"/>
-      <c r="J36" s="367">
+      <c r="I36" s="364"/>
+      <c r="J36" s="364">
         <v>85.11</v>
       </c>
-      <c r="K36" s="368"/>
+      <c r="K36" s="365"/>
       <c r="M36" s="143"/>
       <c r="N36" s="85" t="s">
         <v>17</v>
@@ -8798,17 +8846,17 @@
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
-      <c r="G37" s="352">
+      <c r="G37" s="349">
         <v>43371</v>
       </c>
-      <c r="H37" s="335" t="s">
+      <c r="H37" s="332" t="s">
         <v>240</v>
       </c>
       <c r="I37" s="221"/>
       <c r="J37" s="221">
         <v>16</v>
       </c>
-      <c r="K37" s="353"/>
+      <c r="K37" s="350"/>
       <c r="M37" s="143"/>
       <c r="N37" s="85" t="s">
         <v>17</v>
@@ -8829,7 +8877,7 @@
         <v>500</v>
       </c>
       <c r="W37" s="198"/>
-      <c r="X37" s="555">
+      <c r="X37" s="552">
         <v>43446</v>
       </c>
       <c r="Y37" s="163" t="s">
@@ -8904,17 +8952,17 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
-      <c r="G38" s="352">
+      <c r="G38" s="349">
         <v>43372</v>
       </c>
-      <c r="H38" s="335" t="s">
+      <c r="H38" s="332" t="s">
         <v>242</v>
       </c>
       <c r="I38" s="221"/>
       <c r="J38" s="221">
         <v>1000</v>
       </c>
-      <c r="K38" s="353"/>
+      <c r="K38" s="350"/>
       <c r="M38" s="82"/>
       <c r="N38" s="83" t="s">
         <v>17</v>
@@ -8935,13 +8983,13 @@
         <v>150</v>
       </c>
       <c r="W38" s="195"/>
-      <c r="X38" s="555">
+      <c r="X38" s="552">
         <v>43447</v>
       </c>
-      <c r="Y38" s="557" t="s">
+      <c r="Y38" s="583" t="s">
         <v>184</v>
       </c>
-      <c r="Z38" s="558"/>
+      <c r="Z38" s="584"/>
       <c r="AA38" s="168">
         <v>11826.22</v>
       </c>
@@ -9012,17 +9060,17 @@
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
-      <c r="G39" s="352">
+      <c r="G39" s="349">
         <v>43372</v>
       </c>
-      <c r="H39" s="335" t="s">
+      <c r="H39" s="332" t="s">
         <v>243</v>
       </c>
       <c r="I39" s="221"/>
       <c r="J39" s="221">
         <v>113</v>
       </c>
-      <c r="K39" s="353"/>
+      <c r="K39" s="350"/>
       <c r="M39" s="143"/>
       <c r="N39" s="85" t="s">
         <v>17</v>
@@ -9114,17 +9162,17 @@
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
-      <c r="G40" s="354">
+      <c r="G40" s="351">
         <v>43373</v>
       </c>
-      <c r="H40" s="355" t="s">
+      <c r="H40" s="352" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="357">
+      <c r="I40" s="354">
         <v>2500</v>
       </c>
-      <c r="J40" s="357"/>
-      <c r="K40" s="358"/>
+      <c r="J40" s="354"/>
+      <c r="K40" s="355"/>
       <c r="M40" s="143"/>
       <c r="N40" s="85" t="s">
         <v>17</v>
@@ -9216,15 +9264,15 @@
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
-      <c r="G41" s="409">
+      <c r="G41" s="406">
         <v>43373</v>
       </c>
-      <c r="H41" s="410" t="s">
+      <c r="H41" s="407" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="411"/>
-      <c r="J41" s="411"/>
-      <c r="K41" s="412">
+      <c r="I41" s="408"/>
+      <c r="J41" s="408"/>
+      <c r="K41" s="409">
         <v>200</v>
       </c>
       <c r="M41" s="143"/>
@@ -9322,17 +9370,17 @@
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
-      <c r="G42" s="365">
+      <c r="G42" s="362">
         <v>43376</v>
       </c>
-      <c r="H42" s="366" t="s">
+      <c r="H42" s="363" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="367"/>
-      <c r="J42" s="367">
+      <c r="I42" s="364"/>
+      <c r="J42" s="364">
         <v>598</v>
       </c>
-      <c r="K42" s="368"/>
+      <c r="K42" s="365"/>
       <c r="M42" s="143"/>
       <c r="N42" s="85" t="s">
         <v>17</v>
@@ -9428,10 +9476,10 @@
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
-      <c r="G43" s="413">
+      <c r="G43" s="410">
         <v>43380</v>
       </c>
-      <c r="H43" s="335" t="s">
+      <c r="H43" s="332" t="s">
         <v>259</v>
       </c>
       <c r="I43" s="221">
@@ -9440,7 +9488,7 @@
       <c r="J43" s="221">
         <v>26</v>
       </c>
-      <c r="K43" s="353"/>
+      <c r="K43" s="350"/>
       <c r="M43" s="143"/>
       <c r="N43" s="85" t="s">
         <v>17</v>
@@ -9534,15 +9582,15 @@
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
-      <c r="G44" s="409">
+      <c r="G44" s="406">
         <v>43350</v>
       </c>
-      <c r="H44" s="410" t="s">
+      <c r="H44" s="407" t="s">
         <v>278</v>
       </c>
-      <c r="I44" s="411"/>
-      <c r="J44" s="411"/>
-      <c r="K44" s="412">
+      <c r="I44" s="408"/>
+      <c r="J44" s="408"/>
+      <c r="K44" s="409">
         <v>200</v>
       </c>
       <c r="M44" s="72"/>
@@ -9636,17 +9684,17 @@
       <c r="C45" s="60"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
-      <c r="G45" s="365">
+      <c r="G45" s="362">
         <v>43381</v>
       </c>
-      <c r="H45" s="366" t="s">
+      <c r="H45" s="363" t="s">
         <v>265</v>
       </c>
-      <c r="I45" s="367"/>
-      <c r="J45" s="367">
+      <c r="I45" s="364"/>
+      <c r="J45" s="364">
         <v>335</v>
       </c>
-      <c r="K45" s="368"/>
+      <c r="K45" s="365"/>
       <c r="M45" s="153">
         <v>43167</v>
       </c>
@@ -9754,17 +9802,17 @@
       <c r="C46" s="60"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
-      <c r="G46" s="352">
+      <c r="G46" s="349">
         <v>43382</v>
       </c>
-      <c r="H46" s="335" t="s">
+      <c r="H46" s="332" t="s">
         <v>266</v>
       </c>
       <c r="I46" s="221">
         <v>400</v>
       </c>
       <c r="J46" s="221"/>
-      <c r="K46" s="353"/>
+      <c r="K46" s="350"/>
       <c r="M46" s="89">
         <v>42802</v>
       </c>
@@ -9852,17 +9900,17 @@
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
-      <c r="G47" s="415">
+      <c r="G47" s="412">
         <v>43384</v>
       </c>
-      <c r="H47" s="416" t="s">
+      <c r="H47" s="413" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="417"/>
-      <c r="J47" s="417">
+      <c r="I47" s="414"/>
+      <c r="J47" s="414">
         <v>113</v>
       </c>
-      <c r="K47" s="418"/>
+      <c r="K47" s="415"/>
       <c r="M47" s="74">
         <v>43266</v>
       </c>
@@ -9952,15 +10000,15 @@
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
-      <c r="G48" s="336">
+      <c r="G48" s="333">
         <v>43385</v>
       </c>
-      <c r="H48" s="337" t="s">
+      <c r="H48" s="334" t="s">
         <v>184</v>
       </c>
-      <c r="I48" s="338"/>
-      <c r="J48" s="338"/>
-      <c r="K48" s="339">
+      <c r="I48" s="335"/>
+      <c r="J48" s="335"/>
+      <c r="K48" s="336">
         <v>11052</v>
       </c>
       <c r="M48" s="76"/>
@@ -10056,38 +10104,33 @@
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
-      <c r="G49" s="346">
+      <c r="G49" s="343">
         <v>43385</v>
       </c>
-      <c r="H49" s="347" t="s">
+      <c r="H49" s="344" t="s">
         <v>283</v>
       </c>
-      <c r="I49" s="348">
+      <c r="I49" s="345">
         <v>1500</v>
       </c>
-      <c r="J49" s="348"/>
-      <c r="K49" s="349"/>
-      <c r="M49" s="154">
-        <v>43375</v>
-      </c>
-      <c r="N49" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="O49" s="128"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="S49" s="151"/>
-      <c r="T49" s="137">
+      <c r="J49" s="345"/>
+      <c r="K49" s="346"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="O49" s="124"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="562" t="s">
+        <v>427</v>
+      </c>
+      <c r="S49" s="563"/>
+      <c r="T49" s="564">
         <v>100</v>
       </c>
-      <c r="U49" s="138"/>
-      <c r="V49" s="139">
-        <f t="shared" ref="V49:V59" si="9">T49-U49</f>
-        <v>100</v>
-      </c>
+      <c r="U49" s="565"/>
+      <c r="V49" s="566"/>
       <c r="W49" s="197"/>
       <c r="X49" s="160"/>
       <c r="Y49" s="163"/>
@@ -10162,50 +10205,37 @@
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
-      <c r="G50" s="350">
+      <c r="G50" s="347">
         <v>43385</v>
       </c>
-      <c r="H50" s="334" t="s">
+      <c r="H50" s="331" t="s">
         <v>285</v>
       </c>
       <c r="I50" s="220"/>
       <c r="J50" s="220">
         <v>162</v>
       </c>
-      <c r="K50" s="351"/>
-      <c r="M50" s="299" t="s">
-        <v>86</v>
-      </c>
-      <c r="N50" s="300" t="s">
-        <v>19</v>
-      </c>
-      <c r="O50" s="301">
-        <f>SUM(T50:T60)</f>
-        <v>7505</v>
-      </c>
-      <c r="P50" s="302">
-        <f>SUM(U50:U60)</f>
-        <v>5050</v>
-      </c>
-      <c r="Q50" s="303">
-        <f>O50-P50</f>
-        <v>2455</v>
-      </c>
-      <c r="R50" s="304" t="s">
-        <v>85</v>
-      </c>
-      <c r="S50" s="305" t="s">
-        <v>122</v>
-      </c>
-      <c r="T50" s="103">
-        <v>1040</v>
-      </c>
-      <c r="U50" s="104">
-        <v>500</v>
-      </c>
-      <c r="V50" s="105">
-        <f t="shared" si="9"/>
-        <v>540</v>
+      <c r="K50" s="348"/>
+      <c r="M50" s="154">
+        <v>43375</v>
+      </c>
+      <c r="N50" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="O50" s="128"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="130"/>
+      <c r="R50" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="S50" s="151"/>
+      <c r="T50" s="137">
+        <v>100</v>
+      </c>
+      <c r="U50" s="138"/>
+      <c r="V50" s="139">
+        <f t="shared" ref="V50:V60" si="9">T50-U50</f>
+        <v>100</v>
       </c>
       <c r="W50" s="197"/>
       <c r="X50" s="160"/>
@@ -10277,37 +10307,50 @@
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
-      <c r="G51" s="350">
+      <c r="G51" s="347">
         <v>43386</v>
       </c>
-      <c r="H51" s="334" t="s">
+      <c r="H51" s="331" t="s">
         <v>282</v>
       </c>
       <c r="I51" s="220">
         <v>1800</v>
       </c>
       <c r="J51" s="220"/>
-      <c r="K51" s="351"/>
-      <c r="M51" s="306"/>
-      <c r="N51" s="278" t="s">
+      <c r="K51" s="348"/>
+      <c r="M51" s="296" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="307"/>
-      <c r="P51" s="308"/>
-      <c r="Q51" s="309"/>
-      <c r="R51" s="310" t="s">
-        <v>88</v>
-      </c>
-      <c r="S51" s="311"/>
-      <c r="T51" s="106">
-        <v>2900</v>
-      </c>
-      <c r="U51" s="107">
-        <v>1550</v>
-      </c>
-      <c r="V51" s="108">
+      <c r="O51" s="298">
+        <f>SUM(T51:T61)</f>
+        <v>7505</v>
+      </c>
+      <c r="P51" s="299">
+        <f>SUM(U51:U61)</f>
+        <v>5050</v>
+      </c>
+      <c r="Q51" s="300">
+        <f>O51-P51</f>
+        <v>2455</v>
+      </c>
+      <c r="R51" s="301" t="s">
+        <v>85</v>
+      </c>
+      <c r="S51" s="302" t="s">
+        <v>122</v>
+      </c>
+      <c r="T51" s="103">
+        <v>1040</v>
+      </c>
+      <c r="U51" s="104">
+        <v>500</v>
+      </c>
+      <c r="V51" s="105">
         <f t="shared" si="9"/>
-        <v>1350</v>
+        <v>540</v>
       </c>
       <c r="W51" s="201"/>
       <c r="X51" s="160"/>
@@ -10381,35 +10424,37 @@
       <c r="C52" s="60"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
-      <c r="G52" s="350">
+      <c r="G52" s="347">
         <v>43387</v>
       </c>
-      <c r="H52" s="334" t="s">
+      <c r="H52" s="331" t="s">
         <v>284</v>
       </c>
       <c r="I52" s="220"/>
       <c r="J52" s="220">
         <v>158</v>
       </c>
-      <c r="K52" s="351"/>
-      <c r="M52" s="143"/>
-      <c r="N52" s="85" t="s">
+      <c r="K52" s="348"/>
+      <c r="M52" s="303"/>
+      <c r="N52" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="86"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="135" t="s">
-        <v>90</v>
-      </c>
-      <c r="S52" s="312"/>
-      <c r="T52" s="109">
-        <v>240</v>
-      </c>
-      <c r="U52" s="110"/>
-      <c r="V52" s="111">
+      <c r="O52" s="304"/>
+      <c r="P52" s="305"/>
+      <c r="Q52" s="306"/>
+      <c r="R52" s="307" t="s">
+        <v>88</v>
+      </c>
+      <c r="S52" s="308"/>
+      <c r="T52" s="106">
+        <v>2900</v>
+      </c>
+      <c r="U52" s="107">
+        <v>1550</v>
+      </c>
+      <c r="V52" s="108">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="W52" s="197"/>
       <c r="X52" s="160"/>
@@ -10485,20 +10530,18 @@
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
-      <c r="G53" s="350">
+      <c r="G53" s="347">
         <v>43387</v>
       </c>
-      <c r="H53" s="334" t="s">
+      <c r="H53" s="331" t="s">
         <v>154</v>
       </c>
       <c r="I53" s="220"/>
       <c r="J53" s="220">
         <v>200</v>
       </c>
-      <c r="K53" s="351"/>
-      <c r="M53" s="143" t="s">
-        <v>102</v>
-      </c>
+      <c r="K53" s="348"/>
+      <c r="M53" s="143"/>
       <c r="N53" s="85" t="s">
         <v>19</v>
       </c>
@@ -10506,20 +10549,16 @@
       <c r="P53" s="87"/>
       <c r="Q53" s="88"/>
       <c r="R53" s="135" t="s">
-        <v>103</v>
-      </c>
-      <c r="S53" s="312" t="s">
-        <v>109</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="S53" s="309"/>
       <c r="T53" s="109">
-        <v>1500</v>
-      </c>
-      <c r="U53" s="110">
-        <v>1300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="U53" s="110"/>
       <c r="V53" s="111">
-        <f>T53-U53</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="W53" s="197"/>
       <c r="X53" s="160"/>
@@ -10585,18 +10624,20 @@
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
-      <c r="G54" s="479">
+      <c r="G54" s="476">
         <v>43390</v>
       </c>
-      <c r="H54" s="419" t="s">
+      <c r="H54" s="416" t="s">
         <v>290</v>
       </c>
       <c r="I54" s="289"/>
       <c r="J54" s="289">
         <v>50</v>
       </c>
-      <c r="K54" s="480"/>
-      <c r="M54" s="143"/>
+      <c r="K54" s="477"/>
+      <c r="M54" s="143" t="s">
+        <v>102</v>
+      </c>
       <c r="N54" s="85" t="s">
         <v>19</v>
       </c>
@@ -10604,20 +10645,20 @@
       <c r="P54" s="87"/>
       <c r="Q54" s="88"/>
       <c r="R54" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="S54" s="312" t="s">
-        <v>392</v>
-      </c>
-      <c r="T54" s="544">
-        <v>100</v>
-      </c>
-      <c r="U54" s="545">
-        <v>100</v>
-      </c>
-      <c r="V54" s="546">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="S54" s="309" t="s">
+        <v>109</v>
+      </c>
+      <c r="T54" s="109">
+        <v>1500</v>
+      </c>
+      <c r="U54" s="110">
+        <v>1300</v>
+      </c>
+      <c r="V54" s="111">
+        <f>T54-U54</f>
+        <v>200</v>
       </c>
       <c r="W54" s="197"/>
       <c r="X54" s="160"/>
@@ -10691,17 +10732,17 @@
       <c r="C55" s="60"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
-      <c r="G55" s="479">
+      <c r="G55" s="476">
         <v>43390</v>
       </c>
-      <c r="H55" s="419" t="s">
+      <c r="H55" s="416" t="s">
         <v>291</v>
       </c>
       <c r="I55" s="289"/>
       <c r="J55" s="289">
         <v>145</v>
       </c>
-      <c r="K55" s="480"/>
+      <c r="K55" s="477"/>
       <c r="M55" s="143"/>
       <c r="N55" s="85" t="s">
         <v>19</v>
@@ -10710,18 +10751,18 @@
       <c r="P55" s="87"/>
       <c r="Q55" s="88"/>
       <c r="R55" s="135" t="s">
-        <v>370</v>
-      </c>
-      <c r="S55" s="312" t="s">
-        <v>376</v>
-      </c>
-      <c r="T55" s="544">
-        <v>1000</v>
-      </c>
-      <c r="U55" s="545">
-        <v>1000</v>
-      </c>
-      <c r="V55" s="546">
+        <v>104</v>
+      </c>
+      <c r="S55" s="309" t="s">
+        <v>392</v>
+      </c>
+      <c r="T55" s="541">
+        <v>100</v>
+      </c>
+      <c r="U55" s="542">
+        <v>100</v>
+      </c>
+      <c r="V55" s="543">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10791,35 +10832,39 @@
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
-      <c r="G56" s="479">
+      <c r="G56" s="476">
         <v>43393</v>
       </c>
-      <c r="H56" s="419" t="s">
+      <c r="H56" s="416" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="289">
         <v>2000</v>
       </c>
       <c r="J56" s="289"/>
-      <c r="K56" s="480"/>
+      <c r="K56" s="477"/>
       <c r="M56" s="143"/>
       <c r="N56" s="85" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O56" s="86"/>
       <c r="P56" s="87"/>
       <c r="Q56" s="88"/>
       <c r="R56" s="135" t="s">
-        <v>111</v>
-      </c>
-      <c r="S56" s="312"/>
-      <c r="T56" s="109">
-        <v>80</v>
-      </c>
-      <c r="U56" s="110"/>
-      <c r="V56" s="111">
+        <v>370</v>
+      </c>
+      <c r="S56" s="309" t="s">
+        <v>376</v>
+      </c>
+      <c r="T56" s="541">
+        <v>1000</v>
+      </c>
+      <c r="U56" s="542">
+        <v>1000</v>
+      </c>
+      <c r="V56" s="543">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="W56" s="197"/>
       <c r="X56" s="160"/>
@@ -10889,39 +10934,35 @@
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
-      <c r="G57" s="415">
+      <c r="G57" s="412">
         <v>43397</v>
       </c>
-      <c r="H57" s="416" t="s">
+      <c r="H57" s="413" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="417"/>
-      <c r="J57" s="417">
+      <c r="I57" s="414"/>
+      <c r="J57" s="414">
         <v>175</v>
       </c>
-      <c r="K57" s="418"/>
+      <c r="K57" s="415"/>
       <c r="M57" s="143"/>
       <c r="N57" s="85" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O57" s="86"/>
       <c r="P57" s="87"/>
       <c r="Q57" s="88"/>
       <c r="R57" s="135" t="s">
-        <v>124</v>
-      </c>
-      <c r="S57" s="312" t="s">
-        <v>306</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="S57" s="309"/>
       <c r="T57" s="109">
-        <v>100</v>
-      </c>
-      <c r="U57" s="110">
-        <v>55</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="U57" s="110"/>
       <c r="V57" s="111">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="W57" s="197"/>
       <c r="X57" s="160"/>
@@ -10993,20 +11034,18 @@
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
-      <c r="G58" s="336">
+      <c r="G58" s="333">
         <v>43402</v>
       </c>
-      <c r="H58" s="337" t="s">
+      <c r="H58" s="334" t="s">
         <v>184</v>
       </c>
-      <c r="I58" s="338"/>
-      <c r="J58" s="338"/>
-      <c r="K58" s="339">
+      <c r="I58" s="335"/>
+      <c r="J58" s="335"/>
+      <c r="K58" s="336">
         <v>11052</v>
       </c>
-      <c r="M58" s="84">
-        <v>43390</v>
-      </c>
+      <c r="M58" s="143"/>
       <c r="N58" s="85" t="s">
         <v>19</v>
       </c>
@@ -11014,20 +11053,20 @@
       <c r="P58" s="87"/>
       <c r="Q58" s="88"/>
       <c r="R58" s="135" t="s">
-        <v>299</v>
-      </c>
-      <c r="S58" s="312" t="s">
+        <v>124</v>
+      </c>
+      <c r="S58" s="309" t="s">
         <v>306</v>
       </c>
-      <c r="T58" s="544">
-        <v>145</v>
-      </c>
-      <c r="U58" s="545">
-        <v>145</v>
-      </c>
-      <c r="V58" s="546">
+      <c r="T58" s="109">
+        <v>100</v>
+      </c>
+      <c r="U58" s="110">
+        <v>55</v>
+      </c>
+      <c r="V58" s="111">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W58" s="197"/>
       <c r="X58" s="160"/>
@@ -11099,19 +11138,19 @@
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
-      <c r="G59" s="475">
+      <c r="G59" s="472">
         <v>43402</v>
       </c>
-      <c r="H59" s="476" t="s">
+      <c r="H59" s="473" t="s">
         <v>316</v>
       </c>
-      <c r="I59" s="477">
+      <c r="I59" s="474">
         <v>1000</v>
       </c>
-      <c r="J59" s="477"/>
-      <c r="K59" s="478"/>
+      <c r="J59" s="474"/>
+      <c r="K59" s="475"/>
       <c r="M59" s="84">
-        <v>43334</v>
+        <v>43390</v>
       </c>
       <c r="N59" s="85" t="s">
         <v>19</v>
@@ -11120,18 +11159,18 @@
       <c r="P59" s="87"/>
       <c r="Q59" s="88"/>
       <c r="R59" s="135" t="s">
-        <v>141</v>
-      </c>
-      <c r="S59" s="312" t="s">
+        <v>299</v>
+      </c>
+      <c r="S59" s="309" t="s">
         <v>306</v>
       </c>
-      <c r="T59" s="544">
-        <v>200</v>
-      </c>
-      <c r="U59" s="545">
-        <v>200</v>
-      </c>
-      <c r="V59" s="546">
+      <c r="T59" s="541">
+        <v>145</v>
+      </c>
+      <c r="U59" s="542">
+        <v>145</v>
+      </c>
+      <c r="V59" s="543">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11205,40 +11244,40 @@
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
-      <c r="G60" s="429">
+      <c r="G60" s="426">
         <v>43403</v>
       </c>
-      <c r="H60" s="430" t="s">
+      <c r="H60" s="427" t="s">
         <v>367</v>
       </c>
-      <c r="I60" s="431"/>
-      <c r="J60" s="431"/>
-      <c r="K60" s="432">
+      <c r="I60" s="428"/>
+      <c r="J60" s="428"/>
+      <c r="K60" s="429">
         <v>200</v>
       </c>
-      <c r="M60" s="74">
-        <v>43180</v>
-      </c>
-      <c r="N60" s="73" t="s">
+      <c r="M60" s="84">
+        <v>43334</v>
+      </c>
+      <c r="N60" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="O60" s="423"/>
-      <c r="P60" s="424"/>
-      <c r="Q60" s="425"/>
-      <c r="R60" s="328" t="s">
-        <v>112</v>
-      </c>
-      <c r="S60" s="420" t="s">
-        <v>377</v>
-      </c>
-      <c r="T60" s="547">
+      <c r="O60" s="86"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="S60" s="309" t="s">
+        <v>306</v>
+      </c>
+      <c r="T60" s="541">
         <v>200</v>
       </c>
-      <c r="U60" s="548">
+      <c r="U60" s="542">
         <v>200</v>
       </c>
-      <c r="V60" s="549">
-        <f>T60-U60</f>
+      <c r="V60" s="543">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W60" s="197"/>
@@ -11313,37 +11352,39 @@
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
-      <c r="G61" s="433">
+      <c r="G61" s="430">
         <v>43405</v>
       </c>
-      <c r="H61" s="434" t="s">
+      <c r="H61" s="431" t="s">
         <v>319</v>
       </c>
-      <c r="I61" s="435"/>
-      <c r="J61" s="435"/>
-      <c r="K61" s="436">
+      <c r="I61" s="432"/>
+      <c r="J61" s="432"/>
+      <c r="K61" s="433">
         <v>19187</v>
       </c>
-      <c r="M61" s="421" t="s">
-        <v>307</v>
-      </c>
-      <c r="N61" s="422" t="s">
-        <v>308</v>
-      </c>
-      <c r="O61" s="426"/>
-      <c r="P61" s="427"/>
-      <c r="Q61" s="428"/>
-      <c r="R61" s="422" t="s">
-        <v>309</v>
-      </c>
-      <c r="S61" s="422"/>
-      <c r="T61" s="550">
-        <v>110</v>
-      </c>
-      <c r="U61" s="551">
-        <v>110</v>
-      </c>
-      <c r="V61" s="552">
+      <c r="M61" s="74">
+        <v>43180</v>
+      </c>
+      <c r="N61" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="O61" s="420"/>
+      <c r="P61" s="421"/>
+      <c r="Q61" s="422"/>
+      <c r="R61" s="325" t="s">
+        <v>112</v>
+      </c>
+      <c r="S61" s="417" t="s">
+        <v>377</v>
+      </c>
+      <c r="T61" s="544">
+        <v>200</v>
+      </c>
+      <c r="U61" s="545">
+        <v>200</v>
+      </c>
+      <c r="V61" s="546">
         <f>T61-U61</f>
         <v>0</v>
       </c>
@@ -11417,27 +11458,40 @@
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
-      <c r="G62" s="437">
+      <c r="G62" s="434">
         <v>43405</v>
       </c>
-      <c r="H62" s="438" t="s">
+      <c r="H62" s="435" t="s">
         <v>320</v>
       </c>
-      <c r="I62" s="439"/>
-      <c r="J62" s="439"/>
-      <c r="K62" s="440">
+      <c r="I62" s="436"/>
+      <c r="J62" s="436"/>
+      <c r="K62" s="437">
         <v>6798</v>
       </c>
-      <c r="M62" s="197"/>
-      <c r="N62" s="197"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="197"/>
-      <c r="S62" s="197"/>
-      <c r="T62" s="118"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="119"/>
+      <c r="M62" s="418" t="s">
+        <v>307</v>
+      </c>
+      <c r="N62" s="419" t="s">
+        <v>308</v>
+      </c>
+      <c r="O62" s="423"/>
+      <c r="P62" s="424"/>
+      <c r="Q62" s="425"/>
+      <c r="R62" s="419" t="s">
+        <v>309</v>
+      </c>
+      <c r="S62" s="419"/>
+      <c r="T62" s="547">
+        <v>110</v>
+      </c>
+      <c r="U62" s="548">
+        <v>110</v>
+      </c>
+      <c r="V62" s="549">
+        <f>T62-U62</f>
+        <v>0</v>
+      </c>
       <c r="W62" s="197"/>
       <c r="X62" s="160"/>
       <c r="Y62" s="163"/>
@@ -11508,17 +11562,17 @@
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
-      <c r="G63" s="473">
+      <c r="G63" s="470">
         <v>43405</v>
       </c>
-      <c r="H63" s="441" t="s">
+      <c r="H63" s="438" t="s">
         <v>322</v>
       </c>
-      <c r="I63" s="442">
+      <c r="I63" s="439">
         <v>4000</v>
       </c>
-      <c r="J63" s="442"/>
-      <c r="K63" s="474"/>
+      <c r="J63" s="439"/>
+      <c r="K63" s="471"/>
       <c r="M63" s="197"/>
       <c r="N63" s="197"/>
       <c r="O63" s="67"/>
@@ -11599,15 +11653,15 @@
       <c r="C64" s="60"/>
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
-      <c r="G64" s="350"/>
-      <c r="H64" s="334" t="s">
+      <c r="G64" s="347"/>
+      <c r="H64" s="331" t="s">
         <v>391</v>
       </c>
       <c r="I64" s="220"/>
       <c r="J64" s="220">
         <v>559</v>
       </c>
-      <c r="K64" s="351"/>
+      <c r="K64" s="348"/>
       <c r="M64" s="197"/>
       <c r="N64" s="197"/>
       <c r="O64" s="67"/>
@@ -11686,15 +11740,15 @@
       <c r="C65" s="60"/>
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
-      <c r="G65" s="350"/>
-      <c r="H65" s="334" t="s">
+      <c r="G65" s="347"/>
+      <c r="H65" s="331" t="s">
         <v>154</v>
       </c>
       <c r="I65" s="220"/>
       <c r="J65" s="220">
         <v>200</v>
       </c>
-      <c r="K65" s="351"/>
+      <c r="K65" s="348"/>
       <c r="M65" s="197"/>
       <c r="N65" s="197"/>
       <c r="O65" s="67"/>
@@ -11773,17 +11827,17 @@
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
-      <c r="G66" s="350">
+      <c r="G66" s="347">
         <v>43409</v>
       </c>
-      <c r="H66" s="334" t="s">
+      <c r="H66" s="331" t="s">
         <v>323</v>
       </c>
       <c r="I66" s="220">
         <v>2500</v>
       </c>
       <c r="J66" s="220"/>
-      <c r="K66" s="351"/>
+      <c r="K66" s="348"/>
       <c r="M66" s="197"/>
       <c r="N66" s="197"/>
       <c r="O66" s="67"/>
@@ -11864,17 +11918,17 @@
       <c r="C67" s="60"/>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
-      <c r="G67" s="354">
+      <c r="G67" s="351">
         <v>43413</v>
       </c>
-      <c r="H67" s="355" t="s">
+      <c r="H67" s="352" t="s">
         <v>361</v>
       </c>
-      <c r="I67" s="357">
+      <c r="I67" s="354">
         <v>500</v>
       </c>
-      <c r="J67" s="357"/>
-      <c r="K67" s="358"/>
+      <c r="J67" s="354"/>
+      <c r="K67" s="355"/>
       <c r="M67" s="197"/>
       <c r="N67" s="197"/>
       <c r="O67" s="67"/>
@@ -11951,15 +12005,15 @@
       <c r="C68" s="60"/>
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
-      <c r="G68" s="429">
+      <c r="G68" s="426">
         <v>43417</v>
       </c>
-      <c r="H68" s="430" t="s">
+      <c r="H68" s="427" t="s">
         <v>364</v>
       </c>
-      <c r="I68" s="431"/>
-      <c r="J68" s="431"/>
-      <c r="K68" s="432">
+      <c r="I68" s="428"/>
+      <c r="J68" s="428"/>
+      <c r="K68" s="429">
         <v>250</v>
       </c>
       <c r="M68" s="197"/>
@@ -12044,15 +12098,15 @@
       <c r="C69" s="60"/>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
-      <c r="G69" s="409">
+      <c r="G69" s="406">
         <v>43417</v>
       </c>
-      <c r="H69" s="410" t="s">
+      <c r="H69" s="407" t="s">
         <v>368</v>
       </c>
-      <c r="I69" s="411"/>
-      <c r="J69" s="411"/>
-      <c r="K69" s="412">
+      <c r="I69" s="408"/>
+      <c r="J69" s="408"/>
+      <c r="K69" s="409">
         <v>200</v>
       </c>
       <c r="M69" s="197"/>
@@ -12141,17 +12195,17 @@
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
-      <c r="G70" s="481">
+      <c r="G70" s="478">
         <v>43417</v>
       </c>
-      <c r="H70" s="482" t="s">
+      <c r="H70" s="479" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="483"/>
-      <c r="J70" s="483">
+      <c r="I70" s="480"/>
+      <c r="J70" s="480">
         <v>227</v>
       </c>
-      <c r="K70" s="484"/>
+      <c r="K70" s="481"/>
       <c r="M70" s="197"/>
       <c r="N70" s="197"/>
       <c r="O70" s="67"/>
@@ -12234,15 +12288,15 @@
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
-      <c r="G71" s="396">
+      <c r="G71" s="393">
         <v>43418</v>
       </c>
-      <c r="H71" s="397" t="s">
+      <c r="H71" s="394" t="s">
         <v>184</v>
       </c>
-      <c r="I71" s="398"/>
-      <c r="J71" s="398"/>
-      <c r="K71" s="399">
+      <c r="I71" s="395"/>
+      <c r="J71" s="395"/>
+      <c r="K71" s="396">
         <v>11052</v>
       </c>
       <c r="M71" s="197"/>
@@ -12327,10 +12381,10 @@
       <c r="C72" s="60"/>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
-      <c r="G72" s="593">
+      <c r="G72" s="558">
         <v>43418</v>
       </c>
-      <c r="H72" s="335" t="s">
+      <c r="H72" s="332" t="s">
         <v>169</v>
       </c>
       <c r="I72" s="221"/>
@@ -12422,10 +12476,10 @@
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
-      <c r="G73" s="593">
+      <c r="G73" s="558">
         <v>43419</v>
       </c>
-      <c r="H73" s="335" t="s">
+      <c r="H73" s="332" t="s">
         <v>372</v>
       </c>
       <c r="I73" s="221">
@@ -12515,10 +12569,10 @@
       <c r="C74" s="60"/>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
-      <c r="G74" s="593">
+      <c r="G74" s="558">
         <v>43420</v>
       </c>
-      <c r="H74" s="335" t="s">
+      <c r="H74" s="332" t="s">
         <v>371</v>
       </c>
       <c r="I74" s="221"/>
@@ -12602,15 +12656,15 @@
       <c r="C75" s="60"/>
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
-      <c r="G75" s="429">
+      <c r="G75" s="426">
         <v>43425</v>
       </c>
-      <c r="H75" s="430" t="s">
+      <c r="H75" s="427" t="s">
         <v>364</v>
       </c>
-      <c r="I75" s="431"/>
-      <c r="J75" s="431"/>
-      <c r="K75" s="432">
+      <c r="I75" s="428"/>
+      <c r="J75" s="428"/>
+      <c r="K75" s="429">
         <v>450</v>
       </c>
       <c r="M75" s="197"/>
@@ -12699,15 +12753,15 @@
       <c r="C76" s="60"/>
       <c r="D76" s="60"/>
       <c r="E76" s="60"/>
-      <c r="G76" s="359">
+      <c r="G76" s="356">
         <v>43430</v>
       </c>
-      <c r="H76" s="340"/>
-      <c r="I76" s="341">
+      <c r="H76" s="337"/>
+      <c r="I76" s="338">
         <v>500</v>
       </c>
-      <c r="J76" s="341"/>
-      <c r="K76" s="543"/>
+      <c r="J76" s="338"/>
+      <c r="K76" s="540"/>
       <c r="M76" s="197"/>
       <c r="N76" s="197"/>
       <c r="O76" s="67"/>
@@ -12788,15 +12842,15 @@
       <c r="C77" s="60"/>
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
-      <c r="G77" s="594">
+      <c r="G77" s="559">
         <v>43433</v>
       </c>
-      <c r="H77" s="595" t="s">
+      <c r="H77" s="560" t="s">
         <v>184</v>
       </c>
-      <c r="I77" s="596"/>
-      <c r="J77" s="596"/>
-      <c r="K77" s="542">
+      <c r="I77" s="561"/>
+      <c r="J77" s="561"/>
+      <c r="K77" s="539">
         <v>10650</v>
       </c>
       <c r="M77" s="197"/>
@@ -12875,15 +12929,15 @@
       <c r="C78" s="60"/>
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
-      <c r="G78" s="352">
+      <c r="G78" s="349">
         <v>43437</v>
       </c>
-      <c r="H78" s="335"/>
+      <c r="H78" s="332"/>
       <c r="I78" s="221">
         <v>1000</v>
       </c>
       <c r="J78" s="221"/>
-      <c r="K78" s="480"/>
+      <c r="K78" s="477"/>
       <c r="M78" s="197"/>
       <c r="N78" s="197"/>
       <c r="O78" s="67"/>
@@ -12958,15 +13012,15 @@
       <c r="C79" s="60"/>
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
-      <c r="G79" s="361">
+      <c r="G79" s="358">
         <v>43437</v>
       </c>
-      <c r="H79" s="362"/>
-      <c r="I79" s="363"/>
-      <c r="J79" s="363">
+      <c r="H79" s="359"/>
+      <c r="I79" s="360"/>
+      <c r="J79" s="360">
         <v>560</v>
       </c>
-      <c r="K79" s="556"/>
+      <c r="K79" s="553"/>
       <c r="M79" s="197"/>
       <c r="N79" s="197"/>
       <c r="O79" s="67"/>
@@ -13039,15 +13093,15 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
-      <c r="G80" s="429">
+      <c r="G80" s="426">
         <v>43438</v>
       </c>
-      <c r="H80" s="430" t="s">
+      <c r="H80" s="427" t="s">
         <v>364</v>
       </c>
-      <c r="I80" s="431"/>
-      <c r="J80" s="431"/>
-      <c r="K80" s="432">
+      <c r="I80" s="428"/>
+      <c r="J80" s="428"/>
+      <c r="K80" s="429">
         <v>450</v>
       </c>
       <c r="M80" s="197"/>
@@ -13132,17 +13186,17 @@
       <c r="C81" s="60"/>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
-      <c r="G81" s="589">
+      <c r="G81" s="554">
         <v>43440</v>
       </c>
-      <c r="H81" s="590" t="s">
+      <c r="H81" s="555" t="s">
         <v>154</v>
       </c>
-      <c r="I81" s="591"/>
-      <c r="J81" s="591">
+      <c r="I81" s="556"/>
+      <c r="J81" s="556">
         <v>200</v>
       </c>
-      <c r="K81" s="592"/>
+      <c r="K81" s="557"/>
       <c r="M81" s="197"/>
       <c r="N81" s="197"/>
       <c r="O81" s="67"/>
@@ -13225,17 +13279,17 @@
       <c r="C82" s="60"/>
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
-      <c r="G82" s="589">
+      <c r="G82" s="554">
         <v>43440</v>
       </c>
-      <c r="H82" s="590" t="s">
+      <c r="H82" s="555" t="s">
         <v>420</v>
       </c>
-      <c r="I82" s="591"/>
-      <c r="J82" s="591">
+      <c r="I82" s="556"/>
+      <c r="J82" s="556">
         <v>85</v>
       </c>
-      <c r="K82" s="592"/>
+      <c r="K82" s="557"/>
       <c r="M82" s="197"/>
       <c r="N82" s="197"/>
       <c r="O82" s="67"/>
@@ -13316,13 +13370,13 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
       <c r="E83" s="60"/>
-      <c r="G83" s="352">
+      <c r="G83" s="349">
         <v>43441</v>
       </c>
-      <c r="H83" s="335"/>
+      <c r="H83" s="332"/>
       <c r="I83" s="221"/>
       <c r="J83" s="221"/>
-      <c r="K83" s="353">
+      <c r="K83" s="350">
         <v>3000</v>
       </c>
       <c r="M83" s="197"/>
@@ -13401,15 +13455,15 @@
       <c r="C84" s="60"/>
       <c r="D84" s="60"/>
       <c r="E84" s="60"/>
-      <c r="G84" s="361">
+      <c r="G84" s="358">
         <v>43442</v>
       </c>
-      <c r="H84" s="362"/>
-      <c r="I84" s="363"/>
-      <c r="J84" s="363">
+      <c r="H84" s="359"/>
+      <c r="I84" s="360"/>
+      <c r="J84" s="360">
         <v>178</v>
       </c>
-      <c r="K84" s="364"/>
+      <c r="K84" s="361"/>
       <c r="M84" s="197"/>
       <c r="N84" s="197"/>
       <c r="O84" s="67"/>
@@ -13488,15 +13542,15 @@
       <c r="C85" s="60"/>
       <c r="D85" s="60"/>
       <c r="E85" s="60"/>
-      <c r="G85" s="429">
+      <c r="G85" s="426">
         <v>43445</v>
       </c>
-      <c r="H85" s="430" t="s">
+      <c r="H85" s="427" t="s">
         <v>364</v>
       </c>
-      <c r="I85" s="431"/>
-      <c r="J85" s="431"/>
-      <c r="K85" s="432">
+      <c r="I85" s="428"/>
+      <c r="J85" s="428"/>
+      <c r="K85" s="429">
         <v>300</v>
       </c>
       <c r="M85" s="197"/>
@@ -13579,17 +13633,17 @@
       <c r="C86" s="60"/>
       <c r="D86" s="60"/>
       <c r="E86" s="60"/>
-      <c r="G86" s="359">
+      <c r="G86" s="356">
         <v>43445</v>
       </c>
-      <c r="H86" s="340" t="s">
+      <c r="H86" s="337" t="s">
         <v>169</v>
       </c>
-      <c r="I86" s="341"/>
-      <c r="J86" s="341">
+      <c r="I86" s="338"/>
+      <c r="J86" s="338">
         <v>30</v>
       </c>
-      <c r="K86" s="360"/>
+      <c r="K86" s="357"/>
       <c r="M86" s="197"/>
       <c r="N86" s="197"/>
       <c r="O86" s="67"/>
@@ -13666,17 +13720,17 @@
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
       <c r="E87" s="60"/>
-      <c r="G87" s="336">
-        <v>43447</v>
+      <c r="G87" s="356">
+        <v>43446</v>
       </c>
       <c r="H87" s="337" t="s">
-        <v>184</v>
+        <v>428</v>
       </c>
       <c r="I87" s="338"/>
-      <c r="J87" s="338"/>
-      <c r="K87" s="339">
-        <v>11826.22</v>
-      </c>
+      <c r="J87" s="338">
+        <v>51</v>
+      </c>
+      <c r="K87" s="357"/>
       <c r="M87" s="197"/>
       <c r="N87" s="197"/>
       <c r="O87" s="67"/>
@@ -13754,11 +13808,17 @@
       <c r="C88" s="60"/>
       <c r="D88" s="60"/>
       <c r="E88" s="60"/>
-      <c r="G88" s="297"/>
-      <c r="H88" s="298"/>
-      <c r="I88" s="296"/>
-      <c r="J88" s="296"/>
-      <c r="K88" s="296"/>
+      <c r="G88" s="567">
+        <v>43447</v>
+      </c>
+      <c r="H88" s="568" t="s">
+        <v>184</v>
+      </c>
+      <c r="I88" s="569"/>
+      <c r="J88" s="569"/>
+      <c r="K88" s="539">
+        <v>11826.22</v>
+      </c>
       <c r="M88" s="197"/>
       <c r="N88" s="197"/>
       <c r="O88" s="67"/>
@@ -13834,11 +13894,17 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
       <c r="E89" s="60"/>
-      <c r="G89" s="297"/>
-      <c r="H89" s="298"/>
-      <c r="I89" s="296"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="296"/>
+      <c r="G89" s="558">
+        <v>43447</v>
+      </c>
+      <c r="H89" s="570" t="s">
+        <v>430</v>
+      </c>
+      <c r="I89" s="221"/>
+      <c r="J89" s="221">
+        <v>89</v>
+      </c>
+      <c r="K89" s="221"/>
       <c r="M89" s="197"/>
       <c r="N89" s="197"/>
       <c r="O89" s="67"/>
@@ -13922,11 +13988,17 @@
       <c r="C90" s="60"/>
       <c r="D90" s="60"/>
       <c r="E90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="66"/>
+      <c r="G90" s="558">
+        <v>43447</v>
+      </c>
+      <c r="H90" s="570" t="s">
+        <v>429</v>
+      </c>
+      <c r="I90" s="221"/>
+      <c r="J90" s="571">
+        <v>104</v>
+      </c>
+      <c r="K90" s="221"/>
       <c r="M90" s="197"/>
       <c r="N90" s="197"/>
       <c r="O90" s="67"/>
@@ -15200,24 +15272,28 @@
       </c>
       <c r="AG104" s="233">
         <f t="shared" si="10"/>
-        <v>-64</v>
+        <v>-144</v>
       </c>
       <c r="AH104" s="236"/>
       <c r="AI104" s="237"/>
       <c r="AJ104" s="85"/>
       <c r="AK104" s="252">
         <f t="shared" si="11"/>
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="AL104" s="261">
         <v>34</v>
       </c>
       <c r="AM104" s="256"/>
-      <c r="AN104" s="292"/>
+      <c r="AN104" s="292" t="s">
+        <v>433</v>
+      </c>
       <c r="AO104" s="216">
         <v>30</v>
       </c>
-      <c r="AP104" s="216"/>
+      <c r="AP104" s="216">
+        <v>80</v>
+      </c>
       <c r="AQ104" s="216"/>
       <c r="AR104" s="216"/>
       <c r="AS104" s="216"/>
@@ -15374,24 +15450,42 @@
       <c r="AF106" s="231"/>
       <c r="AG106" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-440</v>
       </c>
       <c r="AH106" s="236"/>
       <c r="AI106" s="237"/>
       <c r="AJ106" s="85"/>
       <c r="AK106" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL106" s="261"/>
-      <c r="AM106" s="256"/>
-      <c r="AN106" s="292"/>
-      <c r="AO106" s="216"/>
-      <c r="AP106" s="216"/>
-      <c r="AQ106" s="216"/>
-      <c r="AR106" s="216"/>
-      <c r="AS106" s="216"/>
-      <c r="AT106" s="216"/>
+        <v>440</v>
+      </c>
+      <c r="AL106" s="261">
+        <v>150</v>
+      </c>
+      <c r="AM106" s="256" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN106" s="292" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO106" s="216">
+        <v>30</v>
+      </c>
+      <c r="AP106" s="216">
+        <v>30</v>
+      </c>
+      <c r="AQ106" s="216">
+        <v>50</v>
+      </c>
+      <c r="AR106" s="216">
+        <v>120</v>
+      </c>
+      <c r="AS106" s="216">
+        <v>50</v>
+      </c>
+      <c r="AT106" s="216">
+        <v>10</v>
+      </c>
       <c r="AU106" s="216"/>
       <c r="AV106" s="216"/>
       <c r="AW106" s="216"/>
@@ -15454,19 +15548,27 @@
       <c r="AF107" s="231"/>
       <c r="AG107" s="233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AH107" s="236"/>
       <c r="AI107" s="237"/>
       <c r="AJ107" s="85"/>
       <c r="AK107" s="252">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL107" s="261"/>
-      <c r="AM107" s="256"/>
-      <c r="AN107" s="292"/>
-      <c r="AO107" s="216"/>
+        <v>80</v>
+      </c>
+      <c r="AL107" s="261">
+        <v>50</v>
+      </c>
+      <c r="AM107" s="256" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN107" s="292" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO107" s="216">
+        <v>30</v>
+      </c>
       <c r="AP107" s="216"/>
       <c r="AQ107" s="216"/>
       <c r="AR107" s="216"/>
@@ -16847,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="BE124" s="143"/>
-      <c r="BF124" s="404">
+      <c r="BF124" s="401">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -16882,38 +16984,38 @@
       <c r="Z125" s="163"/>
       <c r="AA125" s="168"/>
       <c r="AB125" s="169"/>
-      <c r="AD125" s="313">
+      <c r="AD125" s="310">
         <v>43466</v>
       </c>
-      <c r="AE125" s="314"/>
-      <c r="AF125" s="315"/>
-      <c r="AG125" s="316"/>
-      <c r="AH125" s="317"/>
-      <c r="AI125" s="314"/>
-      <c r="AJ125" s="318"/>
-      <c r="AK125" s="319"/>
-      <c r="AL125" s="317"/>
-      <c r="AM125" s="320"/>
-      <c r="AN125" s="321"/>
-      <c r="AO125" s="322"/>
-      <c r="AP125" s="322"/>
-      <c r="AQ125" s="322"/>
-      <c r="AR125" s="322"/>
-      <c r="AS125" s="322"/>
-      <c r="AT125" s="322"/>
-      <c r="AU125" s="322"/>
-      <c r="AV125" s="322"/>
-      <c r="AW125" s="322"/>
-      <c r="AX125" s="314"/>
-      <c r="AY125" s="316"/>
-      <c r="AZ125" s="318"/>
-      <c r="BA125" s="317"/>
-      <c r="BB125" s="322"/>
-      <c r="BC125" s="314"/>
-      <c r="BD125" s="318"/>
-      <c r="BE125" s="317"/>
-      <c r="BF125" s="403"/>
-      <c r="BG125" s="323"/>
+      <c r="AE125" s="311"/>
+      <c r="AF125" s="312"/>
+      <c r="AG125" s="313"/>
+      <c r="AH125" s="314"/>
+      <c r="AI125" s="311"/>
+      <c r="AJ125" s="315"/>
+      <c r="AK125" s="316"/>
+      <c r="AL125" s="314"/>
+      <c r="AM125" s="317"/>
+      <c r="AN125" s="318"/>
+      <c r="AO125" s="319"/>
+      <c r="AP125" s="319"/>
+      <c r="AQ125" s="319"/>
+      <c r="AR125" s="319"/>
+      <c r="AS125" s="319"/>
+      <c r="AT125" s="319"/>
+      <c r="AU125" s="319"/>
+      <c r="AV125" s="319"/>
+      <c r="AW125" s="319"/>
+      <c r="AX125" s="311"/>
+      <c r="AY125" s="313"/>
+      <c r="AZ125" s="315"/>
+      <c r="BA125" s="314"/>
+      <c r="BB125" s="319"/>
+      <c r="BC125" s="311"/>
+      <c r="BD125" s="315"/>
+      <c r="BE125" s="314"/>
+      <c r="BF125" s="400"/>
+      <c r="BG125" s="320"/>
       <c r="BH125" s="197"/>
       <c r="BI125" s="197"/>
       <c r="BJ125" s="197"/>
@@ -18609,16 +18711,16 @@
       <c r="J153" s="59"/>
       <c r="K153" s="66"/>
       <c r="L153" s="197"/>
-      <c r="M153" s="167"/>
-      <c r="N153" s="167"/>
-      <c r="O153" s="71"/>
-      <c r="P153" s="71"/>
-      <c r="Q153" s="71"/>
-      <c r="R153" s="167"/>
-      <c r="S153" s="167"/>
-      <c r="T153" s="71"/>
-      <c r="U153" s="71"/>
-      <c r="V153" s="71"/>
+      <c r="M153" s="197"/>
+      <c r="N153" s="197"/>
+      <c r="O153" s="67"/>
+      <c r="P153" s="67"/>
+      <c r="Q153" s="67"/>
+      <c r="R153" s="197"/>
+      <c r="S153" s="197"/>
+      <c r="T153" s="118"/>
+      <c r="U153" s="70"/>
+      <c r="V153" s="119"/>
       <c r="W153" s="165"/>
       <c r="X153" s="67"/>
       <c r="Y153" s="41"/>
@@ -18818,7 +18920,7 @@
       <c r="G157" s="60"/>
       <c r="H157" s="54"/>
       <c r="I157" s="58"/>
-      <c r="J157" s="69"/>
+      <c r="J157" s="59"/>
       <c r="K157" s="66"/>
       <c r="O157" s="71"/>
       <c r="P157" s="71"/>
@@ -18857,11 +18959,11 @@
       <c r="C158" s="71"/>
       <c r="D158" s="71"/>
       <c r="E158" s="71"/>
-      <c r="G158" s="67"/>
-      <c r="H158" s="55"/>
-      <c r="I158" s="68"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="58"/>
       <c r="J158" s="69"/>
-      <c r="K158" s="70"/>
+      <c r="K158" s="66"/>
       <c r="O158" s="71"/>
       <c r="P158" s="71"/>
       <c r="Q158" s="71"/>
@@ -19268,11 +19370,11 @@
       <c r="C168" s="71"/>
       <c r="D168" s="71"/>
       <c r="E168" s="71"/>
-      <c r="G168" s="71"/>
-      <c r="H168" s="56"/>
+      <c r="G168" s="67"/>
+      <c r="H168" s="55"/>
       <c r="I168" s="68"/>
       <c r="J168" s="69"/>
-      <c r="K168" s="71"/>
+      <c r="K168" s="70"/>
       <c r="O168" s="71"/>
       <c r="P168" s="71"/>
       <c r="Q168" s="71"/>
@@ -28467,16 +28569,12 @@
       <c r="I392" s="68"/>
       <c r="J392" s="69"/>
       <c r="K392" s="71"/>
-      <c r="M392" s="165"/>
-      <c r="N392" s="165"/>
-      <c r="O392" s="60"/>
-      <c r="P392" s="60"/>
-      <c r="Q392" s="60"/>
-      <c r="R392" s="165"/>
-      <c r="S392" s="165"/>
-      <c r="T392" s="120"/>
-      <c r="U392" s="66"/>
-      <c r="V392" s="121"/>
+      <c r="O392" s="71"/>
+      <c r="P392" s="71"/>
+      <c r="Q392" s="71"/>
+      <c r="T392" s="71"/>
+      <c r="U392" s="71"/>
+      <c r="V392" s="71"/>
       <c r="X392" s="71"/>
       <c r="Y392" s="42"/>
       <c r="Z392" s="42"/>
@@ -29211,7 +29309,7 @@
       <c r="P402" s="60"/>
       <c r="Q402" s="60"/>
       <c r="T402" s="120"/>
-      <c r="U402" s="60"/>
+      <c r="U402" s="66"/>
       <c r="V402" s="121"/>
       <c r="X402" s="60"/>
       <c r="Y402" s="40"/>
@@ -29525,7 +29623,7 @@
       <c r="G406" s="71"/>
       <c r="H406" s="56"/>
       <c r="I406" s="68"/>
-      <c r="J406" s="59"/>
+      <c r="J406" s="69"/>
       <c r="K406" s="71"/>
       <c r="O406" s="60"/>
       <c r="P406" s="60"/>
@@ -29602,11 +29700,11 @@
       <c r="C407" s="60"/>
       <c r="D407" s="60"/>
       <c r="E407" s="60"/>
-      <c r="G407" s="60"/>
-      <c r="H407" s="54"/>
-      <c r="I407" s="58"/>
+      <c r="G407" s="71"/>
+      <c r="H407" s="56"/>
+      <c r="I407" s="68"/>
       <c r="J407" s="59"/>
-      <c r="K407" s="60"/>
+      <c r="K407" s="71"/>
       <c r="O407" s="60"/>
       <c r="P407" s="60"/>
       <c r="Q407" s="60"/>
@@ -30732,7 +30830,7 @@
       <c r="Q421" s="60"/>
       <c r="T421" s="120"/>
       <c r="U421" s="60"/>
-      <c r="V421" s="60"/>
+      <c r="V421" s="121"/>
       <c r="X421" s="60"/>
       <c r="Y421" s="40"/>
       <c r="Z421" s="40"/>
@@ -32490,7 +32588,7 @@
       <c r="O443" s="60"/>
       <c r="P443" s="60"/>
       <c r="Q443" s="60"/>
-      <c r="T443" s="60"/>
+      <c r="T443" s="120"/>
       <c r="U443" s="60"/>
       <c r="V443" s="60"/>
       <c r="X443" s="60"/>
@@ -35371,6 +35469,13 @@
       </c>
     </row>
     <row r="480" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M480" s="165"/>
+      <c r="N480" s="165"/>
+      <c r="O480" s="60"/>
+      <c r="P480" s="60"/>
+      <c r="Q480" s="60"/>
+      <c r="R480" s="165"/>
+      <c r="S480" s="165"/>
       <c r="AD480" s="4"/>
       <c r="AE480" s="4"/>
       <c r="AF480" s="5"/>
@@ -42890,14 +42995,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="Y38:Z38"/>
     <mergeCell ref="AG1:BG1"/>
     <mergeCell ref="X9:AB9"/>
@@ -42912,6 +43009,14 @@
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="Y24:Z24"/>
     <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y12:Z12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43032,333 +43137,333 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="540"/>
-    <col min="5" max="5" width="14.28515625" style="540" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="540" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="540" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="540"/>
+    <col min="1" max="4" width="11.42578125" style="537"/>
+    <col min="5" max="5" width="14.28515625" style="537" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="537" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="537" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="537"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="486" t="s">
+      <c r="B1" s="483" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="486" t="s">
+      <c r="C1" s="483" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="487" t="s">
+      <c r="D1" s="484" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="488" t="s">
+      <c r="E1" s="485" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="489" t="s">
+      <c r="F1" s="486" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="490" t="s">
+      <c r="G1" s="487" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="491" t="s">
+      <c r="H1" s="488" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="492" t="s">
+      <c r="I1" s="489" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="493" t="s">
+      <c r="J1" s="490" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="494" t="s">
+      <c r="A2" s="491" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="495" t="s">
+      <c r="B2" s="492" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="496">
+      <c r="C2" s="493">
         <f>SUM(H3:H13)</f>
         <v>7505</v>
       </c>
-      <c r="D2" s="497">
+      <c r="D2" s="494">
         <f>SUM(I3:I13)</f>
         <v>4950</v>
       </c>
-      <c r="E2" s="541">
+      <c r="E2" s="538">
         <f>C2-D2</f>
         <v>2555</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="499"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="499"/>
-      <c r="J2" s="500"/>
+      <c r="F2" s="495"/>
+      <c r="G2" s="496"/>
+      <c r="H2" s="496"/>
+      <c r="I2" s="496"/>
+      <c r="J2" s="497"/>
     </row>
     <row r="3" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="501"/>
-      <c r="B3" s="502" t="s">
+      <c r="A3" s="498"/>
+      <c r="B3" s="499" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="503"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="506" t="s">
+      <c r="C3" s="500"/>
+      <c r="D3" s="501"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="503" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="507" t="s">
+      <c r="G3" s="504" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="508">
+      <c r="H3" s="505">
         <v>1040</v>
       </c>
-      <c r="I3" s="509">
+      <c r="I3" s="506">
         <v>500</v>
       </c>
-      <c r="J3" s="510">
+      <c r="J3" s="507">
         <f t="shared" ref="J3:J12" si="0">H3-I3</f>
         <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="511"/>
-      <c r="B4" s="512" t="s">
+      <c r="A4" s="508"/>
+      <c r="B4" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="513"/>
-      <c r="D4" s="514"/>
-      <c r="E4" s="515"/>
-      <c r="F4" s="506" t="s">
+      <c r="C4" s="510"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="512"/>
+      <c r="F4" s="503" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="507"/>
-      <c r="H4" s="516">
+      <c r="G4" s="504"/>
+      <c r="H4" s="513">
         <v>2900</v>
       </c>
-      <c r="I4" s="517">
+      <c r="I4" s="514">
         <v>1550</v>
       </c>
-      <c r="J4" s="518">
+      <c r="J4" s="515">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="511" t="s">
+      <c r="A5" s="508" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="512" t="s">
+      <c r="B5" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="513"/>
-      <c r="D5" s="514"/>
-      <c r="E5" s="515"/>
-      <c r="F5" s="519" t="s">
+      <c r="C5" s="510"/>
+      <c r="D5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="516" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="520"/>
-      <c r="H5" s="521">
+      <c r="G5" s="517"/>
+      <c r="H5" s="518">
         <v>240</v>
       </c>
-      <c r="I5" s="522"/>
-      <c r="J5" s="523">
+      <c r="I5" s="519"/>
+      <c r="J5" s="520">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="511"/>
-      <c r="B6" s="512" t="s">
+      <c r="A6" s="508"/>
+      <c r="B6" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="513"/>
-      <c r="D6" s="514"/>
-      <c r="E6" s="515"/>
-      <c r="F6" s="519" t="s">
+      <c r="C6" s="510"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="512"/>
+      <c r="F6" s="516" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="520" t="s">
+      <c r="G6" s="517" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="521">
+      <c r="H6" s="518">
         <v>1500</v>
       </c>
-      <c r="I6" s="522">
+      <c r="I6" s="519">
         <v>1300</v>
       </c>
-      <c r="J6" s="523">
+      <c r="J6" s="520">
         <f>H6-I6</f>
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="511"/>
-      <c r="B7" s="512" t="s">
+      <c r="A7" s="508"/>
+      <c r="B7" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="513"/>
-      <c r="D7" s="514"/>
-      <c r="E7" s="515"/>
-      <c r="F7" s="519" t="s">
+      <c r="C7" s="510"/>
+      <c r="D7" s="511"/>
+      <c r="E7" s="512"/>
+      <c r="F7" s="516" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="520"/>
-      <c r="H7" s="521">
+      <c r="G7" s="517"/>
+      <c r="H7" s="518">
         <v>100</v>
       </c>
-      <c r="I7" s="522"/>
-      <c r="J7" s="523">
+      <c r="I7" s="519"/>
+      <c r="J7" s="520">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="511"/>
-      <c r="B8" s="512" t="s">
+      <c r="A8" s="508"/>
+      <c r="B8" s="509" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="513"/>
-      <c r="D8" s="514"/>
-      <c r="E8" s="515"/>
-      <c r="F8" s="519" t="s">
+      <c r="C8" s="510"/>
+      <c r="D8" s="511"/>
+      <c r="E8" s="512"/>
+      <c r="F8" s="516" t="s">
         <v>370</v>
       </c>
-      <c r="G8" s="520" t="s">
+      <c r="G8" s="517" t="s">
         <v>376</v>
       </c>
-      <c r="H8" s="521">
+      <c r="H8" s="518">
         <v>1000</v>
       </c>
-      <c r="I8" s="522">
+      <c r="I8" s="519">
         <v>1000</v>
       </c>
-      <c r="J8" s="523">
+      <c r="J8" s="520">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="511"/>
-      <c r="B9" s="512" t="s">
+      <c r="A9" s="508"/>
+      <c r="B9" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="513"/>
-      <c r="D9" s="514"/>
-      <c r="E9" s="515"/>
-      <c r="F9" s="519" t="s">
+      <c r="C9" s="510"/>
+      <c r="D9" s="511"/>
+      <c r="E9" s="512"/>
+      <c r="F9" s="516" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="520"/>
-      <c r="H9" s="521">
+      <c r="G9" s="517"/>
+      <c r="H9" s="518">
         <v>80</v>
       </c>
-      <c r="I9" s="522"/>
-      <c r="J9" s="523">
+      <c r="I9" s="519"/>
+      <c r="J9" s="520">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="524">
+      <c r="A10" s="521">
         <v>43390</v>
       </c>
-      <c r="B10" s="512" t="s">
+      <c r="B10" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="513"/>
-      <c r="D10" s="514"/>
-      <c r="E10" s="515"/>
-      <c r="F10" s="519" t="s">
+      <c r="C10" s="510"/>
+      <c r="D10" s="511"/>
+      <c r="E10" s="512"/>
+      <c r="F10" s="516" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="520" t="s">
+      <c r="G10" s="517" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="521">
+      <c r="H10" s="518">
         <v>100</v>
       </c>
-      <c r="I10" s="522">
+      <c r="I10" s="519">
         <v>55</v>
       </c>
-      <c r="J10" s="523">
+      <c r="J10" s="520">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="524">
+      <c r="A11" s="521">
         <v>43334</v>
       </c>
-      <c r="B11" s="512" t="s">
+      <c r="B11" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="513"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="515"/>
-      <c r="F11" s="519" t="s">
+      <c r="C11" s="510"/>
+      <c r="D11" s="511"/>
+      <c r="E11" s="512"/>
+      <c r="F11" s="516" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="520" t="s">
+      <c r="G11" s="517" t="s">
         <v>306</v>
       </c>
-      <c r="H11" s="521">
+      <c r="H11" s="518">
         <v>145</v>
       </c>
-      <c r="I11" s="522">
+      <c r="I11" s="519">
         <v>145</v>
       </c>
-      <c r="J11" s="523">
+      <c r="J11" s="520">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="525">
+      <c r="A12" s="522">
         <v>43180</v>
       </c>
-      <c r="B12" s="526" t="s">
+      <c r="B12" s="523" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="527"/>
-      <c r="D12" s="528"/>
-      <c r="E12" s="529"/>
-      <c r="F12" s="519" t="s">
+      <c r="C12" s="524"/>
+      <c r="D12" s="525"/>
+      <c r="E12" s="526"/>
+      <c r="F12" s="516" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="520" t="s">
+      <c r="G12" s="517" t="s">
         <v>306</v>
       </c>
-      <c r="H12" s="521">
+      <c r="H12" s="518">
         <v>200</v>
       </c>
-      <c r="I12" s="522">
+      <c r="I12" s="519">
         <v>200</v>
       </c>
-      <c r="J12" s="523">
+      <c r="J12" s="520">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="530"/>
-      <c r="B13" s="531"/>
-      <c r="C13" s="532"/>
-      <c r="D13" s="533"/>
-      <c r="E13" s="534"/>
-      <c r="F13" s="535" t="s">
+      <c r="A13" s="527"/>
+      <c r="B13" s="528"/>
+      <c r="C13" s="529"/>
+      <c r="D13" s="530"/>
+      <c r="E13" s="531"/>
+      <c r="F13" s="532" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="536" t="s">
+      <c r="G13" s="533" t="s">
         <v>377</v>
       </c>
-      <c r="H13" s="537">
+      <c r="H13" s="534">
         <v>200</v>
       </c>
-      <c r="I13" s="538">
+      <c r="I13" s="535">
         <v>200</v>
       </c>
-      <c r="J13" s="539">
+      <c r="J13" s="536">
         <f>H13-I13</f>
         <v>0</v>
       </c>

--- a/Finanzas/3_Sept-Dic_2018.xlsx
+++ b/Finanzas/3_Sept-Dic_2018.xlsx
@@ -1443,7 +1443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,6 +1808,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2994,7 +3001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="712">
+  <cellXfs count="713">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4571,84 +4578,6 @@
     <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4695,15 +4624,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5057,11 +4977,101 @@
     <xf numFmtId="0" fontId="47" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5359,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5424,35 +5434,35 @@
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
-      <c r="AP1" s="548" t="s">
+      <c r="AP1" s="699" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="548"/>
-      <c r="AR1" s="548"/>
-      <c r="AS1" s="548"/>
-      <c r="AT1" s="548"/>
-      <c r="AU1" s="548"/>
-      <c r="AV1" s="548"/>
-      <c r="AW1" s="548"/>
-      <c r="AX1" s="548"/>
-      <c r="AY1" s="548"/>
-      <c r="AZ1" s="548"/>
-      <c r="BA1" s="548"/>
-      <c r="BB1" s="548"/>
-      <c r="BC1" s="548"/>
-      <c r="BD1" s="548"/>
-      <c r="BE1" s="548"/>
-      <c r="BF1" s="548"/>
-      <c r="BG1" s="548"/>
-      <c r="BH1" s="548"/>
-      <c r="BI1" s="548"/>
-      <c r="BJ1" s="548"/>
-      <c r="BK1" s="548"/>
-      <c r="BL1" s="548"/>
-      <c r="BM1" s="548"/>
-      <c r="BN1" s="548"/>
-      <c r="BO1" s="548"/>
-      <c r="BP1" s="548"/>
+      <c r="AQ1" s="699"/>
+      <c r="AR1" s="699"/>
+      <c r="AS1" s="699"/>
+      <c r="AT1" s="699"/>
+      <c r="AU1" s="699"/>
+      <c r="AV1" s="699"/>
+      <c r="AW1" s="699"/>
+      <c r="AX1" s="699"/>
+      <c r="AY1" s="699"/>
+      <c r="AZ1" s="699"/>
+      <c r="BA1" s="699"/>
+      <c r="BB1" s="699"/>
+      <c r="BC1" s="699"/>
+      <c r="BD1" s="699"/>
+      <c r="BE1" s="699"/>
+      <c r="BF1" s="699"/>
+      <c r="BG1" s="699"/>
+      <c r="BH1" s="699"/>
+      <c r="BI1" s="699"/>
+      <c r="BJ1" s="699"/>
+      <c r="BK1" s="699"/>
+      <c r="BL1" s="699"/>
+      <c r="BM1" s="699"/>
+      <c r="BN1" s="699"/>
+      <c r="BO1" s="699"/>
+      <c r="BP1" s="699"/>
       <c r="BS1" s="1"/>
     </row>
     <row r="2" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5470,19 +5480,19 @@
       <c r="F2" s="26"/>
       <c r="G2" s="60"/>
       <c r="H2" s="51"/>
-      <c r="L2" s="689" t="s">
+      <c r="L2" s="660" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="690"/>
-      <c r="N2" s="690"/>
-      <c r="O2" s="690"/>
-      <c r="P2" s="690"/>
-      <c r="Q2" s="690"/>
-      <c r="R2" s="690"/>
-      <c r="S2" s="690"/>
-      <c r="T2" s="690"/>
-      <c r="U2" s="690"/>
-      <c r="V2" s="691"/>
+      <c r="M2" s="661"/>
+      <c r="N2" s="661"/>
+      <c r="O2" s="661"/>
+      <c r="P2" s="661"/>
+      <c r="Q2" s="661"/>
+      <c r="R2" s="661"/>
+      <c r="S2" s="661"/>
+      <c r="T2" s="661"/>
+      <c r="U2" s="661"/>
+      <c r="V2" s="662"/>
       <c r="W2" s="66"/>
       <c r="X2" s="59"/>
       <c r="Y2" s="59"/>
@@ -5604,8 +5614,8 @@
       <c r="G3" s="60"/>
       <c r="H3" s="51"/>
       <c r="L3" s="61"/>
-      <c r="M3" s="579"/>
-      <c r="N3" s="579"/>
+      <c r="M3" s="553"/>
+      <c r="N3" s="553"/>
       <c r="O3" s="9"/>
       <c r="P3" s="10" t="s">
         <v>2</v>
@@ -5705,14 +5715,14 @@
       <c r="G4" s="60"/>
       <c r="H4" s="51"/>
       <c r="L4" s="61"/>
-      <c r="M4" s="579"/>
-      <c r="N4" s="579"/>
+      <c r="M4" s="553"/>
+      <c r="N4" s="553"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="695">
+      <c r="R4" s="666">
         <f>Q3-T10</f>
-        <v>98727.56</v>
+        <v>98717.16</v>
       </c>
       <c r="S4" s="36"/>
       <c r="T4" s="36"/>
@@ -5721,7 +5731,7 @@
       </c>
       <c r="V4" s="14">
         <f>SUM(Q3,AE9,V7)-T10</f>
-        <v>178897.06</v>
+        <v>178886.66</v>
       </c>
       <c r="W4" s="66"/>
       <c r="X4" s="59"/>
@@ -5794,36 +5804,36 @@
     </row>
     <row r="5" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="561" t="s">
+      <c r="B5" s="688" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="562"/>
-      <c r="D5" s="562"/>
-      <c r="E5" s="562"/>
-      <c r="F5" s="562"/>
-      <c r="G5" s="563"/>
+      <c r="C5" s="689"/>
+      <c r="D5" s="689"/>
+      <c r="E5" s="689"/>
+      <c r="F5" s="689"/>
+      <c r="G5" s="690"/>
       <c r="H5" s="51"/>
-      <c r="L5" s="692" t="s">
+      <c r="L5" s="663" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="693"/>
-      <c r="N5" s="693"/>
-      <c r="O5" s="693"/>
-      <c r="P5" s="693"/>
-      <c r="Q5" s="693"/>
-      <c r="R5" s="693"/>
-      <c r="S5" s="693"/>
-      <c r="T5" s="693"/>
-      <c r="U5" s="693"/>
-      <c r="V5" s="694"/>
-      <c r="W5" s="549" t="s">
+      <c r="M5" s="664"/>
+      <c r="N5" s="664"/>
+      <c r="O5" s="664"/>
+      <c r="P5" s="664"/>
+      <c r="Q5" s="664"/>
+      <c r="R5" s="664"/>
+      <c r="S5" s="664"/>
+      <c r="T5" s="664"/>
+      <c r="U5" s="664"/>
+      <c r="V5" s="665"/>
+      <c r="W5" s="700" t="s">
         <v>139</v>
       </c>
-      <c r="X5" s="550"/>
-      <c r="Y5" s="552" t="s">
+      <c r="X5" s="701"/>
+      <c r="Y5" s="703" t="s">
         <v>92</v>
       </c>
-      <c r="Z5" s="553"/>
+      <c r="Z5" s="704"/>
       <c r="AM5" s="223">
         <v>43346</v>
       </c>
@@ -5898,18 +5908,18 @@
     </row>
     <row r="6" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
-      <c r="B6" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="565"/>
-      <c r="D6" s="565"/>
-      <c r="E6" s="565"/>
-      <c r="F6" s="565"/>
-      <c r="G6" s="566"/>
+      <c r="B6" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="692"/>
+      <c r="D6" s="692"/>
+      <c r="E6" s="692"/>
+      <c r="F6" s="692"/>
+      <c r="G6" s="693"/>
       <c r="H6" s="51"/>
       <c r="L6" s="62"/>
-      <c r="M6" s="580"/>
-      <c r="N6" s="580"/>
+      <c r="M6" s="554"/>
+      <c r="N6" s="554"/>
       <c r="O6" s="15"/>
       <c r="P6" s="16" t="s">
         <v>3</v>
@@ -6005,8 +6015,8 @@
       <c r="G7" s="63"/>
       <c r="H7" s="52"/>
       <c r="L7" s="64"/>
-      <c r="M7" s="581"/>
-      <c r="N7" s="581"/>
+      <c r="M7" s="555"/>
+      <c r="N7" s="555"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -6160,58 +6170,58 @@
       <c r="BP8" s="271"/>
     </row>
     <row r="9" spans="1:73" s="164" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="567" t="s">
+      <c r="A9" s="694" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="568"/>
-      <c r="C9" s="568"/>
-      <c r="D9" s="568"/>
+      <c r="B9" s="695"/>
+      <c r="C9" s="695"/>
+      <c r="D9" s="695"/>
       <c r="E9" s="155">
         <f>SUM(E10:E494)</f>
         <v>12188</v>
       </c>
-      <c r="G9" s="569" t="s">
+      <c r="G9" s="696" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="570"/>
-      <c r="I9" s="570"/>
-      <c r="J9" s="570"/>
-      <c r="K9" s="570"/>
-      <c r="L9" s="571"/>
-      <c r="M9" s="586"/>
-      <c r="N9" s="588" t="s">
+      <c r="H9" s="697"/>
+      <c r="I9" s="697"/>
+      <c r="J9" s="697"/>
+      <c r="K9" s="697"/>
+      <c r="L9" s="698"/>
+      <c r="M9" s="560"/>
+      <c r="N9" s="683" t="s">
         <v>455</v>
       </c>
-      <c r="O9" s="589"/>
-      <c r="P9" s="589"/>
-      <c r="Q9" s="589"/>
-      <c r="R9" s="589"/>
-      <c r="S9" s="589"/>
-      <c r="T9" s="590"/>
-      <c r="V9" s="554" t="s">
+      <c r="O9" s="684"/>
+      <c r="P9" s="684"/>
+      <c r="Q9" s="684"/>
+      <c r="R9" s="684"/>
+      <c r="S9" s="684"/>
+      <c r="T9" s="685"/>
+      <c r="V9" s="705" t="s">
         <v>91</v>
       </c>
-      <c r="W9" s="555"/>
-      <c r="X9" s="555"/>
-      <c r="Y9" s="555"/>
-      <c r="Z9" s="555"/>
-      <c r="AA9" s="555"/>
-      <c r="AB9" s="555"/>
-      <c r="AC9" s="556" t="s">
+      <c r="W9" s="706"/>
+      <c r="X9" s="706"/>
+      <c r="Y9" s="706"/>
+      <c r="Z9" s="706"/>
+      <c r="AA9" s="706"/>
+      <c r="AB9" s="706"/>
+      <c r="AC9" s="707" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="557"/>
+      <c r="AD9" s="708"/>
       <c r="AE9" s="101">
         <f>SUM(AE11:AE500)</f>
         <v>79725</v>
       </c>
-      <c r="AG9" s="549" t="s">
+      <c r="AG9" s="700" t="s">
         <v>143</v>
       </c>
-      <c r="AH9" s="550"/>
-      <c r="AI9" s="550"/>
-      <c r="AJ9" s="550"/>
-      <c r="AK9" s="551"/>
+      <c r="AH9" s="701"/>
+      <c r="AI9" s="701"/>
+      <c r="AJ9" s="701"/>
+      <c r="AK9" s="702"/>
       <c r="AM9" s="223">
         <v>43350</v>
       </c>
@@ -6300,32 +6310,35 @@
       <c r="I10" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="644" t="s">
+      <c r="J10" s="615" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="645" t="s">
+      <c r="K10" s="616" t="s">
         <v>466</v>
       </c>
       <c r="L10" s="327" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="582"/>
-      <c r="N10" s="704" t="s">
+      <c r="M10" s="556"/>
+      <c r="N10" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="705">
+      <c r="O10" s="676">
         <f>SUM(T19)</f>
-        <v>1212</v>
-      </c>
-      <c r="P10" s="610"/>
-      <c r="Q10" s="610"/>
-      <c r="R10" s="587"/>
-      <c r="S10" s="609" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P10" s="712">
+        <f>O10*0.05</f>
+        <v>61</v>
+      </c>
+      <c r="Q10" s="581"/>
+      <c r="R10" s="561"/>
+      <c r="S10" s="580" t="s">
         <v>454</v>
       </c>
-      <c r="T10" s="608">
+      <c r="T10" s="579">
         <f>(SUM(T20))</f>
-        <v>1575.6000000000001</v>
+        <v>1586</v>
       </c>
       <c r="V10" s="189" t="s">
         <v>5</v>
@@ -6456,26 +6469,26 @@
       <c r="H11" s="340" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="620">
+      <c r="I11" s="591">
         <v>1500</v>
       </c>
-      <c r="J11" s="652"/>
-      <c r="K11" s="654"/>
-      <c r="L11" s="647"/>
-      <c r="M11" s="583"/>
-      <c r="N11" s="711" t="s">
+      <c r="J11" s="623"/>
+      <c r="K11" s="625"/>
+      <c r="L11" s="618"/>
+      <c r="M11" s="557"/>
+      <c r="N11" s="686" t="s">
         <v>469</v>
       </c>
-      <c r="O11" s="710"/>
-      <c r="P11" s="710"/>
-      <c r="Q11" s="706"/>
-      <c r="R11" s="707" t="s">
+      <c r="O11" s="687"/>
+      <c r="P11" s="687"/>
+      <c r="Q11" s="677"/>
+      <c r="R11" s="678" t="s">
         <v>468</v>
       </c>
-      <c r="S11" s="708" t="s">
+      <c r="S11" s="679" t="s">
         <v>462</v>
       </c>
-      <c r="T11" s="709">
+      <c r="T11" s="680">
         <v>0</v>
       </c>
       <c r="V11" s="423" t="s">
@@ -6605,31 +6618,31 @@
       <c r="H12" s="328" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="603"/>
+      <c r="I12" s="574"/>
       <c r="J12" s="276">
         <v>400</v>
       </c>
-      <c r="K12" s="655"/>
-      <c r="L12" s="648"/>
-      <c r="M12" s="583"/>
-      <c r="N12" s="597" t="s">
+      <c r="K12" s="626"/>
+      <c r="L12" s="619"/>
+      <c r="M12" s="557"/>
+      <c r="N12" s="568" t="s">
         <v>463</v>
       </c>
-      <c r="O12" s="598">
-        <v>0</v>
-      </c>
-      <c r="P12" s="598"/>
-      <c r="Q12" s="614" t="s">
+      <c r="O12" s="569">
+        <v>0</v>
+      </c>
+      <c r="P12" s="569"/>
+      <c r="Q12" s="585" t="s">
         <v>464</v>
       </c>
-      <c r="R12" s="614">
+      <c r="R12" s="585">
         <f>SUM(R6:R10)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="614" t="s">
+      <c r="S12" s="585" t="s">
         <v>465</v>
       </c>
-      <c r="T12" s="619">
+      <c r="T12" s="590">
         <f>R12*1.3</f>
         <v>0</v>
       </c>
@@ -6658,10 +6671,10 @@
       <c r="AG12" s="159">
         <v>43356</v>
       </c>
-      <c r="AH12" s="546" t="s">
+      <c r="AH12" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI12" s="547"/>
+      <c r="AI12" s="682"/>
       <c r="AJ12" s="169">
         <v>11052</v>
       </c>
@@ -6749,32 +6762,32 @@
       <c r="H13" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="603"/>
+      <c r="I13" s="574"/>
       <c r="J13" s="276">
         <v>200</v>
       </c>
-      <c r="K13" s="655"/>
-      <c r="L13" s="648"/>
-      <c r="M13" s="583"/>
-      <c r="N13" s="594" t="s">
+      <c r="K13" s="626"/>
+      <c r="L13" s="619"/>
+      <c r="M13" s="557"/>
+      <c r="N13" s="565" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="592" t="s">
+      <c r="O13" s="563" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="594" t="s">
+      <c r="P13" s="565" t="s">
         <v>450</v>
       </c>
-      <c r="Q13" s="593" t="s">
+      <c r="Q13" s="564" t="s">
         <v>451</v>
       </c>
-      <c r="R13" s="594" t="s">
+      <c r="R13" s="565" t="s">
         <v>453</v>
       </c>
-      <c r="S13" s="696" t="s">
+      <c r="S13" s="667" t="s">
         <v>452</v>
       </c>
-      <c r="T13" s="697" t="s">
+      <c r="T13" s="668" t="s">
         <v>467</v>
       </c>
       <c r="V13" s="73">
@@ -6892,29 +6905,29 @@
       <c r="H14" s="328" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="603"/>
+      <c r="I14" s="574"/>
       <c r="J14" s="276">
         <v>30</v>
       </c>
-      <c r="K14" s="655"/>
-      <c r="L14" s="648"/>
-      <c r="M14" s="583"/>
+      <c r="K14" s="626"/>
+      <c r="L14" s="619"/>
+      <c r="M14" s="557"/>
       <c r="N14" s="453">
         <v>43452</v>
       </c>
-      <c r="O14" s="602"/>
-      <c r="P14" s="605" t="s">
+      <c r="O14" s="573"/>
+      <c r="P14" s="576" t="s">
         <v>457</v>
       </c>
-      <c r="Q14" s="615">
+      <c r="Q14" s="586">
         <v>119</v>
       </c>
       <c r="R14" s="422">
         <f>Q14-(SUM(S14,T14))</f>
         <v>119</v>
       </c>
-      <c r="S14" s="698"/>
-      <c r="T14" s="699"/>
+      <c r="S14" s="669"/>
+      <c r="T14" s="670"/>
       <c r="V14" s="73">
         <v>43417</v>
       </c>
@@ -7035,29 +7048,29 @@
       <c r="H15" s="328" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="603">
+      <c r="I15" s="574">
         <v>3500</v>
       </c>
       <c r="J15" s="276"/>
-      <c r="K15" s="655"/>
-      <c r="L15" s="648"/>
-      <c r="M15" s="583"/>
+      <c r="K15" s="626"/>
+      <c r="L15" s="619"/>
+      <c r="M15" s="557"/>
       <c r="N15" s="341">
         <v>43452</v>
       </c>
-      <c r="O15" s="603"/>
-      <c r="P15" s="606" t="s">
+      <c r="O15" s="574"/>
+      <c r="P15" s="577" t="s">
         <v>458</v>
       </c>
-      <c r="Q15" s="616">
-        <v>221</v>
+      <c r="Q15" s="587">
+        <v>229</v>
       </c>
       <c r="R15" s="422">
-        <f t="shared" ref="R15:R18" si="8">Q15-(SUM(S15,T15))</f>
-        <v>221</v>
-      </c>
-      <c r="S15" s="700"/>
-      <c r="T15" s="701"/>
+        <f t="shared" ref="R15:R17" si="8">Q15-(SUM(S15,T15))</f>
+        <v>229</v>
+      </c>
+      <c r="S15" s="671"/>
+      <c r="T15" s="672"/>
       <c r="V15" s="73">
         <v>43117</v>
       </c>
@@ -7182,29 +7195,29 @@
       <c r="H16" s="328" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="603"/>
+      <c r="I16" s="574"/>
       <c r="J16" s="276">
         <v>692</v>
       </c>
-      <c r="K16" s="655"/>
-      <c r="L16" s="648"/>
-      <c r="M16" s="583"/>
+      <c r="K16" s="626"/>
+      <c r="L16" s="619"/>
+      <c r="M16" s="557"/>
       <c r="N16" s="341">
         <v>43454</v>
       </c>
-      <c r="O16" s="603"/>
-      <c r="P16" s="606" t="s">
+      <c r="O16" s="574"/>
+      <c r="P16" s="577" t="s">
         <v>456</v>
       </c>
-      <c r="Q16" s="616">
+      <c r="Q16" s="587">
         <v>749</v>
       </c>
       <c r="R16" s="422">
         <f t="shared" si="8"/>
         <v>749</v>
       </c>
-      <c r="S16" s="700"/>
-      <c r="T16" s="701"/>
+      <c r="S16" s="671"/>
+      <c r="T16" s="672"/>
       <c r="V16" s="73">
         <v>43236</v>
       </c>
@@ -7230,10 +7243,10 @@
       <c r="AG16" s="159">
         <v>43370</v>
       </c>
-      <c r="AH16" s="546" t="s">
+      <c r="AH16" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI16" s="547"/>
+      <c r="AI16" s="682"/>
       <c r="AJ16" s="167">
         <v>11052</v>
       </c>
@@ -7321,29 +7334,29 @@
       <c r="H17" s="328" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="603"/>
+      <c r="I17" s="574"/>
       <c r="J17" s="276">
         <v>40.67</v>
       </c>
-      <c r="K17" s="655"/>
-      <c r="L17" s="648"/>
-      <c r="M17" s="583"/>
+      <c r="K17" s="626"/>
+      <c r="L17" s="619"/>
+      <c r="M17" s="557"/>
       <c r="N17" s="341">
         <v>43454</v>
       </c>
-      <c r="O17" s="603"/>
-      <c r="P17" s="606" t="s">
+      <c r="O17" s="574"/>
+      <c r="P17" s="577" t="s">
         <v>460</v>
       </c>
-      <c r="Q17" s="616">
+      <c r="Q17" s="587">
         <v>123</v>
       </c>
       <c r="R17" s="422">
         <f t="shared" si="8"/>
         <v>123</v>
       </c>
-      <c r="S17" s="700"/>
-      <c r="T17" s="701"/>
+      <c r="S17" s="671"/>
+      <c r="T17" s="672"/>
       <c r="V17" s="73">
         <v>43253</v>
       </c>
@@ -7476,20 +7489,20 @@
       <c r="H18" s="328" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="603"/>
+      <c r="I18" s="574"/>
       <c r="J18" s="276">
         <v>1948</v>
       </c>
-      <c r="K18" s="655"/>
-      <c r="L18" s="648"/>
-      <c r="M18" s="583"/>
-      <c r="N18" s="599"/>
-      <c r="O18" s="604"/>
-      <c r="P18" s="607"/>
-      <c r="Q18" s="617"/>
-      <c r="R18" s="600"/>
-      <c r="S18" s="702"/>
-      <c r="T18" s="703"/>
+      <c r="K18" s="626"/>
+      <c r="L18" s="619"/>
+      <c r="M18" s="557"/>
+      <c r="N18" s="570"/>
+      <c r="O18" s="575"/>
+      <c r="P18" s="578"/>
+      <c r="Q18" s="588"/>
+      <c r="R18" s="571"/>
+      <c r="S18" s="673"/>
+      <c r="T18" s="674"/>
       <c r="V18" s="73">
         <v>43269</v>
       </c>
@@ -7617,26 +7630,26 @@
       <c r="H19" s="329" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="621">
+      <c r="I19" s="592">
         <v>2000</v>
       </c>
       <c r="J19" s="276"/>
-      <c r="K19" s="655"/>
-      <c r="L19" s="649"/>
-      <c r="M19" s="584"/>
-      <c r="N19" s="595"/>
-      <c r="O19" s="591"/>
-      <c r="P19" s="610"/>
-      <c r="Q19" s="618"/>
-      <c r="R19" s="611" t="s">
+      <c r="K19" s="626"/>
+      <c r="L19" s="620"/>
+      <c r="M19" s="558"/>
+      <c r="N19" s="566"/>
+      <c r="O19" s="562"/>
+      <c r="P19" s="581"/>
+      <c r="Q19" s="589"/>
+      <c r="R19" s="582" t="s">
         <v>461</v>
       </c>
-      <c r="S19" s="612" t="s">
+      <c r="S19" s="583" t="s">
         <v>462</v>
       </c>
-      <c r="T19" s="596">
+      <c r="T19" s="567">
         <f>SUM(Q14:Q18)</f>
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="V19" s="73">
         <v>43274</v>
@@ -7663,10 +7676,10 @@
       <c r="AG19" s="159">
         <v>43385</v>
       </c>
-      <c r="AH19" s="546" t="s">
+      <c r="AH19" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI19" s="547"/>
+      <c r="AI19" s="682"/>
       <c r="AJ19" s="167">
         <v>11052</v>
       </c>
@@ -7762,34 +7775,34 @@
       <c r="H20" s="345" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="646"/>
-      <c r="J20" s="653">
+      <c r="I20" s="617"/>
+      <c r="J20" s="624">
         <v>132</v>
       </c>
-      <c r="K20" s="656"/>
-      <c r="L20" s="650"/>
-      <c r="M20" s="584"/>
-      <c r="N20" s="597" t="s">
+      <c r="K20" s="627"/>
+      <c r="L20" s="621"/>
+      <c r="M20" s="558"/>
+      <c r="N20" s="568" t="s">
         <v>463</v>
       </c>
-      <c r="O20" s="598">
+      <c r="O20" s="569">
         <f>SUM(S14:S18)+SUM(T14:T18)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="598"/>
-      <c r="Q20" s="614" t="s">
+      <c r="P20" s="569"/>
+      <c r="Q20" s="585" t="s">
         <v>464</v>
       </c>
-      <c r="R20" s="614">
+      <c r="R20" s="585">
         <f>SUM(R14:R18)</f>
-        <v>1212</v>
-      </c>
-      <c r="S20" s="614" t="s">
+        <v>1220</v>
+      </c>
+      <c r="S20" s="585" t="s">
         <v>465</v>
       </c>
-      <c r="T20" s="619">
+      <c r="T20" s="590">
         <f>R20*1.3</f>
-        <v>1575.6000000000001</v>
+        <v>1586</v>
       </c>
       <c r="V20" s="73">
         <v>43280</v>
@@ -7902,18 +7915,18 @@
       </c>
       <c r="I21" s="332"/>
       <c r="J21" s="332"/>
-      <c r="K21" s="623"/>
+      <c r="K21" s="594"/>
       <c r="L21" s="333">
         <v>11052</v>
       </c>
-      <c r="M21" s="586"/>
-      <c r="N21" s="583"/>
-      <c r="O21" s="583"/>
-      <c r="P21" s="583"/>
-      <c r="Q21" s="583"/>
-      <c r="R21" s="583"/>
-      <c r="S21" s="583"/>
-      <c r="T21" s="583"/>
+      <c r="M21" s="560"/>
+      <c r="N21" s="557"/>
+      <c r="O21" s="557"/>
+      <c r="P21" s="557"/>
+      <c r="Q21" s="557"/>
+      <c r="R21" s="557"/>
+      <c r="S21" s="557"/>
+      <c r="T21" s="557"/>
       <c r="V21" s="73">
         <v>43299</v>
       </c>
@@ -8025,20 +8038,20 @@
       <c r="H22" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="624"/>
+      <c r="I22" s="595"/>
       <c r="J22" s="276">
         <v>30</v>
       </c>
       <c r="K22" s="459"/>
-      <c r="L22" s="651"/>
-      <c r="M22" s="584"/>
-      <c r="N22" s="583"/>
-      <c r="O22" s="583"/>
-      <c r="P22" s="583"/>
-      <c r="Q22" s="583"/>
-      <c r="R22" s="583"/>
-      <c r="S22" s="583"/>
-      <c r="T22" s="583"/>
+      <c r="L22" s="622"/>
+      <c r="M22" s="558"/>
+      <c r="N22" s="557"/>
+      <c r="O22" s="557"/>
+      <c r="P22" s="557"/>
+      <c r="Q22" s="557"/>
+      <c r="R22" s="557"/>
+      <c r="S22" s="557"/>
+      <c r="T22" s="557"/>
       <c r="V22" s="73">
         <v>43306</v>
       </c>
@@ -8152,18 +8165,18 @@
       </c>
       <c r="I23" s="337"/>
       <c r="J23" s="337"/>
-      <c r="K23" s="625"/>
+      <c r="K23" s="596"/>
       <c r="L23" s="338">
         <v>800</v>
       </c>
-      <c r="M23" s="584"/>
-      <c r="N23" s="584"/>
-      <c r="O23" s="584"/>
-      <c r="P23" s="584"/>
-      <c r="Q23" s="584"/>
-      <c r="R23" s="584"/>
-      <c r="S23" s="584"/>
-      <c r="T23" s="584"/>
+      <c r="M23" s="558"/>
+      <c r="N23" s="558"/>
+      <c r="O23" s="558"/>
+      <c r="P23" s="558"/>
+      <c r="Q23" s="558"/>
+      <c r="R23" s="558"/>
+      <c r="S23" s="558"/>
+      <c r="T23" s="558"/>
       <c r="V23" s="73">
         <v>43312</v>
       </c>
@@ -8189,10 +8202,10 @@
       <c r="AG23" s="159">
         <v>43402</v>
       </c>
-      <c r="AH23" s="546" t="s">
+      <c r="AH23" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI23" s="547"/>
+      <c r="AI23" s="682"/>
       <c r="AJ23" s="167">
         <v>11052</v>
       </c>
@@ -8268,20 +8281,20 @@
       <c r="H24" s="351" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="626">
+      <c r="I24" s="597">
         <v>1500</v>
       </c>
-      <c r="J24" s="652"/>
+      <c r="J24" s="623"/>
       <c r="K24" s="352"/>
-      <c r="L24" s="657"/>
-      <c r="M24" s="584"/>
-      <c r="N24" s="584"/>
-      <c r="O24" s="584"/>
-      <c r="P24" s="584"/>
-      <c r="Q24" s="584"/>
-      <c r="R24" s="584"/>
-      <c r="S24" s="584"/>
-      <c r="T24" s="584"/>
+      <c r="L24" s="628"/>
+      <c r="M24" s="558"/>
+      <c r="N24" s="558"/>
+      <c r="O24" s="558"/>
+      <c r="P24" s="558"/>
+      <c r="Q24" s="558"/>
+      <c r="R24" s="558"/>
+      <c r="S24" s="558"/>
+      <c r="T24" s="558"/>
       <c r="V24" s="73">
         <v>43331</v>
       </c>
@@ -8307,10 +8320,10 @@
       <c r="AG24" s="159">
         <v>43405</v>
       </c>
-      <c r="AH24" s="546" t="s">
+      <c r="AH24" s="681" t="s">
         <v>340</v>
       </c>
-      <c r="AI24" s="547"/>
+      <c r="AI24" s="682"/>
       <c r="AJ24" s="167">
         <v>19187</v>
       </c>
@@ -8389,20 +8402,20 @@
       <c r="H25" s="329" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="621"/>
+      <c r="I25" s="592"/>
       <c r="J25" s="276">
         <v>94.28</v>
       </c>
       <c r="K25" s="343"/>
-      <c r="L25" s="649"/>
-      <c r="M25" s="584"/>
-      <c r="N25" s="586"/>
-      <c r="O25" s="586"/>
-      <c r="P25" s="586"/>
-      <c r="Q25" s="586"/>
-      <c r="R25" s="586"/>
-      <c r="S25" s="586"/>
-      <c r="T25" s="586"/>
+      <c r="L25" s="620"/>
+      <c r="M25" s="558"/>
+      <c r="N25" s="560"/>
+      <c r="O25" s="560"/>
+      <c r="P25" s="560"/>
+      <c r="Q25" s="560"/>
+      <c r="R25" s="560"/>
+      <c r="S25" s="560"/>
+      <c r="T25" s="560"/>
       <c r="V25" s="73">
         <v>43335</v>
       </c>
@@ -8428,10 +8441,10 @@
       <c r="AG25" s="159">
         <v>43405</v>
       </c>
-      <c r="AH25" s="546" t="s">
+      <c r="AH25" s="681" t="s">
         <v>341</v>
       </c>
-      <c r="AI25" s="547"/>
+      <c r="AI25" s="682"/>
       <c r="AJ25" s="167">
         <v>6798</v>
       </c>
@@ -8510,20 +8523,20 @@
       <c r="H26" s="348" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="627"/>
-      <c r="J26" s="660">
+      <c r="I26" s="598"/>
+      <c r="J26" s="631">
         <v>165</v>
       </c>
       <c r="K26" s="349"/>
-      <c r="L26" s="658"/>
-      <c r="M26" s="584"/>
-      <c r="N26" s="584"/>
-      <c r="O26" s="584"/>
-      <c r="P26" s="584"/>
-      <c r="Q26" s="584"/>
-      <c r="R26" s="584"/>
-      <c r="S26" s="584"/>
-      <c r="T26" s="584"/>
+      <c r="L26" s="629"/>
+      <c r="M26" s="558"/>
+      <c r="N26" s="558"/>
+      <c r="O26" s="558"/>
+      <c r="P26" s="558"/>
+      <c r="Q26" s="558"/>
+      <c r="R26" s="558"/>
+      <c r="S26" s="558"/>
+      <c r="T26" s="558"/>
       <c r="V26" s="73">
         <v>43344</v>
       </c>
@@ -8629,20 +8642,20 @@
       <c r="H27" s="354" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="628">
+      <c r="I27" s="599">
         <v>1000</v>
       </c>
-      <c r="J27" s="653"/>
-      <c r="K27" s="601"/>
-      <c r="L27" s="659"/>
-      <c r="M27" s="583"/>
-      <c r="N27" s="584"/>
-      <c r="O27" s="584"/>
-      <c r="P27" s="584"/>
-      <c r="Q27" s="584"/>
-      <c r="R27" s="584"/>
-      <c r="S27" s="584"/>
-      <c r="T27" s="584"/>
+      <c r="J27" s="624"/>
+      <c r="K27" s="572"/>
+      <c r="L27" s="630"/>
+      <c r="M27" s="557"/>
+      <c r="N27" s="558"/>
+      <c r="O27" s="558"/>
+      <c r="P27" s="558"/>
+      <c r="Q27" s="558"/>
+      <c r="R27" s="558"/>
+      <c r="S27" s="558"/>
+      <c r="T27" s="558"/>
       <c r="V27" s="73">
         <v>43349</v>
       </c>
@@ -8752,18 +8765,18 @@
       </c>
       <c r="I28" s="357"/>
       <c r="J28" s="357"/>
-      <c r="K28" s="629"/>
+      <c r="K28" s="600"/>
       <c r="L28" s="358">
         <v>200</v>
       </c>
-      <c r="M28" s="583"/>
-      <c r="N28" s="584"/>
-      <c r="O28" s="584"/>
-      <c r="P28" s="584"/>
-      <c r="Q28" s="584"/>
-      <c r="R28" s="584"/>
-      <c r="S28" s="584"/>
-      <c r="T28" s="584"/>
+      <c r="M28" s="557"/>
+      <c r="N28" s="558"/>
+      <c r="O28" s="558"/>
+      <c r="P28" s="558"/>
+      <c r="Q28" s="558"/>
+      <c r="R28" s="558"/>
+      <c r="S28" s="558"/>
+      <c r="T28" s="558"/>
       <c r="U28" s="199"/>
       <c r="V28" s="73">
         <v>43355</v>
@@ -8874,20 +8887,20 @@
       <c r="H29" s="351" t="s">
         <v>212</v>
       </c>
-      <c r="I29" s="626"/>
-      <c r="J29" s="652">
+      <c r="I29" s="597"/>
+      <c r="J29" s="623">
         <v>147</v>
       </c>
-      <c r="K29" s="661"/>
-      <c r="L29" s="657"/>
-      <c r="M29" s="584"/>
-      <c r="N29" s="584"/>
-      <c r="O29" s="584"/>
-      <c r="P29" s="584"/>
-      <c r="Q29" s="584"/>
-      <c r="R29" s="584"/>
-      <c r="S29" s="584"/>
-      <c r="T29" s="584"/>
+      <c r="K29" s="632"/>
+      <c r="L29" s="628"/>
+      <c r="M29" s="558"/>
+      <c r="N29" s="558"/>
+      <c r="O29" s="558"/>
+      <c r="P29" s="558"/>
+      <c r="Q29" s="558"/>
+      <c r="R29" s="558"/>
+      <c r="S29" s="558"/>
+      <c r="T29" s="558"/>
       <c r="V29" s="73">
         <v>43386</v>
       </c>
@@ -8913,10 +8926,10 @@
       <c r="AG29" s="159">
         <v>43418</v>
       </c>
-      <c r="AH29" s="546" t="s">
+      <c r="AH29" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI29" s="547"/>
+      <c r="AI29" s="682"/>
       <c r="AJ29" s="167">
         <v>11052</v>
       </c>
@@ -8991,20 +9004,20 @@
       <c r="H30" s="329" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="621"/>
+      <c r="I30" s="592"/>
       <c r="J30" s="276">
         <v>10</v>
       </c>
-      <c r="K30" s="662"/>
-      <c r="L30" s="649"/>
-      <c r="M30" s="584"/>
-      <c r="N30" s="584"/>
-      <c r="O30" s="584"/>
-      <c r="P30" s="584"/>
-      <c r="Q30" s="584"/>
-      <c r="R30" s="584"/>
-      <c r="S30" s="584"/>
-      <c r="T30" s="584"/>
+      <c r="K30" s="633"/>
+      <c r="L30" s="620"/>
+      <c r="M30" s="558"/>
+      <c r="N30" s="558"/>
+      <c r="O30" s="558"/>
+      <c r="P30" s="558"/>
+      <c r="Q30" s="558"/>
+      <c r="R30" s="558"/>
+      <c r="S30" s="558"/>
+      <c r="T30" s="558"/>
       <c r="V30" s="73">
         <v>43393</v>
       </c>
@@ -9114,20 +9127,20 @@
       <c r="H31" s="345" t="s">
         <v>214</v>
       </c>
-      <c r="I31" s="622"/>
-      <c r="J31" s="653">
+      <c r="I31" s="593"/>
+      <c r="J31" s="624">
         <v>83</v>
       </c>
-      <c r="K31" s="663"/>
-      <c r="L31" s="650"/>
-      <c r="M31" s="584"/>
-      <c r="N31" s="583"/>
-      <c r="O31" s="583"/>
-      <c r="P31" s="583"/>
-      <c r="Q31" s="583"/>
-      <c r="R31" s="583"/>
-      <c r="S31" s="583"/>
-      <c r="T31" s="583"/>
+      <c r="K31" s="634"/>
+      <c r="L31" s="621"/>
+      <c r="M31" s="558"/>
+      <c r="N31" s="557"/>
+      <c r="O31" s="557"/>
+      <c r="P31" s="557"/>
+      <c r="Q31" s="557"/>
+      <c r="R31" s="557"/>
+      <c r="S31" s="557"/>
+      <c r="T31" s="557"/>
       <c r="V31" s="73">
         <v>43409</v>
       </c>
@@ -9239,18 +9252,18 @@
       </c>
       <c r="I32" s="361"/>
       <c r="J32" s="361"/>
-      <c r="K32" s="630"/>
+      <c r="K32" s="601"/>
       <c r="L32" s="362">
         <v>200</v>
       </c>
-      <c r="M32" s="583"/>
-      <c r="N32" s="583"/>
-      <c r="O32" s="583"/>
-      <c r="P32" s="583"/>
-      <c r="Q32" s="583"/>
-      <c r="R32" s="583"/>
-      <c r="S32" s="583"/>
-      <c r="T32" s="583"/>
+      <c r="M32" s="557"/>
+      <c r="N32" s="557"/>
+      <c r="O32" s="557"/>
+      <c r="P32" s="557"/>
+      <c r="Q32" s="557"/>
+      <c r="R32" s="557"/>
+      <c r="S32" s="557"/>
+      <c r="T32" s="557"/>
       <c r="V32" s="74">
         <v>43405</v>
       </c>
@@ -9276,10 +9289,10 @@
       <c r="AG32" s="159">
         <v>43433</v>
       </c>
-      <c r="AH32" s="546" t="s">
+      <c r="AH32" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI32" s="547"/>
+      <c r="AI32" s="682"/>
       <c r="AJ32" s="167">
         <v>10650</v>
       </c>
@@ -9364,20 +9377,20 @@
       <c r="H33" s="351" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="626"/>
-      <c r="J33" s="652">
+      <c r="I33" s="597"/>
+      <c r="J33" s="623">
         <v>30</v>
       </c>
-      <c r="K33" s="661"/>
-      <c r="L33" s="657"/>
-      <c r="M33" s="584"/>
-      <c r="N33" s="584"/>
-      <c r="O33" s="584"/>
-      <c r="P33" s="584"/>
-      <c r="Q33" s="584"/>
-      <c r="R33" s="584"/>
-      <c r="S33" s="584"/>
-      <c r="T33" s="584"/>
+      <c r="K33" s="632"/>
+      <c r="L33" s="628"/>
+      <c r="M33" s="558"/>
+      <c r="N33" s="558"/>
+      <c r="O33" s="558"/>
+      <c r="P33" s="558"/>
+      <c r="Q33" s="558"/>
+      <c r="R33" s="558"/>
+      <c r="S33" s="558"/>
+      <c r="T33" s="558"/>
       <c r="V33" s="424"/>
       <c r="W33" s="425" t="s">
         <v>17</v>
@@ -9496,20 +9509,20 @@
       <c r="H34" s="345" t="s">
         <v>235</v>
       </c>
-      <c r="I34" s="622">
+      <c r="I34" s="593">
         <v>900</v>
       </c>
-      <c r="J34" s="653"/>
-      <c r="K34" s="663"/>
-      <c r="L34" s="650"/>
-      <c r="M34" s="584"/>
-      <c r="N34" s="584"/>
-      <c r="O34" s="584"/>
-      <c r="P34" s="584"/>
-      <c r="Q34" s="584"/>
-      <c r="R34" s="584"/>
-      <c r="S34" s="584"/>
-      <c r="T34" s="584"/>
+      <c r="J34" s="624"/>
+      <c r="K34" s="634"/>
+      <c r="L34" s="621"/>
+      <c r="M34" s="558"/>
+      <c r="N34" s="558"/>
+      <c r="O34" s="558"/>
+      <c r="P34" s="558"/>
+      <c r="Q34" s="558"/>
+      <c r="R34" s="558"/>
+      <c r="S34" s="558"/>
+      <c r="T34" s="558"/>
       <c r="V34" s="81"/>
       <c r="W34" s="82" t="s">
         <v>17</v>
@@ -9621,18 +9634,18 @@
       </c>
       <c r="I35" s="380"/>
       <c r="J35" s="380"/>
-      <c r="K35" s="631"/>
+      <c r="K35" s="602"/>
       <c r="L35" s="381">
         <v>11052</v>
       </c>
-      <c r="M35" s="586"/>
-      <c r="N35" s="584"/>
-      <c r="O35" s="584"/>
-      <c r="P35" s="584"/>
-      <c r="Q35" s="584"/>
-      <c r="R35" s="584"/>
-      <c r="S35" s="584"/>
-      <c r="T35" s="584"/>
+      <c r="M35" s="560"/>
+      <c r="N35" s="558"/>
+      <c r="O35" s="558"/>
+      <c r="P35" s="558"/>
+      <c r="Q35" s="558"/>
+      <c r="R35" s="558"/>
+      <c r="S35" s="558"/>
+      <c r="T35" s="558"/>
       <c r="V35" s="142"/>
       <c r="W35" s="84" t="s">
         <v>17</v>
@@ -9653,12 +9666,12 @@
         <v>1000</v>
       </c>
       <c r="AF35" s="194"/>
-      <c r="AG35" s="558" t="s">
+      <c r="AG35" s="709" t="s">
         <v>401</v>
       </c>
-      <c r="AH35" s="559"/>
-      <c r="AI35" s="559"/>
-      <c r="AJ35" s="560"/>
+      <c r="AH35" s="710"/>
+      <c r="AI35" s="710"/>
+      <c r="AJ35" s="711"/>
       <c r="AK35" s="527">
         <v>-400</v>
       </c>
@@ -9732,20 +9745,20 @@
       <c r="H36" s="351" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="626"/>
-      <c r="J36" s="652">
+      <c r="I36" s="597"/>
+      <c r="J36" s="623">
         <v>85.11</v>
       </c>
-      <c r="K36" s="661"/>
-      <c r="L36" s="657"/>
-      <c r="M36" s="584"/>
-      <c r="N36" s="583"/>
-      <c r="O36" s="583"/>
-      <c r="P36" s="583"/>
-      <c r="Q36" s="583"/>
-      <c r="R36" s="583"/>
-      <c r="S36" s="583"/>
-      <c r="T36" s="583"/>
+      <c r="K36" s="632"/>
+      <c r="L36" s="628"/>
+      <c r="M36" s="558"/>
+      <c r="N36" s="557"/>
+      <c r="O36" s="557"/>
+      <c r="P36" s="557"/>
+      <c r="Q36" s="557"/>
+      <c r="R36" s="557"/>
+      <c r="S36" s="557"/>
+      <c r="T36" s="557"/>
       <c r="V36" s="142"/>
       <c r="W36" s="84" t="s">
         <v>17</v>
@@ -9849,20 +9862,20 @@
       <c r="H37" s="329" t="s">
         <v>240</v>
       </c>
-      <c r="I37" s="621"/>
+      <c r="I37" s="592"/>
       <c r="J37" s="276">
         <v>16</v>
       </c>
-      <c r="K37" s="662"/>
-      <c r="L37" s="649"/>
-      <c r="M37" s="584"/>
-      <c r="N37" s="584"/>
-      <c r="O37" s="584"/>
-      <c r="P37" s="584"/>
-      <c r="Q37" s="584"/>
-      <c r="R37" s="584"/>
-      <c r="S37" s="584"/>
-      <c r="T37" s="584"/>
+      <c r="K37" s="633"/>
+      <c r="L37" s="620"/>
+      <c r="M37" s="558"/>
+      <c r="N37" s="558"/>
+      <c r="O37" s="558"/>
+      <c r="P37" s="558"/>
+      <c r="Q37" s="558"/>
+      <c r="R37" s="558"/>
+      <c r="S37" s="558"/>
+      <c r="T37" s="558"/>
       <c r="V37" s="142"/>
       <c r="W37" s="84" t="s">
         <v>17</v>
@@ -9964,20 +9977,20 @@
       <c r="H38" s="329" t="s">
         <v>242</v>
       </c>
-      <c r="I38" s="621"/>
+      <c r="I38" s="592"/>
       <c r="J38" s="276">
         <v>1000</v>
       </c>
-      <c r="K38" s="662"/>
-      <c r="L38" s="649"/>
-      <c r="M38" s="584"/>
-      <c r="N38" s="584"/>
-      <c r="O38" s="584"/>
-      <c r="P38" s="584"/>
-      <c r="Q38" s="584"/>
-      <c r="R38" s="584"/>
-      <c r="S38" s="584"/>
-      <c r="T38" s="584"/>
+      <c r="K38" s="633"/>
+      <c r="L38" s="620"/>
+      <c r="M38" s="558"/>
+      <c r="N38" s="558"/>
+      <c r="O38" s="558"/>
+      <c r="P38" s="558"/>
+      <c r="Q38" s="558"/>
+      <c r="R38" s="558"/>
+      <c r="S38" s="558"/>
+      <c r="T38" s="558"/>
       <c r="V38" s="81"/>
       <c r="W38" s="82" t="s">
         <v>17</v>
@@ -10001,10 +10014,10 @@
       <c r="AG38" s="529">
         <v>43447</v>
       </c>
-      <c r="AH38" s="546" t="s">
+      <c r="AH38" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI38" s="547"/>
+      <c r="AI38" s="682"/>
       <c r="AJ38" s="167">
         <v>11826.22</v>
       </c>
@@ -10081,20 +10094,20 @@
       <c r="H39" s="329" t="s">
         <v>243</v>
       </c>
-      <c r="I39" s="621"/>
+      <c r="I39" s="592"/>
       <c r="J39" s="276">
         <v>113</v>
       </c>
-      <c r="K39" s="662"/>
-      <c r="L39" s="649"/>
-      <c r="M39" s="584"/>
-      <c r="N39" s="586"/>
-      <c r="O39" s="586"/>
-      <c r="P39" s="586"/>
-      <c r="Q39" s="586"/>
-      <c r="R39" s="586"/>
-      <c r="S39" s="586"/>
-      <c r="T39" s="586"/>
+      <c r="K39" s="633"/>
+      <c r="L39" s="620"/>
+      <c r="M39" s="558"/>
+      <c r="N39" s="560"/>
+      <c r="O39" s="560"/>
+      <c r="P39" s="560"/>
+      <c r="Q39" s="560"/>
+      <c r="R39" s="560"/>
+      <c r="S39" s="560"/>
+      <c r="T39" s="560"/>
       <c r="V39" s="142"/>
       <c r="W39" s="84" t="s">
         <v>17</v>
@@ -10202,20 +10215,20 @@
       <c r="H40" s="345" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="622">
+      <c r="I40" s="593">
         <v>2500</v>
       </c>
-      <c r="J40" s="653"/>
-      <c r="K40" s="663"/>
-      <c r="L40" s="650"/>
-      <c r="M40" s="584"/>
-      <c r="N40" s="584"/>
-      <c r="O40" s="584"/>
-      <c r="P40" s="584"/>
-      <c r="Q40" s="584"/>
-      <c r="R40" s="584"/>
-      <c r="S40" s="584"/>
-      <c r="T40" s="584"/>
+      <c r="J40" s="624"/>
+      <c r="K40" s="634"/>
+      <c r="L40" s="621"/>
+      <c r="M40" s="558"/>
+      <c r="N40" s="558"/>
+      <c r="O40" s="558"/>
+      <c r="P40" s="558"/>
+      <c r="Q40" s="558"/>
+      <c r="R40" s="558"/>
+      <c r="S40" s="558"/>
+      <c r="T40" s="558"/>
       <c r="V40" s="142"/>
       <c r="W40" s="84" t="s">
         <v>17</v>
@@ -10239,10 +10252,10 @@
       <c r="AG40" s="545">
         <v>43447</v>
       </c>
-      <c r="AH40" s="546" t="s">
+      <c r="AH40" s="681" t="s">
         <v>184</v>
       </c>
-      <c r="AI40" s="547"/>
+      <c r="AI40" s="682"/>
       <c r="AJ40" s="167">
         <v>10502</v>
       </c>
@@ -10323,18 +10336,18 @@
       </c>
       <c r="I41" s="393"/>
       <c r="J41" s="393"/>
-      <c r="K41" s="632"/>
+      <c r="K41" s="603"/>
       <c r="L41" s="394">
         <v>200</v>
       </c>
-      <c r="M41" s="584"/>
-      <c r="N41" s="584"/>
-      <c r="O41" s="584"/>
-      <c r="P41" s="584"/>
-      <c r="Q41" s="584"/>
-      <c r="R41" s="584"/>
-      <c r="S41" s="584"/>
-      <c r="T41" s="584"/>
+      <c r="M41" s="558"/>
+      <c r="N41" s="558"/>
+      <c r="O41" s="558"/>
+      <c r="P41" s="558"/>
+      <c r="Q41" s="558"/>
+      <c r="R41" s="558"/>
+      <c r="S41" s="558"/>
+      <c r="T41" s="558"/>
       <c r="V41" s="142"/>
       <c r="W41" s="84" t="s">
         <v>17</v>
@@ -10436,20 +10449,20 @@
       <c r="H42" s="351" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="626"/>
-      <c r="J42" s="652">
+      <c r="I42" s="597"/>
+      <c r="J42" s="623">
         <v>598</v>
       </c>
-      <c r="K42" s="661"/>
-      <c r="L42" s="657"/>
-      <c r="M42" s="584"/>
-      <c r="N42" s="584"/>
-      <c r="O42" s="584"/>
-      <c r="P42" s="584"/>
-      <c r="Q42" s="584"/>
-      <c r="R42" s="584"/>
-      <c r="S42" s="584"/>
-      <c r="T42" s="584"/>
+      <c r="K42" s="632"/>
+      <c r="L42" s="628"/>
+      <c r="M42" s="558"/>
+      <c r="N42" s="558"/>
+      <c r="O42" s="558"/>
+      <c r="P42" s="558"/>
+      <c r="Q42" s="558"/>
+      <c r="R42" s="558"/>
+      <c r="S42" s="558"/>
+      <c r="T42" s="558"/>
       <c r="V42" s="142"/>
       <c r="W42" s="84" t="s">
         <v>17</v>
@@ -10551,22 +10564,22 @@
       <c r="H43" s="329" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="621">
+      <c r="I43" s="592">
         <v>200</v>
       </c>
-      <c r="J43" s="653">
+      <c r="J43" s="624">
         <v>26</v>
       </c>
-      <c r="K43" s="663"/>
-      <c r="L43" s="649"/>
-      <c r="M43" s="584"/>
-      <c r="N43" s="584"/>
-      <c r="O43" s="584"/>
-      <c r="P43" s="584"/>
-      <c r="Q43" s="584"/>
-      <c r="R43" s="584"/>
-      <c r="S43" s="584"/>
-      <c r="T43" s="584"/>
+      <c r="K43" s="634"/>
+      <c r="L43" s="620"/>
+      <c r="M43" s="558"/>
+      <c r="N43" s="558"/>
+      <c r="O43" s="558"/>
+      <c r="P43" s="558"/>
+      <c r="Q43" s="558"/>
+      <c r="R43" s="558"/>
+      <c r="S43" s="558"/>
+      <c r="T43" s="558"/>
       <c r="V43" s="142"/>
       <c r="W43" s="84" t="s">
         <v>17</v>
@@ -10668,18 +10681,18 @@
       </c>
       <c r="I44" s="393"/>
       <c r="J44" s="393"/>
-      <c r="K44" s="632"/>
+      <c r="K44" s="603"/>
       <c r="L44" s="394">
         <v>200</v>
       </c>
-      <c r="M44" s="584"/>
-      <c r="N44" s="584"/>
-      <c r="O44" s="584"/>
-      <c r="P44" s="584"/>
-      <c r="Q44" s="584"/>
-      <c r="R44" s="584"/>
-      <c r="S44" s="584"/>
-      <c r="T44" s="584"/>
+      <c r="M44" s="558"/>
+      <c r="N44" s="558"/>
+      <c r="O44" s="558"/>
+      <c r="P44" s="558"/>
+      <c r="Q44" s="558"/>
+      <c r="R44" s="558"/>
+      <c r="S44" s="558"/>
+      <c r="T44" s="558"/>
       <c r="V44" s="71"/>
       <c r="W44" s="72" t="s">
         <v>17</v>
@@ -10777,20 +10790,20 @@
       <c r="H45" s="351" t="s">
         <v>265</v>
       </c>
-      <c r="I45" s="626"/>
-      <c r="J45" s="652">
+      <c r="I45" s="597"/>
+      <c r="J45" s="623">
         <v>335</v>
       </c>
-      <c r="K45" s="661"/>
-      <c r="L45" s="657"/>
-      <c r="M45" s="584"/>
-      <c r="N45" s="584"/>
-      <c r="O45" s="584"/>
-      <c r="P45" s="584"/>
-      <c r="Q45" s="584"/>
-      <c r="R45" s="584"/>
-      <c r="S45" s="584"/>
-      <c r="T45" s="584"/>
+      <c r="K45" s="632"/>
+      <c r="L45" s="628"/>
+      <c r="M45" s="558"/>
+      <c r="N45" s="558"/>
+      <c r="O45" s="558"/>
+      <c r="P45" s="558"/>
+      <c r="Q45" s="558"/>
+      <c r="R45" s="558"/>
+      <c r="S45" s="558"/>
+      <c r="T45" s="558"/>
       <c r="V45" s="152">
         <v>43167</v>
       </c>
@@ -10904,20 +10917,20 @@
       <c r="H46" s="329" t="s">
         <v>266</v>
       </c>
-      <c r="I46" s="621">
+      <c r="I46" s="592">
         <v>400</v>
       </c>
       <c r="J46" s="276"/>
-      <c r="K46" s="662"/>
-      <c r="L46" s="649"/>
-      <c r="M46" s="584"/>
-      <c r="N46" s="584"/>
-      <c r="O46" s="584"/>
-      <c r="P46" s="584"/>
-      <c r="Q46" s="584"/>
-      <c r="R46" s="584"/>
-      <c r="S46" s="584"/>
-      <c r="T46" s="584"/>
+      <c r="K46" s="633"/>
+      <c r="L46" s="620"/>
+      <c r="M46" s="558"/>
+      <c r="N46" s="558"/>
+      <c r="O46" s="558"/>
+      <c r="P46" s="558"/>
+      <c r="Q46" s="558"/>
+      <c r="R46" s="558"/>
+      <c r="S46" s="558"/>
+      <c r="T46" s="558"/>
       <c r="V46" s="88">
         <v>42802</v>
       </c>
@@ -11011,20 +11024,20 @@
       <c r="H47" s="398" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="633"/>
-      <c r="J47" s="653">
+      <c r="I47" s="604"/>
+      <c r="J47" s="624">
         <v>113</v>
       </c>
-      <c r="K47" s="663"/>
-      <c r="L47" s="664"/>
-      <c r="M47" s="585"/>
-      <c r="N47" s="584"/>
-      <c r="O47" s="584"/>
-      <c r="P47" s="584"/>
-      <c r="Q47" s="584"/>
-      <c r="R47" s="584"/>
-      <c r="S47" s="584"/>
-      <c r="T47" s="584"/>
+      <c r="K47" s="634"/>
+      <c r="L47" s="635"/>
+      <c r="M47" s="559"/>
+      <c r="N47" s="558"/>
+      <c r="O47" s="558"/>
+      <c r="P47" s="558"/>
+      <c r="Q47" s="558"/>
+      <c r="R47" s="558"/>
+      <c r="S47" s="558"/>
+      <c r="T47" s="558"/>
       <c r="V47" s="73">
         <v>43266</v>
       </c>
@@ -11122,18 +11135,18 @@
       </c>
       <c r="I48" s="332"/>
       <c r="J48" s="332"/>
-      <c r="K48" s="623"/>
+      <c r="K48" s="594"/>
       <c r="L48" s="333">
         <v>11052</v>
       </c>
-      <c r="M48" s="586"/>
-      <c r="N48" s="584"/>
-      <c r="O48" s="584"/>
-      <c r="P48" s="584"/>
-      <c r="Q48" s="584"/>
-      <c r="R48" s="584"/>
-      <c r="S48" s="584"/>
-      <c r="T48" s="584"/>
+      <c r="M48" s="560"/>
+      <c r="N48" s="558"/>
+      <c r="O48" s="558"/>
+      <c r="P48" s="558"/>
+      <c r="Q48" s="558"/>
+      <c r="R48" s="558"/>
+      <c r="S48" s="558"/>
+      <c r="T48" s="558"/>
       <c r="V48" s="75"/>
       <c r="W48" s="76" t="s">
         <v>57</v>
@@ -11233,20 +11246,20 @@
       <c r="H49" s="340" t="s">
         <v>283</v>
       </c>
-      <c r="I49" s="620">
+      <c r="I49" s="591">
         <v>1500</v>
       </c>
-      <c r="J49" s="652"/>
-      <c r="K49" s="661"/>
-      <c r="L49" s="647"/>
-      <c r="M49" s="583"/>
-      <c r="N49" s="584"/>
-      <c r="O49" s="584"/>
-      <c r="P49" s="584"/>
-      <c r="Q49" s="584"/>
-      <c r="R49" s="584"/>
-      <c r="S49" s="584"/>
-      <c r="T49" s="584"/>
+      <c r="J49" s="623"/>
+      <c r="K49" s="632"/>
+      <c r="L49" s="618"/>
+      <c r="M49" s="557"/>
+      <c r="N49" s="558"/>
+      <c r="O49" s="558"/>
+      <c r="P49" s="558"/>
+      <c r="Q49" s="558"/>
+      <c r="R49" s="558"/>
+      <c r="S49" s="558"/>
+      <c r="T49" s="558"/>
       <c r="V49" s="75"/>
       <c r="W49" s="76" t="s">
         <v>426</v>
@@ -11343,20 +11356,20 @@
       <c r="H50" s="328" t="s">
         <v>285</v>
       </c>
-      <c r="I50" s="603"/>
+      <c r="I50" s="574"/>
       <c r="J50" s="276">
         <v>162</v>
       </c>
-      <c r="K50" s="662"/>
-      <c r="L50" s="648"/>
-      <c r="M50" s="583"/>
-      <c r="N50" s="584"/>
-      <c r="O50" s="584"/>
-      <c r="P50" s="584"/>
-      <c r="Q50" s="584"/>
-      <c r="R50" s="584"/>
-      <c r="S50" s="584"/>
-      <c r="T50" s="584"/>
+      <c r="K50" s="633"/>
+      <c r="L50" s="619"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="558"/>
+      <c r="O50" s="558"/>
+      <c r="P50" s="558"/>
+      <c r="Q50" s="558"/>
+      <c r="R50" s="558"/>
+      <c r="S50" s="558"/>
+      <c r="T50" s="558"/>
       <c r="V50" s="153">
         <v>43375</v>
       </c>
@@ -11454,20 +11467,20 @@
       <c r="H51" s="328" t="s">
         <v>282</v>
       </c>
-      <c r="I51" s="603">
+      <c r="I51" s="574">
         <v>1800</v>
       </c>
       <c r="J51" s="276"/>
-      <c r="K51" s="662"/>
-      <c r="L51" s="648"/>
-      <c r="M51" s="583"/>
-      <c r="N51" s="585"/>
-      <c r="O51" s="585"/>
-      <c r="P51" s="585"/>
-      <c r="Q51" s="585"/>
-      <c r="R51" s="585"/>
-      <c r="S51" s="585"/>
-      <c r="T51" s="585"/>
+      <c r="K51" s="633"/>
+      <c r="L51" s="619"/>
+      <c r="M51" s="557"/>
+      <c r="N51" s="559"/>
+      <c r="O51" s="559"/>
+      <c r="P51" s="559"/>
+      <c r="Q51" s="559"/>
+      <c r="R51" s="559"/>
+      <c r="S51" s="559"/>
+      <c r="T51" s="559"/>
       <c r="V51" s="294" t="s">
         <v>86</v>
       </c>
@@ -11580,20 +11593,20 @@
       <c r="H52" s="328" t="s">
         <v>284</v>
       </c>
-      <c r="I52" s="603"/>
+      <c r="I52" s="574"/>
       <c r="J52" s="276">
         <v>158</v>
       </c>
-      <c r="K52" s="662"/>
-      <c r="L52" s="648"/>
-      <c r="M52" s="583"/>
-      <c r="N52" s="586"/>
-      <c r="O52" s="586"/>
-      <c r="P52" s="586"/>
-      <c r="Q52" s="586"/>
-      <c r="R52" s="586"/>
-      <c r="S52" s="586"/>
-      <c r="T52" s="586"/>
+      <c r="K52" s="633"/>
+      <c r="L52" s="619"/>
+      <c r="M52" s="557"/>
+      <c r="N52" s="560"/>
+      <c r="O52" s="560"/>
+      <c r="P52" s="560"/>
+      <c r="Q52" s="560"/>
+      <c r="R52" s="560"/>
+      <c r="S52" s="560"/>
+      <c r="T52" s="560"/>
       <c r="V52" s="301"/>
       <c r="W52" s="277" t="s">
         <v>19</v>
@@ -11695,20 +11708,20 @@
       <c r="H53" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="I53" s="603"/>
+      <c r="I53" s="574"/>
       <c r="J53" s="276">
         <v>200</v>
       </c>
-      <c r="K53" s="662"/>
-      <c r="L53" s="648"/>
-      <c r="M53" s="583"/>
-      <c r="N53" s="583"/>
-      <c r="O53" s="583"/>
-      <c r="P53" s="583"/>
-      <c r="Q53" s="583"/>
-      <c r="R53" s="583"/>
-      <c r="S53" s="583"/>
-      <c r="T53" s="583"/>
+      <c r="K53" s="633"/>
+      <c r="L53" s="619"/>
+      <c r="M53" s="557"/>
+      <c r="N53" s="557"/>
+      <c r="O53" s="557"/>
+      <c r="P53" s="557"/>
+      <c r="Q53" s="557"/>
+      <c r="R53" s="557"/>
+      <c r="S53" s="557"/>
+      <c r="T53" s="557"/>
       <c r="V53" s="142"/>
       <c r="W53" s="84" t="s">
         <v>19</v>
@@ -11798,20 +11811,20 @@
       <c r="H54" s="399" t="s">
         <v>290</v>
       </c>
-      <c r="I54" s="634"/>
+      <c r="I54" s="605"/>
       <c r="J54" s="276">
         <v>50</v>
       </c>
-      <c r="K54" s="662"/>
-      <c r="L54" s="665"/>
-      <c r="M54" s="585"/>
-      <c r="N54" s="583"/>
-      <c r="O54" s="583"/>
-      <c r="P54" s="583"/>
-      <c r="Q54" s="583"/>
-      <c r="R54" s="583"/>
-      <c r="S54" s="583"/>
-      <c r="T54" s="583"/>
+      <c r="K54" s="633"/>
+      <c r="L54" s="636"/>
+      <c r="M54" s="559"/>
+      <c r="N54" s="557"/>
+      <c r="O54" s="557"/>
+      <c r="P54" s="557"/>
+      <c r="Q54" s="557"/>
+      <c r="R54" s="557"/>
+      <c r="S54" s="557"/>
+      <c r="T54" s="557"/>
       <c r="V54" s="142" t="s">
         <v>102</v>
       </c>
@@ -11915,20 +11928,20 @@
       <c r="H55" s="399" t="s">
         <v>291</v>
       </c>
-      <c r="I55" s="634"/>
+      <c r="I55" s="605"/>
       <c r="J55" s="276">
         <v>145</v>
       </c>
-      <c r="K55" s="662"/>
-      <c r="L55" s="665"/>
-      <c r="M55" s="585"/>
-      <c r="N55" s="583"/>
-      <c r="O55" s="583"/>
-      <c r="P55" s="583"/>
-      <c r="Q55" s="583"/>
-      <c r="R55" s="583"/>
-      <c r="S55" s="583"/>
-      <c r="T55" s="583"/>
+      <c r="K55" s="633"/>
+      <c r="L55" s="636"/>
+      <c r="M55" s="559"/>
+      <c r="N55" s="557"/>
+      <c r="O55" s="557"/>
+      <c r="P55" s="557"/>
+      <c r="Q55" s="557"/>
+      <c r="R55" s="557"/>
+      <c r="S55" s="557"/>
+      <c r="T55" s="557"/>
       <c r="V55" s="142"/>
       <c r="W55" s="84" t="s">
         <v>19</v>
@@ -12024,20 +12037,20 @@
       <c r="H56" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="634">
+      <c r="I56" s="605">
         <v>2000</v>
       </c>
       <c r="J56" s="276"/>
-      <c r="K56" s="662"/>
-      <c r="L56" s="665"/>
-      <c r="M56" s="585"/>
-      <c r="N56" s="583"/>
-      <c r="O56" s="583"/>
-      <c r="P56" s="583"/>
-      <c r="Q56" s="583"/>
-      <c r="R56" s="583"/>
-      <c r="S56" s="583"/>
-      <c r="T56" s="583"/>
+      <c r="K56" s="633"/>
+      <c r="L56" s="636"/>
+      <c r="M56" s="559"/>
+      <c r="N56" s="557"/>
+      <c r="O56" s="557"/>
+      <c r="P56" s="557"/>
+      <c r="Q56" s="557"/>
+      <c r="R56" s="557"/>
+      <c r="S56" s="557"/>
+      <c r="T56" s="557"/>
       <c r="V56" s="142"/>
       <c r="W56" s="84" t="s">
         <v>19</v>
@@ -12135,20 +12148,20 @@
       <c r="H57" s="398" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="633"/>
-      <c r="J57" s="653">
+      <c r="I57" s="604"/>
+      <c r="J57" s="624">
         <v>175</v>
       </c>
-      <c r="K57" s="663"/>
-      <c r="L57" s="664"/>
-      <c r="M57" s="585"/>
-      <c r="N57" s="583"/>
-      <c r="O57" s="583"/>
-      <c r="P57" s="583"/>
-      <c r="Q57" s="583"/>
-      <c r="R57" s="583"/>
-      <c r="S57" s="583"/>
-      <c r="T57" s="583"/>
+      <c r="K57" s="634"/>
+      <c r="L57" s="635"/>
+      <c r="M57" s="559"/>
+      <c r="N57" s="557"/>
+      <c r="O57" s="557"/>
+      <c r="P57" s="557"/>
+      <c r="Q57" s="557"/>
+      <c r="R57" s="557"/>
+      <c r="S57" s="557"/>
+      <c r="T57" s="557"/>
       <c r="V57" s="142"/>
       <c r="W57" s="84" t="s">
         <v>110</v>
@@ -12246,18 +12259,18 @@
       </c>
       <c r="I58" s="332"/>
       <c r="J58" s="332"/>
-      <c r="K58" s="623"/>
+      <c r="K58" s="594"/>
       <c r="L58" s="333">
         <v>11052</v>
       </c>
-      <c r="M58" s="586"/>
-      <c r="N58" s="585"/>
-      <c r="O58" s="585"/>
-      <c r="P58" s="585"/>
-      <c r="Q58" s="585"/>
-      <c r="R58" s="585"/>
-      <c r="S58" s="585"/>
-      <c r="T58" s="585"/>
+      <c r="M58" s="560"/>
+      <c r="N58" s="559"/>
+      <c r="O58" s="559"/>
+      <c r="P58" s="559"/>
+      <c r="Q58" s="559"/>
+      <c r="R58" s="559"/>
+      <c r="S58" s="559"/>
+      <c r="T58" s="559"/>
       <c r="V58" s="142"/>
       <c r="W58" s="84" t="s">
         <v>19</v>
@@ -12357,20 +12370,20 @@
       <c r="H59" s="455" t="s">
         <v>316</v>
       </c>
-      <c r="I59" s="635">
+      <c r="I59" s="606">
         <v>1000</v>
       </c>
-      <c r="J59" s="667"/>
-      <c r="K59" s="668"/>
-      <c r="L59" s="666"/>
-      <c r="M59" s="585"/>
-      <c r="N59" s="585"/>
-      <c r="O59" s="585"/>
-      <c r="P59" s="585"/>
-      <c r="Q59" s="585"/>
-      <c r="R59" s="585"/>
-      <c r="S59" s="585"/>
-      <c r="T59" s="585"/>
+      <c r="J59" s="638"/>
+      <c r="K59" s="639"/>
+      <c r="L59" s="637"/>
+      <c r="M59" s="559"/>
+      <c r="N59" s="559"/>
+      <c r="O59" s="559"/>
+      <c r="P59" s="559"/>
+      <c r="Q59" s="559"/>
+      <c r="R59" s="559"/>
+      <c r="S59" s="559"/>
+      <c r="T59" s="559"/>
       <c r="V59" s="83">
         <v>43390</v>
       </c>
@@ -12474,18 +12487,18 @@
       </c>
       <c r="I60" s="411"/>
       <c r="J60" s="411"/>
-      <c r="K60" s="636"/>
+      <c r="K60" s="607"/>
       <c r="L60" s="412">
         <v>200</v>
       </c>
-      <c r="M60" s="584"/>
-      <c r="N60" s="585"/>
-      <c r="O60" s="585"/>
-      <c r="P60" s="585"/>
-      <c r="Q60" s="585"/>
-      <c r="R60" s="585"/>
-      <c r="S60" s="585"/>
-      <c r="T60" s="585"/>
+      <c r="M60" s="558"/>
+      <c r="N60" s="559"/>
+      <c r="O60" s="559"/>
+      <c r="P60" s="559"/>
+      <c r="Q60" s="559"/>
+      <c r="R60" s="559"/>
+      <c r="S60" s="559"/>
+      <c r="T60" s="559"/>
       <c r="V60" s="83">
         <v>43334</v>
       </c>
@@ -12591,18 +12604,18 @@
       </c>
       <c r="I61" s="415"/>
       <c r="J61" s="415"/>
-      <c r="K61" s="637"/>
+      <c r="K61" s="608"/>
       <c r="L61" s="416">
         <v>19187</v>
       </c>
-      <c r="M61" s="584"/>
-      <c r="N61" s="585"/>
-      <c r="O61" s="585"/>
-      <c r="P61" s="585"/>
-      <c r="Q61" s="585"/>
-      <c r="R61" s="585"/>
-      <c r="S61" s="585"/>
-      <c r="T61" s="585"/>
+      <c r="M61" s="558"/>
+      <c r="N61" s="559"/>
+      <c r="O61" s="559"/>
+      <c r="P61" s="559"/>
+      <c r="Q61" s="559"/>
+      <c r="R61" s="559"/>
+      <c r="S61" s="559"/>
+      <c r="T61" s="559"/>
       <c r="V61" s="73">
         <v>43180</v>
       </c>
@@ -12706,18 +12719,18 @@
       </c>
       <c r="I62" s="419"/>
       <c r="J62" s="419"/>
-      <c r="K62" s="638"/>
+      <c r="K62" s="609"/>
       <c r="L62" s="420">
         <v>6798</v>
       </c>
-      <c r="M62" s="584"/>
-      <c r="N62" s="586"/>
-      <c r="O62" s="586"/>
-      <c r="P62" s="586"/>
-      <c r="Q62" s="586"/>
-      <c r="R62" s="586"/>
-      <c r="S62" s="586"/>
-      <c r="T62" s="586"/>
+      <c r="M62" s="558"/>
+      <c r="N62" s="560"/>
+      <c r="O62" s="560"/>
+      <c r="P62" s="560"/>
+      <c r="Q62" s="560"/>
+      <c r="R62" s="560"/>
+      <c r="S62" s="560"/>
+      <c r="T62" s="560"/>
       <c r="V62" s="401" t="s">
         <v>307</v>
       </c>
@@ -12817,20 +12830,20 @@
       <c r="H63" s="421" t="s">
         <v>322</v>
       </c>
-      <c r="I63" s="602">
+      <c r="I63" s="573">
         <v>4000</v>
       </c>
-      <c r="J63" s="652"/>
-      <c r="K63" s="661"/>
-      <c r="L63" s="669"/>
-      <c r="M63" s="583"/>
-      <c r="N63" s="585"/>
-      <c r="O63" s="585"/>
-      <c r="P63" s="585"/>
-      <c r="Q63" s="585"/>
-      <c r="R63" s="585"/>
-      <c r="S63" s="585"/>
-      <c r="T63" s="585"/>
+      <c r="J63" s="623"/>
+      <c r="K63" s="632"/>
+      <c r="L63" s="640"/>
+      <c r="M63" s="557"/>
+      <c r="N63" s="559"/>
+      <c r="O63" s="559"/>
+      <c r="P63" s="559"/>
+      <c r="Q63" s="559"/>
+      <c r="R63" s="559"/>
+      <c r="S63" s="559"/>
+      <c r="T63" s="559"/>
       <c r="V63" s="196"/>
       <c r="W63" s="196"/>
       <c r="X63" s="66"/>
@@ -12915,20 +12928,20 @@
       <c r="H64" s="328" t="s">
         <v>391</v>
       </c>
-      <c r="I64" s="603"/>
+      <c r="I64" s="574"/>
       <c r="J64" s="276">
         <v>559</v>
       </c>
-      <c r="K64" s="662"/>
-      <c r="L64" s="648"/>
-      <c r="M64" s="583"/>
-      <c r="N64" s="584"/>
-      <c r="O64" s="584"/>
-      <c r="P64" s="584"/>
-      <c r="Q64" s="584"/>
-      <c r="R64" s="584"/>
-      <c r="S64" s="584"/>
-      <c r="T64" s="584"/>
+      <c r="K64" s="633"/>
+      <c r="L64" s="619"/>
+      <c r="M64" s="557"/>
+      <c r="N64" s="558"/>
+      <c r="O64" s="558"/>
+      <c r="P64" s="558"/>
+      <c r="Q64" s="558"/>
+      <c r="R64" s="558"/>
+      <c r="S64" s="558"/>
+      <c r="T64" s="558"/>
       <c r="V64" s="196"/>
       <c r="W64" s="196"/>
       <c r="X64" s="66"/>
@@ -13011,20 +13024,20 @@
       <c r="H65" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="603"/>
+      <c r="I65" s="574"/>
       <c r="J65" s="276">
         <v>200</v>
       </c>
-      <c r="K65" s="662"/>
-      <c r="L65" s="648"/>
-      <c r="M65" s="583"/>
-      <c r="N65" s="584"/>
-      <c r="O65" s="584"/>
-      <c r="P65" s="584"/>
-      <c r="Q65" s="584"/>
-      <c r="R65" s="584"/>
-      <c r="S65" s="584"/>
-      <c r="T65" s="584"/>
+      <c r="K65" s="633"/>
+      <c r="L65" s="619"/>
+      <c r="M65" s="557"/>
+      <c r="N65" s="558"/>
+      <c r="O65" s="558"/>
+      <c r="P65" s="558"/>
+      <c r="Q65" s="558"/>
+      <c r="R65" s="558"/>
+      <c r="S65" s="558"/>
+      <c r="T65" s="558"/>
       <c r="V65" s="196"/>
       <c r="W65" s="196"/>
       <c r="X65" s="66"/>
@@ -13109,20 +13122,20 @@
       <c r="H66" s="328" t="s">
         <v>323</v>
       </c>
-      <c r="I66" s="603">
+      <c r="I66" s="574">
         <v>2500</v>
       </c>
       <c r="J66" s="276"/>
-      <c r="K66" s="662"/>
-      <c r="L66" s="648"/>
-      <c r="M66" s="583"/>
-      <c r="N66" s="584"/>
-      <c r="O66" s="584"/>
-      <c r="P66" s="584"/>
-      <c r="Q66" s="584"/>
-      <c r="R66" s="584"/>
-      <c r="S66" s="584"/>
-      <c r="T66" s="584"/>
+      <c r="K66" s="633"/>
+      <c r="L66" s="619"/>
+      <c r="M66" s="557"/>
+      <c r="N66" s="558"/>
+      <c r="O66" s="558"/>
+      <c r="P66" s="558"/>
+      <c r="Q66" s="558"/>
+      <c r="R66" s="558"/>
+      <c r="S66" s="558"/>
+      <c r="T66" s="558"/>
       <c r="V66" s="196"/>
       <c r="W66" s="196"/>
       <c r="X66" s="66"/>
@@ -13209,20 +13222,20 @@
       <c r="H67" s="345" t="s">
         <v>361</v>
       </c>
-      <c r="I67" s="622">
+      <c r="I67" s="593">
         <v>500</v>
       </c>
-      <c r="J67" s="653"/>
-      <c r="K67" s="663"/>
-      <c r="L67" s="650"/>
-      <c r="M67" s="584"/>
-      <c r="N67" s="583"/>
-      <c r="O67" s="583"/>
-      <c r="P67" s="583"/>
-      <c r="Q67" s="583"/>
-      <c r="R67" s="583"/>
-      <c r="S67" s="583"/>
-      <c r="T67" s="583"/>
+      <c r="J67" s="624"/>
+      <c r="K67" s="634"/>
+      <c r="L67" s="621"/>
+      <c r="M67" s="558"/>
+      <c r="N67" s="557"/>
+      <c r="O67" s="557"/>
+      <c r="P67" s="557"/>
+      <c r="Q67" s="557"/>
+      <c r="R67" s="557"/>
+      <c r="S67" s="557"/>
+      <c r="T67" s="557"/>
       <c r="V67" s="196"/>
       <c r="W67" s="196"/>
       <c r="X67" s="66"/>
@@ -13307,18 +13320,18 @@
       </c>
       <c r="I68" s="411"/>
       <c r="J68" s="411"/>
-      <c r="K68" s="636"/>
+      <c r="K68" s="607"/>
       <c r="L68" s="412">
         <v>250</v>
       </c>
-      <c r="M68" s="584"/>
-      <c r="N68" s="583"/>
-      <c r="O68" s="583"/>
-      <c r="P68" s="583"/>
-      <c r="Q68" s="583"/>
-      <c r="R68" s="583"/>
-      <c r="S68" s="583"/>
-      <c r="T68" s="583"/>
+      <c r="M68" s="558"/>
+      <c r="N68" s="557"/>
+      <c r="O68" s="557"/>
+      <c r="P68" s="557"/>
+      <c r="Q68" s="557"/>
+      <c r="R68" s="557"/>
+      <c r="S68" s="557"/>
+      <c r="T68" s="557"/>
       <c r="V68" s="196"/>
       <c r="W68" s="196"/>
       <c r="X68" s="66"/>
@@ -13409,18 +13422,18 @@
       </c>
       <c r="I69" s="393"/>
       <c r="J69" s="393"/>
-      <c r="K69" s="632"/>
+      <c r="K69" s="603"/>
       <c r="L69" s="394">
         <v>200</v>
       </c>
-      <c r="M69" s="584"/>
-      <c r="N69" s="583"/>
-      <c r="O69" s="583"/>
-      <c r="P69" s="583"/>
-      <c r="Q69" s="583"/>
-      <c r="R69" s="583"/>
-      <c r="S69" s="583"/>
-      <c r="T69" s="583"/>
+      <c r="M69" s="558"/>
+      <c r="N69" s="557"/>
+      <c r="O69" s="557"/>
+      <c r="P69" s="557"/>
+      <c r="Q69" s="557"/>
+      <c r="R69" s="557"/>
+      <c r="S69" s="557"/>
+      <c r="T69" s="557"/>
       <c r="V69" s="196"/>
       <c r="W69" s="196"/>
       <c r="X69" s="66"/>
@@ -13513,20 +13526,20 @@
       <c r="H70" s="458" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="639"/>
-      <c r="J70" s="671">
+      <c r="I70" s="610"/>
+      <c r="J70" s="642">
         <v>227</v>
       </c>
-      <c r="K70" s="672"/>
-      <c r="L70" s="670"/>
-      <c r="M70" s="584"/>
-      <c r="N70" s="583"/>
-      <c r="O70" s="583"/>
-      <c r="P70" s="583"/>
-      <c r="Q70" s="583"/>
-      <c r="R70" s="583"/>
-      <c r="S70" s="583"/>
-      <c r="T70" s="583"/>
+      <c r="K70" s="643"/>
+      <c r="L70" s="641"/>
+      <c r="M70" s="558"/>
+      <c r="N70" s="557"/>
+      <c r="O70" s="557"/>
+      <c r="P70" s="557"/>
+      <c r="Q70" s="557"/>
+      <c r="R70" s="557"/>
+      <c r="S70" s="557"/>
+      <c r="T70" s="557"/>
       <c r="V70" s="196"/>
       <c r="W70" s="196"/>
       <c r="X70" s="66"/>
@@ -13617,18 +13630,18 @@
       </c>
       <c r="I71" s="380"/>
       <c r="J71" s="380"/>
-      <c r="K71" s="631"/>
+      <c r="K71" s="602"/>
       <c r="L71" s="381">
         <v>11052</v>
       </c>
-      <c r="M71" s="586"/>
-      <c r="N71" s="584"/>
-      <c r="O71" s="584"/>
-      <c r="P71" s="584"/>
-      <c r="Q71" s="584"/>
-      <c r="R71" s="584"/>
-      <c r="S71" s="584"/>
-      <c r="T71" s="584"/>
+      <c r="M71" s="560"/>
+      <c r="N71" s="558"/>
+      <c r="O71" s="558"/>
+      <c r="P71" s="558"/>
+      <c r="Q71" s="558"/>
+      <c r="R71" s="558"/>
+      <c r="S71" s="558"/>
+      <c r="T71" s="558"/>
       <c r="V71" s="196"/>
       <c r="W71" s="196"/>
       <c r="X71" s="66"/>
@@ -13717,20 +13730,20 @@
       <c r="H72" s="329" t="s">
         <v>169</v>
       </c>
-      <c r="I72" s="621"/>
-      <c r="J72" s="652">
+      <c r="I72" s="592"/>
+      <c r="J72" s="623">
         <v>30</v>
       </c>
-      <c r="K72" s="661"/>
-      <c r="L72" s="673"/>
-      <c r="M72" s="585"/>
-      <c r="N72" s="584"/>
-      <c r="O72" s="584"/>
-      <c r="P72" s="584"/>
-      <c r="Q72" s="584"/>
-      <c r="R72" s="584"/>
-      <c r="S72" s="584"/>
-      <c r="T72" s="584"/>
+      <c r="K72" s="632"/>
+      <c r="L72" s="644"/>
+      <c r="M72" s="559"/>
+      <c r="N72" s="558"/>
+      <c r="O72" s="558"/>
+      <c r="P72" s="558"/>
+      <c r="Q72" s="558"/>
+      <c r="R72" s="558"/>
+      <c r="S72" s="558"/>
+      <c r="T72" s="558"/>
       <c r="V72" s="196"/>
       <c r="W72" s="196"/>
       <c r="X72" s="66"/>
@@ -13821,20 +13834,20 @@
       <c r="H73" s="329" t="s">
         <v>372</v>
       </c>
-      <c r="I73" s="621">
+      <c r="I73" s="592">
         <v>1000</v>
       </c>
       <c r="J73" s="276"/>
-      <c r="K73" s="662"/>
-      <c r="L73" s="673"/>
-      <c r="M73" s="585"/>
-      <c r="N73" s="584"/>
-      <c r="O73" s="584"/>
-      <c r="P73" s="584"/>
-      <c r="Q73" s="584"/>
-      <c r="R73" s="584"/>
-      <c r="S73" s="584"/>
-      <c r="T73" s="584"/>
+      <c r="K73" s="633"/>
+      <c r="L73" s="644"/>
+      <c r="M73" s="559"/>
+      <c r="N73" s="558"/>
+      <c r="O73" s="558"/>
+      <c r="P73" s="558"/>
+      <c r="Q73" s="558"/>
+      <c r="R73" s="558"/>
+      <c r="S73" s="558"/>
+      <c r="T73" s="558"/>
       <c r="V73" s="196"/>
       <c r="W73" s="196"/>
       <c r="X73" s="66"/>
@@ -13923,20 +13936,20 @@
       <c r="H74" s="329" t="s">
         <v>371</v>
       </c>
-      <c r="I74" s="621"/>
-      <c r="J74" s="653">
+      <c r="I74" s="592"/>
+      <c r="J74" s="624">
         <v>5097</v>
       </c>
-      <c r="K74" s="663"/>
-      <c r="L74" s="673"/>
-      <c r="M74" s="585"/>
-      <c r="N74" s="584"/>
-      <c r="O74" s="584"/>
-      <c r="P74" s="584"/>
-      <c r="Q74" s="584"/>
-      <c r="R74" s="584"/>
-      <c r="S74" s="584"/>
-      <c r="T74" s="584"/>
+      <c r="K74" s="634"/>
+      <c r="L74" s="644"/>
+      <c r="M74" s="559"/>
+      <c r="N74" s="558"/>
+      <c r="O74" s="558"/>
+      <c r="P74" s="558"/>
+      <c r="Q74" s="558"/>
+      <c r="R74" s="558"/>
+      <c r="S74" s="558"/>
+      <c r="T74" s="558"/>
       <c r="V74" s="196"/>
       <c r="W74" s="196"/>
       <c r="X74" s="66"/>
@@ -14021,18 +14034,18 @@
       </c>
       <c r="I75" s="411"/>
       <c r="J75" s="411"/>
-      <c r="K75" s="636"/>
+      <c r="K75" s="607"/>
       <c r="L75" s="412">
         <v>450</v>
       </c>
-      <c r="M75" s="584"/>
-      <c r="N75" s="586"/>
-      <c r="O75" s="586"/>
-      <c r="P75" s="586"/>
-      <c r="Q75" s="586"/>
-      <c r="R75" s="586"/>
-      <c r="S75" s="586"/>
-      <c r="T75" s="586"/>
+      <c r="M75" s="558"/>
+      <c r="N75" s="560"/>
+      <c r="O75" s="560"/>
+      <c r="P75" s="560"/>
+      <c r="Q75" s="560"/>
+      <c r="R75" s="560"/>
+      <c r="S75" s="560"/>
+      <c r="T75" s="560"/>
       <c r="V75" s="196"/>
       <c r="W75" s="196"/>
       <c r="X75" s="66"/>
@@ -14123,20 +14136,20 @@
         <v>43430</v>
       </c>
       <c r="H76" s="334"/>
-      <c r="I76" s="624">
+      <c r="I76" s="595">
         <v>500</v>
       </c>
-      <c r="J76" s="671"/>
-      <c r="K76" s="672"/>
-      <c r="L76" s="674"/>
-      <c r="M76" s="585"/>
-      <c r="N76" s="585"/>
-      <c r="O76" s="585"/>
-      <c r="P76" s="585"/>
-      <c r="Q76" s="585"/>
-      <c r="R76" s="585"/>
-      <c r="S76" s="585"/>
-      <c r="T76" s="585"/>
+      <c r="J76" s="642"/>
+      <c r="K76" s="643"/>
+      <c r="L76" s="645"/>
+      <c r="M76" s="559"/>
+      <c r="N76" s="559"/>
+      <c r="O76" s="559"/>
+      <c r="P76" s="559"/>
+      <c r="Q76" s="559"/>
+      <c r="R76" s="559"/>
+      <c r="S76" s="559"/>
+      <c r="T76" s="559"/>
       <c r="V76" s="196"/>
       <c r="W76" s="196"/>
       <c r="X76" s="66"/>
@@ -14225,18 +14238,18 @@
       </c>
       <c r="I77" s="535"/>
       <c r="J77" s="535"/>
-      <c r="K77" s="640"/>
+      <c r="K77" s="611"/>
       <c r="L77" s="517">
         <v>10650</v>
       </c>
-      <c r="M77" s="586"/>
-      <c r="N77" s="585"/>
-      <c r="O77" s="585"/>
-      <c r="P77" s="585"/>
-      <c r="Q77" s="585"/>
-      <c r="R77" s="585"/>
-      <c r="S77" s="585"/>
-      <c r="T77" s="585"/>
+      <c r="M77" s="560"/>
+      <c r="N77" s="559"/>
+      <c r="O77" s="559"/>
+      <c r="P77" s="559"/>
+      <c r="Q77" s="559"/>
+      <c r="R77" s="559"/>
+      <c r="S77" s="559"/>
+      <c r="T77" s="559"/>
       <c r="V77" s="196"/>
       <c r="W77" s="196"/>
       <c r="X77" s="66"/>
@@ -14317,20 +14330,20 @@
         <v>43437</v>
       </c>
       <c r="H78" s="329"/>
-      <c r="I78" s="621">
+      <c r="I78" s="592">
         <v>1000</v>
       </c>
-      <c r="J78" s="652"/>
-      <c r="K78" s="661"/>
-      <c r="L78" s="665"/>
-      <c r="M78" s="585"/>
-      <c r="N78" s="585"/>
-      <c r="O78" s="585"/>
-      <c r="P78" s="585"/>
-      <c r="Q78" s="585"/>
-      <c r="R78" s="585"/>
-      <c r="S78" s="585"/>
-      <c r="T78" s="585"/>
+      <c r="J78" s="623"/>
+      <c r="K78" s="632"/>
+      <c r="L78" s="636"/>
+      <c r="M78" s="559"/>
+      <c r="N78" s="559"/>
+      <c r="O78" s="559"/>
+      <c r="P78" s="559"/>
+      <c r="Q78" s="559"/>
+      <c r="R78" s="559"/>
+      <c r="S78" s="559"/>
+      <c r="T78" s="559"/>
       <c r="V78" s="196"/>
       <c r="W78" s="196"/>
       <c r="X78" s="66"/>
@@ -14409,20 +14422,20 @@
         <v>43437</v>
       </c>
       <c r="H79" s="348"/>
-      <c r="I79" s="627"/>
-      <c r="J79" s="653">
+      <c r="I79" s="598"/>
+      <c r="J79" s="624">
         <v>560</v>
       </c>
-      <c r="K79" s="663"/>
-      <c r="L79" s="675"/>
-      <c r="M79" s="585"/>
-      <c r="N79" s="584"/>
-      <c r="O79" s="584"/>
-      <c r="P79" s="584"/>
-      <c r="Q79" s="584"/>
-      <c r="R79" s="584"/>
-      <c r="S79" s="584"/>
-      <c r="T79" s="584"/>
+      <c r="K79" s="634"/>
+      <c r="L79" s="646"/>
+      <c r="M79" s="559"/>
+      <c r="N79" s="558"/>
+      <c r="O79" s="558"/>
+      <c r="P79" s="558"/>
+      <c r="Q79" s="558"/>
+      <c r="R79" s="558"/>
+      <c r="S79" s="558"/>
+      <c r="T79" s="558"/>
       <c r="V79" s="196"/>
       <c r="W79" s="196"/>
       <c r="X79" s="66"/>
@@ -14503,18 +14516,18 @@
       </c>
       <c r="I80" s="411"/>
       <c r="J80" s="411"/>
-      <c r="K80" s="636"/>
+      <c r="K80" s="607"/>
       <c r="L80" s="412">
         <v>450</v>
       </c>
-      <c r="M80" s="584"/>
-      <c r="N80" s="585"/>
-      <c r="O80" s="585"/>
-      <c r="P80" s="585"/>
-      <c r="Q80" s="585"/>
-      <c r="R80" s="585"/>
-      <c r="S80" s="585"/>
-      <c r="T80" s="585"/>
+      <c r="M80" s="558"/>
+      <c r="N80" s="559"/>
+      <c r="O80" s="559"/>
+      <c r="P80" s="559"/>
+      <c r="Q80" s="559"/>
+      <c r="R80" s="559"/>
+      <c r="S80" s="559"/>
+      <c r="T80" s="559"/>
       <c r="V80" s="196"/>
       <c r="W80" s="196"/>
       <c r="X80" s="66"/>
@@ -14603,20 +14616,20 @@
       <c r="H81" s="531" t="s">
         <v>154</v>
       </c>
-      <c r="I81" s="641"/>
-      <c r="J81" s="652">
+      <c r="I81" s="612"/>
+      <c r="J81" s="623">
         <v>200</v>
       </c>
-      <c r="K81" s="661"/>
-      <c r="L81" s="676"/>
-      <c r="M81" s="584"/>
-      <c r="N81" s="586"/>
-      <c r="O81" s="586"/>
-      <c r="P81" s="586"/>
-      <c r="Q81" s="586"/>
-      <c r="R81" s="586"/>
-      <c r="S81" s="586"/>
-      <c r="T81" s="586"/>
+      <c r="K81" s="632"/>
+      <c r="L81" s="647"/>
+      <c r="M81" s="558"/>
+      <c r="N81" s="560"/>
+      <c r="O81" s="560"/>
+      <c r="P81" s="560"/>
+      <c r="Q81" s="560"/>
+      <c r="R81" s="560"/>
+      <c r="S81" s="560"/>
+      <c r="T81" s="560"/>
       <c r="V81" s="196"/>
       <c r="W81" s="196"/>
       <c r="X81" s="66"/>
@@ -14705,20 +14718,20 @@
       <c r="H82" s="531" t="s">
         <v>420</v>
       </c>
-      <c r="I82" s="641"/>
-      <c r="J82" s="677">
+      <c r="I82" s="612"/>
+      <c r="J82" s="648">
         <v>85</v>
       </c>
-      <c r="K82" s="678"/>
-      <c r="L82" s="676"/>
-      <c r="M82" s="584"/>
-      <c r="N82" s="585"/>
-      <c r="O82" s="585"/>
-      <c r="P82" s="585"/>
-      <c r="Q82" s="585"/>
-      <c r="R82" s="585"/>
-      <c r="S82" s="585"/>
-      <c r="T82" s="585"/>
+      <c r="K82" s="649"/>
+      <c r="L82" s="647"/>
+      <c r="M82" s="558"/>
+      <c r="N82" s="559"/>
+      <c r="O82" s="559"/>
+      <c r="P82" s="559"/>
+      <c r="Q82" s="559"/>
+      <c r="R82" s="559"/>
+      <c r="S82" s="559"/>
+      <c r="T82" s="559"/>
       <c r="V82" s="196"/>
       <c r="W82" s="196"/>
       <c r="X82" s="66"/>
@@ -14803,20 +14816,20 @@
         <v>43441</v>
       </c>
       <c r="H83" s="329"/>
-      <c r="I83" s="621"/>
+      <c r="I83" s="592"/>
       <c r="J83" s="276"/>
-      <c r="K83" s="662"/>
-      <c r="L83" s="649">
+      <c r="K83" s="633"/>
+      <c r="L83" s="620">
         <v>3000</v>
       </c>
-      <c r="M83" s="584"/>
-      <c r="N83" s="585"/>
-      <c r="O83" s="585"/>
-      <c r="P83" s="585"/>
-      <c r="Q83" s="585"/>
-      <c r="R83" s="585"/>
-      <c r="S83" s="585"/>
-      <c r="T83" s="585"/>
+      <c r="M83" s="558"/>
+      <c r="N83" s="559"/>
+      <c r="O83" s="559"/>
+      <c r="P83" s="559"/>
+      <c r="Q83" s="559"/>
+      <c r="R83" s="559"/>
+      <c r="S83" s="559"/>
+      <c r="T83" s="559"/>
       <c r="V83" s="196"/>
       <c r="W83" s="196"/>
       <c r="X83" s="66"/>
@@ -14897,20 +14910,20 @@
         <v>43442</v>
       </c>
       <c r="H84" s="348"/>
-      <c r="I84" s="627"/>
-      <c r="J84" s="653">
+      <c r="I84" s="598"/>
+      <c r="J84" s="624">
         <v>178</v>
       </c>
-      <c r="K84" s="663"/>
-      <c r="L84" s="658"/>
-      <c r="M84" s="584"/>
-      <c r="N84" s="584"/>
-      <c r="O84" s="584"/>
-      <c r="P84" s="584"/>
-      <c r="Q84" s="584"/>
-      <c r="R84" s="584"/>
-      <c r="S84" s="584"/>
-      <c r="T84" s="584"/>
+      <c r="K84" s="634"/>
+      <c r="L84" s="629"/>
+      <c r="M84" s="558"/>
+      <c r="N84" s="558"/>
+      <c r="O84" s="558"/>
+      <c r="P84" s="558"/>
+      <c r="Q84" s="558"/>
+      <c r="R84" s="558"/>
+      <c r="S84" s="558"/>
+      <c r="T84" s="558"/>
       <c r="V84" s="196"/>
       <c r="W84" s="196"/>
       <c r="X84" s="66"/>
@@ -14997,18 +15010,18 @@
       </c>
       <c r="I85" s="411"/>
       <c r="J85" s="411"/>
-      <c r="K85" s="636"/>
+      <c r="K85" s="607"/>
       <c r="L85" s="412">
         <v>300</v>
       </c>
-      <c r="M85" s="584"/>
-      <c r="N85" s="584"/>
-      <c r="O85" s="584"/>
-      <c r="P85" s="584"/>
-      <c r="Q85" s="584"/>
-      <c r="R85" s="584"/>
-      <c r="S85" s="584"/>
-      <c r="T85" s="584"/>
+      <c r="M85" s="558"/>
+      <c r="N85" s="558"/>
+      <c r="O85" s="558"/>
+      <c r="P85" s="558"/>
+      <c r="Q85" s="558"/>
+      <c r="R85" s="558"/>
+      <c r="S85" s="558"/>
+      <c r="T85" s="558"/>
       <c r="V85" s="196"/>
       <c r="W85" s="196"/>
       <c r="X85" s="66"/>
@@ -15095,20 +15108,20 @@
       <c r="H86" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="I86" s="624"/>
-      <c r="J86" s="679">
+      <c r="I86" s="595"/>
+      <c r="J86" s="650">
         <v>30</v>
       </c>
-      <c r="K86" s="680"/>
-      <c r="L86" s="651"/>
-      <c r="M86" s="584"/>
-      <c r="N86" s="584"/>
-      <c r="O86" s="584"/>
-      <c r="P86" s="584"/>
-      <c r="Q86" s="584"/>
-      <c r="R86" s="584"/>
-      <c r="S86" s="584"/>
-      <c r="T86" s="584"/>
+      <c r="K86" s="651"/>
+      <c r="L86" s="622"/>
+      <c r="M86" s="558"/>
+      <c r="N86" s="558"/>
+      <c r="O86" s="558"/>
+      <c r="P86" s="558"/>
+      <c r="Q86" s="558"/>
+      <c r="R86" s="558"/>
+      <c r="S86" s="558"/>
+      <c r="T86" s="558"/>
       <c r="V86" s="196"/>
       <c r="W86" s="196"/>
       <c r="X86" s="66"/>
@@ -15191,20 +15204,20 @@
       <c r="H87" s="334" t="s">
         <v>428</v>
       </c>
-      <c r="I87" s="624"/>
-      <c r="J87" s="681">
+      <c r="I87" s="595"/>
+      <c r="J87" s="652">
         <v>51</v>
       </c>
-      <c r="K87" s="682"/>
-      <c r="L87" s="651"/>
-      <c r="M87" s="584"/>
-      <c r="N87" s="584"/>
-      <c r="O87" s="584"/>
-      <c r="P87" s="584"/>
-      <c r="Q87" s="584"/>
-      <c r="R87" s="584"/>
-      <c r="S87" s="584"/>
-      <c r="T87" s="584"/>
+      <c r="K87" s="653"/>
+      <c r="L87" s="622"/>
+      <c r="M87" s="558"/>
+      <c r="N87" s="558"/>
+      <c r="O87" s="558"/>
+      <c r="P87" s="558"/>
+      <c r="Q87" s="558"/>
+      <c r="R87" s="558"/>
+      <c r="S87" s="558"/>
+      <c r="T87" s="558"/>
       <c r="V87" s="196"/>
       <c r="W87" s="196"/>
       <c r="X87" s="66"/>
@@ -15290,18 +15303,18 @@
       </c>
       <c r="I88" s="543"/>
       <c r="J88" s="543"/>
-      <c r="K88" s="642"/>
+      <c r="K88" s="613"/>
       <c r="L88" s="517">
         <v>11826.22</v>
       </c>
-      <c r="M88" s="586"/>
-      <c r="N88" s="584"/>
-      <c r="O88" s="584"/>
-      <c r="P88" s="584"/>
-      <c r="Q88" s="584"/>
-      <c r="R88" s="584"/>
-      <c r="S88" s="584"/>
-      <c r="T88" s="584"/>
+      <c r="M88" s="560"/>
+      <c r="N88" s="558"/>
+      <c r="O88" s="558"/>
+      <c r="P88" s="558"/>
+      <c r="Q88" s="558"/>
+      <c r="R88" s="558"/>
+      <c r="S88" s="558"/>
+      <c r="T88" s="558"/>
       <c r="V88" s="196"/>
       <c r="W88" s="196"/>
       <c r="X88" s="66"/>
@@ -15383,20 +15396,20 @@
       <c r="H89" s="544" t="s">
         <v>430</v>
       </c>
-      <c r="I89" s="621"/>
-      <c r="J89" s="652">
+      <c r="I89" s="592"/>
+      <c r="J89" s="623">
         <v>91</v>
       </c>
-      <c r="K89" s="661"/>
-      <c r="L89" s="613"/>
-      <c r="M89" s="584"/>
-      <c r="N89" s="584"/>
-      <c r="O89" s="584"/>
-      <c r="P89" s="584"/>
-      <c r="Q89" s="584"/>
-      <c r="R89" s="584"/>
-      <c r="S89" s="584"/>
-      <c r="T89" s="584"/>
+      <c r="K89" s="632"/>
+      <c r="L89" s="584"/>
+      <c r="M89" s="558"/>
+      <c r="N89" s="558"/>
+      <c r="O89" s="558"/>
+      <c r="P89" s="558"/>
+      <c r="Q89" s="558"/>
+      <c r="R89" s="558"/>
+      <c r="S89" s="558"/>
+      <c r="T89" s="558"/>
       <c r="V89" s="196"/>
       <c r="W89" s="196"/>
       <c r="X89" s="66"/>
@@ -15486,20 +15499,20 @@
       <c r="H90" s="544" t="s">
         <v>429</v>
       </c>
-      <c r="I90" s="621"/>
-      <c r="J90" s="685">
+      <c r="I90" s="592"/>
+      <c r="J90" s="656">
         <v>106</v>
       </c>
-      <c r="K90" s="686"/>
-      <c r="L90" s="613"/>
-      <c r="M90" s="584"/>
-      <c r="N90" s="584"/>
-      <c r="O90" s="584"/>
-      <c r="P90" s="584"/>
-      <c r="Q90" s="584"/>
-      <c r="R90" s="584"/>
-      <c r="S90" s="584"/>
-      <c r="T90" s="584"/>
+      <c r="K90" s="657"/>
+      <c r="L90" s="584"/>
+      <c r="M90" s="558"/>
+      <c r="N90" s="558"/>
+      <c r="O90" s="558"/>
+      <c r="P90" s="558"/>
+      <c r="Q90" s="558"/>
+      <c r="R90" s="558"/>
+      <c r="S90" s="558"/>
+      <c r="T90" s="558"/>
       <c r="V90" s="196"/>
       <c r="W90" s="196"/>
       <c r="X90" s="66"/>
@@ -15587,26 +15600,26 @@
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
-      <c r="G91" s="577">
+      <c r="G91" s="551">
         <v>43448</v>
       </c>
-      <c r="H91" s="578" t="s">
+      <c r="H91" s="552" t="s">
         <v>445</v>
       </c>
-      <c r="I91" s="683"/>
-      <c r="J91" s="685">
+      <c r="I91" s="654"/>
+      <c r="J91" s="656">
         <v>666</v>
       </c>
-      <c r="K91" s="686"/>
-      <c r="L91" s="684"/>
-      <c r="M91" s="584"/>
-      <c r="N91" s="584"/>
-      <c r="O91" s="584"/>
-      <c r="P91" s="584"/>
-      <c r="Q91" s="584"/>
-      <c r="R91" s="584"/>
-      <c r="S91" s="584"/>
-      <c r="T91" s="584"/>
+      <c r="K91" s="657"/>
+      <c r="L91" s="655"/>
+      <c r="M91" s="558"/>
+      <c r="N91" s="558"/>
+      <c r="O91" s="558"/>
+      <c r="P91" s="558"/>
+      <c r="Q91" s="558"/>
+      <c r="R91" s="558"/>
+      <c r="S91" s="558"/>
+      <c r="T91" s="558"/>
       <c r="V91" s="196"/>
       <c r="W91" s="196"/>
       <c r="X91" s="66"/>
@@ -15694,26 +15707,26 @@
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
-      <c r="G92" s="577">
+      <c r="G92" s="551">
         <v>43449</v>
       </c>
-      <c r="H92" s="578" t="s">
+      <c r="H92" s="552" t="s">
         <v>446</v>
       </c>
-      <c r="I92" s="683"/>
-      <c r="J92" s="685">
+      <c r="I92" s="654"/>
+      <c r="J92" s="656">
         <v>100</v>
       </c>
-      <c r="K92" s="686"/>
-      <c r="L92" s="684"/>
-      <c r="M92" s="584"/>
-      <c r="N92" s="586"/>
-      <c r="O92" s="586"/>
-      <c r="P92" s="586"/>
-      <c r="Q92" s="586"/>
-      <c r="R92" s="586"/>
-      <c r="S92" s="586"/>
-      <c r="T92" s="586"/>
+      <c r="K92" s="657"/>
+      <c r="L92" s="655"/>
+      <c r="M92" s="558"/>
+      <c r="N92" s="560"/>
+      <c r="O92" s="560"/>
+      <c r="P92" s="560"/>
+      <c r="Q92" s="560"/>
+      <c r="R92" s="560"/>
+      <c r="S92" s="560"/>
+      <c r="T92" s="560"/>
       <c r="V92" s="196"/>
       <c r="W92" s="196"/>
       <c r="X92" s="66"/>
@@ -15793,26 +15806,26 @@
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
-      <c r="G93" s="577">
+      <c r="G93" s="551">
         <v>43449</v>
       </c>
-      <c r="H93" s="578" t="s">
+      <c r="H93" s="552" t="s">
         <v>447</v>
       </c>
-      <c r="I93" s="683"/>
-      <c r="J93" s="685">
+      <c r="I93" s="654"/>
+      <c r="J93" s="656">
         <v>42</v>
       </c>
-      <c r="K93" s="686"/>
-      <c r="L93" s="684"/>
-      <c r="M93" s="584"/>
-      <c r="N93" s="584"/>
-      <c r="O93" s="584"/>
-      <c r="P93" s="584"/>
-      <c r="Q93" s="584"/>
-      <c r="R93" s="584"/>
-      <c r="S93" s="584"/>
-      <c r="T93" s="584"/>
+      <c r="K93" s="657"/>
+      <c r="L93" s="655"/>
+      <c r="M93" s="558"/>
+      <c r="N93" s="558"/>
+      <c r="O93" s="558"/>
+      <c r="P93" s="558"/>
+      <c r="Q93" s="558"/>
+      <c r="R93" s="558"/>
+      <c r="S93" s="558"/>
+      <c r="T93" s="558"/>
       <c r="V93" s="196"/>
       <c r="W93" s="196"/>
       <c r="X93" s="66"/>
@@ -15902,26 +15915,26 @@
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
-      <c r="G94" s="577">
+      <c r="G94" s="551">
         <v>43449</v>
       </c>
-      <c r="H94" s="578" t="s">
+      <c r="H94" s="552" t="s">
         <v>448</v>
       </c>
-      <c r="I94" s="683"/>
-      <c r="J94" s="687">
+      <c r="I94" s="654"/>
+      <c r="J94" s="658">
         <v>113</v>
       </c>
-      <c r="K94" s="688"/>
-      <c r="L94" s="684"/>
-      <c r="M94" s="584"/>
-      <c r="N94" s="584"/>
-      <c r="O94" s="584"/>
-      <c r="P94" s="584"/>
-      <c r="Q94" s="584"/>
-      <c r="R94" s="584"/>
-      <c r="S94" s="584"/>
-      <c r="T94" s="584"/>
+      <c r="K94" s="659"/>
+      <c r="L94" s="655"/>
+      <c r="M94" s="558"/>
+      <c r="N94" s="558"/>
+      <c r="O94" s="558"/>
+      <c r="P94" s="558"/>
+      <c r="Q94" s="558"/>
+      <c r="R94" s="558"/>
+      <c r="S94" s="558"/>
+      <c r="T94" s="558"/>
       <c r="V94" s="196"/>
       <c r="W94" s="196"/>
       <c r="X94" s="66"/>
@@ -16005,26 +16018,26 @@
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
-      <c r="G95" s="573">
+      <c r="G95" s="547">
         <v>43451</v>
       </c>
-      <c r="H95" s="574" t="s">
+      <c r="H95" s="548" t="s">
         <v>364</v>
       </c>
-      <c r="I95" s="575"/>
-      <c r="J95" s="575"/>
-      <c r="K95" s="643"/>
-      <c r="L95" s="576">
+      <c r="I95" s="549"/>
+      <c r="J95" s="549"/>
+      <c r="K95" s="614"/>
+      <c r="L95" s="550">
         <v>300</v>
       </c>
-      <c r="M95" s="584"/>
-      <c r="N95" s="584"/>
-      <c r="O95" s="584"/>
-      <c r="P95" s="584"/>
-      <c r="Q95" s="584"/>
-      <c r="R95" s="584"/>
-      <c r="S95" s="584"/>
-      <c r="T95" s="584"/>
+      <c r="M95" s="558"/>
+      <c r="N95" s="558"/>
+      <c r="O95" s="558"/>
+      <c r="P95" s="558"/>
+      <c r="Q95" s="558"/>
+      <c r="R95" s="558"/>
+      <c r="S95" s="558"/>
+      <c r="T95" s="558"/>
       <c r="V95" s="196"/>
       <c r="W95" s="196"/>
       <c r="X95" s="66"/>
@@ -16110,18 +16123,18 @@
       </c>
       <c r="I96" s="543"/>
       <c r="J96" s="543"/>
-      <c r="K96" s="642"/>
+      <c r="K96" s="613"/>
       <c r="L96" s="517">
         <v>10502</v>
       </c>
-      <c r="M96" s="586"/>
-      <c r="N96" s="584"/>
-      <c r="O96" s="584"/>
-      <c r="P96" s="584"/>
-      <c r="Q96" s="584"/>
-      <c r="R96" s="584"/>
-      <c r="S96" s="584"/>
-      <c r="T96" s="584"/>
+      <c r="M96" s="560"/>
+      <c r="N96" s="558"/>
+      <c r="O96" s="558"/>
+      <c r="P96" s="558"/>
+      <c r="Q96" s="558"/>
+      <c r="R96" s="558"/>
+      <c r="S96" s="558"/>
+      <c r="T96" s="558"/>
       <c r="V96" s="196"/>
       <c r="W96" s="196"/>
       <c r="X96" s="66"/>
@@ -16214,13 +16227,13 @@
       <c r="K97" s="58"/>
       <c r="L97" s="65"/>
       <c r="M97" s="69"/>
-      <c r="N97" s="584"/>
-      <c r="O97" s="584"/>
-      <c r="P97" s="584"/>
-      <c r="Q97" s="584"/>
-      <c r="R97" s="584"/>
-      <c r="S97" s="584"/>
-      <c r="T97" s="584"/>
+      <c r="N97" s="558"/>
+      <c r="O97" s="558"/>
+      <c r="P97" s="558"/>
+      <c r="Q97" s="558"/>
+      <c r="R97" s="558"/>
+      <c r="S97" s="558"/>
+      <c r="T97" s="558"/>
       <c r="V97" s="196"/>
       <c r="W97" s="196"/>
       <c r="X97" s="66"/>
@@ -16309,13 +16322,13 @@
       <c r="K98" s="58"/>
       <c r="L98" s="65"/>
       <c r="M98" s="69"/>
-      <c r="N98" s="584"/>
-      <c r="O98" s="584"/>
-      <c r="P98" s="584"/>
-      <c r="Q98" s="584"/>
-      <c r="R98" s="584"/>
-      <c r="S98" s="584"/>
-      <c r="T98" s="584"/>
+      <c r="N98" s="558"/>
+      <c r="O98" s="558"/>
+      <c r="P98" s="558"/>
+      <c r="Q98" s="558"/>
+      <c r="R98" s="558"/>
+      <c r="S98" s="558"/>
+      <c r="T98" s="558"/>
       <c r="V98" s="196"/>
       <c r="W98" s="196"/>
       <c r="X98" s="66"/>
@@ -16406,13 +16419,13 @@
       <c r="K99" s="58"/>
       <c r="L99" s="65"/>
       <c r="M99" s="69"/>
-      <c r="N99" s="584"/>
-      <c r="O99" s="584"/>
-      <c r="P99" s="584"/>
-      <c r="Q99" s="584"/>
-      <c r="R99" s="584"/>
-      <c r="S99" s="584"/>
-      <c r="T99" s="584"/>
+      <c r="N99" s="558"/>
+      <c r="O99" s="558"/>
+      <c r="P99" s="558"/>
+      <c r="Q99" s="558"/>
+      <c r="R99" s="558"/>
+      <c r="S99" s="558"/>
+      <c r="T99" s="558"/>
       <c r="V99" s="196"/>
       <c r="W99" s="196"/>
       <c r="X99" s="66"/>
@@ -16507,13 +16520,13 @@
       <c r="K100" s="58"/>
       <c r="L100" s="65"/>
       <c r="M100" s="69"/>
-      <c r="N100" s="586"/>
-      <c r="O100" s="586"/>
-      <c r="P100" s="586"/>
-      <c r="Q100" s="586"/>
-      <c r="R100" s="586"/>
-      <c r="S100" s="586"/>
-      <c r="T100" s="586"/>
+      <c r="N100" s="560"/>
+      <c r="O100" s="560"/>
+      <c r="P100" s="560"/>
+      <c r="Q100" s="560"/>
+      <c r="R100" s="560"/>
+      <c r="S100" s="560"/>
+      <c r="T100" s="560"/>
       <c r="V100" s="196"/>
       <c r="W100" s="196"/>
       <c r="X100" s="66"/>
@@ -17839,7 +17852,7 @@
       <c r="AV113" s="255" t="s">
         <v>436</v>
       </c>
-      <c r="AW113" s="572" t="s">
+      <c r="AW113" s="546" t="s">
         <v>440</v>
       </c>
       <c r="AX113" s="220" t="s">
@@ -48044,6 +48057,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AP1:BP1"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AH40:AI40"/>
     <mergeCell ref="N9:T9"/>
     <mergeCell ref="N11:P11"/>
@@ -48056,17 +48076,10 @@
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="AP1:BP1"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AH32:AI32"/>
     <mergeCell ref="AG35:AJ35"/>
     <mergeCell ref="AH29:AI29"/>
     <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AH25:AI25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Finanzas/3_Sept-Dic_2018.xlsx
+++ b/Finanzas/3_Sept-Dic_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="479">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1438,6 +1438,33 @@
   <si>
     <t>HISTORIA   DE  USO PREVIA</t>
   </si>
+  <si>
+    <t>Dinero a Papá para deposito señor Godos</t>
+  </si>
+  <si>
+    <t>Retiro para pagar casa Texcoco 1</t>
+  </si>
+  <si>
+    <t>Tarjeta PlayStation Jaime</t>
+  </si>
+  <si>
+    <t>Enana cooperó</t>
+  </si>
+  <si>
+    <t>Friday's Jaime</t>
+  </si>
+  <si>
+    <t>Retiro para tener efectivo en Acapulco</t>
+  </si>
+  <si>
+    <t>Sukiya con Jaime</t>
+  </si>
+  <si>
+    <t>SPIDERVERSE! :D</t>
+  </si>
+  <si>
+    <t>Pago Sr. Godos 1 - Texcoco</t>
+  </si>
 </sst>
 </file>
 
@@ -2065,7 +2092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -2997,11 +3024,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="713">
+  <cellXfs count="728">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4581,18 +4632,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="39" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4650,9 +4689,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4782,9 +4818,6 @@
     <xf numFmtId="0" fontId="1" fillId="38" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4912,12 +4945,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4977,11 +5004,107 @@
     <xf numFmtId="0" fontId="47" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5031,36 +5154,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5070,8 +5163,11 @@
     <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5369,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="R48" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Y55" sqref="Y55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5434,35 +5530,35 @@
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
-      <c r="AP1" s="699" t="s">
+      <c r="AP1" s="697" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="699"/>
-      <c r="AR1" s="699"/>
-      <c r="AS1" s="699"/>
-      <c r="AT1" s="699"/>
-      <c r="AU1" s="699"/>
-      <c r="AV1" s="699"/>
-      <c r="AW1" s="699"/>
-      <c r="AX1" s="699"/>
-      <c r="AY1" s="699"/>
-      <c r="AZ1" s="699"/>
-      <c r="BA1" s="699"/>
-      <c r="BB1" s="699"/>
-      <c r="BC1" s="699"/>
-      <c r="BD1" s="699"/>
-      <c r="BE1" s="699"/>
-      <c r="BF1" s="699"/>
-      <c r="BG1" s="699"/>
-      <c r="BH1" s="699"/>
-      <c r="BI1" s="699"/>
-      <c r="BJ1" s="699"/>
-      <c r="BK1" s="699"/>
-      <c r="BL1" s="699"/>
-      <c r="BM1" s="699"/>
-      <c r="BN1" s="699"/>
-      <c r="BO1" s="699"/>
-      <c r="BP1" s="699"/>
+      <c r="AQ1" s="697"/>
+      <c r="AR1" s="697"/>
+      <c r="AS1" s="697"/>
+      <c r="AT1" s="697"/>
+      <c r="AU1" s="697"/>
+      <c r="AV1" s="697"/>
+      <c r="AW1" s="697"/>
+      <c r="AX1" s="697"/>
+      <c r="AY1" s="697"/>
+      <c r="AZ1" s="697"/>
+      <c r="BA1" s="697"/>
+      <c r="BB1" s="697"/>
+      <c r="BC1" s="697"/>
+      <c r="BD1" s="697"/>
+      <c r="BE1" s="697"/>
+      <c r="BF1" s="697"/>
+      <c r="BG1" s="697"/>
+      <c r="BH1" s="697"/>
+      <c r="BI1" s="697"/>
+      <c r="BJ1" s="697"/>
+      <c r="BK1" s="697"/>
+      <c r="BL1" s="697"/>
+      <c r="BM1" s="697"/>
+      <c r="BN1" s="697"/>
+      <c r="BO1" s="697"/>
+      <c r="BP1" s="697"/>
       <c r="BS1" s="1"/>
     </row>
     <row r="2" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5480,19 +5576,19 @@
       <c r="F2" s="26"/>
       <c r="G2" s="60"/>
       <c r="H2" s="51"/>
-      <c r="L2" s="660" t="s">
+      <c r="L2" s="652" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="661"/>
-      <c r="N2" s="661"/>
-      <c r="O2" s="661"/>
-      <c r="P2" s="661"/>
-      <c r="Q2" s="661"/>
-      <c r="R2" s="661"/>
-      <c r="S2" s="661"/>
-      <c r="T2" s="661"/>
-      <c r="U2" s="661"/>
-      <c r="V2" s="662"/>
+      <c r="M2" s="653"/>
+      <c r="N2" s="653"/>
+      <c r="O2" s="653"/>
+      <c r="P2" s="653"/>
+      <c r="Q2" s="653"/>
+      <c r="R2" s="653"/>
+      <c r="S2" s="653"/>
+      <c r="T2" s="653"/>
+      <c r="U2" s="653"/>
+      <c r="V2" s="654"/>
       <c r="W2" s="66"/>
       <c r="X2" s="59"/>
       <c r="Y2" s="59"/>
@@ -5608,21 +5704,21 @@
       <c r="D3" s="44"/>
       <c r="E3" s="31">
         <f>Q3-C3</f>
-        <v>76160.160000000003</v>
+        <v>55160.160000000003</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="60"/>
       <c r="H3" s="51"/>
       <c r="L3" s="61"/>
-      <c r="M3" s="553"/>
-      <c r="N3" s="553"/>
+      <c r="M3" s="549"/>
+      <c r="N3" s="549"/>
       <c r="O3" s="9"/>
       <c r="P3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="11">
         <f>(SUM(C3,(L11:L514)))-(SUM((J11:J513),(I11:I514),(K11:K514)))</f>
-        <v>100303.16</v>
+        <v>79303.16</v>
       </c>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -5715,14 +5811,14 @@
       <c r="G4" s="60"/>
       <c r="H4" s="51"/>
       <c r="L4" s="61"/>
-      <c r="M4" s="553"/>
-      <c r="N4" s="553"/>
+      <c r="M4" s="549"/>
+      <c r="N4" s="549"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="666">
+      <c r="R4" s="658">
         <f>Q3-T10</f>
-        <v>98717.16</v>
+        <v>75581.260000000009</v>
       </c>
       <c r="S4" s="36"/>
       <c r="T4" s="36"/>
@@ -5731,7 +5827,7 @@
       </c>
       <c r="V4" s="14">
         <f>SUM(Q3,AE9,V7)-T10</f>
-        <v>178886.66</v>
+        <v>176306.26</v>
       </c>
       <c r="W4" s="66"/>
       <c r="X4" s="59"/>
@@ -5798,42 +5894,42 @@
       </c>
       <c r="BT4" s="154">
         <f>(SUM((BI3:BI519)))-(SUM((BM3:BM519)))</f>
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="BU4" s="182"/>
     </row>
     <row r="5" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="688" t="s">
+      <c r="B5" s="712" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="689"/>
-      <c r="D5" s="689"/>
-      <c r="E5" s="689"/>
-      <c r="F5" s="689"/>
-      <c r="G5" s="690"/>
+      <c r="C5" s="713"/>
+      <c r="D5" s="713"/>
+      <c r="E5" s="713"/>
+      <c r="F5" s="713"/>
+      <c r="G5" s="714"/>
       <c r="H5" s="51"/>
-      <c r="L5" s="663" t="s">
+      <c r="L5" s="655" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="664"/>
-      <c r="N5" s="664"/>
-      <c r="O5" s="664"/>
-      <c r="P5" s="664"/>
-      <c r="Q5" s="664"/>
-      <c r="R5" s="664"/>
-      <c r="S5" s="664"/>
-      <c r="T5" s="664"/>
-      <c r="U5" s="664"/>
-      <c r="V5" s="665"/>
-      <c r="W5" s="700" t="s">
+      <c r="M5" s="656"/>
+      <c r="N5" s="656"/>
+      <c r="O5" s="656"/>
+      <c r="P5" s="656"/>
+      <c r="Q5" s="656"/>
+      <c r="R5" s="656"/>
+      <c r="S5" s="656"/>
+      <c r="T5" s="656"/>
+      <c r="U5" s="656"/>
+      <c r="V5" s="657"/>
+      <c r="W5" s="698" t="s">
         <v>139</v>
       </c>
-      <c r="X5" s="701"/>
-      <c r="Y5" s="703" t="s">
+      <c r="X5" s="699"/>
+      <c r="Y5" s="701" t="s">
         <v>92</v>
       </c>
-      <c r="Z5" s="704"/>
+      <c r="Z5" s="702"/>
       <c r="AM5" s="223">
         <v>43346</v>
       </c>
@@ -5908,25 +6004,25 @@
     </row>
     <row r="6" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
-      <c r="B6" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="692"/>
-      <c r="D6" s="692"/>
-      <c r="E6" s="692"/>
-      <c r="F6" s="692"/>
-      <c r="G6" s="693"/>
+      <c r="B6" s="715" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="716"/>
+      <c r="D6" s="716"/>
+      <c r="E6" s="716"/>
+      <c r="F6" s="716"/>
+      <c r="G6" s="717"/>
       <c r="H6" s="51"/>
       <c r="L6" s="62"/>
-      <c r="M6" s="554"/>
-      <c r="N6" s="554"/>
+      <c r="M6" s="550"/>
+      <c r="N6" s="550"/>
       <c r="O6" s="15"/>
       <c r="P6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="16">
         <f>(SUM((AJ11:AJ301),(AP3:AP500),(I11:I514)))-(SUM((AK11:AK501)))</f>
-        <v>444.5</v>
+        <v>1000</v>
       </c>
       <c r="R6" s="37"/>
       <c r="S6" s="37"/>
@@ -6015,8 +6111,8 @@
       <c r="G7" s="63"/>
       <c r="H7" s="52"/>
       <c r="L7" s="64"/>
-      <c r="M7" s="555"/>
-      <c r="N7" s="555"/>
+      <c r="M7" s="551"/>
+      <c r="N7" s="551"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -6028,7 +6124,7 @@
       </c>
       <c r="V7" s="20">
         <f>SUM(X7,Q6)</f>
-        <v>444.5</v>
+        <v>1000</v>
       </c>
       <c r="W7" s="98"/>
       <c r="X7" s="99">
@@ -6170,58 +6266,58 @@
       <c r="BP8" s="271"/>
     </row>
     <row r="9" spans="1:73" s="164" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="694" t="s">
+      <c r="A9" s="718" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="695"/>
-      <c r="C9" s="695"/>
-      <c r="D9" s="695"/>
+      <c r="B9" s="719"/>
+      <c r="C9" s="719"/>
+      <c r="D9" s="719"/>
       <c r="E9" s="155">
         <f>SUM(E10:E494)</f>
         <v>12188</v>
       </c>
-      <c r="G9" s="696" t="s">
+      <c r="G9" s="720" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="697"/>
-      <c r="I9" s="697"/>
-      <c r="J9" s="697"/>
-      <c r="K9" s="697"/>
-      <c r="L9" s="698"/>
-      <c r="M9" s="560"/>
-      <c r="N9" s="683" t="s">
+      <c r="H9" s="721"/>
+      <c r="I9" s="721"/>
+      <c r="J9" s="721"/>
+      <c r="K9" s="721"/>
+      <c r="L9" s="722"/>
+      <c r="M9" s="556"/>
+      <c r="N9" s="707" t="s">
         <v>455</v>
       </c>
-      <c r="O9" s="684"/>
-      <c r="P9" s="684"/>
-      <c r="Q9" s="684"/>
-      <c r="R9" s="684"/>
-      <c r="S9" s="684"/>
-      <c r="T9" s="685"/>
-      <c r="V9" s="705" t="s">
+      <c r="O9" s="708"/>
+      <c r="P9" s="708"/>
+      <c r="Q9" s="708"/>
+      <c r="R9" s="708"/>
+      <c r="S9" s="708"/>
+      <c r="T9" s="709"/>
+      <c r="V9" s="703" t="s">
         <v>91</v>
       </c>
-      <c r="W9" s="706"/>
-      <c r="X9" s="706"/>
-      <c r="Y9" s="706"/>
-      <c r="Z9" s="706"/>
-      <c r="AA9" s="706"/>
-      <c r="AB9" s="706"/>
-      <c r="AC9" s="707" t="s">
+      <c r="W9" s="704"/>
+      <c r="X9" s="704"/>
+      <c r="Y9" s="704"/>
+      <c r="Z9" s="704"/>
+      <c r="AA9" s="704"/>
+      <c r="AB9" s="704"/>
+      <c r="AC9" s="705" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="708"/>
+      <c r="AD9" s="706"/>
       <c r="AE9" s="101">
-        <f>SUM(AE11:AE500)</f>
-        <v>79725</v>
-      </c>
-      <c r="AG9" s="700" t="s">
+        <f>SUM(AE11:AE501)</f>
+        <v>99725</v>
+      </c>
+      <c r="AG9" s="698" t="s">
         <v>143</v>
       </c>
-      <c r="AH9" s="701"/>
-      <c r="AI9" s="701"/>
-      <c r="AJ9" s="701"/>
-      <c r="AK9" s="702"/>
+      <c r="AH9" s="699"/>
+      <c r="AI9" s="699"/>
+      <c r="AJ9" s="699"/>
+      <c r="AK9" s="700"/>
       <c r="AM9" s="223">
         <v>43350</v>
       </c>
@@ -6310,35 +6406,35 @@
       <c r="I10" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="615" t="s">
+      <c r="J10" s="609" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="616" t="s">
+      <c r="K10" s="610" t="s">
         <v>466</v>
       </c>
       <c r="L10" s="327" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="556"/>
-      <c r="N10" s="675" t="s">
+      <c r="M10" s="552"/>
+      <c r="N10" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="676">
-        <f>SUM(T19)</f>
-        <v>1220</v>
-      </c>
-      <c r="P10" s="712">
+      <c r="O10" s="668">
+        <f>SUM(T11,T21)</f>
+        <v>2863</v>
+      </c>
+      <c r="P10" s="673">
         <f>O10*0.05</f>
-        <v>61</v>
-      </c>
-      <c r="Q10" s="581"/>
-      <c r="R10" s="561"/>
-      <c r="S10" s="580" t="s">
+        <v>143.15</v>
+      </c>
+      <c r="Q10" s="576"/>
+      <c r="R10" s="557"/>
+      <c r="S10" s="575" t="s">
         <v>454</v>
       </c>
-      <c r="T10" s="579">
-        <f>(SUM(T20))</f>
-        <v>1586</v>
+      <c r="T10" s="574">
+        <f>(SUM(T22))</f>
+        <v>3721.9</v>
       </c>
       <c r="V10" s="189" t="s">
         <v>5</v>
@@ -6469,26 +6565,26 @@
       <c r="H11" s="340" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="591">
+      <c r="I11" s="586">
         <v>1500</v>
       </c>
-      <c r="J11" s="623"/>
-      <c r="K11" s="625"/>
-      <c r="L11" s="618"/>
-      <c r="M11" s="557"/>
-      <c r="N11" s="686" t="s">
+      <c r="J11" s="617"/>
+      <c r="K11" s="619"/>
+      <c r="L11" s="612"/>
+      <c r="M11" s="553"/>
+      <c r="N11" s="710" t="s">
         <v>469</v>
       </c>
-      <c r="O11" s="687"/>
-      <c r="P11" s="687"/>
-      <c r="Q11" s="677"/>
-      <c r="R11" s="678" t="s">
+      <c r="O11" s="711"/>
+      <c r="P11" s="711"/>
+      <c r="Q11" s="669"/>
+      <c r="R11" s="670" t="s">
         <v>468</v>
       </c>
-      <c r="S11" s="679" t="s">
+      <c r="S11" s="671" t="s">
         <v>462</v>
       </c>
-      <c r="T11" s="680">
+      <c r="T11" s="672">
         <v>0</v>
       </c>
       <c r="V11" s="423" t="s">
@@ -6618,31 +6714,31 @@
       <c r="H12" s="328" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="574"/>
+      <c r="I12" s="569"/>
       <c r="J12" s="276">
         <v>400</v>
       </c>
-      <c r="K12" s="626"/>
-      <c r="L12" s="619"/>
-      <c r="M12" s="557"/>
-      <c r="N12" s="568" t="s">
+      <c r="K12" s="620"/>
+      <c r="L12" s="613"/>
+      <c r="M12" s="553"/>
+      <c r="N12" s="564" t="s">
         <v>463</v>
       </c>
-      <c r="O12" s="569">
-        <v>0</v>
-      </c>
-      <c r="P12" s="569"/>
-      <c r="Q12" s="585" t="s">
+      <c r="O12" s="565">
+        <v>0</v>
+      </c>
+      <c r="P12" s="565"/>
+      <c r="Q12" s="580" t="s">
         <v>464</v>
       </c>
-      <c r="R12" s="585">
+      <c r="R12" s="580">
         <f>SUM(R6:R10)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="585" t="s">
+      <c r="S12" s="580" t="s">
         <v>465</v>
       </c>
-      <c r="T12" s="590">
+      <c r="T12" s="585">
         <f>R12*1.3</f>
         <v>0</v>
       </c>
@@ -6671,10 +6767,10 @@
       <c r="AG12" s="159">
         <v>43356</v>
       </c>
-      <c r="AH12" s="681" t="s">
+      <c r="AH12" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI12" s="682"/>
+      <c r="AI12" s="696"/>
       <c r="AJ12" s="169">
         <v>11052</v>
       </c>
@@ -6762,32 +6858,32 @@
       <c r="H13" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="574"/>
+      <c r="I13" s="569"/>
       <c r="J13" s="276">
         <v>200</v>
       </c>
-      <c r="K13" s="626"/>
-      <c r="L13" s="619"/>
-      <c r="M13" s="557"/>
-      <c r="N13" s="565" t="s">
+      <c r="K13" s="620"/>
+      <c r="L13" s="613"/>
+      <c r="M13" s="553"/>
+      <c r="N13" s="561" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="563" t="s">
+      <c r="O13" s="559" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="565" t="s">
+      <c r="P13" s="561" t="s">
         <v>450</v>
       </c>
-      <c r="Q13" s="564" t="s">
+      <c r="Q13" s="560" t="s">
         <v>451</v>
       </c>
-      <c r="R13" s="565" t="s">
+      <c r="R13" s="561" t="s">
         <v>453</v>
       </c>
-      <c r="S13" s="667" t="s">
+      <c r="S13" s="659" t="s">
         <v>452</v>
       </c>
-      <c r="T13" s="668" t="s">
+      <c r="T13" s="660" t="s">
         <v>467</v>
       </c>
       <c r="V13" s="73">
@@ -6905,29 +7001,29 @@
       <c r="H14" s="328" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="574"/>
+      <c r="I14" s="569"/>
       <c r="J14" s="276">
         <v>30</v>
       </c>
-      <c r="K14" s="626"/>
-      <c r="L14" s="619"/>
-      <c r="M14" s="557"/>
+      <c r="K14" s="620"/>
+      <c r="L14" s="613"/>
+      <c r="M14" s="553"/>
       <c r="N14" s="453">
         <v>43452</v>
       </c>
-      <c r="O14" s="573"/>
-      <c r="P14" s="576" t="s">
+      <c r="O14" s="568"/>
+      <c r="P14" s="571" t="s">
         <v>457</v>
       </c>
-      <c r="Q14" s="586">
+      <c r="Q14" s="581">
         <v>119</v>
       </c>
       <c r="R14" s="422">
         <f>Q14-(SUM(S14,T14))</f>
         <v>119</v>
       </c>
-      <c r="S14" s="669"/>
-      <c r="T14" s="670"/>
+      <c r="S14" s="661"/>
+      <c r="T14" s="662"/>
       <c r="V14" s="73">
         <v>43417</v>
       </c>
@@ -7048,29 +7144,29 @@
       <c r="H15" s="328" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="574">
+      <c r="I15" s="569">
         <v>3500</v>
       </c>
       <c r="J15" s="276"/>
-      <c r="K15" s="626"/>
-      <c r="L15" s="619"/>
-      <c r="M15" s="557"/>
+      <c r="K15" s="620"/>
+      <c r="L15" s="613"/>
+      <c r="M15" s="553"/>
       <c r="N15" s="341">
         <v>43452</v>
       </c>
-      <c r="O15" s="574"/>
-      <c r="P15" s="577" t="s">
+      <c r="O15" s="569"/>
+      <c r="P15" s="572" t="s">
         <v>458</v>
       </c>
-      <c r="Q15" s="587">
-        <v>229</v>
+      <c r="Q15" s="582">
+        <v>226</v>
       </c>
       <c r="R15" s="422">
-        <f t="shared" ref="R15:R17" si="8">Q15-(SUM(S15,T15))</f>
-        <v>229</v>
-      </c>
-      <c r="S15" s="671"/>
-      <c r="T15" s="672"/>
+        <f t="shared" ref="R15:R20" si="8">Q15-(SUM(S15,T15))</f>
+        <v>226</v>
+      </c>
+      <c r="S15" s="663"/>
+      <c r="T15" s="664"/>
       <c r="V15" s="73">
         <v>43117</v>
       </c>
@@ -7195,29 +7291,29 @@
       <c r="H16" s="328" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="574"/>
+      <c r="I16" s="569"/>
       <c r="J16" s="276">
         <v>692</v>
       </c>
-      <c r="K16" s="626"/>
-      <c r="L16" s="619"/>
-      <c r="M16" s="557"/>
+      <c r="K16" s="620"/>
+      <c r="L16" s="613"/>
+      <c r="M16" s="553"/>
       <c r="N16" s="341">
         <v>43454</v>
       </c>
-      <c r="O16" s="574"/>
-      <c r="P16" s="577" t="s">
+      <c r="O16" s="569"/>
+      <c r="P16" s="572" t="s">
         <v>456</v>
       </c>
-      <c r="Q16" s="587">
+      <c r="Q16" s="582">
         <v>749</v>
       </c>
       <c r="R16" s="422">
         <f t="shared" si="8"/>
         <v>749</v>
       </c>
-      <c r="S16" s="671"/>
-      <c r="T16" s="672"/>
+      <c r="S16" s="663"/>
+      <c r="T16" s="664"/>
       <c r="V16" s="73">
         <v>43236</v>
       </c>
@@ -7243,10 +7339,10 @@
       <c r="AG16" s="159">
         <v>43370</v>
       </c>
-      <c r="AH16" s="681" t="s">
+      <c r="AH16" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI16" s="682"/>
+      <c r="AI16" s="696"/>
       <c r="AJ16" s="167">
         <v>11052</v>
       </c>
@@ -7334,29 +7430,29 @@
       <c r="H17" s="328" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="574"/>
+      <c r="I17" s="569"/>
       <c r="J17" s="276">
         <v>40.67</v>
       </c>
-      <c r="K17" s="626"/>
-      <c r="L17" s="619"/>
-      <c r="M17" s="557"/>
+      <c r="K17" s="620"/>
+      <c r="L17" s="613"/>
+      <c r="M17" s="553"/>
       <c r="N17" s="341">
         <v>43454</v>
       </c>
-      <c r="O17" s="574"/>
-      <c r="P17" s="577" t="s">
+      <c r="O17" s="569"/>
+      <c r="P17" s="572" t="s">
         <v>460</v>
       </c>
-      <c r="Q17" s="587">
-        <v>123</v>
+      <c r="Q17" s="582">
+        <v>131</v>
       </c>
       <c r="R17" s="422">
         <f t="shared" si="8"/>
-        <v>123</v>
-      </c>
-      <c r="S17" s="671"/>
-      <c r="T17" s="672"/>
+        <v>131</v>
+      </c>
+      <c r="S17" s="663"/>
+      <c r="T17" s="664"/>
       <c r="V17" s="73">
         <v>43253</v>
       </c>
@@ -7489,20 +7585,29 @@
       <c r="H18" s="328" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="574"/>
+      <c r="I18" s="569"/>
       <c r="J18" s="276">
         <v>1948</v>
       </c>
-      <c r="K18" s="626"/>
-      <c r="L18" s="619"/>
-      <c r="M18" s="557"/>
-      <c r="N18" s="570"/>
-      <c r="O18" s="575"/>
-      <c r="P18" s="578"/>
-      <c r="Q18" s="588"/>
-      <c r="R18" s="571"/>
-      <c r="S18" s="673"/>
-      <c r="T18" s="674"/>
+      <c r="K18" s="620"/>
+      <c r="L18" s="613"/>
+      <c r="M18" s="553"/>
+      <c r="N18" s="353">
+        <v>43455</v>
+      </c>
+      <c r="O18" s="594"/>
+      <c r="P18" s="690" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q18" s="691">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="692">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="S18" s="693"/>
+      <c r="T18" s="694"/>
       <c r="V18" s="73">
         <v>43269</v>
       </c>
@@ -7630,27 +7735,29 @@
       <c r="H19" s="329" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="592">
+      <c r="I19" s="587">
         <v>2000</v>
       </c>
       <c r="J19" s="276"/>
-      <c r="K19" s="626"/>
-      <c r="L19" s="620"/>
-      <c r="M19" s="558"/>
-      <c r="N19" s="566"/>
-      <c r="O19" s="562"/>
-      <c r="P19" s="581"/>
-      <c r="Q19" s="589"/>
-      <c r="R19" s="582" t="s">
-        <v>461</v>
-      </c>
-      <c r="S19" s="583" t="s">
-        <v>462</v>
-      </c>
-      <c r="T19" s="567">
-        <f>SUM(Q14:Q18)</f>
-        <v>1220</v>
-      </c>
+      <c r="K19" s="620"/>
+      <c r="L19" s="614"/>
+      <c r="M19" s="554"/>
+      <c r="N19" s="353">
+        <v>43460</v>
+      </c>
+      <c r="O19" s="594"/>
+      <c r="P19" s="690" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q19" s="691">
+        <v>413</v>
+      </c>
+      <c r="R19" s="692">
+        <f t="shared" si="8"/>
+        <v>413</v>
+      </c>
+      <c r="S19" s="693"/>
+      <c r="T19" s="694"/>
       <c r="V19" s="73">
         <v>43274</v>
       </c>
@@ -7676,10 +7783,10 @@
       <c r="AG19" s="159">
         <v>43385</v>
       </c>
-      <c r="AH19" s="681" t="s">
+      <c r="AH19" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI19" s="682"/>
+      <c r="AI19" s="696"/>
       <c r="AJ19" s="167">
         <v>11052</v>
       </c>
@@ -7775,35 +7882,29 @@
       <c r="H20" s="345" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="617"/>
-      <c r="J20" s="624">
+      <c r="I20" s="611"/>
+      <c r="J20" s="618">
         <v>132</v>
       </c>
-      <c r="K20" s="627"/>
-      <c r="L20" s="621"/>
-      <c r="M20" s="558"/>
-      <c r="N20" s="568" t="s">
-        <v>463</v>
-      </c>
-      <c r="O20" s="569">
-        <f>SUM(S14:S18)+SUM(T14:T18)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="569"/>
-      <c r="Q20" s="585" t="s">
-        <v>464</v>
-      </c>
-      <c r="R20" s="585">
-        <f>SUM(R14:R18)</f>
-        <v>1220</v>
-      </c>
-      <c r="S20" s="585" t="s">
-        <v>465</v>
-      </c>
-      <c r="T20" s="590">
-        <f>R20*1.3</f>
-        <v>1586</v>
-      </c>
+      <c r="K20" s="621"/>
+      <c r="L20" s="615"/>
+      <c r="M20" s="554"/>
+      <c r="N20" s="726">
+        <v>43460</v>
+      </c>
+      <c r="O20" s="570"/>
+      <c r="P20" s="573" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q20" s="583">
+        <v>225</v>
+      </c>
+      <c r="R20" s="566">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="S20" s="665"/>
+      <c r="T20" s="666"/>
       <c r="V20" s="73">
         <v>43280</v>
       </c>
@@ -7915,18 +8016,25 @@
       </c>
       <c r="I21" s="332"/>
       <c r="J21" s="332"/>
-      <c r="K21" s="594"/>
+      <c r="K21" s="589"/>
       <c r="L21" s="333">
         <v>11052</v>
       </c>
-      <c r="M21" s="560"/>
-      <c r="N21" s="557"/>
-      <c r="O21" s="557"/>
-      <c r="P21" s="557"/>
-      <c r="Q21" s="557"/>
-      <c r="R21" s="557"/>
-      <c r="S21" s="557"/>
-      <c r="T21" s="557"/>
+      <c r="M21" s="556"/>
+      <c r="N21" s="562"/>
+      <c r="O21" s="558"/>
+      <c r="P21" s="576"/>
+      <c r="Q21" s="584"/>
+      <c r="R21" s="577" t="s">
+        <v>461</v>
+      </c>
+      <c r="S21" s="578" t="s">
+        <v>462</v>
+      </c>
+      <c r="T21" s="563">
+        <f>SUM(Q14:Q20)</f>
+        <v>2863</v>
+      </c>
       <c r="V21" s="73">
         <v>43299</v>
       </c>
@@ -8038,20 +8146,35 @@
       <c r="H22" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="595"/>
+      <c r="I22" s="590"/>
       <c r="J22" s="276">
         <v>30</v>
       </c>
       <c r="K22" s="459"/>
-      <c r="L22" s="622"/>
-      <c r="M22" s="558"/>
-      <c r="N22" s="557"/>
-      <c r="O22" s="557"/>
-      <c r="P22" s="557"/>
-      <c r="Q22" s="557"/>
-      <c r="R22" s="557"/>
-      <c r="S22" s="557"/>
-      <c r="T22" s="557"/>
+      <c r="L22" s="616"/>
+      <c r="M22" s="554"/>
+      <c r="N22" s="564" t="s">
+        <v>463</v>
+      </c>
+      <c r="O22" s="565">
+        <f>SUM(S14:S20)+SUM(T14:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="565"/>
+      <c r="Q22" s="580" t="s">
+        <v>464</v>
+      </c>
+      <c r="R22" s="580">
+        <f>SUM(R14:R20)</f>
+        <v>2863</v>
+      </c>
+      <c r="S22" s="580" t="s">
+        <v>465</v>
+      </c>
+      <c r="T22" s="585">
+        <f>R22*1.3</f>
+        <v>3721.9</v>
+      </c>
       <c r="V22" s="73">
         <v>43306</v>
       </c>
@@ -8165,18 +8288,18 @@
       </c>
       <c r="I23" s="337"/>
       <c r="J23" s="337"/>
-      <c r="K23" s="596"/>
+      <c r="K23" s="591"/>
       <c r="L23" s="338">
         <v>800</v>
       </c>
-      <c r="M23" s="558"/>
-      <c r="N23" s="558"/>
-      <c r="O23" s="558"/>
-      <c r="P23" s="558"/>
-      <c r="Q23" s="558"/>
-      <c r="R23" s="558"/>
-      <c r="S23" s="558"/>
-      <c r="T23" s="558"/>
+      <c r="M23" s="554"/>
+      <c r="N23" s="553"/>
+      <c r="O23" s="553"/>
+      <c r="P23" s="553"/>
+      <c r="Q23" s="553"/>
+      <c r="R23" s="553"/>
+      <c r="S23" s="553"/>
+      <c r="T23" s="553"/>
       <c r="V23" s="73">
         <v>43312</v>
       </c>
@@ -8202,10 +8325,10 @@
       <c r="AG23" s="159">
         <v>43402</v>
       </c>
-      <c r="AH23" s="681" t="s">
+      <c r="AH23" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI23" s="682"/>
+      <c r="AI23" s="696"/>
       <c r="AJ23" s="167">
         <v>11052</v>
       </c>
@@ -8281,20 +8404,20 @@
       <c r="H24" s="351" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="597">
+      <c r="I24" s="592">
         <v>1500</v>
       </c>
-      <c r="J24" s="623"/>
+      <c r="J24" s="617"/>
       <c r="K24" s="352"/>
-      <c r="L24" s="628"/>
-      <c r="M24" s="558"/>
-      <c r="N24" s="558"/>
-      <c r="O24" s="558"/>
-      <c r="P24" s="558"/>
-      <c r="Q24" s="558"/>
-      <c r="R24" s="558"/>
-      <c r="S24" s="558"/>
-      <c r="T24" s="558"/>
+      <c r="L24" s="622"/>
+      <c r="M24" s="554"/>
+      <c r="N24" s="553"/>
+      <c r="O24" s="553"/>
+      <c r="P24" s="553"/>
+      <c r="Q24" s="553"/>
+      <c r="R24" s="553"/>
+      <c r="S24" s="553"/>
+      <c r="T24" s="553"/>
       <c r="V24" s="73">
         <v>43331</v>
       </c>
@@ -8320,10 +8443,10 @@
       <c r="AG24" s="159">
         <v>43405</v>
       </c>
-      <c r="AH24" s="681" t="s">
+      <c r="AH24" s="695" t="s">
         <v>340</v>
       </c>
-      <c r="AI24" s="682"/>
+      <c r="AI24" s="696"/>
       <c r="AJ24" s="167">
         <v>19187</v>
       </c>
@@ -8402,20 +8525,20 @@
       <c r="H25" s="329" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="592"/>
+      <c r="I25" s="587"/>
       <c r="J25" s="276">
         <v>94.28</v>
       </c>
       <c r="K25" s="343"/>
-      <c r="L25" s="620"/>
-      <c r="M25" s="558"/>
-      <c r="N25" s="560"/>
-      <c r="O25" s="560"/>
-      <c r="P25" s="560"/>
-      <c r="Q25" s="560"/>
-      <c r="R25" s="560"/>
-      <c r="S25" s="560"/>
-      <c r="T25" s="560"/>
+      <c r="L25" s="614"/>
+      <c r="M25" s="554"/>
+      <c r="N25" s="554"/>
+      <c r="O25" s="554"/>
+      <c r="P25" s="554"/>
+      <c r="Q25" s="554"/>
+      <c r="R25" s="554"/>
+      <c r="S25" s="554"/>
+      <c r="T25" s="554"/>
       <c r="V25" s="73">
         <v>43335</v>
       </c>
@@ -8441,10 +8564,10 @@
       <c r="AG25" s="159">
         <v>43405</v>
       </c>
-      <c r="AH25" s="681" t="s">
+      <c r="AH25" s="695" t="s">
         <v>341</v>
       </c>
-      <c r="AI25" s="682"/>
+      <c r="AI25" s="696"/>
       <c r="AJ25" s="167">
         <v>6798</v>
       </c>
@@ -8523,20 +8646,20 @@
       <c r="H26" s="348" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="598"/>
-      <c r="J26" s="631">
+      <c r="I26" s="593"/>
+      <c r="J26" s="625">
         <v>165</v>
       </c>
       <c r="K26" s="349"/>
-      <c r="L26" s="629"/>
-      <c r="M26" s="558"/>
-      <c r="N26" s="558"/>
-      <c r="O26" s="558"/>
-      <c r="P26" s="558"/>
-      <c r="Q26" s="558"/>
-      <c r="R26" s="558"/>
-      <c r="S26" s="558"/>
-      <c r="T26" s="558"/>
+      <c r="L26" s="623"/>
+      <c r="M26" s="554"/>
+      <c r="N26" s="554"/>
+      <c r="O26" s="554"/>
+      <c r="P26" s="554"/>
+      <c r="Q26" s="554"/>
+      <c r="R26" s="554"/>
+      <c r="S26" s="554"/>
+      <c r="T26" s="554"/>
       <c r="V26" s="73">
         <v>43344</v>
       </c>
@@ -8642,20 +8765,20 @@
       <c r="H27" s="354" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="599">
+      <c r="I27" s="594">
         <v>1000</v>
       </c>
-      <c r="J27" s="624"/>
-      <c r="K27" s="572"/>
-      <c r="L27" s="630"/>
-      <c r="M27" s="557"/>
-      <c r="N27" s="558"/>
-      <c r="O27" s="558"/>
-      <c r="P27" s="558"/>
-      <c r="Q27" s="558"/>
-      <c r="R27" s="558"/>
-      <c r="S27" s="558"/>
-      <c r="T27" s="558"/>
+      <c r="J27" s="618"/>
+      <c r="K27" s="567"/>
+      <c r="L27" s="624"/>
+      <c r="M27" s="553"/>
+      <c r="N27" s="556"/>
+      <c r="O27" s="556"/>
+      <c r="P27" s="556"/>
+      <c r="Q27" s="556"/>
+      <c r="R27" s="556"/>
+      <c r="S27" s="556"/>
+      <c r="T27" s="556"/>
       <c r="V27" s="73">
         <v>43349</v>
       </c>
@@ -8765,18 +8888,18 @@
       </c>
       <c r="I28" s="357"/>
       <c r="J28" s="357"/>
-      <c r="K28" s="600"/>
+      <c r="K28" s="595"/>
       <c r="L28" s="358">
         <v>200</v>
       </c>
-      <c r="M28" s="557"/>
-      <c r="N28" s="558"/>
-      <c r="O28" s="558"/>
-      <c r="P28" s="558"/>
-      <c r="Q28" s="558"/>
-      <c r="R28" s="558"/>
-      <c r="S28" s="558"/>
-      <c r="T28" s="558"/>
+      <c r="M28" s="553"/>
+      <c r="N28" s="554"/>
+      <c r="O28" s="554"/>
+      <c r="P28" s="554"/>
+      <c r="Q28" s="554"/>
+      <c r="R28" s="554"/>
+      <c r="S28" s="554"/>
+      <c r="T28" s="554"/>
       <c r="U28" s="199"/>
       <c r="V28" s="73">
         <v>43355</v>
@@ -8887,20 +9010,20 @@
       <c r="H29" s="351" t="s">
         <v>212</v>
       </c>
-      <c r="I29" s="597"/>
-      <c r="J29" s="623">
+      <c r="I29" s="592"/>
+      <c r="J29" s="617">
         <v>147</v>
       </c>
-      <c r="K29" s="632"/>
-      <c r="L29" s="628"/>
-      <c r="M29" s="558"/>
-      <c r="N29" s="558"/>
-      <c r="O29" s="558"/>
-      <c r="P29" s="558"/>
-      <c r="Q29" s="558"/>
-      <c r="R29" s="558"/>
-      <c r="S29" s="558"/>
-      <c r="T29" s="558"/>
+      <c r="K29" s="626"/>
+      <c r="L29" s="622"/>
+      <c r="M29" s="554"/>
+      <c r="N29" s="554"/>
+      <c r="O29" s="554"/>
+      <c r="P29" s="554"/>
+      <c r="Q29" s="554"/>
+      <c r="R29" s="554"/>
+      <c r="S29" s="554"/>
+      <c r="T29" s="554"/>
       <c r="V29" s="73">
         <v>43386</v>
       </c>
@@ -8926,10 +9049,10 @@
       <c r="AG29" s="159">
         <v>43418</v>
       </c>
-      <c r="AH29" s="681" t="s">
+      <c r="AH29" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI29" s="682"/>
+      <c r="AI29" s="696"/>
       <c r="AJ29" s="167">
         <v>11052</v>
       </c>
@@ -9004,20 +9127,20 @@
       <c r="H30" s="329" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="592"/>
+      <c r="I30" s="587"/>
       <c r="J30" s="276">
         <v>10</v>
       </c>
-      <c r="K30" s="633"/>
-      <c r="L30" s="620"/>
-      <c r="M30" s="558"/>
-      <c r="N30" s="558"/>
-      <c r="O30" s="558"/>
-      <c r="P30" s="558"/>
-      <c r="Q30" s="558"/>
-      <c r="R30" s="558"/>
-      <c r="S30" s="558"/>
-      <c r="T30" s="558"/>
+      <c r="K30" s="627"/>
+      <c r="L30" s="614"/>
+      <c r="M30" s="554"/>
+      <c r="N30" s="554"/>
+      <c r="O30" s="554"/>
+      <c r="P30" s="554"/>
+      <c r="Q30" s="554"/>
+      <c r="R30" s="554"/>
+      <c r="S30" s="554"/>
+      <c r="T30" s="554"/>
       <c r="V30" s="73">
         <v>43393</v>
       </c>
@@ -9127,20 +9250,20 @@
       <c r="H31" s="345" t="s">
         <v>214</v>
       </c>
-      <c r="I31" s="593"/>
-      <c r="J31" s="624">
+      <c r="I31" s="588"/>
+      <c r="J31" s="618">
         <v>83</v>
       </c>
-      <c r="K31" s="634"/>
-      <c r="L31" s="621"/>
-      <c r="M31" s="558"/>
-      <c r="N31" s="557"/>
-      <c r="O31" s="557"/>
-      <c r="P31" s="557"/>
-      <c r="Q31" s="557"/>
-      <c r="R31" s="557"/>
-      <c r="S31" s="557"/>
-      <c r="T31" s="557"/>
+      <c r="K31" s="628"/>
+      <c r="L31" s="615"/>
+      <c r="M31" s="554"/>
+      <c r="N31" s="554"/>
+      <c r="O31" s="554"/>
+      <c r="P31" s="554"/>
+      <c r="Q31" s="554"/>
+      <c r="R31" s="554"/>
+      <c r="S31" s="554"/>
+      <c r="T31" s="554"/>
       <c r="V31" s="73">
         <v>43409</v>
       </c>
@@ -9252,18 +9375,18 @@
       </c>
       <c r="I32" s="361"/>
       <c r="J32" s="361"/>
-      <c r="K32" s="601"/>
+      <c r="K32" s="596"/>
       <c r="L32" s="362">
         <v>200</v>
       </c>
-      <c r="M32" s="557"/>
-      <c r="N32" s="557"/>
-      <c r="O32" s="557"/>
-      <c r="P32" s="557"/>
-      <c r="Q32" s="557"/>
-      <c r="R32" s="557"/>
-      <c r="S32" s="557"/>
-      <c r="T32" s="557"/>
+      <c r="M32" s="553"/>
+      <c r="N32" s="554"/>
+      <c r="O32" s="554"/>
+      <c r="P32" s="554"/>
+      <c r="Q32" s="554"/>
+      <c r="R32" s="554"/>
+      <c r="S32" s="554"/>
+      <c r="T32" s="554"/>
       <c r="V32" s="74">
         <v>43405</v>
       </c>
@@ -9289,10 +9412,10 @@
       <c r="AG32" s="159">
         <v>43433</v>
       </c>
-      <c r="AH32" s="681" t="s">
+      <c r="AH32" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI32" s="682"/>
+      <c r="AI32" s="696"/>
       <c r="AJ32" s="167">
         <v>10650</v>
       </c>
@@ -9377,20 +9500,20 @@
       <c r="H33" s="351" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="597"/>
-      <c r="J33" s="623">
+      <c r="I33" s="592"/>
+      <c r="J33" s="617">
         <v>30</v>
       </c>
-      <c r="K33" s="632"/>
-      <c r="L33" s="628"/>
-      <c r="M33" s="558"/>
-      <c r="N33" s="558"/>
-      <c r="O33" s="558"/>
-      <c r="P33" s="558"/>
-      <c r="Q33" s="558"/>
-      <c r="R33" s="558"/>
-      <c r="S33" s="558"/>
-      <c r="T33" s="558"/>
+      <c r="K33" s="626"/>
+      <c r="L33" s="622"/>
+      <c r="M33" s="554"/>
+      <c r="N33" s="553"/>
+      <c r="O33" s="553"/>
+      <c r="P33" s="553"/>
+      <c r="Q33" s="553"/>
+      <c r="R33" s="553"/>
+      <c r="S33" s="553"/>
+      <c r="T33" s="553"/>
       <c r="V33" s="424"/>
       <c r="W33" s="425" t="s">
         <v>17</v>
@@ -9509,20 +9632,20 @@
       <c r="H34" s="345" t="s">
         <v>235</v>
       </c>
-      <c r="I34" s="593">
+      <c r="I34" s="588">
         <v>900</v>
       </c>
-      <c r="J34" s="624"/>
-      <c r="K34" s="634"/>
-      <c r="L34" s="621"/>
-      <c r="M34" s="558"/>
-      <c r="N34" s="558"/>
-      <c r="O34" s="558"/>
-      <c r="P34" s="558"/>
-      <c r="Q34" s="558"/>
-      <c r="R34" s="558"/>
-      <c r="S34" s="558"/>
-      <c r="T34" s="558"/>
+      <c r="J34" s="618"/>
+      <c r="K34" s="628"/>
+      <c r="L34" s="615"/>
+      <c r="M34" s="554"/>
+      <c r="N34" s="553"/>
+      <c r="O34" s="553"/>
+      <c r="P34" s="553"/>
+      <c r="Q34" s="553"/>
+      <c r="R34" s="553"/>
+      <c r="S34" s="553"/>
+      <c r="T34" s="553"/>
       <c r="V34" s="81"/>
       <c r="W34" s="82" t="s">
         <v>17</v>
@@ -9634,18 +9757,18 @@
       </c>
       <c r="I35" s="380"/>
       <c r="J35" s="380"/>
-      <c r="K35" s="602"/>
+      <c r="K35" s="597"/>
       <c r="L35" s="381">
         <v>11052</v>
       </c>
-      <c r="M35" s="560"/>
-      <c r="N35" s="558"/>
-      <c r="O35" s="558"/>
-      <c r="P35" s="558"/>
-      <c r="Q35" s="558"/>
-      <c r="R35" s="558"/>
-      <c r="S35" s="558"/>
-      <c r="T35" s="558"/>
+      <c r="M35" s="556"/>
+      <c r="N35" s="554"/>
+      <c r="O35" s="554"/>
+      <c r="P35" s="554"/>
+      <c r="Q35" s="554"/>
+      <c r="R35" s="554"/>
+      <c r="S35" s="554"/>
+      <c r="T35" s="554"/>
       <c r="V35" s="142"/>
       <c r="W35" s="84" t="s">
         <v>17</v>
@@ -9666,12 +9789,12 @@
         <v>1000</v>
       </c>
       <c r="AF35" s="194"/>
-      <c r="AG35" s="709" t="s">
+      <c r="AG35" s="723" t="s">
         <v>401</v>
       </c>
-      <c r="AH35" s="710"/>
-      <c r="AI35" s="710"/>
-      <c r="AJ35" s="711"/>
+      <c r="AH35" s="724"/>
+      <c r="AI35" s="724"/>
+      <c r="AJ35" s="725"/>
       <c r="AK35" s="527">
         <v>-400</v>
       </c>
@@ -9745,20 +9868,20 @@
       <c r="H36" s="351" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="597"/>
-      <c r="J36" s="623">
+      <c r="I36" s="592"/>
+      <c r="J36" s="617">
         <v>85.11</v>
       </c>
-      <c r="K36" s="632"/>
-      <c r="L36" s="628"/>
-      <c r="M36" s="558"/>
-      <c r="N36" s="557"/>
-      <c r="O36" s="557"/>
-      <c r="P36" s="557"/>
-      <c r="Q36" s="557"/>
-      <c r="R36" s="557"/>
-      <c r="S36" s="557"/>
-      <c r="T36" s="557"/>
+      <c r="K36" s="626"/>
+      <c r="L36" s="622"/>
+      <c r="M36" s="554"/>
+      <c r="N36" s="554"/>
+      <c r="O36" s="554"/>
+      <c r="P36" s="554"/>
+      <c r="Q36" s="554"/>
+      <c r="R36" s="554"/>
+      <c r="S36" s="554"/>
+      <c r="T36" s="554"/>
       <c r="V36" s="142"/>
       <c r="W36" s="84" t="s">
         <v>17</v>
@@ -9862,20 +9985,20 @@
       <c r="H37" s="329" t="s">
         <v>240</v>
       </c>
-      <c r="I37" s="592"/>
+      <c r="I37" s="587"/>
       <c r="J37" s="276">
         <v>16</v>
       </c>
-      <c r="K37" s="633"/>
-      <c r="L37" s="620"/>
-      <c r="M37" s="558"/>
-      <c r="N37" s="558"/>
-      <c r="O37" s="558"/>
-      <c r="P37" s="558"/>
-      <c r="Q37" s="558"/>
-      <c r="R37" s="558"/>
-      <c r="S37" s="558"/>
-      <c r="T37" s="558"/>
+      <c r="K37" s="627"/>
+      <c r="L37" s="614"/>
+      <c r="M37" s="554"/>
+      <c r="N37" s="554"/>
+      <c r="O37" s="554"/>
+      <c r="P37" s="554"/>
+      <c r="Q37" s="554"/>
+      <c r="R37" s="554"/>
+      <c r="S37" s="554"/>
+      <c r="T37" s="554"/>
       <c r="V37" s="142"/>
       <c r="W37" s="84" t="s">
         <v>17</v>
@@ -9977,20 +10100,20 @@
       <c r="H38" s="329" t="s">
         <v>242</v>
       </c>
-      <c r="I38" s="592"/>
+      <c r="I38" s="587"/>
       <c r="J38" s="276">
         <v>1000</v>
       </c>
-      <c r="K38" s="633"/>
-      <c r="L38" s="620"/>
-      <c r="M38" s="558"/>
-      <c r="N38" s="558"/>
-      <c r="O38" s="558"/>
-      <c r="P38" s="558"/>
-      <c r="Q38" s="558"/>
-      <c r="R38" s="558"/>
-      <c r="S38" s="558"/>
-      <c r="T38" s="558"/>
+      <c r="K38" s="627"/>
+      <c r="L38" s="614"/>
+      <c r="M38" s="554"/>
+      <c r="N38" s="553"/>
+      <c r="O38" s="553"/>
+      <c r="P38" s="553"/>
+      <c r="Q38" s="553"/>
+      <c r="R38" s="553"/>
+      <c r="S38" s="553"/>
+      <c r="T38" s="553"/>
       <c r="V38" s="81"/>
       <c r="W38" s="82" t="s">
         <v>17</v>
@@ -10014,10 +10137,10 @@
       <c r="AG38" s="529">
         <v>43447</v>
       </c>
-      <c r="AH38" s="681" t="s">
+      <c r="AH38" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI38" s="682"/>
+      <c r="AI38" s="696"/>
       <c r="AJ38" s="167">
         <v>11826.22</v>
       </c>
@@ -10094,20 +10217,20 @@
       <c r="H39" s="329" t="s">
         <v>243</v>
       </c>
-      <c r="I39" s="592"/>
+      <c r="I39" s="587"/>
       <c r="J39" s="276">
         <v>113</v>
       </c>
-      <c r="K39" s="633"/>
-      <c r="L39" s="620"/>
-      <c r="M39" s="558"/>
-      <c r="N39" s="560"/>
-      <c r="O39" s="560"/>
-      <c r="P39" s="560"/>
-      <c r="Q39" s="560"/>
-      <c r="R39" s="560"/>
-      <c r="S39" s="560"/>
-      <c r="T39" s="560"/>
+      <c r="K39" s="627"/>
+      <c r="L39" s="614"/>
+      <c r="M39" s="554"/>
+      <c r="N39" s="554"/>
+      <c r="O39" s="554"/>
+      <c r="P39" s="554"/>
+      <c r="Q39" s="554"/>
+      <c r="R39" s="554"/>
+      <c r="S39" s="554"/>
+      <c r="T39" s="554"/>
       <c r="V39" s="142"/>
       <c r="W39" s="84" t="s">
         <v>17</v>
@@ -10215,20 +10338,20 @@
       <c r="H40" s="345" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="593">
+      <c r="I40" s="588">
         <v>2500</v>
       </c>
-      <c r="J40" s="624"/>
-      <c r="K40" s="634"/>
-      <c r="L40" s="621"/>
-      <c r="M40" s="558"/>
-      <c r="N40" s="558"/>
-      <c r="O40" s="558"/>
-      <c r="P40" s="558"/>
-      <c r="Q40" s="558"/>
-      <c r="R40" s="558"/>
-      <c r="S40" s="558"/>
-      <c r="T40" s="558"/>
+      <c r="J40" s="618"/>
+      <c r="K40" s="628"/>
+      <c r="L40" s="615"/>
+      <c r="M40" s="554"/>
+      <c r="N40" s="554"/>
+      <c r="O40" s="554"/>
+      <c r="P40" s="554"/>
+      <c r="Q40" s="554"/>
+      <c r="R40" s="554"/>
+      <c r="S40" s="554"/>
+      <c r="T40" s="554"/>
       <c r="V40" s="142"/>
       <c r="W40" s="84" t="s">
         <v>17</v>
@@ -10252,10 +10375,10 @@
       <c r="AG40" s="545">
         <v>43447</v>
       </c>
-      <c r="AH40" s="681" t="s">
+      <c r="AH40" s="695" t="s">
         <v>184</v>
       </c>
-      <c r="AI40" s="682"/>
+      <c r="AI40" s="696"/>
       <c r="AJ40" s="167">
         <v>10502</v>
       </c>
@@ -10336,18 +10459,18 @@
       </c>
       <c r="I41" s="393"/>
       <c r="J41" s="393"/>
-      <c r="K41" s="603"/>
+      <c r="K41" s="598"/>
       <c r="L41" s="394">
         <v>200</v>
       </c>
-      <c r="M41" s="558"/>
-      <c r="N41" s="558"/>
-      <c r="O41" s="558"/>
-      <c r="P41" s="558"/>
-      <c r="Q41" s="558"/>
-      <c r="R41" s="558"/>
-      <c r="S41" s="558"/>
-      <c r="T41" s="558"/>
+      <c r="M41" s="554"/>
+      <c r="N41" s="556"/>
+      <c r="O41" s="556"/>
+      <c r="P41" s="556"/>
+      <c r="Q41" s="556"/>
+      <c r="R41" s="556"/>
+      <c r="S41" s="556"/>
+      <c r="T41" s="556"/>
       <c r="V41" s="142"/>
       <c r="W41" s="84" t="s">
         <v>17</v>
@@ -10449,20 +10572,20 @@
       <c r="H42" s="351" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="597"/>
-      <c r="J42" s="623">
+      <c r="I42" s="592"/>
+      <c r="J42" s="617">
         <v>598</v>
       </c>
-      <c r="K42" s="632"/>
-      <c r="L42" s="628"/>
-      <c r="M42" s="558"/>
-      <c r="N42" s="558"/>
-      <c r="O42" s="558"/>
-      <c r="P42" s="558"/>
-      <c r="Q42" s="558"/>
-      <c r="R42" s="558"/>
-      <c r="S42" s="558"/>
-      <c r="T42" s="558"/>
+      <c r="K42" s="626"/>
+      <c r="L42" s="622"/>
+      <c r="M42" s="554"/>
+      <c r="N42" s="554"/>
+      <c r="O42" s="554"/>
+      <c r="P42" s="554"/>
+      <c r="Q42" s="554"/>
+      <c r="R42" s="554"/>
+      <c r="S42" s="554"/>
+      <c r="T42" s="554"/>
       <c r="V42" s="142"/>
       <c r="W42" s="84" t="s">
         <v>17</v>
@@ -10564,22 +10687,22 @@
       <c r="H43" s="329" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="592">
+      <c r="I43" s="587">
         <v>200</v>
       </c>
-      <c r="J43" s="624">
+      <c r="J43" s="618">
         <v>26</v>
       </c>
-      <c r="K43" s="634"/>
-      <c r="L43" s="620"/>
-      <c r="M43" s="558"/>
-      <c r="N43" s="558"/>
-      <c r="O43" s="558"/>
-      <c r="P43" s="558"/>
-      <c r="Q43" s="558"/>
-      <c r="R43" s="558"/>
-      <c r="S43" s="558"/>
-      <c r="T43" s="558"/>
+      <c r="K43" s="628"/>
+      <c r="L43" s="614"/>
+      <c r="M43" s="554"/>
+      <c r="N43" s="554"/>
+      <c r="O43" s="554"/>
+      <c r="P43" s="554"/>
+      <c r="Q43" s="554"/>
+      <c r="R43" s="554"/>
+      <c r="S43" s="554"/>
+      <c r="T43" s="554"/>
       <c r="V43" s="142"/>
       <c r="W43" s="84" t="s">
         <v>17</v>
@@ -10681,18 +10804,18 @@
       </c>
       <c r="I44" s="393"/>
       <c r="J44" s="393"/>
-      <c r="K44" s="603"/>
+      <c r="K44" s="598"/>
       <c r="L44" s="394">
         <v>200</v>
       </c>
-      <c r="M44" s="558"/>
-      <c r="N44" s="558"/>
-      <c r="O44" s="558"/>
-      <c r="P44" s="558"/>
-      <c r="Q44" s="558"/>
-      <c r="R44" s="558"/>
-      <c r="S44" s="558"/>
-      <c r="T44" s="558"/>
+      <c r="M44" s="554"/>
+      <c r="N44" s="554"/>
+      <c r="O44" s="554"/>
+      <c r="P44" s="554"/>
+      <c r="Q44" s="554"/>
+      <c r="R44" s="554"/>
+      <c r="S44" s="554"/>
+      <c r="T44" s="554"/>
       <c r="V44" s="71"/>
       <c r="W44" s="72" t="s">
         <v>17</v>
@@ -10790,20 +10913,20 @@
       <c r="H45" s="351" t="s">
         <v>265</v>
       </c>
-      <c r="I45" s="597"/>
-      <c r="J45" s="623">
+      <c r="I45" s="592"/>
+      <c r="J45" s="617">
         <v>335</v>
       </c>
-      <c r="K45" s="632"/>
-      <c r="L45" s="628"/>
-      <c r="M45" s="558"/>
-      <c r="N45" s="558"/>
-      <c r="O45" s="558"/>
-      <c r="P45" s="558"/>
-      <c r="Q45" s="558"/>
-      <c r="R45" s="558"/>
-      <c r="S45" s="558"/>
-      <c r="T45" s="558"/>
+      <c r="K45" s="626"/>
+      <c r="L45" s="622"/>
+      <c r="M45" s="554"/>
+      <c r="N45" s="554"/>
+      <c r="O45" s="554"/>
+      <c r="P45" s="554"/>
+      <c r="Q45" s="554"/>
+      <c r="R45" s="554"/>
+      <c r="S45" s="554"/>
+      <c r="T45" s="554"/>
       <c r="V45" s="152">
         <v>43167</v>
       </c>
@@ -10917,20 +11040,20 @@
       <c r="H46" s="329" t="s">
         <v>266</v>
       </c>
-      <c r="I46" s="592">
+      <c r="I46" s="587">
         <v>400</v>
       </c>
       <c r="J46" s="276"/>
-      <c r="K46" s="633"/>
-      <c r="L46" s="620"/>
-      <c r="M46" s="558"/>
-      <c r="N46" s="558"/>
-      <c r="O46" s="558"/>
-      <c r="P46" s="558"/>
-      <c r="Q46" s="558"/>
-      <c r="R46" s="558"/>
-      <c r="S46" s="558"/>
-      <c r="T46" s="558"/>
+      <c r="K46" s="627"/>
+      <c r="L46" s="614"/>
+      <c r="M46" s="554"/>
+      <c r="N46" s="554"/>
+      <c r="O46" s="554"/>
+      <c r="P46" s="554"/>
+      <c r="Q46" s="554"/>
+      <c r="R46" s="554"/>
+      <c r="S46" s="554"/>
+      <c r="T46" s="554"/>
       <c r="V46" s="88">
         <v>42802</v>
       </c>
@@ -11024,20 +11147,20 @@
       <c r="H47" s="398" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="604"/>
-      <c r="J47" s="624">
+      <c r="I47" s="599"/>
+      <c r="J47" s="618">
         <v>113</v>
       </c>
-      <c r="K47" s="634"/>
-      <c r="L47" s="635"/>
-      <c r="M47" s="559"/>
-      <c r="N47" s="558"/>
-      <c r="O47" s="558"/>
-      <c r="P47" s="558"/>
-      <c r="Q47" s="558"/>
-      <c r="R47" s="558"/>
-      <c r="S47" s="558"/>
-      <c r="T47" s="558"/>
+      <c r="K47" s="628"/>
+      <c r="L47" s="629"/>
+      <c r="M47" s="555"/>
+      <c r="N47" s="554"/>
+      <c r="O47" s="554"/>
+      <c r="P47" s="554"/>
+      <c r="Q47" s="554"/>
+      <c r="R47" s="554"/>
+      <c r="S47" s="554"/>
+      <c r="T47" s="554"/>
       <c r="V47" s="73">
         <v>43266</v>
       </c>
@@ -11135,18 +11258,18 @@
       </c>
       <c r="I48" s="332"/>
       <c r="J48" s="332"/>
-      <c r="K48" s="594"/>
+      <c r="K48" s="589"/>
       <c r="L48" s="333">
         <v>11052</v>
       </c>
-      <c r="M48" s="560"/>
-      <c r="N48" s="558"/>
-      <c r="O48" s="558"/>
-      <c r="P48" s="558"/>
-      <c r="Q48" s="558"/>
-      <c r="R48" s="558"/>
-      <c r="S48" s="558"/>
-      <c r="T48" s="558"/>
+      <c r="M48" s="556"/>
+      <c r="N48" s="554"/>
+      <c r="O48" s="554"/>
+      <c r="P48" s="554"/>
+      <c r="Q48" s="554"/>
+      <c r="R48" s="554"/>
+      <c r="S48" s="554"/>
+      <c r="T48" s="554"/>
       <c r="V48" s="75"/>
       <c r="W48" s="76" t="s">
         <v>57</v>
@@ -11246,20 +11369,20 @@
       <c r="H49" s="340" t="s">
         <v>283</v>
       </c>
-      <c r="I49" s="591">
+      <c r="I49" s="586">
         <v>1500</v>
       </c>
-      <c r="J49" s="623"/>
-      <c r="K49" s="632"/>
-      <c r="L49" s="618"/>
-      <c r="M49" s="557"/>
-      <c r="N49" s="558"/>
-      <c r="O49" s="558"/>
-      <c r="P49" s="558"/>
-      <c r="Q49" s="558"/>
-      <c r="R49" s="558"/>
-      <c r="S49" s="558"/>
-      <c r="T49" s="558"/>
+      <c r="J49" s="617"/>
+      <c r="K49" s="626"/>
+      <c r="L49" s="612"/>
+      <c r="M49" s="553"/>
+      <c r="N49" s="554"/>
+      <c r="O49" s="554"/>
+      <c r="P49" s="554"/>
+      <c r="Q49" s="554"/>
+      <c r="R49" s="554"/>
+      <c r="S49" s="554"/>
+      <c r="T49" s="554"/>
       <c r="V49" s="75"/>
       <c r="W49" s="76" t="s">
         <v>426</v>
@@ -11356,20 +11479,20 @@
       <c r="H50" s="328" t="s">
         <v>285</v>
       </c>
-      <c r="I50" s="574"/>
+      <c r="I50" s="569"/>
       <c r="J50" s="276">
         <v>162</v>
       </c>
-      <c r="K50" s="633"/>
-      <c r="L50" s="619"/>
-      <c r="M50" s="557"/>
-      <c r="N50" s="558"/>
-      <c r="O50" s="558"/>
-      <c r="P50" s="558"/>
-      <c r="Q50" s="558"/>
-      <c r="R50" s="558"/>
-      <c r="S50" s="558"/>
-      <c r="T50" s="558"/>
+      <c r="K50" s="627"/>
+      <c r="L50" s="613"/>
+      <c r="M50" s="553"/>
+      <c r="N50" s="554"/>
+      <c r="O50" s="554"/>
+      <c r="P50" s="554"/>
+      <c r="Q50" s="554"/>
+      <c r="R50" s="554"/>
+      <c r="S50" s="554"/>
+      <c r="T50" s="554"/>
       <c r="V50" s="153">
         <v>43375</v>
       </c>
@@ -11388,7 +11511,7 @@
       </c>
       <c r="AD50" s="137"/>
       <c r="AE50" s="138">
-        <f t="shared" ref="AE50:AE60" si="10">AC50-AD50</f>
+        <f t="shared" ref="AE50:AE61" si="10">AC50-AD50</f>
         <v>100</v>
       </c>
       <c r="AF50" s="196"/>
@@ -11467,20 +11590,20 @@
       <c r="H51" s="328" t="s">
         <v>282</v>
       </c>
-      <c r="I51" s="574">
+      <c r="I51" s="569">
         <v>1800</v>
       </c>
       <c r="J51" s="276"/>
-      <c r="K51" s="633"/>
-      <c r="L51" s="619"/>
-      <c r="M51" s="557"/>
-      <c r="N51" s="559"/>
-      <c r="O51" s="559"/>
-      <c r="P51" s="559"/>
-      <c r="Q51" s="559"/>
-      <c r="R51" s="559"/>
-      <c r="S51" s="559"/>
-      <c r="T51" s="559"/>
+      <c r="K51" s="627"/>
+      <c r="L51" s="613"/>
+      <c r="M51" s="553"/>
+      <c r="N51" s="554"/>
+      <c r="O51" s="554"/>
+      <c r="P51" s="554"/>
+      <c r="Q51" s="554"/>
+      <c r="R51" s="554"/>
+      <c r="S51" s="554"/>
+      <c r="T51" s="554"/>
       <c r="V51" s="294" t="s">
         <v>86</v>
       </c>
@@ -11488,16 +11611,16 @@
         <v>19</v>
       </c>
       <c r="X51" s="296">
-        <f>SUM(AC51:AC61)</f>
-        <v>7505</v>
+        <f>SUM(AC51:AC62)</f>
+        <v>27505</v>
       </c>
       <c r="Y51" s="297">
-        <f>SUM(AD51:AD61)</f>
+        <f>SUM(AD51:AD62)</f>
         <v>5050</v>
       </c>
       <c r="Z51" s="298">
         <f>X51-Y51</f>
-        <v>2455</v>
+        <v>22455</v>
       </c>
       <c r="AA51" s="299" t="s">
         <v>85</v>
@@ -11593,20 +11716,20 @@
       <c r="H52" s="328" t="s">
         <v>284</v>
       </c>
-      <c r="I52" s="574"/>
+      <c r="I52" s="569"/>
       <c r="J52" s="276">
         <v>158</v>
       </c>
-      <c r="K52" s="633"/>
-      <c r="L52" s="619"/>
-      <c r="M52" s="557"/>
-      <c r="N52" s="560"/>
-      <c r="O52" s="560"/>
-      <c r="P52" s="560"/>
-      <c r="Q52" s="560"/>
-      <c r="R52" s="560"/>
-      <c r="S52" s="560"/>
-      <c r="T52" s="560"/>
+      <c r="K52" s="627"/>
+      <c r="L52" s="613"/>
+      <c r="M52" s="553"/>
+      <c r="N52" s="554"/>
+      <c r="O52" s="554"/>
+      <c r="P52" s="554"/>
+      <c r="Q52" s="554"/>
+      <c r="R52" s="554"/>
+      <c r="S52" s="554"/>
+      <c r="T52" s="554"/>
       <c r="V52" s="301"/>
       <c r="W52" s="277" t="s">
         <v>19</v>
@@ -11708,38 +11831,40 @@
       <c r="H53" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="I53" s="574"/>
+      <c r="I53" s="569"/>
       <c r="J53" s="276">
         <v>200</v>
       </c>
-      <c r="K53" s="633"/>
-      <c r="L53" s="619"/>
-      <c r="M53" s="557"/>
-      <c r="N53" s="557"/>
-      <c r="O53" s="557"/>
-      <c r="P53" s="557"/>
-      <c r="Q53" s="557"/>
-      <c r="R53" s="557"/>
-      <c r="S53" s="557"/>
-      <c r="T53" s="557"/>
-      <c r="V53" s="142"/>
-      <c r="W53" s="84" t="s">
+      <c r="K53" s="627"/>
+      <c r="L53" s="613"/>
+      <c r="M53" s="553"/>
+      <c r="N53" s="555"/>
+      <c r="O53" s="555"/>
+      <c r="P53" s="555"/>
+      <c r="Q53" s="555"/>
+      <c r="R53" s="555"/>
+      <c r="S53" s="555"/>
+      <c r="T53" s="555"/>
+      <c r="V53" s="88">
+        <v>43455</v>
+      </c>
+      <c r="W53" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="X53" s="85"/>
-      <c r="Y53" s="86"/>
-      <c r="Z53" s="87"/>
-      <c r="AA53" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB53" s="307"/>
-      <c r="AC53" s="108">
-        <v>240</v>
-      </c>
-      <c r="AD53" s="109"/>
-      <c r="AE53" s="110">
+      <c r="X53" s="89"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="91"/>
+      <c r="AA53" s="133" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB53" s="678"/>
+      <c r="AC53" s="105">
+        <v>20000</v>
+      </c>
+      <c r="AD53" s="106"/>
+      <c r="AE53" s="107">
         <f t="shared" si="10"/>
-        <v>240</v>
+        <v>20000</v>
       </c>
       <c r="AF53" s="196"/>
       <c r="AG53" s="159"/>
@@ -11811,23 +11936,21 @@
       <c r="H54" s="399" t="s">
         <v>290</v>
       </c>
-      <c r="I54" s="605"/>
+      <c r="I54" s="600"/>
       <c r="J54" s="276">
         <v>50</v>
       </c>
-      <c r="K54" s="633"/>
-      <c r="L54" s="636"/>
-      <c r="M54" s="559"/>
-      <c r="N54" s="557"/>
-      <c r="O54" s="557"/>
-      <c r="P54" s="557"/>
-      <c r="Q54" s="557"/>
-      <c r="R54" s="557"/>
-      <c r="S54" s="557"/>
-      <c r="T54" s="557"/>
-      <c r="V54" s="142" t="s">
-        <v>102</v>
-      </c>
+      <c r="K54" s="627"/>
+      <c r="L54" s="630"/>
+      <c r="M54" s="555"/>
+      <c r="N54" s="556"/>
+      <c r="O54" s="556"/>
+      <c r="P54" s="556"/>
+      <c r="Q54" s="556"/>
+      <c r="R54" s="556"/>
+      <c r="S54" s="556"/>
+      <c r="T54" s="556"/>
+      <c r="V54" s="142"/>
       <c r="W54" s="84" t="s">
         <v>19</v>
       </c>
@@ -11835,20 +11958,16 @@
       <c r="Y54" s="86"/>
       <c r="Z54" s="87"/>
       <c r="AA54" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB54" s="307" t="s">
-        <v>109</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AB54" s="307"/>
       <c r="AC54" s="108">
-        <v>1500</v>
-      </c>
-      <c r="AD54" s="109">
-        <v>1300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AD54" s="109"/>
       <c r="AE54" s="110">
-        <f>AC54-AD54</f>
-        <v>200</v>
+        <f t="shared" si="10"/>
+        <v>240</v>
       </c>
       <c r="AF54" s="196"/>
       <c r="AG54" s="159"/>
@@ -11928,21 +12047,23 @@
       <c r="H55" s="399" t="s">
         <v>291</v>
       </c>
-      <c r="I55" s="605"/>
+      <c r="I55" s="600"/>
       <c r="J55" s="276">
         <v>145</v>
       </c>
-      <c r="K55" s="633"/>
-      <c r="L55" s="636"/>
-      <c r="M55" s="559"/>
-      <c r="N55" s="557"/>
-      <c r="O55" s="557"/>
-      <c r="P55" s="557"/>
-      <c r="Q55" s="557"/>
-      <c r="R55" s="557"/>
-      <c r="S55" s="557"/>
-      <c r="T55" s="557"/>
-      <c r="V55" s="142"/>
+      <c r="K55" s="627"/>
+      <c r="L55" s="630"/>
+      <c r="M55" s="555"/>
+      <c r="N55" s="553"/>
+      <c r="O55" s="553"/>
+      <c r="P55" s="553"/>
+      <c r="Q55" s="553"/>
+      <c r="R55" s="553"/>
+      <c r="S55" s="553"/>
+      <c r="T55" s="553"/>
+      <c r="V55" s="142" t="s">
+        <v>102</v>
+      </c>
       <c r="W55" s="84" t="s">
         <v>19</v>
       </c>
@@ -11950,20 +12071,20 @@
       <c r="Y55" s="86"/>
       <c r="Z55" s="87"/>
       <c r="AA55" s="134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB55" s="307" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC55" s="518">
-        <v>100</v>
-      </c>
-      <c r="AD55" s="519">
-        <v>100</v>
-      </c>
-      <c r="AE55" s="520">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="AC55" s="108">
+        <v>1500</v>
+      </c>
+      <c r="AD55" s="109">
+        <v>1300</v>
+      </c>
+      <c r="AE55" s="110">
+        <f>AC55-AD55</f>
+        <v>200</v>
       </c>
       <c r="AF55" s="196"/>
       <c r="AG55" s="159"/>
@@ -12037,20 +12158,20 @@
       <c r="H56" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="605">
+      <c r="I56" s="600">
         <v>2000</v>
       </c>
       <c r="J56" s="276"/>
-      <c r="K56" s="633"/>
-      <c r="L56" s="636"/>
-      <c r="M56" s="559"/>
-      <c r="N56" s="557"/>
-      <c r="O56" s="557"/>
-      <c r="P56" s="557"/>
-      <c r="Q56" s="557"/>
-      <c r="R56" s="557"/>
-      <c r="S56" s="557"/>
-      <c r="T56" s="557"/>
+      <c r="K56" s="627"/>
+      <c r="L56" s="630"/>
+      <c r="M56" s="555"/>
+      <c r="N56" s="553"/>
+      <c r="O56" s="553"/>
+      <c r="P56" s="553"/>
+      <c r="Q56" s="553"/>
+      <c r="R56" s="553"/>
+      <c r="S56" s="553"/>
+      <c r="T56" s="553"/>
       <c r="V56" s="142"/>
       <c r="W56" s="84" t="s">
         <v>19</v>
@@ -12059,16 +12180,16 @@
       <c r="Y56" s="86"/>
       <c r="Z56" s="87"/>
       <c r="AA56" s="134" t="s">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="AB56" s="307" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC56" s="518">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AD56" s="519">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE56" s="520">
         <f t="shared" si="10"/>
@@ -12148,38 +12269,42 @@
       <c r="H57" s="398" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="604"/>
-      <c r="J57" s="624">
+      <c r="I57" s="599"/>
+      <c r="J57" s="618">
         <v>175</v>
       </c>
-      <c r="K57" s="634"/>
-      <c r="L57" s="635"/>
-      <c r="M57" s="559"/>
-      <c r="N57" s="557"/>
-      <c r="O57" s="557"/>
-      <c r="P57" s="557"/>
-      <c r="Q57" s="557"/>
-      <c r="R57" s="557"/>
-      <c r="S57" s="557"/>
-      <c r="T57" s="557"/>
+      <c r="K57" s="628"/>
+      <c r="L57" s="629"/>
+      <c r="M57" s="555"/>
+      <c r="N57" s="553"/>
+      <c r="O57" s="553"/>
+      <c r="P57" s="553"/>
+      <c r="Q57" s="553"/>
+      <c r="R57" s="553"/>
+      <c r="S57" s="553"/>
+      <c r="T57" s="553"/>
       <c r="V57" s="142"/>
       <c r="W57" s="84" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="X57" s="85"/>
       <c r="Y57" s="86"/>
       <c r="Z57" s="87"/>
       <c r="AA57" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB57" s="307"/>
-      <c r="AC57" s="108">
-        <v>80</v>
-      </c>
-      <c r="AD57" s="109"/>
-      <c r="AE57" s="110">
+        <v>370</v>
+      </c>
+      <c r="AB57" s="307" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC57" s="518">
+        <v>1000</v>
+      </c>
+      <c r="AD57" s="519">
+        <v>1000</v>
+      </c>
+      <c r="AE57" s="520">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="196"/>
       <c r="AG57" s="159"/>
@@ -12259,40 +12384,36 @@
       </c>
       <c r="I58" s="332"/>
       <c r="J58" s="332"/>
-      <c r="K58" s="594"/>
+      <c r="K58" s="589"/>
       <c r="L58" s="333">
         <v>11052</v>
       </c>
-      <c r="M58" s="560"/>
-      <c r="N58" s="559"/>
-      <c r="O58" s="559"/>
-      <c r="P58" s="559"/>
-      <c r="Q58" s="559"/>
-      <c r="R58" s="559"/>
-      <c r="S58" s="559"/>
-      <c r="T58" s="559"/>
+      <c r="M58" s="556"/>
+      <c r="N58" s="553"/>
+      <c r="O58" s="553"/>
+      <c r="P58" s="553"/>
+      <c r="Q58" s="553"/>
+      <c r="R58" s="553"/>
+      <c r="S58" s="553"/>
+      <c r="T58" s="553"/>
       <c r="V58" s="142"/>
       <c r="W58" s="84" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="X58" s="85"/>
       <c r="Y58" s="86"/>
       <c r="Z58" s="87"/>
       <c r="AA58" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB58" s="307" t="s">
-        <v>306</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB58" s="307"/>
       <c r="AC58" s="108">
-        <v>100</v>
-      </c>
-      <c r="AD58" s="109">
-        <v>55</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AD58" s="109"/>
       <c r="AE58" s="110">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AF58" s="196"/>
       <c r="AG58" s="159"/>
@@ -12370,23 +12491,21 @@
       <c r="H59" s="455" t="s">
         <v>316</v>
       </c>
-      <c r="I59" s="606">
+      <c r="I59" s="601">
         <v>1000</v>
       </c>
-      <c r="J59" s="638"/>
-      <c r="K59" s="639"/>
-      <c r="L59" s="637"/>
-      <c r="M59" s="559"/>
-      <c r="N59" s="559"/>
-      <c r="O59" s="559"/>
-      <c r="P59" s="559"/>
-      <c r="Q59" s="559"/>
-      <c r="R59" s="559"/>
-      <c r="S59" s="559"/>
-      <c r="T59" s="559"/>
-      <c r="V59" s="83">
-        <v>43390</v>
-      </c>
+      <c r="J59" s="632"/>
+      <c r="K59" s="633"/>
+      <c r="L59" s="631"/>
+      <c r="M59" s="555"/>
+      <c r="N59" s="553"/>
+      <c r="O59" s="553"/>
+      <c r="P59" s="553"/>
+      <c r="Q59" s="553"/>
+      <c r="R59" s="553"/>
+      <c r="S59" s="553"/>
+      <c r="T59" s="553"/>
+      <c r="V59" s="142"/>
       <c r="W59" s="84" t="s">
         <v>19</v>
       </c>
@@ -12394,20 +12513,20 @@
       <c r="Y59" s="86"/>
       <c r="Z59" s="87"/>
       <c r="AA59" s="134" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="AB59" s="307" t="s">
         <v>306</v>
       </c>
-      <c r="AC59" s="518">
-        <v>145</v>
-      </c>
-      <c r="AD59" s="519">
-        <v>145</v>
-      </c>
-      <c r="AE59" s="520">
+      <c r="AC59" s="108">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="109">
+        <v>55</v>
+      </c>
+      <c r="AE59" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AF59" s="196"/>
       <c r="AG59" s="159"/>
@@ -12487,20 +12606,20 @@
       </c>
       <c r="I60" s="411"/>
       <c r="J60" s="411"/>
-      <c r="K60" s="607"/>
+      <c r="K60" s="602"/>
       <c r="L60" s="412">
         <v>200</v>
       </c>
-      <c r="M60" s="558"/>
-      <c r="N60" s="559"/>
-      <c r="O60" s="559"/>
-      <c r="P60" s="559"/>
-      <c r="Q60" s="559"/>
-      <c r="R60" s="559"/>
-      <c r="S60" s="559"/>
-      <c r="T60" s="559"/>
+      <c r="M60" s="554"/>
+      <c r="N60" s="555"/>
+      <c r="O60" s="555"/>
+      <c r="P60" s="555"/>
+      <c r="Q60" s="555"/>
+      <c r="R60" s="555"/>
+      <c r="S60" s="555"/>
+      <c r="T60" s="555"/>
       <c r="V60" s="83">
-        <v>43334</v>
+        <v>43390</v>
       </c>
       <c r="W60" s="84" t="s">
         <v>19</v>
@@ -12509,16 +12628,16 @@
       <c r="Y60" s="86"/>
       <c r="Z60" s="87"/>
       <c r="AA60" s="134" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="AB60" s="307" t="s">
         <v>306</v>
       </c>
       <c r="AC60" s="518">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="AD60" s="519">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="AE60" s="520">
         <f t="shared" si="10"/>
@@ -12604,41 +12723,41 @@
       </c>
       <c r="I61" s="415"/>
       <c r="J61" s="415"/>
-      <c r="K61" s="608"/>
+      <c r="K61" s="603"/>
       <c r="L61" s="416">
         <v>19187</v>
       </c>
-      <c r="M61" s="558"/>
-      <c r="N61" s="559"/>
-      <c r="O61" s="559"/>
-      <c r="P61" s="559"/>
-      <c r="Q61" s="559"/>
-      <c r="R61" s="559"/>
-      <c r="S61" s="559"/>
-      <c r="T61" s="559"/>
-      <c r="V61" s="73">
-        <v>43180</v>
-      </c>
-      <c r="W61" s="72" t="s">
+      <c r="M61" s="554"/>
+      <c r="N61" s="555"/>
+      <c r="O61" s="555"/>
+      <c r="P61" s="555"/>
+      <c r="Q61" s="555"/>
+      <c r="R61" s="555"/>
+      <c r="S61" s="555"/>
+      <c r="T61" s="555"/>
+      <c r="V61" s="83">
+        <v>43334</v>
+      </c>
+      <c r="W61" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="X61" s="403"/>
-      <c r="Y61" s="404"/>
-      <c r="Z61" s="405"/>
-      <c r="AA61" s="323" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB61" s="400" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC61" s="521">
+      <c r="X61" s="85"/>
+      <c r="Y61" s="86"/>
+      <c r="Z61" s="87"/>
+      <c r="AA61" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB61" s="307" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC61" s="518">
         <v>200</v>
       </c>
-      <c r="AD61" s="522">
+      <c r="AD61" s="519">
         <v>200</v>
       </c>
-      <c r="AE61" s="523">
-        <f>AC61-AD61</f>
+      <c r="AE61" s="520">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF61" s="196"/>
@@ -12719,38 +12838,40 @@
       </c>
       <c r="I62" s="419"/>
       <c r="J62" s="419"/>
-      <c r="K62" s="609"/>
+      <c r="K62" s="604"/>
       <c r="L62" s="420">
         <v>6798</v>
       </c>
-      <c r="M62" s="558"/>
-      <c r="N62" s="560"/>
-      <c r="O62" s="560"/>
-      <c r="P62" s="560"/>
-      <c r="Q62" s="560"/>
-      <c r="R62" s="560"/>
-      <c r="S62" s="560"/>
-      <c r="T62" s="560"/>
-      <c r="V62" s="401" t="s">
-        <v>307</v>
-      </c>
-      <c r="W62" s="402" t="s">
-        <v>308</v>
-      </c>
-      <c r="X62" s="406"/>
-      <c r="Y62" s="407"/>
-      <c r="Z62" s="408"/>
-      <c r="AA62" s="402" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB62" s="402"/>
-      <c r="AC62" s="524">
-        <v>110</v>
-      </c>
-      <c r="AD62" s="525">
-        <v>110</v>
-      </c>
-      <c r="AE62" s="526">
+      <c r="M62" s="554"/>
+      <c r="N62" s="555"/>
+      <c r="O62" s="555"/>
+      <c r="P62" s="555"/>
+      <c r="Q62" s="555"/>
+      <c r="R62" s="555"/>
+      <c r="S62" s="555"/>
+      <c r="T62" s="555"/>
+      <c r="V62" s="73">
+        <v>43180</v>
+      </c>
+      <c r="W62" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="X62" s="403"/>
+      <c r="Y62" s="404"/>
+      <c r="Z62" s="405"/>
+      <c r="AA62" s="323" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB62" s="400" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC62" s="521">
+        <v>200</v>
+      </c>
+      <c r="AD62" s="522">
+        <v>200</v>
+      </c>
+      <c r="AE62" s="523">
         <f>AC62-AD62</f>
         <v>0</v>
       </c>
@@ -12830,30 +12951,43 @@
       <c r="H63" s="421" t="s">
         <v>322</v>
       </c>
-      <c r="I63" s="573">
+      <c r="I63" s="568">
         <v>4000</v>
       </c>
-      <c r="J63" s="623"/>
-      <c r="K63" s="632"/>
-      <c r="L63" s="640"/>
-      <c r="M63" s="557"/>
-      <c r="N63" s="559"/>
-      <c r="O63" s="559"/>
-      <c r="P63" s="559"/>
-      <c r="Q63" s="559"/>
-      <c r="R63" s="559"/>
-      <c r="S63" s="559"/>
-      <c r="T63" s="559"/>
-      <c r="V63" s="196"/>
-      <c r="W63" s="196"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="196"/>
-      <c r="AB63" s="196"/>
-      <c r="AC63" s="117"/>
-      <c r="AD63" s="69"/>
-      <c r="AE63" s="118"/>
+      <c r="J63" s="617"/>
+      <c r="K63" s="626"/>
+      <c r="L63" s="634"/>
+      <c r="M63" s="553"/>
+      <c r="N63" s="555"/>
+      <c r="O63" s="555"/>
+      <c r="P63" s="555"/>
+      <c r="Q63" s="555"/>
+      <c r="R63" s="555"/>
+      <c r="S63" s="555"/>
+      <c r="T63" s="555"/>
+      <c r="V63" s="401" t="s">
+        <v>307</v>
+      </c>
+      <c r="W63" s="402" t="s">
+        <v>308</v>
+      </c>
+      <c r="X63" s="406"/>
+      <c r="Y63" s="407"/>
+      <c r="Z63" s="408"/>
+      <c r="AA63" s="402" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB63" s="402"/>
+      <c r="AC63" s="524">
+        <v>110</v>
+      </c>
+      <c r="AD63" s="525">
+        <v>110</v>
+      </c>
+      <c r="AE63" s="526">
+        <f>AC63-AD63</f>
+        <v>0</v>
+      </c>
       <c r="AF63" s="196"/>
       <c r="AG63" s="159"/>
       <c r="AH63" s="162"/>
@@ -12928,20 +13062,20 @@
       <c r="H64" s="328" t="s">
         <v>391</v>
       </c>
-      <c r="I64" s="574"/>
+      <c r="I64" s="569"/>
       <c r="J64" s="276">
         <v>559</v>
       </c>
-      <c r="K64" s="633"/>
-      <c r="L64" s="619"/>
-      <c r="M64" s="557"/>
-      <c r="N64" s="558"/>
-      <c r="O64" s="558"/>
-      <c r="P64" s="558"/>
-      <c r="Q64" s="558"/>
-      <c r="R64" s="558"/>
-      <c r="S64" s="558"/>
-      <c r="T64" s="558"/>
+      <c r="K64" s="627"/>
+      <c r="L64" s="613"/>
+      <c r="M64" s="553"/>
+      <c r="N64" s="556"/>
+      <c r="O64" s="556"/>
+      <c r="P64" s="556"/>
+      <c r="Q64" s="556"/>
+      <c r="R64" s="556"/>
+      <c r="S64" s="556"/>
+      <c r="T64" s="556"/>
       <c r="V64" s="196"/>
       <c r="W64" s="196"/>
       <c r="X64" s="66"/>
@@ -13024,20 +13158,20 @@
       <c r="H65" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="574"/>
+      <c r="I65" s="569"/>
       <c r="J65" s="276">
         <v>200</v>
       </c>
-      <c r="K65" s="633"/>
-      <c r="L65" s="619"/>
-      <c r="M65" s="557"/>
-      <c r="N65" s="558"/>
-      <c r="O65" s="558"/>
-      <c r="P65" s="558"/>
-      <c r="Q65" s="558"/>
-      <c r="R65" s="558"/>
-      <c r="S65" s="558"/>
-      <c r="T65" s="558"/>
+      <c r="K65" s="627"/>
+      <c r="L65" s="613"/>
+      <c r="M65" s="553"/>
+      <c r="N65" s="555"/>
+      <c r="O65" s="555"/>
+      <c r="P65" s="555"/>
+      <c r="Q65" s="555"/>
+      <c r="R65" s="555"/>
+      <c r="S65" s="555"/>
+      <c r="T65" s="555"/>
       <c r="V65" s="196"/>
       <c r="W65" s="196"/>
       <c r="X65" s="66"/>
@@ -13122,20 +13256,20 @@
       <c r="H66" s="328" t="s">
         <v>323</v>
       </c>
-      <c r="I66" s="574">
+      <c r="I66" s="569">
         <v>2500</v>
       </c>
       <c r="J66" s="276"/>
-      <c r="K66" s="633"/>
-      <c r="L66" s="619"/>
-      <c r="M66" s="557"/>
-      <c r="N66" s="558"/>
-      <c r="O66" s="558"/>
-      <c r="P66" s="558"/>
-      <c r="Q66" s="558"/>
-      <c r="R66" s="558"/>
-      <c r="S66" s="558"/>
-      <c r="T66" s="558"/>
+      <c r="K66" s="627"/>
+      <c r="L66" s="613"/>
+      <c r="M66" s="553"/>
+      <c r="N66" s="554"/>
+      <c r="O66" s="554"/>
+      <c r="P66" s="554"/>
+      <c r="Q66" s="554"/>
+      <c r="R66" s="554"/>
+      <c r="S66" s="554"/>
+      <c r="T66" s="554"/>
       <c r="V66" s="196"/>
       <c r="W66" s="196"/>
       <c r="X66" s="66"/>
@@ -13222,20 +13356,20 @@
       <c r="H67" s="345" t="s">
         <v>361</v>
       </c>
-      <c r="I67" s="593">
+      <c r="I67" s="588">
         <v>500</v>
       </c>
-      <c r="J67" s="624"/>
-      <c r="K67" s="634"/>
-      <c r="L67" s="621"/>
-      <c r="M67" s="558"/>
-      <c r="N67" s="557"/>
-      <c r="O67" s="557"/>
-      <c r="P67" s="557"/>
-      <c r="Q67" s="557"/>
-      <c r="R67" s="557"/>
-      <c r="S67" s="557"/>
-      <c r="T67" s="557"/>
+      <c r="J67" s="618"/>
+      <c r="K67" s="628"/>
+      <c r="L67" s="615"/>
+      <c r="M67" s="554"/>
+      <c r="N67" s="554"/>
+      <c r="O67" s="554"/>
+      <c r="P67" s="554"/>
+      <c r="Q67" s="554"/>
+      <c r="R67" s="554"/>
+      <c r="S67" s="554"/>
+      <c r="T67" s="554"/>
       <c r="V67" s="196"/>
       <c r="W67" s="196"/>
       <c r="X67" s="66"/>
@@ -13320,18 +13454,18 @@
       </c>
       <c r="I68" s="411"/>
       <c r="J68" s="411"/>
-      <c r="K68" s="607"/>
+      <c r="K68" s="602"/>
       <c r="L68" s="412">
         <v>250</v>
       </c>
-      <c r="M68" s="558"/>
-      <c r="N68" s="557"/>
-      <c r="O68" s="557"/>
-      <c r="P68" s="557"/>
-      <c r="Q68" s="557"/>
-      <c r="R68" s="557"/>
-      <c r="S68" s="557"/>
-      <c r="T68" s="557"/>
+      <c r="M68" s="554"/>
+      <c r="N68" s="554"/>
+      <c r="O68" s="554"/>
+      <c r="P68" s="554"/>
+      <c r="Q68" s="554"/>
+      <c r="R68" s="554"/>
+      <c r="S68" s="554"/>
+      <c r="T68" s="554"/>
       <c r="V68" s="196"/>
       <c r="W68" s="196"/>
       <c r="X68" s="66"/>
@@ -13422,18 +13556,18 @@
       </c>
       <c r="I69" s="393"/>
       <c r="J69" s="393"/>
-      <c r="K69" s="603"/>
+      <c r="K69" s="598"/>
       <c r="L69" s="394">
         <v>200</v>
       </c>
-      <c r="M69" s="558"/>
-      <c r="N69" s="557"/>
-      <c r="O69" s="557"/>
-      <c r="P69" s="557"/>
-      <c r="Q69" s="557"/>
-      <c r="R69" s="557"/>
-      <c r="S69" s="557"/>
-      <c r="T69" s="557"/>
+      <c r="M69" s="554"/>
+      <c r="N69" s="553"/>
+      <c r="O69" s="553"/>
+      <c r="P69" s="553"/>
+      <c r="Q69" s="553"/>
+      <c r="R69" s="553"/>
+      <c r="S69" s="553"/>
+      <c r="T69" s="553"/>
       <c r="V69" s="196"/>
       <c r="W69" s="196"/>
       <c r="X69" s="66"/>
@@ -13526,20 +13660,20 @@
       <c r="H70" s="458" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="610"/>
-      <c r="J70" s="642">
+      <c r="I70" s="605"/>
+      <c r="J70" s="636">
         <v>227</v>
       </c>
-      <c r="K70" s="643"/>
-      <c r="L70" s="641"/>
-      <c r="M70" s="558"/>
-      <c r="N70" s="557"/>
-      <c r="O70" s="557"/>
-      <c r="P70" s="557"/>
-      <c r="Q70" s="557"/>
-      <c r="R70" s="557"/>
-      <c r="S70" s="557"/>
-      <c r="T70" s="557"/>
+      <c r="K70" s="637"/>
+      <c r="L70" s="635"/>
+      <c r="M70" s="554"/>
+      <c r="N70" s="553"/>
+      <c r="O70" s="553"/>
+      <c r="P70" s="553"/>
+      <c r="Q70" s="553"/>
+      <c r="R70" s="553"/>
+      <c r="S70" s="553"/>
+      <c r="T70" s="553"/>
       <c r="V70" s="196"/>
       <c r="W70" s="196"/>
       <c r="X70" s="66"/>
@@ -13630,18 +13764,18 @@
       </c>
       <c r="I71" s="380"/>
       <c r="J71" s="380"/>
-      <c r="K71" s="602"/>
+      <c r="K71" s="597"/>
       <c r="L71" s="381">
         <v>11052</v>
       </c>
-      <c r="M71" s="560"/>
-      <c r="N71" s="558"/>
-      <c r="O71" s="558"/>
-      <c r="P71" s="558"/>
-      <c r="Q71" s="558"/>
-      <c r="R71" s="558"/>
-      <c r="S71" s="558"/>
-      <c r="T71" s="558"/>
+      <c r="M71" s="556"/>
+      <c r="N71" s="553"/>
+      <c r="O71" s="553"/>
+      <c r="P71" s="553"/>
+      <c r="Q71" s="553"/>
+      <c r="R71" s="553"/>
+      <c r="S71" s="553"/>
+      <c r="T71" s="553"/>
       <c r="V71" s="196"/>
       <c r="W71" s="196"/>
       <c r="X71" s="66"/>
@@ -13730,20 +13864,20 @@
       <c r="H72" s="329" t="s">
         <v>169</v>
       </c>
-      <c r="I72" s="592"/>
-      <c r="J72" s="623">
+      <c r="I72" s="587"/>
+      <c r="J72" s="617">
         <v>30</v>
       </c>
-      <c r="K72" s="632"/>
-      <c r="L72" s="644"/>
-      <c r="M72" s="559"/>
-      <c r="N72" s="558"/>
-      <c r="O72" s="558"/>
-      <c r="P72" s="558"/>
-      <c r="Q72" s="558"/>
-      <c r="R72" s="558"/>
-      <c r="S72" s="558"/>
-      <c r="T72" s="558"/>
+      <c r="K72" s="626"/>
+      <c r="L72" s="638"/>
+      <c r="M72" s="555"/>
+      <c r="N72" s="553"/>
+      <c r="O72" s="553"/>
+      <c r="P72" s="553"/>
+      <c r="Q72" s="553"/>
+      <c r="R72" s="553"/>
+      <c r="S72" s="553"/>
+      <c r="T72" s="553"/>
       <c r="V72" s="196"/>
       <c r="W72" s="196"/>
       <c r="X72" s="66"/>
@@ -13834,20 +13968,20 @@
       <c r="H73" s="329" t="s">
         <v>372</v>
       </c>
-      <c r="I73" s="592">
+      <c r="I73" s="587">
         <v>1000</v>
       </c>
       <c r="J73" s="276"/>
-      <c r="K73" s="633"/>
-      <c r="L73" s="644"/>
-      <c r="M73" s="559"/>
-      <c r="N73" s="558"/>
-      <c r="O73" s="558"/>
-      <c r="P73" s="558"/>
-      <c r="Q73" s="558"/>
-      <c r="R73" s="558"/>
-      <c r="S73" s="558"/>
-      <c r="T73" s="558"/>
+      <c r="K73" s="627"/>
+      <c r="L73" s="638"/>
+      <c r="M73" s="555"/>
+      <c r="N73" s="554"/>
+      <c r="O73" s="554"/>
+      <c r="P73" s="554"/>
+      <c r="Q73" s="554"/>
+      <c r="R73" s="554"/>
+      <c r="S73" s="554"/>
+      <c r="T73" s="554"/>
       <c r="V73" s="196"/>
       <c r="W73" s="196"/>
       <c r="X73" s="66"/>
@@ -13936,20 +14070,20 @@
       <c r="H74" s="329" t="s">
         <v>371</v>
       </c>
-      <c r="I74" s="592"/>
-      <c r="J74" s="624">
+      <c r="I74" s="587"/>
+      <c r="J74" s="618">
         <v>5097</v>
       </c>
-      <c r="K74" s="634"/>
-      <c r="L74" s="644"/>
-      <c r="M74" s="559"/>
-      <c r="N74" s="558"/>
-      <c r="O74" s="558"/>
-      <c r="P74" s="558"/>
-      <c r="Q74" s="558"/>
-      <c r="R74" s="558"/>
-      <c r="S74" s="558"/>
-      <c r="T74" s="558"/>
+      <c r="K74" s="628"/>
+      <c r="L74" s="638"/>
+      <c r="M74" s="555"/>
+      <c r="N74" s="554"/>
+      <c r="O74" s="554"/>
+      <c r="P74" s="554"/>
+      <c r="Q74" s="554"/>
+      <c r="R74" s="554"/>
+      <c r="S74" s="554"/>
+      <c r="T74" s="554"/>
       <c r="V74" s="196"/>
       <c r="W74" s="196"/>
       <c r="X74" s="66"/>
@@ -14034,18 +14168,18 @@
       </c>
       <c r="I75" s="411"/>
       <c r="J75" s="411"/>
-      <c r="K75" s="607"/>
+      <c r="K75" s="602"/>
       <c r="L75" s="412">
         <v>450</v>
       </c>
-      <c r="M75" s="558"/>
-      <c r="N75" s="560"/>
-      <c r="O75" s="560"/>
-      <c r="P75" s="560"/>
-      <c r="Q75" s="560"/>
-      <c r="R75" s="560"/>
-      <c r="S75" s="560"/>
-      <c r="T75" s="560"/>
+      <c r="M75" s="554"/>
+      <c r="N75" s="554"/>
+      <c r="O75" s="554"/>
+      <c r="P75" s="554"/>
+      <c r="Q75" s="554"/>
+      <c r="R75" s="554"/>
+      <c r="S75" s="554"/>
+      <c r="T75" s="554"/>
       <c r="V75" s="196"/>
       <c r="W75" s="196"/>
       <c r="X75" s="66"/>
@@ -14136,20 +14270,20 @@
         <v>43430</v>
       </c>
       <c r="H76" s="334"/>
-      <c r="I76" s="595">
+      <c r="I76" s="590">
         <v>500</v>
       </c>
-      <c r="J76" s="642"/>
-      <c r="K76" s="643"/>
-      <c r="L76" s="645"/>
-      <c r="M76" s="559"/>
-      <c r="N76" s="559"/>
-      <c r="O76" s="559"/>
-      <c r="P76" s="559"/>
-      <c r="Q76" s="559"/>
-      <c r="R76" s="559"/>
-      <c r="S76" s="559"/>
-      <c r="T76" s="559"/>
+      <c r="J76" s="636"/>
+      <c r="K76" s="637"/>
+      <c r="L76" s="639"/>
+      <c r="M76" s="555"/>
+      <c r="N76" s="554"/>
+      <c r="O76" s="554"/>
+      <c r="P76" s="554"/>
+      <c r="Q76" s="554"/>
+      <c r="R76" s="554"/>
+      <c r="S76" s="554"/>
+      <c r="T76" s="554"/>
       <c r="V76" s="196"/>
       <c r="W76" s="196"/>
       <c r="X76" s="66"/>
@@ -14238,18 +14372,18 @@
       </c>
       <c r="I77" s="535"/>
       <c r="J77" s="535"/>
-      <c r="K77" s="611"/>
+      <c r="K77" s="606"/>
       <c r="L77" s="517">
         <v>10650</v>
       </c>
-      <c r="M77" s="560"/>
-      <c r="N77" s="559"/>
-      <c r="O77" s="559"/>
-      <c r="P77" s="559"/>
-      <c r="Q77" s="559"/>
-      <c r="R77" s="559"/>
-      <c r="S77" s="559"/>
-      <c r="T77" s="559"/>
+      <c r="M77" s="556"/>
+      <c r="N77" s="556"/>
+      <c r="O77" s="556"/>
+      <c r="P77" s="556"/>
+      <c r="Q77" s="556"/>
+      <c r="R77" s="556"/>
+      <c r="S77" s="556"/>
+      <c r="T77" s="556"/>
       <c r="V77" s="196"/>
       <c r="W77" s="196"/>
       <c r="X77" s="66"/>
@@ -14330,20 +14464,20 @@
         <v>43437</v>
       </c>
       <c r="H78" s="329"/>
-      <c r="I78" s="592">
+      <c r="I78" s="587">
         <v>1000</v>
       </c>
-      <c r="J78" s="623"/>
-      <c r="K78" s="632"/>
-      <c r="L78" s="636"/>
-      <c r="M78" s="559"/>
-      <c r="N78" s="559"/>
-      <c r="O78" s="559"/>
-      <c r="P78" s="559"/>
-      <c r="Q78" s="559"/>
-      <c r="R78" s="559"/>
-      <c r="S78" s="559"/>
-      <c r="T78" s="559"/>
+      <c r="J78" s="617"/>
+      <c r="K78" s="626"/>
+      <c r="L78" s="630"/>
+      <c r="M78" s="555"/>
+      <c r="N78" s="555"/>
+      <c r="O78" s="555"/>
+      <c r="P78" s="555"/>
+      <c r="Q78" s="555"/>
+      <c r="R78" s="555"/>
+      <c r="S78" s="555"/>
+      <c r="T78" s="555"/>
       <c r="V78" s="196"/>
       <c r="W78" s="196"/>
       <c r="X78" s="66"/>
@@ -14422,20 +14556,20 @@
         <v>43437</v>
       </c>
       <c r="H79" s="348"/>
-      <c r="I79" s="598"/>
-      <c r="J79" s="624">
+      <c r="I79" s="593"/>
+      <c r="J79" s="618">
         <v>560</v>
       </c>
-      <c r="K79" s="634"/>
-      <c r="L79" s="646"/>
-      <c r="M79" s="559"/>
-      <c r="N79" s="558"/>
-      <c r="O79" s="558"/>
-      <c r="P79" s="558"/>
-      <c r="Q79" s="558"/>
-      <c r="R79" s="558"/>
-      <c r="S79" s="558"/>
-      <c r="T79" s="558"/>
+      <c r="K79" s="628"/>
+      <c r="L79" s="640"/>
+      <c r="M79" s="555"/>
+      <c r="N79" s="555"/>
+      <c r="O79" s="555"/>
+      <c r="P79" s="555"/>
+      <c r="Q79" s="555"/>
+      <c r="R79" s="555"/>
+      <c r="S79" s="555"/>
+      <c r="T79" s="555"/>
       <c r="V79" s="196"/>
       <c r="W79" s="196"/>
       <c r="X79" s="66"/>
@@ -14516,18 +14650,18 @@
       </c>
       <c r="I80" s="411"/>
       <c r="J80" s="411"/>
-      <c r="K80" s="607"/>
+      <c r="K80" s="602"/>
       <c r="L80" s="412">
         <v>450</v>
       </c>
-      <c r="M80" s="558"/>
-      <c r="N80" s="559"/>
-      <c r="O80" s="559"/>
-      <c r="P80" s="559"/>
-      <c r="Q80" s="559"/>
-      <c r="R80" s="559"/>
-      <c r="S80" s="559"/>
-      <c r="T80" s="559"/>
+      <c r="M80" s="554"/>
+      <c r="N80" s="555"/>
+      <c r="O80" s="555"/>
+      <c r="P80" s="555"/>
+      <c r="Q80" s="555"/>
+      <c r="R80" s="555"/>
+      <c r="S80" s="555"/>
+      <c r="T80" s="555"/>
       <c r="V80" s="196"/>
       <c r="W80" s="196"/>
       <c r="X80" s="66"/>
@@ -14616,20 +14750,20 @@
       <c r="H81" s="531" t="s">
         <v>154</v>
       </c>
-      <c r="I81" s="612"/>
-      <c r="J81" s="623">
+      <c r="I81" s="607"/>
+      <c r="J81" s="617">
         <v>200</v>
       </c>
-      <c r="K81" s="632"/>
-      <c r="L81" s="647"/>
-      <c r="M81" s="558"/>
-      <c r="N81" s="560"/>
-      <c r="O81" s="560"/>
-      <c r="P81" s="560"/>
-      <c r="Q81" s="560"/>
-      <c r="R81" s="560"/>
-      <c r="S81" s="560"/>
-      <c r="T81" s="560"/>
+      <c r="K81" s="626"/>
+      <c r="L81" s="641"/>
+      <c r="M81" s="554"/>
+      <c r="N81" s="554"/>
+      <c r="O81" s="554"/>
+      <c r="P81" s="554"/>
+      <c r="Q81" s="554"/>
+      <c r="R81" s="554"/>
+      <c r="S81" s="554"/>
+      <c r="T81" s="554"/>
       <c r="V81" s="196"/>
       <c r="W81" s="196"/>
       <c r="X81" s="66"/>
@@ -14718,20 +14852,20 @@
       <c r="H82" s="531" t="s">
         <v>420</v>
       </c>
-      <c r="I82" s="612"/>
-      <c r="J82" s="648">
+      <c r="I82" s="607"/>
+      <c r="J82" s="642">
         <v>85</v>
       </c>
-      <c r="K82" s="649"/>
-      <c r="L82" s="647"/>
-      <c r="M82" s="558"/>
-      <c r="N82" s="559"/>
-      <c r="O82" s="559"/>
-      <c r="P82" s="559"/>
-      <c r="Q82" s="559"/>
-      <c r="R82" s="559"/>
-      <c r="S82" s="559"/>
-      <c r="T82" s="559"/>
+      <c r="K82" s="643"/>
+      <c r="L82" s="641"/>
+      <c r="M82" s="554"/>
+      <c r="N82" s="555"/>
+      <c r="O82" s="555"/>
+      <c r="P82" s="555"/>
+      <c r="Q82" s="555"/>
+      <c r="R82" s="555"/>
+      <c r="S82" s="555"/>
+      <c r="T82" s="555"/>
       <c r="V82" s="196"/>
       <c r="W82" s="196"/>
       <c r="X82" s="66"/>
@@ -14816,20 +14950,20 @@
         <v>43441</v>
       </c>
       <c r="H83" s="329"/>
-      <c r="I83" s="592"/>
+      <c r="I83" s="587"/>
       <c r="J83" s="276"/>
-      <c r="K83" s="633"/>
-      <c r="L83" s="620">
+      <c r="K83" s="627"/>
+      <c r="L83" s="614">
         <v>3000</v>
       </c>
-      <c r="M83" s="558"/>
-      <c r="N83" s="559"/>
-      <c r="O83" s="559"/>
-      <c r="P83" s="559"/>
-      <c r="Q83" s="559"/>
-      <c r="R83" s="559"/>
-      <c r="S83" s="559"/>
-      <c r="T83" s="559"/>
+      <c r="M83" s="554"/>
+      <c r="N83" s="556"/>
+      <c r="O83" s="556"/>
+      <c r="P83" s="556"/>
+      <c r="Q83" s="556"/>
+      <c r="R83" s="556"/>
+      <c r="S83" s="556"/>
+      <c r="T83" s="556"/>
       <c r="V83" s="196"/>
       <c r="W83" s="196"/>
       <c r="X83" s="66"/>
@@ -14910,20 +15044,20 @@
         <v>43442</v>
       </c>
       <c r="H84" s="348"/>
-      <c r="I84" s="598"/>
-      <c r="J84" s="624">
+      <c r="I84" s="593"/>
+      <c r="J84" s="618">
         <v>178</v>
       </c>
-      <c r="K84" s="634"/>
-      <c r="L84" s="629"/>
-      <c r="M84" s="558"/>
-      <c r="N84" s="558"/>
-      <c r="O84" s="558"/>
-      <c r="P84" s="558"/>
-      <c r="Q84" s="558"/>
-      <c r="R84" s="558"/>
-      <c r="S84" s="558"/>
-      <c r="T84" s="558"/>
+      <c r="K84" s="628"/>
+      <c r="L84" s="623"/>
+      <c r="M84" s="554"/>
+      <c r="N84" s="555"/>
+      <c r="O84" s="555"/>
+      <c r="P84" s="555"/>
+      <c r="Q84" s="555"/>
+      <c r="R84" s="555"/>
+      <c r="S84" s="555"/>
+      <c r="T84" s="555"/>
       <c r="V84" s="196"/>
       <c r="W84" s="196"/>
       <c r="X84" s="66"/>
@@ -15010,18 +15144,18 @@
       </c>
       <c r="I85" s="411"/>
       <c r="J85" s="411"/>
-      <c r="K85" s="607"/>
+      <c r="K85" s="602"/>
       <c r="L85" s="412">
         <v>300</v>
       </c>
-      <c r="M85" s="558"/>
-      <c r="N85" s="558"/>
-      <c r="O85" s="558"/>
-      <c r="P85" s="558"/>
-      <c r="Q85" s="558"/>
-      <c r="R85" s="558"/>
-      <c r="S85" s="558"/>
-      <c r="T85" s="558"/>
+      <c r="M85" s="554"/>
+      <c r="N85" s="555"/>
+      <c r="O85" s="555"/>
+      <c r="P85" s="555"/>
+      <c r="Q85" s="555"/>
+      <c r="R85" s="555"/>
+      <c r="S85" s="555"/>
+      <c r="T85" s="555"/>
       <c r="V85" s="196"/>
       <c r="W85" s="196"/>
       <c r="X85" s="66"/>
@@ -15108,20 +15242,20 @@
       <c r="H86" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="I86" s="595"/>
-      <c r="J86" s="650">
+      <c r="I86" s="590"/>
+      <c r="J86" s="644">
         <v>30</v>
       </c>
-      <c r="K86" s="651"/>
-      <c r="L86" s="622"/>
-      <c r="M86" s="558"/>
-      <c r="N86" s="558"/>
-      <c r="O86" s="558"/>
-      <c r="P86" s="558"/>
-      <c r="Q86" s="558"/>
-      <c r="R86" s="558"/>
-      <c r="S86" s="558"/>
-      <c r="T86" s="558"/>
+      <c r="K86" s="645"/>
+      <c r="L86" s="616"/>
+      <c r="M86" s="554"/>
+      <c r="N86" s="554"/>
+      <c r="O86" s="554"/>
+      <c r="P86" s="554"/>
+      <c r="Q86" s="554"/>
+      <c r="R86" s="554"/>
+      <c r="S86" s="554"/>
+      <c r="T86" s="554"/>
       <c r="V86" s="196"/>
       <c r="W86" s="196"/>
       <c r="X86" s="66"/>
@@ -15204,20 +15338,20 @@
       <c r="H87" s="334" t="s">
         <v>428</v>
       </c>
-      <c r="I87" s="595"/>
-      <c r="J87" s="652">
+      <c r="I87" s="590"/>
+      <c r="J87" s="646">
         <v>51</v>
       </c>
-      <c r="K87" s="653"/>
-      <c r="L87" s="622"/>
-      <c r="M87" s="558"/>
-      <c r="N87" s="558"/>
-      <c r="O87" s="558"/>
-      <c r="P87" s="558"/>
-      <c r="Q87" s="558"/>
-      <c r="R87" s="558"/>
-      <c r="S87" s="558"/>
-      <c r="T87" s="558"/>
+      <c r="K87" s="647"/>
+      <c r="L87" s="616"/>
+      <c r="M87" s="554"/>
+      <c r="N87" s="554"/>
+      <c r="O87" s="554"/>
+      <c r="P87" s="554"/>
+      <c r="Q87" s="554"/>
+      <c r="R87" s="554"/>
+      <c r="S87" s="554"/>
+      <c r="T87" s="554"/>
       <c r="V87" s="196"/>
       <c r="W87" s="196"/>
       <c r="X87" s="66"/>
@@ -15303,18 +15437,18 @@
       </c>
       <c r="I88" s="543"/>
       <c r="J88" s="543"/>
-      <c r="K88" s="613"/>
+      <c r="K88" s="608"/>
       <c r="L88" s="517">
         <v>11826.22</v>
       </c>
-      <c r="M88" s="560"/>
-      <c r="N88" s="558"/>
-      <c r="O88" s="558"/>
-      <c r="P88" s="558"/>
-      <c r="Q88" s="558"/>
-      <c r="R88" s="558"/>
-      <c r="S88" s="558"/>
-      <c r="T88" s="558"/>
+      <c r="M88" s="556"/>
+      <c r="N88" s="554"/>
+      <c r="O88" s="554"/>
+      <c r="P88" s="554"/>
+      <c r="Q88" s="554"/>
+      <c r="R88" s="554"/>
+      <c r="S88" s="554"/>
+      <c r="T88" s="554"/>
       <c r="V88" s="196"/>
       <c r="W88" s="196"/>
       <c r="X88" s="66"/>
@@ -15396,20 +15530,20 @@
       <c r="H89" s="544" t="s">
         <v>430</v>
       </c>
-      <c r="I89" s="592"/>
-      <c r="J89" s="623">
+      <c r="I89" s="587"/>
+      <c r="J89" s="617">
         <v>91</v>
       </c>
-      <c r="K89" s="632"/>
-      <c r="L89" s="584"/>
-      <c r="M89" s="558"/>
-      <c r="N89" s="558"/>
-      <c r="O89" s="558"/>
-      <c r="P89" s="558"/>
-      <c r="Q89" s="558"/>
-      <c r="R89" s="558"/>
-      <c r="S89" s="558"/>
-      <c r="T89" s="558"/>
+      <c r="K89" s="626"/>
+      <c r="L89" s="579"/>
+      <c r="M89" s="554"/>
+      <c r="N89" s="554"/>
+      <c r="O89" s="554"/>
+      <c r="P89" s="554"/>
+      <c r="Q89" s="554"/>
+      <c r="R89" s="554"/>
+      <c r="S89" s="554"/>
+      <c r="T89" s="554"/>
       <c r="V89" s="196"/>
       <c r="W89" s="196"/>
       <c r="X89" s="66"/>
@@ -15499,20 +15633,20 @@
       <c r="H90" s="544" t="s">
         <v>429</v>
       </c>
-      <c r="I90" s="592"/>
-      <c r="J90" s="656">
+      <c r="I90" s="587"/>
+      <c r="J90" s="650">
         <v>106</v>
       </c>
-      <c r="K90" s="657"/>
-      <c r="L90" s="584"/>
-      <c r="M90" s="558"/>
-      <c r="N90" s="558"/>
-      <c r="O90" s="558"/>
-      <c r="P90" s="558"/>
-      <c r="Q90" s="558"/>
-      <c r="R90" s="558"/>
-      <c r="S90" s="558"/>
-      <c r="T90" s="558"/>
+      <c r="K90" s="651"/>
+      <c r="L90" s="579"/>
+      <c r="M90" s="554"/>
+      <c r="N90" s="554"/>
+      <c r="O90" s="554"/>
+      <c r="P90" s="554"/>
+      <c r="Q90" s="554"/>
+      <c r="R90" s="554"/>
+      <c r="S90" s="554"/>
+      <c r="T90" s="554"/>
       <c r="V90" s="196"/>
       <c r="W90" s="196"/>
       <c r="X90" s="66"/>
@@ -15600,26 +15734,26 @@
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
-      <c r="G91" s="551">
+      <c r="G91" s="547">
         <v>43448</v>
       </c>
-      <c r="H91" s="552" t="s">
+      <c r="H91" s="548" t="s">
         <v>445</v>
       </c>
-      <c r="I91" s="654"/>
-      <c r="J91" s="656">
+      <c r="I91" s="648"/>
+      <c r="J91" s="650">
         <v>666</v>
       </c>
-      <c r="K91" s="657"/>
-      <c r="L91" s="655"/>
-      <c r="M91" s="558"/>
-      <c r="N91" s="558"/>
-      <c r="O91" s="558"/>
-      <c r="P91" s="558"/>
-      <c r="Q91" s="558"/>
-      <c r="R91" s="558"/>
-      <c r="S91" s="558"/>
-      <c r="T91" s="558"/>
+      <c r="K91" s="651"/>
+      <c r="L91" s="649"/>
+      <c r="M91" s="554"/>
+      <c r="N91" s="554"/>
+      <c r="O91" s="554"/>
+      <c r="P91" s="554"/>
+      <c r="Q91" s="554"/>
+      <c r="R91" s="554"/>
+      <c r="S91" s="554"/>
+      <c r="T91" s="554"/>
       <c r="V91" s="196"/>
       <c r="W91" s="196"/>
       <c r="X91" s="66"/>
@@ -15707,26 +15841,26 @@
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
-      <c r="G92" s="551">
+      <c r="G92" s="547">
         <v>43449</v>
       </c>
-      <c r="H92" s="552" t="s">
+      <c r="H92" s="548" t="s">
         <v>446</v>
       </c>
-      <c r="I92" s="654"/>
-      <c r="J92" s="656">
+      <c r="I92" s="648"/>
+      <c r="J92" s="650">
         <v>100</v>
       </c>
-      <c r="K92" s="657"/>
-      <c r="L92" s="655"/>
-      <c r="M92" s="558"/>
-      <c r="N92" s="560"/>
-      <c r="O92" s="560"/>
-      <c r="P92" s="560"/>
-      <c r="Q92" s="560"/>
-      <c r="R92" s="560"/>
-      <c r="S92" s="560"/>
-      <c r="T92" s="560"/>
+      <c r="K92" s="651"/>
+      <c r="L92" s="649"/>
+      <c r="M92" s="554"/>
+      <c r="N92" s="554"/>
+      <c r="O92" s="554"/>
+      <c r="P92" s="554"/>
+      <c r="Q92" s="554"/>
+      <c r="R92" s="554"/>
+      <c r="S92" s="554"/>
+      <c r="T92" s="554"/>
       <c r="V92" s="196"/>
       <c r="W92" s="196"/>
       <c r="X92" s="66"/>
@@ -15806,26 +15940,26 @@
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
-      <c r="G93" s="551">
+      <c r="G93" s="547">
         <v>43449</v>
       </c>
-      <c r="H93" s="552" t="s">
+      <c r="H93" s="548" t="s">
         <v>447</v>
       </c>
-      <c r="I93" s="654"/>
-      <c r="J93" s="656">
+      <c r="I93" s="648"/>
+      <c r="J93" s="650">
         <v>42</v>
       </c>
-      <c r="K93" s="657"/>
-      <c r="L93" s="655"/>
-      <c r="M93" s="558"/>
-      <c r="N93" s="558"/>
-      <c r="O93" s="558"/>
-      <c r="P93" s="558"/>
-      <c r="Q93" s="558"/>
-      <c r="R93" s="558"/>
-      <c r="S93" s="558"/>
-      <c r="T93" s="558"/>
+      <c r="K93" s="651"/>
+      <c r="L93" s="649"/>
+      <c r="M93" s="554"/>
+      <c r="N93" s="554"/>
+      <c r="O93" s="554"/>
+      <c r="P93" s="554"/>
+      <c r="Q93" s="554"/>
+      <c r="R93" s="554"/>
+      <c r="S93" s="554"/>
+      <c r="T93" s="554"/>
       <c r="V93" s="196"/>
       <c r="W93" s="196"/>
       <c r="X93" s="66"/>
@@ -15915,26 +16049,26 @@
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
-      <c r="G94" s="551">
+      <c r="G94" s="679">
         <v>43449</v>
       </c>
-      <c r="H94" s="552" t="s">
+      <c r="H94" s="680" t="s">
         <v>448</v>
       </c>
-      <c r="I94" s="654"/>
-      <c r="J94" s="658">
+      <c r="I94" s="681"/>
+      <c r="J94" s="682">
         <v>113</v>
       </c>
-      <c r="K94" s="659"/>
-      <c r="L94" s="655"/>
-      <c r="M94" s="558"/>
-      <c r="N94" s="558"/>
-      <c r="O94" s="558"/>
-      <c r="P94" s="558"/>
-      <c r="Q94" s="558"/>
-      <c r="R94" s="558"/>
-      <c r="S94" s="558"/>
-      <c r="T94" s="558"/>
+      <c r="K94" s="683"/>
+      <c r="L94" s="684"/>
+      <c r="M94" s="554"/>
+      <c r="N94" s="556"/>
+      <c r="O94" s="556"/>
+      <c r="P94" s="556"/>
+      <c r="Q94" s="556"/>
+      <c r="R94" s="556"/>
+      <c r="S94" s="556"/>
+      <c r="T94" s="556"/>
       <c r="V94" s="196"/>
       <c r="W94" s="196"/>
       <c r="X94" s="66"/>
@@ -16018,26 +16152,26 @@
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
-      <c r="G95" s="547">
+      <c r="G95" s="409">
         <v>43451</v>
       </c>
-      <c r="H95" s="548" t="s">
+      <c r="H95" s="410" t="s">
         <v>364</v>
       </c>
-      <c r="I95" s="549"/>
-      <c r="J95" s="549"/>
-      <c r="K95" s="614"/>
-      <c r="L95" s="550">
+      <c r="I95" s="411"/>
+      <c r="J95" s="411"/>
+      <c r="K95" s="602"/>
+      <c r="L95" s="412">
         <v>300</v>
       </c>
-      <c r="M95" s="558"/>
-      <c r="N95" s="558"/>
-      <c r="O95" s="558"/>
-      <c r="P95" s="558"/>
-      <c r="Q95" s="558"/>
-      <c r="R95" s="558"/>
-      <c r="S95" s="558"/>
-      <c r="T95" s="558"/>
+      <c r="M95" s="554"/>
+      <c r="N95" s="554"/>
+      <c r="O95" s="554"/>
+      <c r="P95" s="554"/>
+      <c r="Q95" s="554"/>
+      <c r="R95" s="554"/>
+      <c r="S95" s="554"/>
+      <c r="T95" s="554"/>
       <c r="V95" s="196"/>
       <c r="W95" s="196"/>
       <c r="X95" s="66"/>
@@ -16115,26 +16249,26 @@
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
-      <c r="G96" s="541">
+      <c r="G96" s="330">
         <v>43453</v>
       </c>
-      <c r="H96" s="542" t="s">
+      <c r="H96" s="331" t="s">
         <v>184</v>
       </c>
-      <c r="I96" s="543"/>
-      <c r="J96" s="543"/>
-      <c r="K96" s="613"/>
-      <c r="L96" s="517">
+      <c r="I96" s="332"/>
+      <c r="J96" s="332"/>
+      <c r="K96" s="589"/>
+      <c r="L96" s="333">
         <v>10502</v>
       </c>
-      <c r="M96" s="560"/>
-      <c r="N96" s="558"/>
-      <c r="O96" s="558"/>
-      <c r="P96" s="558"/>
-      <c r="Q96" s="558"/>
-      <c r="R96" s="558"/>
-      <c r="S96" s="558"/>
-      <c r="T96" s="558"/>
+      <c r="M96" s="556"/>
+      <c r="N96" s="554"/>
+      <c r="O96" s="554"/>
+      <c r="P96" s="554"/>
+      <c r="Q96" s="554"/>
+      <c r="R96" s="554"/>
+      <c r="S96" s="554"/>
+      <c r="T96" s="554"/>
       <c r="V96" s="196"/>
       <c r="W96" s="196"/>
       <c r="X96" s="66"/>
@@ -16220,20 +16354,26 @@
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="57"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="58"/>
-      <c r="L97" s="65"/>
+      <c r="G97" s="685">
+        <v>43455</v>
+      </c>
+      <c r="H97" s="686" t="s">
+        <v>471</v>
+      </c>
+      <c r="I97" s="687">
+        <v>20000</v>
+      </c>
+      <c r="J97" s="688"/>
+      <c r="K97" s="688"/>
+      <c r="L97" s="689"/>
       <c r="M97" s="69"/>
-      <c r="N97" s="558"/>
-      <c r="O97" s="558"/>
-      <c r="P97" s="558"/>
-      <c r="Q97" s="558"/>
-      <c r="R97" s="558"/>
-      <c r="S97" s="558"/>
-      <c r="T97" s="558"/>
+      <c r="N97" s="554"/>
+      <c r="O97" s="554"/>
+      <c r="P97" s="554"/>
+      <c r="Q97" s="554"/>
+      <c r="R97" s="554"/>
+      <c r="S97" s="554"/>
+      <c r="T97" s="554"/>
       <c r="V97" s="196"/>
       <c r="W97" s="196"/>
       <c r="X97" s="66"/>
@@ -16315,20 +16455,26 @@
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="57"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58"/>
-      <c r="L98" s="65"/>
+      <c r="G98" s="727">
+        <v>43460</v>
+      </c>
+      <c r="H98" s="674" t="s">
+        <v>475</v>
+      </c>
+      <c r="I98" s="677">
+        <v>1000</v>
+      </c>
+      <c r="J98" s="675"/>
+      <c r="K98" s="675"/>
+      <c r="L98" s="676"/>
       <c r="M98" s="69"/>
-      <c r="N98" s="558"/>
-      <c r="O98" s="558"/>
-      <c r="P98" s="558"/>
-      <c r="Q98" s="558"/>
-      <c r="R98" s="558"/>
-      <c r="S98" s="558"/>
-      <c r="T98" s="558"/>
+      <c r="N98" s="554"/>
+      <c r="O98" s="554"/>
+      <c r="P98" s="554"/>
+      <c r="Q98" s="554"/>
+      <c r="R98" s="554"/>
+      <c r="S98" s="554"/>
+      <c r="T98" s="554"/>
       <c r="V98" s="196"/>
       <c r="W98" s="196"/>
       <c r="X98" s="66"/>
@@ -16419,13 +16565,13 @@
       <c r="K99" s="58"/>
       <c r="L99" s="65"/>
       <c r="M99" s="69"/>
-      <c r="N99" s="558"/>
-      <c r="O99" s="558"/>
-      <c r="P99" s="558"/>
-      <c r="Q99" s="558"/>
-      <c r="R99" s="558"/>
-      <c r="S99" s="558"/>
-      <c r="T99" s="558"/>
+      <c r="N99" s="554"/>
+      <c r="O99" s="554"/>
+      <c r="P99" s="554"/>
+      <c r="Q99" s="554"/>
+      <c r="R99" s="554"/>
+      <c r="S99" s="554"/>
+      <c r="T99" s="554"/>
       <c r="V99" s="196"/>
       <c r="W99" s="196"/>
       <c r="X99" s="66"/>
@@ -16520,13 +16666,13 @@
       <c r="K100" s="58"/>
       <c r="L100" s="65"/>
       <c r="M100" s="69"/>
-      <c r="N100" s="560"/>
-      <c r="O100" s="560"/>
-      <c r="P100" s="560"/>
-      <c r="Q100" s="560"/>
-      <c r="R100" s="560"/>
-      <c r="S100" s="560"/>
-      <c r="T100" s="560"/>
+      <c r="N100" s="554"/>
+      <c r="O100" s="554"/>
+      <c r="P100" s="554"/>
+      <c r="Q100" s="554"/>
+      <c r="R100" s="554"/>
+      <c r="S100" s="554"/>
+      <c r="T100" s="554"/>
       <c r="V100" s="196"/>
       <c r="W100" s="196"/>
       <c r="X100" s="66"/>
@@ -16625,13 +16771,13 @@
       <c r="K101" s="58"/>
       <c r="L101" s="65"/>
       <c r="M101" s="69"/>
-      <c r="N101" s="69"/>
-      <c r="O101" s="69"/>
-      <c r="P101" s="69"/>
-      <c r="Q101" s="69"/>
-      <c r="R101" s="69"/>
-      <c r="S101" s="69"/>
-      <c r="T101" s="69"/>
+      <c r="N101" s="554"/>
+      <c r="O101" s="554"/>
+      <c r="P101" s="554"/>
+      <c r="Q101" s="554"/>
+      <c r="R101" s="554"/>
+      <c r="S101" s="554"/>
+      <c r="T101" s="554"/>
       <c r="V101" s="196"/>
       <c r="W101" s="196"/>
       <c r="X101" s="66"/>
@@ -16730,13 +16876,13 @@
       <c r="K102" s="58"/>
       <c r="L102" s="65"/>
       <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="69"/>
-      <c r="R102" s="69"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="69"/>
+      <c r="N102" s="556"/>
+      <c r="O102" s="556"/>
+      <c r="P102" s="556"/>
+      <c r="Q102" s="556"/>
+      <c r="R102" s="556"/>
+      <c r="S102" s="556"/>
+      <c r="T102" s="556"/>
       <c r="V102" s="196"/>
       <c r="W102" s="196"/>
       <c r="X102" s="66"/>
@@ -17938,19 +18084,31 @@
       <c r="AO114" s="230"/>
       <c r="AP114" s="232">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-20240</v>
       </c>
       <c r="AQ114" s="235"/>
-      <c r="AR114" s="236"/>
-      <c r="AS114" s="84"/>
+      <c r="AR114" s="236">
+        <v>50</v>
+      </c>
+      <c r="AS114" s="84" t="s">
+        <v>473</v>
+      </c>
       <c r="AT114" s="251">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU114" s="260"/>
-      <c r="AV114" s="255"/>
-      <c r="AW114" s="291"/>
-      <c r="AX114" s="215"/>
+        <v>20290</v>
+      </c>
+      <c r="AU114" s="260">
+        <v>290</v>
+      </c>
+      <c r="AV114" s="255" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW114" s="291" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX114" s="218">
+        <v>20000</v>
+      </c>
       <c r="AY114" s="215"/>
       <c r="AZ114" s="215"/>
       <c r="BA114" s="215"/>
@@ -17967,10 +18125,12 @@
       <c r="BI114" s="84"/>
       <c r="BJ114" s="260"/>
       <c r="BK114" s="215"/>
-      <c r="BL114" s="226"/>
+      <c r="BL114" s="226">
+        <v>4</v>
+      </c>
       <c r="BM114" s="277">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BN114" s="142"/>
       <c r="BO114" s="283">
@@ -18027,17 +18187,21 @@
       <c r="AO115" s="230"/>
       <c r="AP115" s="232">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-154.5</v>
       </c>
       <c r="AQ115" s="235"/>
       <c r="AR115" s="236"/>
       <c r="AS115" s="84"/>
       <c r="AT115" s="251">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU115" s="260"/>
-      <c r="AV115" s="255"/>
+        <v>154.5</v>
+      </c>
+      <c r="AU115" s="260">
+        <v>154.5</v>
+      </c>
+      <c r="AV115" s="255" t="s">
+        <v>476</v>
+      </c>
       <c r="AW115" s="291"/>
       <c r="AX115" s="215"/>
       <c r="AY115" s="215"/>
@@ -18056,10 +18220,12 @@
       <c r="BI115" s="84"/>
       <c r="BJ115" s="260"/>
       <c r="BK115" s="215"/>
-      <c r="BL115" s="226"/>
+      <c r="BL115" s="226">
+        <v>2</v>
+      </c>
       <c r="BM115" s="277">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BN115" s="142"/>
       <c r="BO115" s="283">
@@ -18173,13 +18339,13 @@
       <c r="K117" s="58"/>
       <c r="L117" s="65"/>
       <c r="M117" s="65"/>
-      <c r="N117" s="65"/>
-      <c r="O117" s="65"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="65"/>
-      <c r="R117" s="65"/>
-      <c r="S117" s="65"/>
-      <c r="T117" s="65"/>
+      <c r="N117" s="69"/>
+      <c r="O117" s="69"/>
+      <c r="P117" s="69"/>
+      <c r="Q117" s="69"/>
+      <c r="R117" s="69"/>
+      <c r="S117" s="69"/>
+      <c r="T117" s="69"/>
       <c r="V117" s="196"/>
       <c r="W117" s="196"/>
       <c r="X117" s="66"/>
@@ -18262,13 +18428,13 @@
       <c r="K118" s="58"/>
       <c r="L118" s="65"/>
       <c r="M118" s="65"/>
-      <c r="N118" s="65"/>
-      <c r="O118" s="65"/>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="65"/>
-      <c r="R118" s="65"/>
-      <c r="S118" s="65"/>
-      <c r="T118" s="65"/>
+      <c r="N118" s="69"/>
+      <c r="O118" s="69"/>
+      <c r="P118" s="69"/>
+      <c r="Q118" s="69"/>
+      <c r="R118" s="69"/>
+      <c r="S118" s="69"/>
+      <c r="T118" s="69"/>
       <c r="V118" s="196"/>
       <c r="W118" s="196"/>
       <c r="X118" s="66"/>
@@ -18380,17 +18546,19 @@
       <c r="AN119" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="AO119" s="230"/>
+      <c r="AO119" s="230" t="s">
+        <v>477</v>
+      </c>
       <c r="AP119" s="232">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AQ119" s="235"/>
       <c r="AR119" s="236"/>
       <c r="AS119" s="84"/>
       <c r="AT119" s="251">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AU119" s="260"/>
       <c r="AV119" s="255"/>
@@ -18407,9 +18575,11 @@
       <c r="BG119" s="226"/>
       <c r="BH119" s="283">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BI119" s="84"/>
+        <v>50</v>
+      </c>
+      <c r="BI119" s="84">
+        <v>50</v>
+      </c>
       <c r="BJ119" s="260"/>
       <c r="BK119" s="215"/>
       <c r="BL119" s="226"/>
@@ -20959,16 +21129,16 @@
       <c r="S154" s="65"/>
       <c r="T154" s="65"/>
       <c r="U154" s="196"/>
-      <c r="V154" s="166"/>
-      <c r="W154" s="166"/>
-      <c r="X154" s="70"/>
-      <c r="Y154" s="70"/>
-      <c r="Z154" s="70"/>
-      <c r="AA154" s="166"/>
-      <c r="AB154" s="166"/>
-      <c r="AC154" s="70"/>
-      <c r="AD154" s="70"/>
-      <c r="AE154" s="70"/>
+      <c r="V154" s="196"/>
+      <c r="W154" s="196"/>
+      <c r="X154" s="66"/>
+      <c r="Y154" s="66"/>
+      <c r="Z154" s="66"/>
+      <c r="AA154" s="196"/>
+      <c r="AB154" s="196"/>
+      <c r="AC154" s="117"/>
+      <c r="AD154" s="69"/>
+      <c r="AE154" s="118"/>
       <c r="AG154" s="66"/>
       <c r="AH154" s="40"/>
       <c r="AI154" s="40"/>
@@ -21476,13 +21646,13 @@
       <c r="K164" s="68"/>
       <c r="L164" s="69"/>
       <c r="M164" s="69"/>
-      <c r="N164" s="69"/>
-      <c r="O164" s="69"/>
-      <c r="P164" s="69"/>
-      <c r="Q164" s="69"/>
-      <c r="R164" s="69"/>
-      <c r="S164" s="69"/>
-      <c r="T164" s="69"/>
+      <c r="N164" s="65"/>
+      <c r="O164" s="65"/>
+      <c r="P164" s="65"/>
+      <c r="Q164" s="65"/>
+      <c r="R164" s="65"/>
+      <c r="S164" s="65"/>
+      <c r="T164" s="65"/>
       <c r="X164" s="70"/>
       <c r="Y164" s="70"/>
       <c r="Z164" s="70"/>
@@ -21526,13 +21696,13 @@
       <c r="K165" s="68"/>
       <c r="L165" s="69"/>
       <c r="M165" s="69"/>
-      <c r="N165" s="69"/>
-      <c r="O165" s="69"/>
-      <c r="P165" s="69"/>
-      <c r="Q165" s="69"/>
-      <c r="R165" s="69"/>
-      <c r="S165" s="69"/>
-      <c r="T165" s="69"/>
+      <c r="N165" s="65"/>
+      <c r="O165" s="65"/>
+      <c r="P165" s="65"/>
+      <c r="Q165" s="65"/>
+      <c r="R165" s="65"/>
+      <c r="S165" s="65"/>
+      <c r="T165" s="65"/>
       <c r="X165" s="70"/>
       <c r="Y165" s="70"/>
       <c r="Z165" s="70"/>
@@ -21976,13 +22146,13 @@
       <c r="K174" s="68"/>
       <c r="L174" s="70"/>
       <c r="M174" s="70"/>
-      <c r="N174" s="70"/>
-      <c r="O174" s="70"/>
-      <c r="P174" s="70"/>
-      <c r="Q174" s="70"/>
-      <c r="R174" s="70"/>
-      <c r="S174" s="70"/>
-      <c r="T174" s="70"/>
+      <c r="N174" s="69"/>
+      <c r="O174" s="69"/>
+      <c r="P174" s="69"/>
+      <c r="Q174" s="69"/>
+      <c r="R174" s="69"/>
+      <c r="S174" s="69"/>
+      <c r="T174" s="69"/>
       <c r="X174" s="70"/>
       <c r="Y174" s="70"/>
       <c r="Z174" s="70"/>
@@ -22026,13 +22196,13 @@
       <c r="K175" s="68"/>
       <c r="L175" s="70"/>
       <c r="M175" s="70"/>
-      <c r="N175" s="70"/>
-      <c r="O175" s="70"/>
-      <c r="P175" s="70"/>
-      <c r="Q175" s="70"/>
-      <c r="R175" s="70"/>
-      <c r="S175" s="70"/>
-      <c r="T175" s="70"/>
+      <c r="N175" s="69"/>
+      <c r="O175" s="69"/>
+      <c r="P175" s="69"/>
+      <c r="Q175" s="69"/>
+      <c r="R175" s="69"/>
+      <c r="S175" s="69"/>
+      <c r="T175" s="69"/>
       <c r="X175" s="70"/>
       <c r="Y175" s="70"/>
       <c r="Z175" s="70"/>
@@ -32945,16 +33115,12 @@
       <c r="R393" s="70"/>
       <c r="S393" s="70"/>
       <c r="T393" s="70"/>
-      <c r="V393" s="164"/>
-      <c r="W393" s="164"/>
-      <c r="X393" s="59"/>
-      <c r="Y393" s="59"/>
-      <c r="Z393" s="59"/>
-      <c r="AA393" s="164"/>
-      <c r="AB393" s="164"/>
-      <c r="AC393" s="119"/>
-      <c r="AD393" s="65"/>
-      <c r="AE393" s="120"/>
+      <c r="X393" s="70"/>
+      <c r="Y393" s="70"/>
+      <c r="Z393" s="70"/>
+      <c r="AC393" s="70"/>
+      <c r="AD393" s="70"/>
+      <c r="AE393" s="70"/>
       <c r="AG393" s="70"/>
       <c r="AH393" s="41"/>
       <c r="AI393" s="41"/>
@@ -33812,7 +33978,7 @@
       <c r="Y403" s="59"/>
       <c r="Z403" s="59"/>
       <c r="AC403" s="119"/>
-      <c r="AD403" s="59"/>
+      <c r="AD403" s="65"/>
       <c r="AE403" s="120"/>
       <c r="AG403" s="59"/>
       <c r="AH403" s="39"/>
@@ -34691,13 +34857,13 @@
       <c r="K413" s="58"/>
       <c r="L413" s="59"/>
       <c r="M413" s="59"/>
-      <c r="N413" s="59"/>
-      <c r="O413" s="59"/>
-      <c r="P413" s="59"/>
-      <c r="Q413" s="59"/>
-      <c r="R413" s="59"/>
-      <c r="S413" s="59"/>
-      <c r="T413" s="59"/>
+      <c r="N413" s="70"/>
+      <c r="O413" s="70"/>
+      <c r="P413" s="70"/>
+      <c r="Q413" s="70"/>
+      <c r="R413" s="70"/>
+      <c r="S413" s="70"/>
+      <c r="T413" s="70"/>
       <c r="X413" s="59"/>
       <c r="Y413" s="59"/>
       <c r="Z413" s="59"/>
@@ -34780,13 +34946,13 @@
       <c r="K414" s="58"/>
       <c r="L414" s="59"/>
       <c r="M414" s="59"/>
-      <c r="N414" s="59"/>
-      <c r="O414" s="59"/>
-      <c r="P414" s="59"/>
-      <c r="Q414" s="59"/>
-      <c r="R414" s="59"/>
-      <c r="S414" s="59"/>
-      <c r="T414" s="59"/>
+      <c r="N414" s="70"/>
+      <c r="O414" s="70"/>
+      <c r="P414" s="70"/>
+      <c r="Q414" s="70"/>
+      <c r="R414" s="70"/>
+      <c r="S414" s="70"/>
+      <c r="T414" s="70"/>
       <c r="X414" s="59"/>
       <c r="Y414" s="59"/>
       <c r="Z414" s="59"/>
@@ -35504,7 +35670,7 @@
       <c r="Z422" s="59"/>
       <c r="AC422" s="119"/>
       <c r="AD422" s="59"/>
-      <c r="AE422" s="59"/>
+      <c r="AE422" s="120"/>
       <c r="AG422" s="59"/>
       <c r="AH422" s="39"/>
       <c r="AI422" s="39"/>
@@ -37460,7 +37626,7 @@
       <c r="X444" s="59"/>
       <c r="Y444" s="59"/>
       <c r="Z444" s="59"/>
-      <c r="AC444" s="59"/>
+      <c r="AC444" s="119"/>
       <c r="AD444" s="59"/>
       <c r="AE444" s="59"/>
       <c r="AG444" s="59"/>
@@ -40594,7 +40760,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V481" s="164"/>
+      <c r="W481" s="164"/>
+      <c r="X481" s="59"/>
+      <c r="Y481" s="59"/>
+      <c r="Z481" s="59"/>
+      <c r="AA481" s="164"/>
+      <c r="AB481" s="164"/>
       <c r="AM481" s="4"/>
       <c r="AN481" s="4"/>
       <c r="AO481" s="5"/>
@@ -40651,7 +40824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM482" s="4"/>
       <c r="AN482" s="4"/>
       <c r="AO482" s="5"/>
@@ -40708,7 +40881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM483" s="4"/>
       <c r="AN483" s="4"/>
       <c r="AO483" s="5"/>
@@ -40765,7 +40938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM484" s="4"/>
       <c r="AN484" s="4"/>
       <c r="AO484" s="5"/>
@@ -40822,7 +40995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM485" s="4"/>
       <c r="AN485" s="4"/>
       <c r="AO485" s="5"/>
@@ -40879,7 +41052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM486" s="4"/>
       <c r="AN486" s="4"/>
       <c r="AO486" s="5"/>
@@ -40936,7 +41109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM487" s="4"/>
       <c r="AN487" s="4"/>
       <c r="AO487" s="5"/>
@@ -40993,7 +41166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM488" s="4"/>
       <c r="AN488" s="4"/>
       <c r="AO488" s="5"/>
@@ -41050,7 +41223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM489" s="4"/>
       <c r="AN489" s="4"/>
       <c r="AO489" s="5"/>
@@ -41107,7 +41280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM490" s="4"/>
       <c r="AN490" s="4"/>
       <c r="AO490" s="5"/>
@@ -41164,7 +41337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM491" s="4"/>
       <c r="AN491" s="4"/>
       <c r="AO491" s="5"/>
@@ -41221,7 +41394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM492" s="4"/>
       <c r="AN492" s="4"/>
       <c r="AO492" s="5"/>
@@ -41278,7 +41451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM493" s="4"/>
       <c r="AN493" s="4"/>
       <c r="AO493" s="5"/>
@@ -41335,7 +41508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM494" s="4"/>
       <c r="AN494" s="4"/>
       <c r="AO494" s="5"/>
@@ -41392,7 +41565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM495" s="4"/>
       <c r="AN495" s="4"/>
       <c r="AO495" s="5"/>
@@ -41449,7 +41622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="39:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="22:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AM496" s="4"/>
       <c r="AN496" s="4"/>
       <c r="AO496" s="5"/>
@@ -48057,13 +48230,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AP1:BP1"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AH40:AI40"/>
     <mergeCell ref="N9:T9"/>
     <mergeCell ref="N11:P11"/>
@@ -48080,6 +48246,13 @@
     <mergeCell ref="AG35:AJ35"/>
     <mergeCell ref="AH29:AI29"/>
     <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AP1:BP1"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
